--- a/Product Language Matrix/Smart_Availability_Matrix.xlsx
+++ b/Product Language Matrix/Smart_Availability_Matrix.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E141"/>
+  <dimension ref="A1:E351"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -560,7 +560,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E2">
@@ -586,7 +586,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Support</t>
         </is>
       </c>
       <c r="E3">
@@ -612,7 +612,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Full Support</t>
         </is>
       </c>
       <c r="E4">
@@ -664,7 +664,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Full Support</t>
         </is>
       </c>
       <c r="E6">
@@ -690,7 +690,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Full Support</t>
         </is>
       </c>
       <c r="E7">
@@ -732,7 +732,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>NLP Services</t>
+          <t>Redaction</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -742,7 +742,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Limited Support</t>
         </is>
       </c>
       <c r="E9">
@@ -758,7 +758,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>NLP Services</t>
+          <t>Redaction</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -768,7 +768,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E10">
@@ -784,7 +784,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>NLP Services</t>
+          <t>Redaction</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -794,7 +794,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Full Support</t>
         </is>
       </c>
       <c r="E11">
@@ -810,7 +810,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>NLP Services</t>
+          <t>Redaction</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -836,7 +836,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>NLP Services</t>
+          <t>Redaction</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -862,7 +862,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>NLP Services</t>
+          <t>Redaction</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -872,7 +872,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Full Support</t>
         </is>
       </c>
       <c r="E14">
@@ -888,7 +888,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>NLP Services</t>
+          <t>Redaction</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -898,7 +898,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E15">
@@ -914,7 +914,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Gen AI Services</t>
+          <t>Conversation Facts</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -940,7 +940,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Gen AI Services</t>
+          <t>Conversation Facts</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -966,7 +966,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Gen AI Services</t>
+          <t>Conversation Facts</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -976,7 +976,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Full Support</t>
         </is>
       </c>
       <c r="E18">
@@ -992,7 +992,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Gen AI Services</t>
+          <t>Conversation Facts</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1002,7 +1002,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Limited Support</t>
         </is>
       </c>
       <c r="E19">
@@ -1018,7 +1018,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Gen AI Services</t>
+          <t>Conversation Facts</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1028,7 +1028,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E20">
@@ -1044,7 +1044,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Gen AI Services</t>
+          <t>Conversation Facts</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1070,7 +1070,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Gen AI Services</t>
+          <t>Conversation Facts</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1080,7 +1080,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Limited Support</t>
         </is>
       </c>
       <c r="E22">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>KaaS/PKaaS</t>
+          <t>Gen AI Disposition</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1106,7 +1106,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E23">
@@ -1122,7 +1122,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>KaaS/PKaaS</t>
+          <t>Gen AI Disposition</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1148,7 +1148,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>KaaS/PKaaS</t>
+          <t>Gen AI Disposition</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1158,7 +1158,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E25">
@@ -1174,7 +1174,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>KaaS/PKaaS</t>
+          <t>Gen AI Disposition</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1184,7 +1184,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Full Support</t>
         </is>
       </c>
       <c r="E26">
@@ -1200,7 +1200,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>KaaS/PKaaS</t>
+          <t>Gen AI Disposition</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Limited Support</t>
         </is>
       </c>
       <c r="E27">
@@ -1226,7 +1226,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>KaaS/PKaaS</t>
+          <t>Gen AI Disposition</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1252,7 +1252,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>KaaS/PKaaS</t>
+          <t>Gen AI Disposition</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1262,7 +1262,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E29">
@@ -1273,12 +1273,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Europe</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ASR</t>
+          <t>ITN</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1299,12 +1299,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Europe</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ASR</t>
+          <t>ITN</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1314,7 +1314,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E31">
@@ -1325,12 +1325,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Europe</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>ASR</t>
+          <t>ITN</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1351,12 +1351,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Europe</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ASR</t>
+          <t>ITN</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1366,7 +1366,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Limited Support</t>
         </is>
       </c>
       <c r="E33">
@@ -1377,12 +1377,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Europe</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>ASR</t>
+          <t>ITN</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1392,7 +1392,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E34">
@@ -1403,12 +1403,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Europe</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>ASR</t>
+          <t>ITN</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1429,12 +1429,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Europe</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>ASR</t>
+          <t>ITN</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1455,12 +1455,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Europe</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>NLP Services</t>
+          <t>Intent (UniFit)</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1481,12 +1481,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Europe</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>NLP Services</t>
+          <t>Intent (UniFit)</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1496,7 +1496,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Limited Support</t>
         </is>
       </c>
       <c r="E38">
@@ -1507,12 +1507,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Europe</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>NLP Services</t>
+          <t>Intent (UniFit)</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1522,7 +1522,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Full Support</t>
         </is>
       </c>
       <c r="E39">
@@ -1533,12 +1533,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Europe</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>NLP Services</t>
+          <t>Intent (UniFit)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1559,12 +1559,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Europe</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>NLP Services</t>
+          <t>Intent (UniFit)</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1585,12 +1585,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Europe</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>NLP Services</t>
+          <t>Intent (UniFit)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1600,7 +1600,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Limited Support</t>
         </is>
       </c>
       <c r="E42">
@@ -1611,12 +1611,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Europe</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>NLP Services</t>
+          <t>Intent (UniFit)</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1637,12 +1637,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Europe</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Gen AI Services</t>
+          <t>Entity (NER/Spacy)</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1652,7 +1652,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Support</t>
         </is>
       </c>
       <c r="E44">
@@ -1663,12 +1663,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Europe</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Gen AI Services</t>
+          <t>Entity (NER/Spacy)</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1678,7 +1678,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E45">
@@ -1689,12 +1689,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Europe</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Gen AI Services</t>
+          <t>Entity (NER/Spacy)</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1704,7 +1704,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E46">
@@ -1715,12 +1715,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Europe</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Gen AI Services</t>
+          <t>Entity (NER/Spacy)</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1741,12 +1741,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Europe</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Gen AI Services</t>
+          <t>Entity (NER/Spacy)</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1767,12 +1767,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Europe</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Gen AI Services</t>
+          <t>Entity (NER/Spacy)</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1782,7 +1782,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Full Support</t>
         </is>
       </c>
       <c r="E49">
@@ -1793,12 +1793,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Europe</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Gen AI Services</t>
+          <t>Entity (NER/Spacy)</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1819,12 +1819,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Europe</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>KaaS/PKaaS</t>
+          <t>Gen AI Summary</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1834,7 +1834,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Full Support</t>
         </is>
       </c>
       <c r="E51">
@@ -1845,12 +1845,12 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Europe</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>KaaS/PKaaS</t>
+          <t>Gen AI Summary</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1860,7 +1860,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Full Support</t>
         </is>
       </c>
       <c r="E52">
@@ -1871,12 +1871,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Europe</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>KaaS/PKaaS</t>
+          <t>Gen AI Summary</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1886,7 +1886,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Full Support</t>
         </is>
       </c>
       <c r="E53">
@@ -1897,12 +1897,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Europe</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>KaaS/PKaaS</t>
+          <t>Gen AI Summary</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1923,12 +1923,12 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Europe</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>KaaS/PKaaS</t>
+          <t>Gen AI Summary</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1949,12 +1949,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Europe</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>KaaS/PKaaS</t>
+          <t>Gen AI Summary</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1964,7 +1964,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E56">
@@ -1975,12 +1975,12 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Europe</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>KaaS/PKaaS</t>
+          <t>Gen AI Summary</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1990,7 +1990,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E57">
@@ -2001,12 +2001,12 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>UAE</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>ASR</t>
+          <t>Pro-active Service</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2027,12 +2027,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>UAE</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>ASR</t>
+          <t>Pro-active Service</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2042,7 +2042,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E59">
@@ -2053,12 +2053,12 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>UAE</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>ASR</t>
+          <t>Pro-active Service</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2068,7 +2068,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E60">
@@ -2079,12 +2079,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>UAE</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>ASR</t>
+          <t>Pro-active Service</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2094,7 +2094,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E61">
@@ -2105,12 +2105,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>UAE</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>ASR</t>
+          <t>Pro-active Service</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2120,7 +2120,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Full Support</t>
         </is>
       </c>
       <c r="E62">
@@ -2131,12 +2131,12 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>UAE</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>ASR</t>
+          <t>Pro-active Service</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2146,7 +2146,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Full Support</t>
         </is>
       </c>
       <c r="E63">
@@ -2157,12 +2157,12 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>UAE</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>ASR</t>
+          <t>Pro-active Service</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2172,7 +2172,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E64">
@@ -2183,12 +2183,12 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>UAE</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>NLP Services</t>
+          <t>LLM</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2198,7 +2198,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E65">
@@ -2209,12 +2209,12 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>UAE</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>NLP Services</t>
+          <t>LLM</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2235,12 +2235,12 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>UAE</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>NLP Services</t>
+          <t>LLM</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2261,12 +2261,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>UAE</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>NLP Services</t>
+          <t>LLM</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2287,12 +2287,12 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>UAE</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>NLP Services</t>
+          <t>LLM</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2302,7 +2302,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Full Support</t>
         </is>
       </c>
       <c r="E69">
@@ -2313,12 +2313,12 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>UAE</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>NLP Services</t>
+          <t>LLM</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2328,7 +2328,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Full Support</t>
         </is>
       </c>
       <c r="E70">
@@ -2339,12 +2339,12 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>UAE</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>NLP Services</t>
+          <t>LLM</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2354,7 +2354,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Full Support</t>
         </is>
       </c>
       <c r="E71">
@@ -2365,12 +2365,12 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>UAE</t>
+          <t>Europe</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Gen AI Services</t>
+          <t>ASR</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2380,7 +2380,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Limited Support</t>
         </is>
       </c>
       <c r="E72">
@@ -2391,12 +2391,12 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>UAE</t>
+          <t>Europe</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Gen AI Services</t>
+          <t>ASR</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2406,7 +2406,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Support</t>
         </is>
       </c>
       <c r="E73">
@@ -2417,12 +2417,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>UAE</t>
+          <t>Europe</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Gen AI Services</t>
+          <t>ASR</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2432,7 +2432,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Full Support</t>
         </is>
       </c>
       <c r="E74">
@@ -2443,12 +2443,12 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>UAE</t>
+          <t>Europe</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Gen AI Services</t>
+          <t>ASR</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2458,7 +2458,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Full Support</t>
         </is>
       </c>
       <c r="E75">
@@ -2469,12 +2469,12 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>UAE</t>
+          <t>Europe</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Gen AI Services</t>
+          <t>ASR</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2495,12 +2495,12 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>UAE</t>
+          <t>Europe</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Gen AI Services</t>
+          <t>ASR</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2510,7 +2510,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E77">
@@ -2521,12 +2521,12 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>UAE</t>
+          <t>Europe</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Gen AI Services</t>
+          <t>ASR</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E78">
@@ -2547,12 +2547,12 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>UAE</t>
+          <t>Europe</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>KaaS/PKaaS</t>
+          <t>Redaction</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2562,7 +2562,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Full Support</t>
         </is>
       </c>
       <c r="E79">
@@ -2573,12 +2573,12 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>UAE</t>
+          <t>Europe</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>KaaS/PKaaS</t>
+          <t>Redaction</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -2588,7 +2588,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E80">
@@ -2599,12 +2599,12 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>UAE</t>
+          <t>Europe</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>KaaS/PKaaS</t>
+          <t>Redaction</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -2614,7 +2614,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E81">
@@ -2625,12 +2625,12 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>UAE</t>
+          <t>Europe</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>KaaS/PKaaS</t>
+          <t>Redaction</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -2640,7 +2640,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Limited Support</t>
         </is>
       </c>
       <c r="E82">
@@ -2651,12 +2651,12 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>UAE</t>
+          <t>Europe</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>KaaS/PKaaS</t>
+          <t>Redaction</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -2666,7 +2666,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Support</t>
         </is>
       </c>
       <c r="E83">
@@ -2677,12 +2677,12 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>UAE</t>
+          <t>Europe</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>KaaS/PKaaS</t>
+          <t>Redaction</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -2692,7 +2692,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Full Support</t>
         </is>
       </c>
       <c r="E84">
@@ -2703,12 +2703,12 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>UAE</t>
+          <t>Europe</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>KaaS/PKaaS</t>
+          <t>Redaction</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -2729,12 +2729,12 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>APAC</t>
+          <t>Europe</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>ASR</t>
+          <t>Conversation Facts</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -2744,7 +2744,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Full Support</t>
         </is>
       </c>
       <c r="E86">
@@ -2755,12 +2755,12 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>APAC</t>
+          <t>Europe</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>ASR</t>
+          <t>Conversation Facts</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -2770,7 +2770,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Full Support</t>
         </is>
       </c>
       <c r="E87">
@@ -2781,12 +2781,12 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>APAC</t>
+          <t>Europe</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>ASR</t>
+          <t>Conversation Facts</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -2807,12 +2807,12 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>APAC</t>
+          <t>Europe</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>ASR</t>
+          <t>Conversation Facts</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -2822,7 +2822,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E89">
@@ -2833,12 +2833,12 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>APAC</t>
+          <t>Europe</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>ASR</t>
+          <t>Conversation Facts</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -2848,7 +2848,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Full Support</t>
         </is>
       </c>
       <c r="E90">
@@ -2859,12 +2859,12 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>APAC</t>
+          <t>Europe</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>ASR</t>
+          <t>Conversation Facts</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -2885,12 +2885,12 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>APAC</t>
+          <t>Europe</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>ASR</t>
+          <t>Conversation Facts</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -2900,7 +2900,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Support</t>
         </is>
       </c>
       <c r="E92">
@@ -2911,12 +2911,12 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>APAC</t>
+          <t>Europe</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>NLP Services</t>
+          <t>Gen AI Disposition</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -2926,7 +2926,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E93">
@@ -2937,12 +2937,12 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>APAC</t>
+          <t>Europe</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>NLP Services</t>
+          <t>Gen AI Disposition</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -2952,7 +2952,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Limited Support</t>
         </is>
       </c>
       <c r="E94">
@@ -2963,12 +2963,12 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>APAC</t>
+          <t>Europe</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>NLP Services</t>
+          <t>Gen AI Disposition</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -2978,7 +2978,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Full Support</t>
         </is>
       </c>
       <c r="E95">
@@ -2989,12 +2989,12 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>APAC</t>
+          <t>Europe</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>NLP Services</t>
+          <t>Gen AI Disposition</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -3004,7 +3004,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E96">
@@ -3015,12 +3015,12 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>APAC</t>
+          <t>Europe</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>NLP Services</t>
+          <t>Gen AI Disposition</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -3030,7 +3030,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Full Support</t>
         </is>
       </c>
       <c r="E97">
@@ -3041,12 +3041,12 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>APAC</t>
+          <t>Europe</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>NLP Services</t>
+          <t>Gen AI Disposition</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -3056,7 +3056,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E98">
@@ -3067,12 +3067,12 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>APAC</t>
+          <t>Europe</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>NLP Services</t>
+          <t>Gen AI Disposition</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -3082,7 +3082,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Support</t>
         </is>
       </c>
       <c r="E99">
@@ -3093,12 +3093,12 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>APAC</t>
+          <t>Europe</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Gen AI Services</t>
+          <t>ITN</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -3108,7 +3108,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Full Support</t>
         </is>
       </c>
       <c r="E100">
@@ -3119,12 +3119,12 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>APAC</t>
+          <t>Europe</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Gen AI Services</t>
+          <t>ITN</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -3134,7 +3134,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Full Support</t>
         </is>
       </c>
       <c r="E101">
@@ -3145,12 +3145,12 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>APAC</t>
+          <t>Europe</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Gen AI Services</t>
+          <t>ITN</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -3171,12 +3171,12 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>APAC</t>
+          <t>Europe</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Gen AI Services</t>
+          <t>ITN</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -3186,7 +3186,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E103">
@@ -3197,12 +3197,12 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>APAC</t>
+          <t>Europe</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Gen AI Services</t>
+          <t>ITN</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -3212,7 +3212,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E104">
@@ -3223,12 +3223,12 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>APAC</t>
+          <t>Europe</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Gen AI Services</t>
+          <t>ITN</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -3238,7 +3238,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E105">
@@ -3249,12 +3249,12 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>APAC</t>
+          <t>Europe</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Gen AI Services</t>
+          <t>ITN</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -3264,7 +3264,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Full Support</t>
         </is>
       </c>
       <c r="E106">
@@ -3275,12 +3275,12 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>APAC</t>
+          <t>Europe</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>KaaS/PKaaS</t>
+          <t>Intent (UniFit)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -3290,7 +3290,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Full Support</t>
         </is>
       </c>
       <c r="E107">
@@ -3301,12 +3301,12 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>APAC</t>
+          <t>Europe</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>KaaS/PKaaS</t>
+          <t>Intent (UniFit)</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -3316,7 +3316,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Limited Support</t>
         </is>
       </c>
       <c r="E108">
@@ -3327,12 +3327,12 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>APAC</t>
+          <t>Europe</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>KaaS/PKaaS</t>
+          <t>Intent (UniFit)</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -3353,12 +3353,12 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>APAC</t>
+          <t>Europe</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>KaaS/PKaaS</t>
+          <t>Intent (UniFit)</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -3368,7 +3368,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Full Support</t>
         </is>
       </c>
       <c r="E110">
@@ -3379,12 +3379,12 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>APAC</t>
+          <t>Europe</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>KaaS/PKaaS</t>
+          <t>Intent (UniFit)</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -3394,7 +3394,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Full Support</t>
         </is>
       </c>
       <c r="E111">
@@ -3405,12 +3405,12 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>APAC</t>
+          <t>Europe</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>KaaS/PKaaS</t>
+          <t>Intent (UniFit)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -3431,12 +3431,12 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>APAC</t>
+          <t>Europe</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>KaaS/PKaaS</t>
+          <t>Intent (UniFit)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -3457,12 +3457,12 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Saudi</t>
+          <t>Europe</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>ASR</t>
+          <t>Entity (NER/Spacy)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -3472,7 +3472,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Full Support</t>
         </is>
       </c>
       <c r="E114">
@@ -3483,12 +3483,12 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Saudi</t>
+          <t>Europe</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>ASR</t>
+          <t>Entity (NER/Spacy)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -3509,12 +3509,12 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Saudi</t>
+          <t>Europe</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>ASR</t>
+          <t>Entity (NER/Spacy)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -3524,7 +3524,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Limited Support</t>
         </is>
       </c>
       <c r="E116">
@@ -3535,12 +3535,12 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Saudi</t>
+          <t>Europe</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>ASR</t>
+          <t>Entity (NER/Spacy)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -3550,7 +3550,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Limited Support</t>
         </is>
       </c>
       <c r="E117">
@@ -3561,12 +3561,12 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Saudi</t>
+          <t>Europe</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>ASR</t>
+          <t>Entity (NER/Spacy)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -3587,12 +3587,12 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Saudi</t>
+          <t>Europe</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>ASR</t>
+          <t>Entity (NER/Spacy)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -3613,12 +3613,12 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Saudi</t>
+          <t>Europe</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>ASR</t>
+          <t>Entity (NER/Spacy)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -3628,7 +3628,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E120">
@@ -3639,12 +3639,12 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Saudi</t>
+          <t>Europe</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>NLP Services</t>
+          <t>Gen AI Summary</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -3654,7 +3654,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Full Support</t>
         </is>
       </c>
       <c r="E121">
@@ -3665,12 +3665,12 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Saudi</t>
+          <t>Europe</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>NLP Services</t>
+          <t>Gen AI Summary</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -3691,12 +3691,12 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Saudi</t>
+          <t>Europe</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>NLP Services</t>
+          <t>Gen AI Summary</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -3706,7 +3706,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E123">
@@ -3717,12 +3717,12 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Saudi</t>
+          <t>Europe</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>NLP Services</t>
+          <t>Gen AI Summary</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -3732,7 +3732,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E124">
@@ -3743,12 +3743,12 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Saudi</t>
+          <t>Europe</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>NLP Services</t>
+          <t>Gen AI Summary</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -3769,12 +3769,12 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Saudi</t>
+          <t>Europe</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>NLP Services</t>
+          <t>Gen AI Summary</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Limited Support</t>
         </is>
       </c>
       <c r="E126">
@@ -3795,12 +3795,12 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Saudi</t>
+          <t>Europe</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>NLP Services</t>
+          <t>Gen AI Summary</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -3821,12 +3821,12 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Saudi</t>
+          <t>Europe</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Gen AI Services</t>
+          <t>Pro-active Service</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -3847,12 +3847,12 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Saudi</t>
+          <t>Europe</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Gen AI Services</t>
+          <t>Pro-active Service</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -3862,7 +3862,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E129">
@@ -3873,12 +3873,12 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Saudi</t>
+          <t>Europe</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Gen AI Services</t>
+          <t>Pro-active Service</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -3888,7 +3888,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Full Support</t>
         </is>
       </c>
       <c r="E130">
@@ -3899,12 +3899,12 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Saudi</t>
+          <t>Europe</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Gen AI Services</t>
+          <t>Pro-active Service</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -3914,7 +3914,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Limited Support</t>
         </is>
       </c>
       <c r="E131">
@@ -3925,12 +3925,12 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Saudi</t>
+          <t>Europe</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Gen AI Services</t>
+          <t>Pro-active Service</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -3951,12 +3951,12 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Saudi</t>
+          <t>Europe</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Gen AI Services</t>
+          <t>Pro-active Service</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -3966,7 +3966,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Limited Support</t>
         </is>
       </c>
       <c r="E133">
@@ -3977,12 +3977,12 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Saudi</t>
+          <t>Europe</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Gen AI Services</t>
+          <t>Pro-active Service</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -4003,12 +4003,12 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Saudi</t>
+          <t>Europe</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>KaaS/PKaaS</t>
+          <t>LLM</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -4018,7 +4018,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E135">
@@ -4029,12 +4029,12 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Saudi</t>
+          <t>Europe</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>KaaS/PKaaS</t>
+          <t>LLM</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -4044,7 +4044,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E136">
@@ -4055,12 +4055,12 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Saudi</t>
+          <t>Europe</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>KaaS/PKaaS</t>
+          <t>LLM</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -4070,7 +4070,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Full Support</t>
         </is>
       </c>
       <c r="E137">
@@ -4081,12 +4081,12 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Saudi</t>
+          <t>Europe</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>KaaS/PKaaS</t>
+          <t>LLM</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -4096,7 +4096,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Limited Support</t>
         </is>
       </c>
       <c r="E138">
@@ -4107,12 +4107,12 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Saudi</t>
+          <t>Europe</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>KaaS/PKaaS</t>
+          <t>LLM</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -4133,12 +4133,12 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Saudi</t>
+          <t>Europe</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>KaaS/PKaaS</t>
+          <t>LLM</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -4148,7 +4148,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E140">
@@ -4159,12 +4159,12 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Saudi</t>
+          <t>Europe</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>KaaS/PKaaS</t>
+          <t>LLM</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -4179,6 +4179,5466 @@
       </c>
       <c r="E141">
         <f>A141&amp;"|"&amp;B141&amp;"|"&amp;C141</f>
+        <v/>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>UAE</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>ASR</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>Not Supported</t>
+        </is>
+      </c>
+      <c r="E142">
+        <f>A142&amp;"|"&amp;B142&amp;"|"&amp;C142</f>
+        <v/>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>UAE</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>ASR</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Hindi</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>Full Support</t>
+        </is>
+      </c>
+      <c r="E143">
+        <f>A143&amp;"|"&amp;B143&amp;"|"&amp;C143</f>
+        <v/>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>UAE</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>ASR</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Spanish</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>Full Support</t>
+        </is>
+      </c>
+      <c r="E144">
+        <f>A144&amp;"|"&amp;B144&amp;"|"&amp;C144</f>
+        <v/>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>UAE</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>ASR</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>German</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>Full Support</t>
+        </is>
+      </c>
+      <c r="E145">
+        <f>A145&amp;"|"&amp;B145&amp;"|"&amp;C145</f>
+        <v/>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>UAE</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>ASR</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Arabic</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>Limited Support</t>
+        </is>
+      </c>
+      <c r="E146">
+        <f>A146&amp;"|"&amp;B146&amp;"|"&amp;C146</f>
+        <v/>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>UAE</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>ASR</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>French</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>Limited Support</t>
+        </is>
+      </c>
+      <c r="E147">
+        <f>A147&amp;"|"&amp;B147&amp;"|"&amp;C147</f>
+        <v/>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>UAE</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>ASR</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Italian</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>Not Supported</t>
+        </is>
+      </c>
+      <c r="E148">
+        <f>A148&amp;"|"&amp;B148&amp;"|"&amp;C148</f>
+        <v/>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>UAE</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Redaction</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>Full Support</t>
+        </is>
+      </c>
+      <c r="E149">
+        <f>A149&amp;"|"&amp;B149&amp;"|"&amp;C149</f>
+        <v/>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>UAE</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Redaction</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Hindi</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>Not Supported</t>
+        </is>
+      </c>
+      <c r="E150">
+        <f>A150&amp;"|"&amp;B150&amp;"|"&amp;C150</f>
+        <v/>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>UAE</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Redaction</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Spanish</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>Full Support</t>
+        </is>
+      </c>
+      <c r="E151">
+        <f>A151&amp;"|"&amp;B151&amp;"|"&amp;C151</f>
+        <v/>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>UAE</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Redaction</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>German</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>Not Supported</t>
+        </is>
+      </c>
+      <c r="E152">
+        <f>A152&amp;"|"&amp;B152&amp;"|"&amp;C152</f>
+        <v/>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>UAE</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Redaction</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Arabic</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>Limited Support</t>
+        </is>
+      </c>
+      <c r="E153">
+        <f>A153&amp;"|"&amp;B153&amp;"|"&amp;C153</f>
+        <v/>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>UAE</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Redaction</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>French</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>Limited Support</t>
+        </is>
+      </c>
+      <c r="E154">
+        <f>A154&amp;"|"&amp;B154&amp;"|"&amp;C154</f>
+        <v/>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>UAE</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Redaction</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Italian</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>Limited Support</t>
+        </is>
+      </c>
+      <c r="E155">
+        <f>A155&amp;"|"&amp;B155&amp;"|"&amp;C155</f>
+        <v/>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>UAE</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Conversation Facts</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>Full Support</t>
+        </is>
+      </c>
+      <c r="E156">
+        <f>A156&amp;"|"&amp;B156&amp;"|"&amp;C156</f>
+        <v/>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>UAE</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Conversation Facts</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Hindi</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>Full Support</t>
+        </is>
+      </c>
+      <c r="E157">
+        <f>A157&amp;"|"&amp;B157&amp;"|"&amp;C157</f>
+        <v/>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>UAE</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Conversation Facts</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Spanish</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>Full Support</t>
+        </is>
+      </c>
+      <c r="E158">
+        <f>A158&amp;"|"&amp;B158&amp;"|"&amp;C158</f>
+        <v/>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>UAE</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Conversation Facts</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>German</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>Full Support</t>
+        </is>
+      </c>
+      <c r="E159">
+        <f>A159&amp;"|"&amp;B159&amp;"|"&amp;C159</f>
+        <v/>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>UAE</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Conversation Facts</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Arabic</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>Limited Support</t>
+        </is>
+      </c>
+      <c r="E160">
+        <f>A160&amp;"|"&amp;B160&amp;"|"&amp;C160</f>
+        <v/>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>UAE</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Conversation Facts</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>French</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>Not Supported</t>
+        </is>
+      </c>
+      <c r="E161">
+        <f>A161&amp;"|"&amp;B161&amp;"|"&amp;C161</f>
+        <v/>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>UAE</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Conversation Facts</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Italian</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>Full Support</t>
+        </is>
+      </c>
+      <c r="E162">
+        <f>A162&amp;"|"&amp;B162&amp;"|"&amp;C162</f>
+        <v/>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>UAE</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Gen AI Disposition</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>Full Support</t>
+        </is>
+      </c>
+      <c r="E163">
+        <f>A163&amp;"|"&amp;B163&amp;"|"&amp;C163</f>
+        <v/>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>UAE</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Gen AI Disposition</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Hindi</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>Full Support</t>
+        </is>
+      </c>
+      <c r="E164">
+        <f>A164&amp;"|"&amp;B164&amp;"|"&amp;C164</f>
+        <v/>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>UAE</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Gen AI Disposition</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Spanish</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>Full Support</t>
+        </is>
+      </c>
+      <c r="E165">
+        <f>A165&amp;"|"&amp;B165&amp;"|"&amp;C165</f>
+        <v/>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>UAE</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Gen AI Disposition</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>German</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>Limited Support</t>
+        </is>
+      </c>
+      <c r="E166">
+        <f>A166&amp;"|"&amp;B166&amp;"|"&amp;C166</f>
+        <v/>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>UAE</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Gen AI Disposition</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Arabic</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>Full Support</t>
+        </is>
+      </c>
+      <c r="E167">
+        <f>A167&amp;"|"&amp;B167&amp;"|"&amp;C167</f>
+        <v/>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>UAE</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Gen AI Disposition</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>French</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>Not Supported</t>
+        </is>
+      </c>
+      <c r="E168">
+        <f>A168&amp;"|"&amp;B168&amp;"|"&amp;C168</f>
+        <v/>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>UAE</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Gen AI Disposition</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Italian</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>Full Support</t>
+        </is>
+      </c>
+      <c r="E169">
+        <f>A169&amp;"|"&amp;B169&amp;"|"&amp;C169</f>
+        <v/>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>UAE</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>ITN</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>Limited Support</t>
+        </is>
+      </c>
+      <c r="E170">
+        <f>A170&amp;"|"&amp;B170&amp;"|"&amp;C170</f>
+        <v/>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>UAE</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>ITN</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Hindi</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>Full Support</t>
+        </is>
+      </c>
+      <c r="E171">
+        <f>A171&amp;"|"&amp;B171&amp;"|"&amp;C171</f>
+        <v/>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>UAE</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>ITN</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Spanish</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>Full Support</t>
+        </is>
+      </c>
+      <c r="E172">
+        <f>A172&amp;"|"&amp;B172&amp;"|"&amp;C172</f>
+        <v/>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>UAE</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>ITN</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>German</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>Full Support</t>
+        </is>
+      </c>
+      <c r="E173">
+        <f>A173&amp;"|"&amp;B173&amp;"|"&amp;C173</f>
+        <v/>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>UAE</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>ITN</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Arabic</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>Limited Support</t>
+        </is>
+      </c>
+      <c r="E174">
+        <f>A174&amp;"|"&amp;B174&amp;"|"&amp;C174</f>
+        <v/>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>UAE</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>ITN</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>French</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>Not Supported</t>
+        </is>
+      </c>
+      <c r="E175">
+        <f>A175&amp;"|"&amp;B175&amp;"|"&amp;C175</f>
+        <v/>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>UAE</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>ITN</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Italian</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>Limited Support</t>
+        </is>
+      </c>
+      <c r="E176">
+        <f>A176&amp;"|"&amp;B176&amp;"|"&amp;C176</f>
+        <v/>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>UAE</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Intent (UniFit)</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>Limited Support</t>
+        </is>
+      </c>
+      <c r="E177">
+        <f>A177&amp;"|"&amp;B177&amp;"|"&amp;C177</f>
+        <v/>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>UAE</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Intent (UniFit)</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Hindi</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>Not Supported</t>
+        </is>
+      </c>
+      <c r="E178">
+        <f>A178&amp;"|"&amp;B178&amp;"|"&amp;C178</f>
+        <v/>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>UAE</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Intent (UniFit)</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Spanish</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>Not Supported</t>
+        </is>
+      </c>
+      <c r="E179">
+        <f>A179&amp;"|"&amp;B179&amp;"|"&amp;C179</f>
+        <v/>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>UAE</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Intent (UniFit)</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>German</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>Limited Support</t>
+        </is>
+      </c>
+      <c r="E180">
+        <f>A180&amp;"|"&amp;B180&amp;"|"&amp;C180</f>
+        <v/>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>UAE</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Intent (UniFit)</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Arabic</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>Limited Support</t>
+        </is>
+      </c>
+      <c r="E181">
+        <f>A181&amp;"|"&amp;B181&amp;"|"&amp;C181</f>
+        <v/>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>UAE</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Intent (UniFit)</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>French</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>Full Support</t>
+        </is>
+      </c>
+      <c r="E182">
+        <f>A182&amp;"|"&amp;B182&amp;"|"&amp;C182</f>
+        <v/>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>UAE</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Intent (UniFit)</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Italian</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>Full Support</t>
+        </is>
+      </c>
+      <c r="E183">
+        <f>A183&amp;"|"&amp;B183&amp;"|"&amp;C183</f>
+        <v/>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>UAE</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Entity (NER/Spacy)</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>Full Support</t>
+        </is>
+      </c>
+      <c r="E184">
+        <f>A184&amp;"|"&amp;B184&amp;"|"&amp;C184</f>
+        <v/>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>UAE</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Entity (NER/Spacy)</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Hindi</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>Full Support</t>
+        </is>
+      </c>
+      <c r="E185">
+        <f>A185&amp;"|"&amp;B185&amp;"|"&amp;C185</f>
+        <v/>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>UAE</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Entity (NER/Spacy)</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Spanish</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>Limited Support</t>
+        </is>
+      </c>
+      <c r="E186">
+        <f>A186&amp;"|"&amp;B186&amp;"|"&amp;C186</f>
+        <v/>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>UAE</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Entity (NER/Spacy)</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>German</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>Limited Support</t>
+        </is>
+      </c>
+      <c r="E187">
+        <f>A187&amp;"|"&amp;B187&amp;"|"&amp;C187</f>
+        <v/>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>UAE</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Entity (NER/Spacy)</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Arabic</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>Full Support</t>
+        </is>
+      </c>
+      <c r="E188">
+        <f>A188&amp;"|"&amp;B188&amp;"|"&amp;C188</f>
+        <v/>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>UAE</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Entity (NER/Spacy)</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>French</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>Limited Support</t>
+        </is>
+      </c>
+      <c r="E189">
+        <f>A189&amp;"|"&amp;B189&amp;"|"&amp;C189</f>
+        <v/>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>UAE</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Entity (NER/Spacy)</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Italian</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>Limited Support</t>
+        </is>
+      </c>
+      <c r="E190">
+        <f>A190&amp;"|"&amp;B190&amp;"|"&amp;C190</f>
+        <v/>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>UAE</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>Gen AI Summary</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>Full Support</t>
+        </is>
+      </c>
+      <c r="E191">
+        <f>A191&amp;"|"&amp;B191&amp;"|"&amp;C191</f>
+        <v/>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>UAE</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>Gen AI Summary</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Hindi</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>Full Support</t>
+        </is>
+      </c>
+      <c r="E192">
+        <f>A192&amp;"|"&amp;B192&amp;"|"&amp;C192</f>
+        <v/>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>UAE</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>Gen AI Summary</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Spanish</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>Full Support</t>
+        </is>
+      </c>
+      <c r="E193">
+        <f>A193&amp;"|"&amp;B193&amp;"|"&amp;C193</f>
+        <v/>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>UAE</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>Gen AI Summary</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>German</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>Limited Support</t>
+        </is>
+      </c>
+      <c r="E194">
+        <f>A194&amp;"|"&amp;B194&amp;"|"&amp;C194</f>
+        <v/>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>UAE</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>Gen AI Summary</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Arabic</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>Full Support</t>
+        </is>
+      </c>
+      <c r="E195">
+        <f>A195&amp;"|"&amp;B195&amp;"|"&amp;C195</f>
+        <v/>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>UAE</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Gen AI Summary</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>French</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>Full Support</t>
+        </is>
+      </c>
+      <c r="E196">
+        <f>A196&amp;"|"&amp;B196&amp;"|"&amp;C196</f>
+        <v/>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>UAE</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>Gen AI Summary</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>Italian</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>Full Support</t>
+        </is>
+      </c>
+      <c r="E197">
+        <f>A197&amp;"|"&amp;B197&amp;"|"&amp;C197</f>
+        <v/>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>UAE</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>Pro-active Service</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>Limited Support</t>
+        </is>
+      </c>
+      <c r="E198">
+        <f>A198&amp;"|"&amp;B198&amp;"|"&amp;C198</f>
+        <v/>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>UAE</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>Pro-active Service</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Hindi</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>Full Support</t>
+        </is>
+      </c>
+      <c r="E199">
+        <f>A199&amp;"|"&amp;B199&amp;"|"&amp;C199</f>
+        <v/>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>UAE</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>Pro-active Service</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Spanish</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>Not Supported</t>
+        </is>
+      </c>
+      <c r="E200">
+        <f>A200&amp;"|"&amp;B200&amp;"|"&amp;C200</f>
+        <v/>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>UAE</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Pro-active Service</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>German</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>Not Supported</t>
+        </is>
+      </c>
+      <c r="E201">
+        <f>A201&amp;"|"&amp;B201&amp;"|"&amp;C201</f>
+        <v/>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>UAE</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>Pro-active Service</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>Arabic</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>Full Support</t>
+        </is>
+      </c>
+      <c r="E202">
+        <f>A202&amp;"|"&amp;B202&amp;"|"&amp;C202</f>
+        <v/>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>UAE</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>Pro-active Service</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>French</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>Not Supported</t>
+        </is>
+      </c>
+      <c r="E203">
+        <f>A203&amp;"|"&amp;B203&amp;"|"&amp;C203</f>
+        <v/>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>UAE</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>Pro-active Service</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>Italian</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>Not Supported</t>
+        </is>
+      </c>
+      <c r="E204">
+        <f>A204&amp;"|"&amp;B204&amp;"|"&amp;C204</f>
+        <v/>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>UAE</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>LLM</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>Limited Support</t>
+        </is>
+      </c>
+      <c r="E205">
+        <f>A205&amp;"|"&amp;B205&amp;"|"&amp;C205</f>
+        <v/>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>UAE</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>LLM</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>Hindi</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>Not Supported</t>
+        </is>
+      </c>
+      <c r="E206">
+        <f>A206&amp;"|"&amp;B206&amp;"|"&amp;C206</f>
+        <v/>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>UAE</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>LLM</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>Spanish</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>Limited Support</t>
+        </is>
+      </c>
+      <c r="E207">
+        <f>A207&amp;"|"&amp;B207&amp;"|"&amp;C207</f>
+        <v/>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>UAE</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>LLM</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>German</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>Limited Support</t>
+        </is>
+      </c>
+      <c r="E208">
+        <f>A208&amp;"|"&amp;B208&amp;"|"&amp;C208</f>
+        <v/>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>UAE</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>LLM</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>Arabic</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>Full Support</t>
+        </is>
+      </c>
+      <c r="E209">
+        <f>A209&amp;"|"&amp;B209&amp;"|"&amp;C209</f>
+        <v/>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>UAE</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>LLM</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>French</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>Full Support</t>
+        </is>
+      </c>
+      <c r="E210">
+        <f>A210&amp;"|"&amp;B210&amp;"|"&amp;C210</f>
+        <v/>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>UAE</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>LLM</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>Italian</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>Not Supported</t>
+        </is>
+      </c>
+      <c r="E211">
+        <f>A211&amp;"|"&amp;B211&amp;"|"&amp;C211</f>
+        <v/>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>APAC</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>ASR</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>Not Supported</t>
+        </is>
+      </c>
+      <c r="E212">
+        <f>A212&amp;"|"&amp;B212&amp;"|"&amp;C212</f>
+        <v/>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>APAC</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>ASR</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>Hindi</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>Full Support</t>
+        </is>
+      </c>
+      <c r="E213">
+        <f>A213&amp;"|"&amp;B213&amp;"|"&amp;C213</f>
+        <v/>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>APAC</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>ASR</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>Spanish</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>Full Support</t>
+        </is>
+      </c>
+      <c r="E214">
+        <f>A214&amp;"|"&amp;B214&amp;"|"&amp;C214</f>
+        <v/>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>APAC</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>ASR</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>German</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>Limited Support</t>
+        </is>
+      </c>
+      <c r="E215">
+        <f>A215&amp;"|"&amp;B215&amp;"|"&amp;C215</f>
+        <v/>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>APAC</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>ASR</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>Arabic</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>Full Support</t>
+        </is>
+      </c>
+      <c r="E216">
+        <f>A216&amp;"|"&amp;B216&amp;"|"&amp;C216</f>
+        <v/>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>APAC</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>ASR</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>French</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>Not Supported</t>
+        </is>
+      </c>
+      <c r="E217">
+        <f>A217&amp;"|"&amp;B217&amp;"|"&amp;C217</f>
+        <v/>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>APAC</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>ASR</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>Italian</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>Limited Support</t>
+        </is>
+      </c>
+      <c r="E218">
+        <f>A218&amp;"|"&amp;B218&amp;"|"&amp;C218</f>
+        <v/>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>APAC</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>Redaction</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>Not Supported</t>
+        </is>
+      </c>
+      <c r="E219">
+        <f>A219&amp;"|"&amp;B219&amp;"|"&amp;C219</f>
+        <v/>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>APAC</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>Redaction</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>Hindi</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>Limited Support</t>
+        </is>
+      </c>
+      <c r="E220">
+        <f>A220&amp;"|"&amp;B220&amp;"|"&amp;C220</f>
+        <v/>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>APAC</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>Redaction</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>Spanish</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>Limited Support</t>
+        </is>
+      </c>
+      <c r="E221">
+        <f>A221&amp;"|"&amp;B221&amp;"|"&amp;C221</f>
+        <v/>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>APAC</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>Redaction</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>German</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>Full Support</t>
+        </is>
+      </c>
+      <c r="E222">
+        <f>A222&amp;"|"&amp;B222&amp;"|"&amp;C222</f>
+        <v/>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>APAC</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>Redaction</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>Arabic</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>Full Support</t>
+        </is>
+      </c>
+      <c r="E223">
+        <f>A223&amp;"|"&amp;B223&amp;"|"&amp;C223</f>
+        <v/>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>APAC</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>Redaction</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>French</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>Not Supported</t>
+        </is>
+      </c>
+      <c r="E224">
+        <f>A224&amp;"|"&amp;B224&amp;"|"&amp;C224</f>
+        <v/>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>APAC</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>Redaction</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>Italian</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>Full Support</t>
+        </is>
+      </c>
+      <c r="E225">
+        <f>A225&amp;"|"&amp;B225&amp;"|"&amp;C225</f>
+        <v/>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>APAC</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>Conversation Facts</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>Limited Support</t>
+        </is>
+      </c>
+      <c r="E226">
+        <f>A226&amp;"|"&amp;B226&amp;"|"&amp;C226</f>
+        <v/>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>APAC</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>Conversation Facts</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>Hindi</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>Full Support</t>
+        </is>
+      </c>
+      <c r="E227">
+        <f>A227&amp;"|"&amp;B227&amp;"|"&amp;C227</f>
+        <v/>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>APAC</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>Conversation Facts</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>Spanish</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>Full Support</t>
+        </is>
+      </c>
+      <c r="E228">
+        <f>A228&amp;"|"&amp;B228&amp;"|"&amp;C228</f>
+        <v/>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>APAC</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>Conversation Facts</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>German</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>Not Supported</t>
+        </is>
+      </c>
+      <c r="E229">
+        <f>A229&amp;"|"&amp;B229&amp;"|"&amp;C229</f>
+        <v/>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>APAC</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>Conversation Facts</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>Arabic</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>Full Support</t>
+        </is>
+      </c>
+      <c r="E230">
+        <f>A230&amp;"|"&amp;B230&amp;"|"&amp;C230</f>
+        <v/>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>APAC</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>Conversation Facts</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>French</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>Full Support</t>
+        </is>
+      </c>
+      <c r="E231">
+        <f>A231&amp;"|"&amp;B231&amp;"|"&amp;C231</f>
+        <v/>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>APAC</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>Conversation Facts</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>Italian</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>Full Support</t>
+        </is>
+      </c>
+      <c r="E232">
+        <f>A232&amp;"|"&amp;B232&amp;"|"&amp;C232</f>
+        <v/>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>APAC</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>Gen AI Disposition</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>Full Support</t>
+        </is>
+      </c>
+      <c r="E233">
+        <f>A233&amp;"|"&amp;B233&amp;"|"&amp;C233</f>
+        <v/>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>APAC</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>Gen AI Disposition</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>Hindi</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>Not Supported</t>
+        </is>
+      </c>
+      <c r="E234">
+        <f>A234&amp;"|"&amp;B234&amp;"|"&amp;C234</f>
+        <v/>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>APAC</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>Gen AI Disposition</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>Spanish</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>Full Support</t>
+        </is>
+      </c>
+      <c r="E235">
+        <f>A235&amp;"|"&amp;B235&amp;"|"&amp;C235</f>
+        <v/>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>APAC</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>Gen AI Disposition</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>German</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>Limited Support</t>
+        </is>
+      </c>
+      <c r="E236">
+        <f>A236&amp;"|"&amp;B236&amp;"|"&amp;C236</f>
+        <v/>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>APAC</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>Gen AI Disposition</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>Arabic</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>Not Supported</t>
+        </is>
+      </c>
+      <c r="E237">
+        <f>A237&amp;"|"&amp;B237&amp;"|"&amp;C237</f>
+        <v/>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>APAC</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>Gen AI Disposition</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>French</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>Limited Support</t>
+        </is>
+      </c>
+      <c r="E238">
+        <f>A238&amp;"|"&amp;B238&amp;"|"&amp;C238</f>
+        <v/>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>APAC</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>Gen AI Disposition</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>Italian</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>Not Supported</t>
+        </is>
+      </c>
+      <c r="E239">
+        <f>A239&amp;"|"&amp;B239&amp;"|"&amp;C239</f>
+        <v/>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>APAC</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>ITN</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>Not Supported</t>
+        </is>
+      </c>
+      <c r="E240">
+        <f>A240&amp;"|"&amp;B240&amp;"|"&amp;C240</f>
+        <v/>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>APAC</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>ITN</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>Hindi</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>Full Support</t>
+        </is>
+      </c>
+      <c r="E241">
+        <f>A241&amp;"|"&amp;B241&amp;"|"&amp;C241</f>
+        <v/>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>APAC</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>ITN</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>Spanish</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>Limited Support</t>
+        </is>
+      </c>
+      <c r="E242">
+        <f>A242&amp;"|"&amp;B242&amp;"|"&amp;C242</f>
+        <v/>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>APAC</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>ITN</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>German</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>Not Supported</t>
+        </is>
+      </c>
+      <c r="E243">
+        <f>A243&amp;"|"&amp;B243&amp;"|"&amp;C243</f>
+        <v/>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>APAC</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>ITN</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>Arabic</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>Not Supported</t>
+        </is>
+      </c>
+      <c r="E244">
+        <f>A244&amp;"|"&amp;B244&amp;"|"&amp;C244</f>
+        <v/>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>APAC</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>ITN</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>French</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>Not Supported</t>
+        </is>
+      </c>
+      <c r="E245">
+        <f>A245&amp;"|"&amp;B245&amp;"|"&amp;C245</f>
+        <v/>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>APAC</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>ITN</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>Italian</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>Limited Support</t>
+        </is>
+      </c>
+      <c r="E246">
+        <f>A246&amp;"|"&amp;B246&amp;"|"&amp;C246</f>
+        <v/>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>APAC</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>Intent (UniFit)</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>Limited Support</t>
+        </is>
+      </c>
+      <c r="E247">
+        <f>A247&amp;"|"&amp;B247&amp;"|"&amp;C247</f>
+        <v/>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>APAC</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>Intent (UniFit)</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>Hindi</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>Full Support</t>
+        </is>
+      </c>
+      <c r="E248">
+        <f>A248&amp;"|"&amp;B248&amp;"|"&amp;C248</f>
+        <v/>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>APAC</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>Intent (UniFit)</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>Spanish</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>Not Supported</t>
+        </is>
+      </c>
+      <c r="E249">
+        <f>A249&amp;"|"&amp;B249&amp;"|"&amp;C249</f>
+        <v/>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>APAC</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>Intent (UniFit)</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>German</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>Full Support</t>
+        </is>
+      </c>
+      <c r="E250">
+        <f>A250&amp;"|"&amp;B250&amp;"|"&amp;C250</f>
+        <v/>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>APAC</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>Intent (UniFit)</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>Arabic</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>Not Supported</t>
+        </is>
+      </c>
+      <c r="E251">
+        <f>A251&amp;"|"&amp;B251&amp;"|"&amp;C251</f>
+        <v/>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>APAC</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>Intent (UniFit)</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>French</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>Not Supported</t>
+        </is>
+      </c>
+      <c r="E252">
+        <f>A252&amp;"|"&amp;B252&amp;"|"&amp;C252</f>
+        <v/>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>APAC</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>Intent (UniFit)</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>Italian</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>Full Support</t>
+        </is>
+      </c>
+      <c r="E253">
+        <f>A253&amp;"|"&amp;B253&amp;"|"&amp;C253</f>
+        <v/>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>APAC</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>Entity (NER/Spacy)</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>Full Support</t>
+        </is>
+      </c>
+      <c r="E254">
+        <f>A254&amp;"|"&amp;B254&amp;"|"&amp;C254</f>
+        <v/>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>APAC</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>Entity (NER/Spacy)</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>Hindi</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>Not Supported</t>
+        </is>
+      </c>
+      <c r="E255">
+        <f>A255&amp;"|"&amp;B255&amp;"|"&amp;C255</f>
+        <v/>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>APAC</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>Entity (NER/Spacy)</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>Spanish</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>Limited Support</t>
+        </is>
+      </c>
+      <c r="E256">
+        <f>A256&amp;"|"&amp;B256&amp;"|"&amp;C256</f>
+        <v/>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>APAC</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>Entity (NER/Spacy)</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>German</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>Full Support</t>
+        </is>
+      </c>
+      <c r="E257">
+        <f>A257&amp;"|"&amp;B257&amp;"|"&amp;C257</f>
+        <v/>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>APAC</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>Entity (NER/Spacy)</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>Arabic</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>Full Support</t>
+        </is>
+      </c>
+      <c r="E258">
+        <f>A258&amp;"|"&amp;B258&amp;"|"&amp;C258</f>
+        <v/>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>APAC</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>Entity (NER/Spacy)</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>French</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>Full Support</t>
+        </is>
+      </c>
+      <c r="E259">
+        <f>A259&amp;"|"&amp;B259&amp;"|"&amp;C259</f>
+        <v/>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>APAC</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>Entity (NER/Spacy)</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>Italian</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>Limited Support</t>
+        </is>
+      </c>
+      <c r="E260">
+        <f>A260&amp;"|"&amp;B260&amp;"|"&amp;C260</f>
+        <v/>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>APAC</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>Gen AI Summary</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>Not Supported</t>
+        </is>
+      </c>
+      <c r="E261">
+        <f>A261&amp;"|"&amp;B261&amp;"|"&amp;C261</f>
+        <v/>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>APAC</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>Gen AI Summary</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>Hindi</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>Full Support</t>
+        </is>
+      </c>
+      <c r="E262">
+        <f>A262&amp;"|"&amp;B262&amp;"|"&amp;C262</f>
+        <v/>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>APAC</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>Gen AI Summary</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>Spanish</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>Full Support</t>
+        </is>
+      </c>
+      <c r="E263">
+        <f>A263&amp;"|"&amp;B263&amp;"|"&amp;C263</f>
+        <v/>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>APAC</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>Gen AI Summary</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>German</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>Full Support</t>
+        </is>
+      </c>
+      <c r="E264">
+        <f>A264&amp;"|"&amp;B264&amp;"|"&amp;C264</f>
+        <v/>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>APAC</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>Gen AI Summary</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>Arabic</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>Limited Support</t>
+        </is>
+      </c>
+      <c r="E265">
+        <f>A265&amp;"|"&amp;B265&amp;"|"&amp;C265</f>
+        <v/>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>APAC</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>Gen AI Summary</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>French</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>Full Support</t>
+        </is>
+      </c>
+      <c r="E266">
+        <f>A266&amp;"|"&amp;B266&amp;"|"&amp;C266</f>
+        <v/>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>APAC</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>Gen AI Summary</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>Italian</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>Full Support</t>
+        </is>
+      </c>
+      <c r="E267">
+        <f>A267&amp;"|"&amp;B267&amp;"|"&amp;C267</f>
+        <v/>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>APAC</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>Pro-active Service</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>Not Supported</t>
+        </is>
+      </c>
+      <c r="E268">
+        <f>A268&amp;"|"&amp;B268&amp;"|"&amp;C268</f>
+        <v/>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>APAC</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>Pro-active Service</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>Hindi</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>Full Support</t>
+        </is>
+      </c>
+      <c r="E269">
+        <f>A269&amp;"|"&amp;B269&amp;"|"&amp;C269</f>
+        <v/>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>APAC</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>Pro-active Service</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>Spanish</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>Full Support</t>
+        </is>
+      </c>
+      <c r="E270">
+        <f>A270&amp;"|"&amp;B270&amp;"|"&amp;C270</f>
+        <v/>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>APAC</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>Pro-active Service</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>German</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>Full Support</t>
+        </is>
+      </c>
+      <c r="E271">
+        <f>A271&amp;"|"&amp;B271&amp;"|"&amp;C271</f>
+        <v/>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>APAC</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>Pro-active Service</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>Arabic</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>Limited Support</t>
+        </is>
+      </c>
+      <c r="E272">
+        <f>A272&amp;"|"&amp;B272&amp;"|"&amp;C272</f>
+        <v/>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>APAC</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>Pro-active Service</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>French</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>Not Supported</t>
+        </is>
+      </c>
+      <c r="E273">
+        <f>A273&amp;"|"&amp;B273&amp;"|"&amp;C273</f>
+        <v/>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>APAC</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>Pro-active Service</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>Italian</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>Limited Support</t>
+        </is>
+      </c>
+      <c r="E274">
+        <f>A274&amp;"|"&amp;B274&amp;"|"&amp;C274</f>
+        <v/>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>APAC</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>LLM</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>Full Support</t>
+        </is>
+      </c>
+      <c r="E275">
+        <f>A275&amp;"|"&amp;B275&amp;"|"&amp;C275</f>
+        <v/>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>APAC</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>LLM</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>Hindi</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>Full Support</t>
+        </is>
+      </c>
+      <c r="E276">
+        <f>A276&amp;"|"&amp;B276&amp;"|"&amp;C276</f>
+        <v/>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>APAC</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>LLM</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>Spanish</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>Limited Support</t>
+        </is>
+      </c>
+      <c r="E277">
+        <f>A277&amp;"|"&amp;B277&amp;"|"&amp;C277</f>
+        <v/>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>APAC</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>LLM</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>German</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>Not Supported</t>
+        </is>
+      </c>
+      <c r="E278">
+        <f>A278&amp;"|"&amp;B278&amp;"|"&amp;C278</f>
+        <v/>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>APAC</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>LLM</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>Arabic</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>Not Supported</t>
+        </is>
+      </c>
+      <c r="E279">
+        <f>A279&amp;"|"&amp;B279&amp;"|"&amp;C279</f>
+        <v/>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>APAC</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>LLM</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>French</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>Limited Support</t>
+        </is>
+      </c>
+      <c r="E280">
+        <f>A280&amp;"|"&amp;B280&amp;"|"&amp;C280</f>
+        <v/>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>APAC</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>LLM</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>Italian</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>Limited Support</t>
+        </is>
+      </c>
+      <c r="E281">
+        <f>A281&amp;"|"&amp;B281&amp;"|"&amp;C281</f>
+        <v/>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Saudi</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>ASR</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>Full Support</t>
+        </is>
+      </c>
+      <c r="E282">
+        <f>A282&amp;"|"&amp;B282&amp;"|"&amp;C282</f>
+        <v/>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Saudi</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>ASR</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>Hindi</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>Full Support</t>
+        </is>
+      </c>
+      <c r="E283">
+        <f>A283&amp;"|"&amp;B283&amp;"|"&amp;C283</f>
+        <v/>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Saudi</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>ASR</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>Spanish</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>Limited Support</t>
+        </is>
+      </c>
+      <c r="E284">
+        <f>A284&amp;"|"&amp;B284&amp;"|"&amp;C284</f>
+        <v/>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Saudi</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>ASR</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>German</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>Not Supported</t>
+        </is>
+      </c>
+      <c r="E285">
+        <f>A285&amp;"|"&amp;B285&amp;"|"&amp;C285</f>
+        <v/>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Saudi</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>ASR</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>Arabic</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>Full Support</t>
+        </is>
+      </c>
+      <c r="E286">
+        <f>A286&amp;"|"&amp;B286&amp;"|"&amp;C286</f>
+        <v/>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Saudi</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>ASR</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>French</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>Full Support</t>
+        </is>
+      </c>
+      <c r="E287">
+        <f>A287&amp;"|"&amp;B287&amp;"|"&amp;C287</f>
+        <v/>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Saudi</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>ASR</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>Italian</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>Limited Support</t>
+        </is>
+      </c>
+      <c r="E288">
+        <f>A288&amp;"|"&amp;B288&amp;"|"&amp;C288</f>
+        <v/>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Saudi</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>Redaction</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>Not Supported</t>
+        </is>
+      </c>
+      <c r="E289">
+        <f>A289&amp;"|"&amp;B289&amp;"|"&amp;C289</f>
+        <v/>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Saudi</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>Redaction</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>Hindi</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>Full Support</t>
+        </is>
+      </c>
+      <c r="E290">
+        <f>A290&amp;"|"&amp;B290&amp;"|"&amp;C290</f>
+        <v/>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Saudi</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>Redaction</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>Spanish</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>Full Support</t>
+        </is>
+      </c>
+      <c r="E291">
+        <f>A291&amp;"|"&amp;B291&amp;"|"&amp;C291</f>
+        <v/>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Saudi</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>Redaction</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>German</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>Full Support</t>
+        </is>
+      </c>
+      <c r="E292">
+        <f>A292&amp;"|"&amp;B292&amp;"|"&amp;C292</f>
+        <v/>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Saudi</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>Redaction</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>Arabic</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>Not Supported</t>
+        </is>
+      </c>
+      <c r="E293">
+        <f>A293&amp;"|"&amp;B293&amp;"|"&amp;C293</f>
+        <v/>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Saudi</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>Redaction</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>French</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>Full Support</t>
+        </is>
+      </c>
+      <c r="E294">
+        <f>A294&amp;"|"&amp;B294&amp;"|"&amp;C294</f>
+        <v/>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Saudi</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>Redaction</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>Italian</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>Not Supported</t>
+        </is>
+      </c>
+      <c r="E295">
+        <f>A295&amp;"|"&amp;B295&amp;"|"&amp;C295</f>
+        <v/>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Saudi</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>Conversation Facts</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>Full Support</t>
+        </is>
+      </c>
+      <c r="E296">
+        <f>A296&amp;"|"&amp;B296&amp;"|"&amp;C296</f>
+        <v/>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Saudi</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>Conversation Facts</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>Hindi</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>Full Support</t>
+        </is>
+      </c>
+      <c r="E297">
+        <f>A297&amp;"|"&amp;B297&amp;"|"&amp;C297</f>
+        <v/>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Saudi</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>Conversation Facts</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>Spanish</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>Full Support</t>
+        </is>
+      </c>
+      <c r="E298">
+        <f>A298&amp;"|"&amp;B298&amp;"|"&amp;C298</f>
+        <v/>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Saudi</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>Conversation Facts</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>German</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>Full Support</t>
+        </is>
+      </c>
+      <c r="E299">
+        <f>A299&amp;"|"&amp;B299&amp;"|"&amp;C299</f>
+        <v/>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Saudi</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>Conversation Facts</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>Arabic</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>Not Supported</t>
+        </is>
+      </c>
+      <c r="E300">
+        <f>A300&amp;"|"&amp;B300&amp;"|"&amp;C300</f>
+        <v/>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Saudi</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>Conversation Facts</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>French</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>Full Support</t>
+        </is>
+      </c>
+      <c r="E301">
+        <f>A301&amp;"|"&amp;B301&amp;"|"&amp;C301</f>
+        <v/>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Saudi</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>Conversation Facts</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>Italian</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>Full Support</t>
+        </is>
+      </c>
+      <c r="E302">
+        <f>A302&amp;"|"&amp;B302&amp;"|"&amp;C302</f>
+        <v/>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Saudi</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>Gen AI Disposition</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>Full Support</t>
+        </is>
+      </c>
+      <c r="E303">
+        <f>A303&amp;"|"&amp;B303&amp;"|"&amp;C303</f>
+        <v/>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Saudi</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>Gen AI Disposition</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>Hindi</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>Not Supported</t>
+        </is>
+      </c>
+      <c r="E304">
+        <f>A304&amp;"|"&amp;B304&amp;"|"&amp;C304</f>
+        <v/>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>Saudi</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>Gen AI Disposition</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>Spanish</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>Full Support</t>
+        </is>
+      </c>
+      <c r="E305">
+        <f>A305&amp;"|"&amp;B305&amp;"|"&amp;C305</f>
+        <v/>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>Saudi</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>Gen AI Disposition</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>German</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>Limited Support</t>
+        </is>
+      </c>
+      <c r="E306">
+        <f>A306&amp;"|"&amp;B306&amp;"|"&amp;C306</f>
+        <v/>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>Saudi</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>Gen AI Disposition</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>Arabic</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>Full Support</t>
+        </is>
+      </c>
+      <c r="E307">
+        <f>A307&amp;"|"&amp;B307&amp;"|"&amp;C307</f>
+        <v/>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>Saudi</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>Gen AI Disposition</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>French</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>Limited Support</t>
+        </is>
+      </c>
+      <c r="E308">
+        <f>A308&amp;"|"&amp;B308&amp;"|"&amp;C308</f>
+        <v/>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>Saudi</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>Gen AI Disposition</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>Italian</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>Full Support</t>
+        </is>
+      </c>
+      <c r="E309">
+        <f>A309&amp;"|"&amp;B309&amp;"|"&amp;C309</f>
+        <v/>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>Saudi</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>ITN</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>Not Supported</t>
+        </is>
+      </c>
+      <c r="E310">
+        <f>A310&amp;"|"&amp;B310&amp;"|"&amp;C310</f>
+        <v/>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>Saudi</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>ITN</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>Hindi</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>Not Supported</t>
+        </is>
+      </c>
+      <c r="E311">
+        <f>A311&amp;"|"&amp;B311&amp;"|"&amp;C311</f>
+        <v/>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>Saudi</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>ITN</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>Spanish</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>Full Support</t>
+        </is>
+      </c>
+      <c r="E312">
+        <f>A312&amp;"|"&amp;B312&amp;"|"&amp;C312</f>
+        <v/>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>Saudi</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>ITN</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>German</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>Not Supported</t>
+        </is>
+      </c>
+      <c r="E313">
+        <f>A313&amp;"|"&amp;B313&amp;"|"&amp;C313</f>
+        <v/>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>Saudi</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>ITN</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>Arabic</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>Not Supported</t>
+        </is>
+      </c>
+      <c r="E314">
+        <f>A314&amp;"|"&amp;B314&amp;"|"&amp;C314</f>
+        <v/>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>Saudi</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>ITN</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>French</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>Full Support</t>
+        </is>
+      </c>
+      <c r="E315">
+        <f>A315&amp;"|"&amp;B315&amp;"|"&amp;C315</f>
+        <v/>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>Saudi</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>ITN</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>Italian</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>Limited Support</t>
+        </is>
+      </c>
+      <c r="E316">
+        <f>A316&amp;"|"&amp;B316&amp;"|"&amp;C316</f>
+        <v/>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>Saudi</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>Intent (UniFit)</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>Full Support</t>
+        </is>
+      </c>
+      <c r="E317">
+        <f>A317&amp;"|"&amp;B317&amp;"|"&amp;C317</f>
+        <v/>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>Saudi</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>Intent (UniFit)</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>Hindi</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>Full Support</t>
+        </is>
+      </c>
+      <c r="E318">
+        <f>A318&amp;"|"&amp;B318&amp;"|"&amp;C318</f>
+        <v/>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>Saudi</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>Intent (UniFit)</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>Spanish</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>Full Support</t>
+        </is>
+      </c>
+      <c r="E319">
+        <f>A319&amp;"|"&amp;B319&amp;"|"&amp;C319</f>
+        <v/>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>Saudi</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>Intent (UniFit)</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>German</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>Not Supported</t>
+        </is>
+      </c>
+      <c r="E320">
+        <f>A320&amp;"|"&amp;B320&amp;"|"&amp;C320</f>
+        <v/>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>Saudi</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>Intent (UniFit)</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>Arabic</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>Limited Support</t>
+        </is>
+      </c>
+      <c r="E321">
+        <f>A321&amp;"|"&amp;B321&amp;"|"&amp;C321</f>
+        <v/>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>Saudi</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>Intent (UniFit)</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>French</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>Full Support</t>
+        </is>
+      </c>
+      <c r="E322">
+        <f>A322&amp;"|"&amp;B322&amp;"|"&amp;C322</f>
+        <v/>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>Saudi</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>Intent (UniFit)</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>Italian</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>Full Support</t>
+        </is>
+      </c>
+      <c r="E323">
+        <f>A323&amp;"|"&amp;B323&amp;"|"&amp;C323</f>
+        <v/>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>Saudi</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>Entity (NER/Spacy)</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>Full Support</t>
+        </is>
+      </c>
+      <c r="E324">
+        <f>A324&amp;"|"&amp;B324&amp;"|"&amp;C324</f>
+        <v/>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>Saudi</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>Entity (NER/Spacy)</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>Hindi</t>
+        </is>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>Not Supported</t>
+        </is>
+      </c>
+      <c r="E325">
+        <f>A325&amp;"|"&amp;B325&amp;"|"&amp;C325</f>
+        <v/>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>Saudi</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>Entity (NER/Spacy)</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>Spanish</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>Full Support</t>
+        </is>
+      </c>
+      <c r="E326">
+        <f>A326&amp;"|"&amp;B326&amp;"|"&amp;C326</f>
+        <v/>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>Saudi</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>Entity (NER/Spacy)</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>German</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>Full Support</t>
+        </is>
+      </c>
+      <c r="E327">
+        <f>A327&amp;"|"&amp;B327&amp;"|"&amp;C327</f>
+        <v/>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>Saudi</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>Entity (NER/Spacy)</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>Arabic</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>Not Supported</t>
+        </is>
+      </c>
+      <c r="E328">
+        <f>A328&amp;"|"&amp;B328&amp;"|"&amp;C328</f>
+        <v/>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>Saudi</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>Entity (NER/Spacy)</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>French</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>Limited Support</t>
+        </is>
+      </c>
+      <c r="E329">
+        <f>A329&amp;"|"&amp;B329&amp;"|"&amp;C329</f>
+        <v/>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>Saudi</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>Entity (NER/Spacy)</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>Italian</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>Full Support</t>
+        </is>
+      </c>
+      <c r="E330">
+        <f>A330&amp;"|"&amp;B330&amp;"|"&amp;C330</f>
+        <v/>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>Saudi</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>Gen AI Summary</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>Full Support</t>
+        </is>
+      </c>
+      <c r="E331">
+        <f>A331&amp;"|"&amp;B331&amp;"|"&amp;C331</f>
+        <v/>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>Saudi</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>Gen AI Summary</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>Hindi</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>Limited Support</t>
+        </is>
+      </c>
+      <c r="E332">
+        <f>A332&amp;"|"&amp;B332&amp;"|"&amp;C332</f>
+        <v/>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>Saudi</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>Gen AI Summary</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>Spanish</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>Not Supported</t>
+        </is>
+      </c>
+      <c r="E333">
+        <f>A333&amp;"|"&amp;B333&amp;"|"&amp;C333</f>
+        <v/>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>Saudi</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>Gen AI Summary</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>German</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>Not Supported</t>
+        </is>
+      </c>
+      <c r="E334">
+        <f>A334&amp;"|"&amp;B334&amp;"|"&amp;C334</f>
+        <v/>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>Saudi</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>Gen AI Summary</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>Arabic</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>Full Support</t>
+        </is>
+      </c>
+      <c r="E335">
+        <f>A335&amp;"|"&amp;B335&amp;"|"&amp;C335</f>
+        <v/>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>Saudi</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>Gen AI Summary</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>French</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>Full Support</t>
+        </is>
+      </c>
+      <c r="E336">
+        <f>A336&amp;"|"&amp;B336&amp;"|"&amp;C336</f>
+        <v/>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>Saudi</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>Gen AI Summary</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>Italian</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>Limited Support</t>
+        </is>
+      </c>
+      <c r="E337">
+        <f>A337&amp;"|"&amp;B337&amp;"|"&amp;C337</f>
+        <v/>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>Saudi</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>Pro-active Service</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>Full Support</t>
+        </is>
+      </c>
+      <c r="E338">
+        <f>A338&amp;"|"&amp;B338&amp;"|"&amp;C338</f>
+        <v/>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>Saudi</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>Pro-active Service</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>Hindi</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>Not Supported</t>
+        </is>
+      </c>
+      <c r="E339">
+        <f>A339&amp;"|"&amp;B339&amp;"|"&amp;C339</f>
+        <v/>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>Saudi</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>Pro-active Service</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>Spanish</t>
+        </is>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>Full Support</t>
+        </is>
+      </c>
+      <c r="E340">
+        <f>A340&amp;"|"&amp;B340&amp;"|"&amp;C340</f>
+        <v/>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>Saudi</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>Pro-active Service</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>German</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>Limited Support</t>
+        </is>
+      </c>
+      <c r="E341">
+        <f>A341&amp;"|"&amp;B341&amp;"|"&amp;C341</f>
+        <v/>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>Saudi</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>Pro-active Service</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>Arabic</t>
+        </is>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>Limited Support</t>
+        </is>
+      </c>
+      <c r="E342">
+        <f>A342&amp;"|"&amp;B342&amp;"|"&amp;C342</f>
+        <v/>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>Saudi</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>Pro-active Service</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>French</t>
+        </is>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>Full Support</t>
+        </is>
+      </c>
+      <c r="E343">
+        <f>A343&amp;"|"&amp;B343&amp;"|"&amp;C343</f>
+        <v/>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>Saudi</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>Pro-active Service</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>Italian</t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>Limited Support</t>
+        </is>
+      </c>
+      <c r="E344">
+        <f>A344&amp;"|"&amp;B344&amp;"|"&amp;C344</f>
+        <v/>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>Saudi</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>LLM</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>Full Support</t>
+        </is>
+      </c>
+      <c r="E345">
+        <f>A345&amp;"|"&amp;B345&amp;"|"&amp;C345</f>
+        <v/>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>Saudi</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>LLM</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>Hindi</t>
+        </is>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>Not Supported</t>
+        </is>
+      </c>
+      <c r="E346">
+        <f>A346&amp;"|"&amp;B346&amp;"|"&amp;C346</f>
+        <v/>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>Saudi</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>LLM</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>Spanish</t>
+        </is>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>Limited Support</t>
+        </is>
+      </c>
+      <c r="E347">
+        <f>A347&amp;"|"&amp;B347&amp;"|"&amp;C347</f>
+        <v/>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>Saudi</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>LLM</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>German</t>
+        </is>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>Not Supported</t>
+        </is>
+      </c>
+      <c r="E348">
+        <f>A348&amp;"|"&amp;B348&amp;"|"&amp;C348</f>
+        <v/>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>Saudi</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>LLM</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>Arabic</t>
+        </is>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>Limited Support</t>
+        </is>
+      </c>
+      <c r="E349">
+        <f>A349&amp;"|"&amp;B349&amp;"|"&amp;C349</f>
+        <v/>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>Saudi</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>LLM</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>French</t>
+        </is>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>Limited Support</t>
+        </is>
+      </c>
+      <c r="E350">
+        <f>A350&amp;"|"&amp;B350&amp;"|"&amp;C350</f>
+        <v/>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>Saudi</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>LLM</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>Italian</t>
+        </is>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>Full Support</t>
+        </is>
+      </c>
+      <c r="E351">
+        <f>A351&amp;"|"&amp;B351&amp;"|"&amp;C351</f>
         <v/>
       </c>
     </row>
@@ -4193,7 +9653,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:E14"/>
+  <dimension ref="A2:K14"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4206,6 +9666,12 @@
     <col width="20" customWidth="1" min="3" max="3"/>
     <col width="20" customWidth="1" min="4" max="4"/>
     <col width="20" customWidth="1" min="5" max="5"/>
+    <col width="20" customWidth="1" min="6" max="6"/>
+    <col width="20" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="20" customWidth="1" min="9" max="9"/>
+    <col width="20" customWidth="1" min="10" max="10"/>
+    <col width="20" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="2">
@@ -4240,17 +9706,47 @@
       </c>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>NLP Services</t>
+          <t>Redaction</t>
         </is>
       </c>
       <c r="D7" s="5" t="inlineStr">
         <is>
-          <t>Gen AI Services</t>
+          <t>Conversation Facts</t>
         </is>
       </c>
       <c r="E7" s="5" t="inlineStr">
         <is>
-          <t>KaaS/PKaaS</t>
+          <t>Gen AI Disposition</t>
+        </is>
+      </c>
+      <c r="F7" s="5" t="inlineStr">
+        <is>
+          <t>ITN</t>
+        </is>
+      </c>
+      <c r="G7" s="5" t="inlineStr">
+        <is>
+          <t>Intent (UniFit)</t>
+        </is>
+      </c>
+      <c r="H7" s="5" t="inlineStr">
+        <is>
+          <t>Entity (NER/Spacy)</t>
+        </is>
+      </c>
+      <c r="I7" s="5" t="inlineStr">
+        <is>
+          <t>Gen AI Summary</t>
+        </is>
+      </c>
+      <c r="J7" s="5" t="inlineStr">
+        <is>
+          <t>Pro-active Service</t>
+        </is>
+      </c>
+      <c r="K7" s="5" t="inlineStr">
+        <is>
+          <t>LLM</t>
         </is>
       </c>
     </row>
@@ -4276,6 +9772,30 @@
         <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;E$7&amp;"|"&amp;$A8, Service_Input!$E:$E, 0))</f>
         <v/>
       </c>
+      <c r="F8" s="6">
+        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;F$7&amp;"|"&amp;$A8, Service_Input!$E:$E, 0))</f>
+        <v/>
+      </c>
+      <c r="G8" s="6">
+        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;G$7&amp;"|"&amp;$A8, Service_Input!$E:$E, 0))</f>
+        <v/>
+      </c>
+      <c r="H8" s="6">
+        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;H$7&amp;"|"&amp;$A8, Service_Input!$E:$E, 0))</f>
+        <v/>
+      </c>
+      <c r="I8" s="6">
+        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;I$7&amp;"|"&amp;$A8, Service_Input!$E:$E, 0))</f>
+        <v/>
+      </c>
+      <c r="J8" s="6">
+        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;J$7&amp;"|"&amp;$A8, Service_Input!$E:$E, 0))</f>
+        <v/>
+      </c>
+      <c r="K8" s="6">
+        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;K$7&amp;"|"&amp;$A8, Service_Input!$E:$E, 0))</f>
+        <v/>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="4" t="inlineStr">
@@ -4299,6 +9819,30 @@
         <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;E$7&amp;"|"&amp;$A9, Service_Input!$E:$E, 0))</f>
         <v/>
       </c>
+      <c r="F9" s="6">
+        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;F$7&amp;"|"&amp;$A9, Service_Input!$E:$E, 0))</f>
+        <v/>
+      </c>
+      <c r="G9" s="6">
+        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;G$7&amp;"|"&amp;$A9, Service_Input!$E:$E, 0))</f>
+        <v/>
+      </c>
+      <c r="H9" s="6">
+        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;H$7&amp;"|"&amp;$A9, Service_Input!$E:$E, 0))</f>
+        <v/>
+      </c>
+      <c r="I9" s="6">
+        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;I$7&amp;"|"&amp;$A9, Service_Input!$E:$E, 0))</f>
+        <v/>
+      </c>
+      <c r="J9" s="6">
+        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;J$7&amp;"|"&amp;$A9, Service_Input!$E:$E, 0))</f>
+        <v/>
+      </c>
+      <c r="K9" s="6">
+        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;K$7&amp;"|"&amp;$A9, Service_Input!$E:$E, 0))</f>
+        <v/>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="inlineStr">
@@ -4322,6 +9866,30 @@
         <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;E$7&amp;"|"&amp;$A10, Service_Input!$E:$E, 0))</f>
         <v/>
       </c>
+      <c r="F10" s="6">
+        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;F$7&amp;"|"&amp;$A10, Service_Input!$E:$E, 0))</f>
+        <v/>
+      </c>
+      <c r="G10" s="6">
+        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;G$7&amp;"|"&amp;$A10, Service_Input!$E:$E, 0))</f>
+        <v/>
+      </c>
+      <c r="H10" s="6">
+        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;H$7&amp;"|"&amp;$A10, Service_Input!$E:$E, 0))</f>
+        <v/>
+      </c>
+      <c r="I10" s="6">
+        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;I$7&amp;"|"&amp;$A10, Service_Input!$E:$E, 0))</f>
+        <v/>
+      </c>
+      <c r="J10" s="6">
+        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;J$7&amp;"|"&amp;$A10, Service_Input!$E:$E, 0))</f>
+        <v/>
+      </c>
+      <c r="K10" s="6">
+        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;K$7&amp;"|"&amp;$A10, Service_Input!$E:$E, 0))</f>
+        <v/>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="4" t="inlineStr">
@@ -4345,6 +9913,30 @@
         <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;E$7&amp;"|"&amp;$A11, Service_Input!$E:$E, 0))</f>
         <v/>
       </c>
+      <c r="F11" s="6">
+        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;F$7&amp;"|"&amp;$A11, Service_Input!$E:$E, 0))</f>
+        <v/>
+      </c>
+      <c r="G11" s="6">
+        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;G$7&amp;"|"&amp;$A11, Service_Input!$E:$E, 0))</f>
+        <v/>
+      </c>
+      <c r="H11" s="6">
+        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;H$7&amp;"|"&amp;$A11, Service_Input!$E:$E, 0))</f>
+        <v/>
+      </c>
+      <c r="I11" s="6">
+        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;I$7&amp;"|"&amp;$A11, Service_Input!$E:$E, 0))</f>
+        <v/>
+      </c>
+      <c r="J11" s="6">
+        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;J$7&amp;"|"&amp;$A11, Service_Input!$E:$E, 0))</f>
+        <v/>
+      </c>
+      <c r="K11" s="6">
+        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;K$7&amp;"|"&amp;$A11, Service_Input!$E:$E, 0))</f>
+        <v/>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="4" t="inlineStr">
@@ -4368,6 +9960,30 @@
         <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;E$7&amp;"|"&amp;$A12, Service_Input!$E:$E, 0))</f>
         <v/>
       </c>
+      <c r="F12" s="6">
+        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;F$7&amp;"|"&amp;$A12, Service_Input!$E:$E, 0))</f>
+        <v/>
+      </c>
+      <c r="G12" s="6">
+        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;G$7&amp;"|"&amp;$A12, Service_Input!$E:$E, 0))</f>
+        <v/>
+      </c>
+      <c r="H12" s="6">
+        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;H$7&amp;"|"&amp;$A12, Service_Input!$E:$E, 0))</f>
+        <v/>
+      </c>
+      <c r="I12" s="6">
+        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;I$7&amp;"|"&amp;$A12, Service_Input!$E:$E, 0))</f>
+        <v/>
+      </c>
+      <c r="J12" s="6">
+        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;J$7&amp;"|"&amp;$A12, Service_Input!$E:$E, 0))</f>
+        <v/>
+      </c>
+      <c r="K12" s="6">
+        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;K$7&amp;"|"&amp;$A12, Service_Input!$E:$E, 0))</f>
+        <v/>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="4" t="inlineStr">
@@ -4391,6 +10007,30 @@
         <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;E$7&amp;"|"&amp;$A13, Service_Input!$E:$E, 0))</f>
         <v/>
       </c>
+      <c r="F13" s="6">
+        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;F$7&amp;"|"&amp;$A13, Service_Input!$E:$E, 0))</f>
+        <v/>
+      </c>
+      <c r="G13" s="6">
+        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;G$7&amp;"|"&amp;$A13, Service_Input!$E:$E, 0))</f>
+        <v/>
+      </c>
+      <c r="H13" s="6">
+        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;H$7&amp;"|"&amp;$A13, Service_Input!$E:$E, 0))</f>
+        <v/>
+      </c>
+      <c r="I13" s="6">
+        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;I$7&amp;"|"&amp;$A13, Service_Input!$E:$E, 0))</f>
+        <v/>
+      </c>
+      <c r="J13" s="6">
+        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;J$7&amp;"|"&amp;$A13, Service_Input!$E:$E, 0))</f>
+        <v/>
+      </c>
+      <c r="K13" s="6">
+        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;K$7&amp;"|"&amp;$A13, Service_Input!$E:$E, 0))</f>
+        <v/>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="4" t="inlineStr">
@@ -4414,17 +10054,41 @@
         <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;E$7&amp;"|"&amp;$A14, Service_Input!$E:$E, 0))</f>
         <v/>
       </c>
+      <c r="F14" s="6">
+        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;F$7&amp;"|"&amp;$A14, Service_Input!$E:$E, 0))</f>
+        <v/>
+      </c>
+      <c r="G14" s="6">
+        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;G$7&amp;"|"&amp;$A14, Service_Input!$E:$E, 0))</f>
+        <v/>
+      </c>
+      <c r="H14" s="6">
+        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;H$7&amp;"|"&amp;$A14, Service_Input!$E:$E, 0))</f>
+        <v/>
+      </c>
+      <c r="I14" s="6">
+        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;I$7&amp;"|"&amp;$A14, Service_Input!$E:$E, 0))</f>
+        <v/>
+      </c>
+      <c r="J14" s="6">
+        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;J$7&amp;"|"&amp;$A14, Service_Input!$E:$E, 0))</f>
+        <v/>
+      </c>
+      <c r="K14" s="6">
+        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;K$7&amp;"|"&amp;$A14, Service_Input!$E:$E, 0))</f>
+        <v/>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B8:E14">
+  <conditionalFormatting sqref="B8:K14">
     <cfRule type="containsText" priority="1" operator="containsText" dxfId="0" text="Full Support">
-      <formula>NOT(ISERROR(SEARCH("Full Support", B8:E14)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Full Support", B8:K14)))</formula>
     </cfRule>
     <cfRule type="containsText" priority="2" operator="containsText" dxfId="1" text="Limited Support">
-      <formula>NOT(ISERROR(SEARCH("Limited Support", B8:E14)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Limited Support", B8:K14)))</formula>
     </cfRule>
     <cfRule type="containsText" priority="3" operator="containsText" dxfId="2" text="Not Supported">
-      <formula>NOT(ISERROR(SEARCH("Not Supported", B8:E14)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Not Supported", B8:K14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -4515,19 +10179,19 @@
         </is>
       </c>
       <c r="B8" s="9">
-        <f>IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A8, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Services|"&amp;$A8, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS/PKaaS|"&amp;$A8, Service_Input!$E:$E, 0))="Not Supported"), "Not Supported", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Services|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS/PKaaS|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Support"), "Limited Support", "Full Support"))</f>
+        <f>IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A8, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A8, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|LLM|"&amp;$A8, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A8, Service_Input!$E:$E, 0))="Not Supported"), "Not Supported", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|LLM|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Support"), "Limited Support", "Full Support"))</f>
         <v/>
       </c>
       <c r="C8" s="9">
-        <f>IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A8, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|NLP Services|"&amp;$A8, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Services|"&amp;$A8, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS/PKaaS|"&amp;$A8, Service_Input!$E:$E, 0))="Not Supported"), "Not Supported", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|NLP Services|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Services|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS/PKaaS|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Support"), "Limited Support", "Full Support"))</f>
+        <f>IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A8, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A8, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A8, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A8, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|LLM|"&amp;$A8, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A8, Service_Input!$E:$E, 0))="Not Supported"), "Not Supported", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|LLM|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Support"), "Limited Support", "Full Support"))</f>
         <v/>
       </c>
       <c r="D8" s="9">
-        <f>IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|NLP Services|"&amp;$A8, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Services|"&amp;$A8, Service_Input!$E:$E, 0))="Not Supported"), "Not Supported", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|NLP Services|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Services|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Support"), "Limited Support", "Full Support"))</f>
+        <f>IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A8, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A8, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A8, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A8, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|LLM|"&amp;$A8, Service_Input!$E:$E, 0))="Not Supported"), "Not Supported", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|LLM|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Support"), "Limited Support", "Full Support"))</f>
         <v/>
       </c>
       <c r="E8" s="9">
-        <f>IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A8, Service_Input!$E:$E, 0))="Not Supported", "Not Supported", IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Support", "Limited Support", "Full Support"))</f>
+        <f>IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A8, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A8, Service_Input!$E:$E, 0))="Not Supported"), "Not Supported", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Support"), "Limited Support", "Full Support"))</f>
         <v/>
       </c>
     </row>
@@ -4538,19 +10202,19 @@
         </is>
       </c>
       <c r="B9" s="9">
-        <f>IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A9, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Services|"&amp;$A9, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS/PKaaS|"&amp;$A9, Service_Input!$E:$E, 0))="Not Supported"), "Not Supported", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Services|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS/PKaaS|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Support"), "Limited Support", "Full Support"))</f>
+        <f>IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A9, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A9, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|LLM|"&amp;$A9, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A9, Service_Input!$E:$E, 0))="Not Supported"), "Not Supported", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|LLM|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Support"), "Limited Support", "Full Support"))</f>
         <v/>
       </c>
       <c r="C9" s="9">
-        <f>IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A9, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|NLP Services|"&amp;$A9, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Services|"&amp;$A9, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS/PKaaS|"&amp;$A9, Service_Input!$E:$E, 0))="Not Supported"), "Not Supported", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|NLP Services|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Services|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS/PKaaS|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Support"), "Limited Support", "Full Support"))</f>
+        <f>IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A9, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A9, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A9, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A9, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|LLM|"&amp;$A9, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A9, Service_Input!$E:$E, 0))="Not Supported"), "Not Supported", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|LLM|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Support"), "Limited Support", "Full Support"))</f>
         <v/>
       </c>
       <c r="D9" s="9">
-        <f>IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|NLP Services|"&amp;$A9, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Services|"&amp;$A9, Service_Input!$E:$E, 0))="Not Supported"), "Not Supported", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|NLP Services|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Services|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Support"), "Limited Support", "Full Support"))</f>
+        <f>IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A9, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A9, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A9, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A9, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|LLM|"&amp;$A9, Service_Input!$E:$E, 0))="Not Supported"), "Not Supported", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|LLM|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Support"), "Limited Support", "Full Support"))</f>
         <v/>
       </c>
       <c r="E9" s="9">
-        <f>IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A9, Service_Input!$E:$E, 0))="Not Supported", "Not Supported", IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Support", "Limited Support", "Full Support"))</f>
+        <f>IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A9, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A9, Service_Input!$E:$E, 0))="Not Supported"), "Not Supported", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Support"), "Limited Support", "Full Support"))</f>
         <v/>
       </c>
     </row>
@@ -4561,19 +10225,19 @@
         </is>
       </c>
       <c r="B10" s="9">
-        <f>IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A10, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Services|"&amp;$A10, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS/PKaaS|"&amp;$A10, Service_Input!$E:$E, 0))="Not Supported"), "Not Supported", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Services|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS/PKaaS|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Support"), "Limited Support", "Full Support"))</f>
+        <f>IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A10, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A10, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|LLM|"&amp;$A10, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A10, Service_Input!$E:$E, 0))="Not Supported"), "Not Supported", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|LLM|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Support"), "Limited Support", "Full Support"))</f>
         <v/>
       </c>
       <c r="C10" s="9">
-        <f>IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A10, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|NLP Services|"&amp;$A10, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Services|"&amp;$A10, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS/PKaaS|"&amp;$A10, Service_Input!$E:$E, 0))="Not Supported"), "Not Supported", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|NLP Services|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Services|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS/PKaaS|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Support"), "Limited Support", "Full Support"))</f>
+        <f>IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A10, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A10, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A10, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A10, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|LLM|"&amp;$A10, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A10, Service_Input!$E:$E, 0))="Not Supported"), "Not Supported", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|LLM|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Support"), "Limited Support", "Full Support"))</f>
         <v/>
       </c>
       <c r="D10" s="9">
-        <f>IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|NLP Services|"&amp;$A10, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Services|"&amp;$A10, Service_Input!$E:$E, 0))="Not Supported"), "Not Supported", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|NLP Services|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Services|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Support"), "Limited Support", "Full Support"))</f>
+        <f>IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A10, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A10, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A10, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A10, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|LLM|"&amp;$A10, Service_Input!$E:$E, 0))="Not Supported"), "Not Supported", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|LLM|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Support"), "Limited Support", "Full Support"))</f>
         <v/>
       </c>
       <c r="E10" s="9">
-        <f>IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A10, Service_Input!$E:$E, 0))="Not Supported", "Not Supported", IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Support", "Limited Support", "Full Support"))</f>
+        <f>IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A10, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A10, Service_Input!$E:$E, 0))="Not Supported"), "Not Supported", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Support"), "Limited Support", "Full Support"))</f>
         <v/>
       </c>
     </row>
@@ -4584,19 +10248,19 @@
         </is>
       </c>
       <c r="B11" s="9">
-        <f>IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A11, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Services|"&amp;$A11, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS/PKaaS|"&amp;$A11, Service_Input!$E:$E, 0))="Not Supported"), "Not Supported", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Services|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS/PKaaS|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Support"), "Limited Support", "Full Support"))</f>
+        <f>IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A11, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A11, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|LLM|"&amp;$A11, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A11, Service_Input!$E:$E, 0))="Not Supported"), "Not Supported", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|LLM|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Support"), "Limited Support", "Full Support"))</f>
         <v/>
       </c>
       <c r="C11" s="9">
-        <f>IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A11, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|NLP Services|"&amp;$A11, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Services|"&amp;$A11, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS/PKaaS|"&amp;$A11, Service_Input!$E:$E, 0))="Not Supported"), "Not Supported", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|NLP Services|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Services|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS/PKaaS|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Support"), "Limited Support", "Full Support"))</f>
+        <f>IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A11, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A11, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A11, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A11, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|LLM|"&amp;$A11, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A11, Service_Input!$E:$E, 0))="Not Supported"), "Not Supported", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|LLM|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Support"), "Limited Support", "Full Support"))</f>
         <v/>
       </c>
       <c r="D11" s="9">
-        <f>IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|NLP Services|"&amp;$A11, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Services|"&amp;$A11, Service_Input!$E:$E, 0))="Not Supported"), "Not Supported", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|NLP Services|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Services|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Support"), "Limited Support", "Full Support"))</f>
+        <f>IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A11, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A11, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A11, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A11, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|LLM|"&amp;$A11, Service_Input!$E:$E, 0))="Not Supported"), "Not Supported", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|LLM|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Support"), "Limited Support", "Full Support"))</f>
         <v/>
       </c>
       <c r="E11" s="9">
-        <f>IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A11, Service_Input!$E:$E, 0))="Not Supported", "Not Supported", IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Support", "Limited Support", "Full Support"))</f>
+        <f>IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A11, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A11, Service_Input!$E:$E, 0))="Not Supported"), "Not Supported", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Support"), "Limited Support", "Full Support"))</f>
         <v/>
       </c>
     </row>
@@ -4607,19 +10271,19 @@
         </is>
       </c>
       <c r="B12" s="9">
-        <f>IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A12, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Services|"&amp;$A12, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS/PKaaS|"&amp;$A12, Service_Input!$E:$E, 0))="Not Supported"), "Not Supported", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Services|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS/PKaaS|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Support"), "Limited Support", "Full Support"))</f>
+        <f>IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A12, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A12, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|LLM|"&amp;$A12, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A12, Service_Input!$E:$E, 0))="Not Supported"), "Not Supported", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|LLM|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Support"), "Limited Support", "Full Support"))</f>
         <v/>
       </c>
       <c r="C12" s="9">
-        <f>IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A12, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|NLP Services|"&amp;$A12, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Services|"&amp;$A12, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS/PKaaS|"&amp;$A12, Service_Input!$E:$E, 0))="Not Supported"), "Not Supported", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|NLP Services|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Services|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS/PKaaS|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Support"), "Limited Support", "Full Support"))</f>
+        <f>IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A12, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A12, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A12, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A12, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|LLM|"&amp;$A12, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A12, Service_Input!$E:$E, 0))="Not Supported"), "Not Supported", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|LLM|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Support"), "Limited Support", "Full Support"))</f>
         <v/>
       </c>
       <c r="D12" s="9">
-        <f>IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|NLP Services|"&amp;$A12, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Services|"&amp;$A12, Service_Input!$E:$E, 0))="Not Supported"), "Not Supported", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|NLP Services|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Services|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Support"), "Limited Support", "Full Support"))</f>
+        <f>IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A12, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A12, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A12, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A12, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|LLM|"&amp;$A12, Service_Input!$E:$E, 0))="Not Supported"), "Not Supported", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|LLM|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Support"), "Limited Support", "Full Support"))</f>
         <v/>
       </c>
       <c r="E12" s="9">
-        <f>IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A12, Service_Input!$E:$E, 0))="Not Supported", "Not Supported", IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Support", "Limited Support", "Full Support"))</f>
+        <f>IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A12, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A12, Service_Input!$E:$E, 0))="Not Supported"), "Not Supported", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Support"), "Limited Support", "Full Support"))</f>
         <v/>
       </c>
     </row>
@@ -4630,19 +10294,19 @@
         </is>
       </c>
       <c r="B13" s="9">
-        <f>IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A13, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Services|"&amp;$A13, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS/PKaaS|"&amp;$A13, Service_Input!$E:$E, 0))="Not Supported"), "Not Supported", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Services|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS/PKaaS|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Support"), "Limited Support", "Full Support"))</f>
+        <f>IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A13, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A13, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|LLM|"&amp;$A13, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A13, Service_Input!$E:$E, 0))="Not Supported"), "Not Supported", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|LLM|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Support"), "Limited Support", "Full Support"))</f>
         <v/>
       </c>
       <c r="C13" s="9">
-        <f>IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A13, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|NLP Services|"&amp;$A13, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Services|"&amp;$A13, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS/PKaaS|"&amp;$A13, Service_Input!$E:$E, 0))="Not Supported"), "Not Supported", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|NLP Services|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Services|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS/PKaaS|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Support"), "Limited Support", "Full Support"))</f>
+        <f>IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A13, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A13, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A13, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A13, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|LLM|"&amp;$A13, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A13, Service_Input!$E:$E, 0))="Not Supported"), "Not Supported", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|LLM|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Support"), "Limited Support", "Full Support"))</f>
         <v/>
       </c>
       <c r="D13" s="9">
-        <f>IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|NLP Services|"&amp;$A13, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Services|"&amp;$A13, Service_Input!$E:$E, 0))="Not Supported"), "Not Supported", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|NLP Services|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Services|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Support"), "Limited Support", "Full Support"))</f>
+        <f>IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A13, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A13, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A13, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A13, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|LLM|"&amp;$A13, Service_Input!$E:$E, 0))="Not Supported"), "Not Supported", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|LLM|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Support"), "Limited Support", "Full Support"))</f>
         <v/>
       </c>
       <c r="E13" s="9">
-        <f>IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A13, Service_Input!$E:$E, 0))="Not Supported", "Not Supported", IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Support", "Limited Support", "Full Support"))</f>
+        <f>IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A13, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A13, Service_Input!$E:$E, 0))="Not Supported"), "Not Supported", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Support"), "Limited Support", "Full Support"))</f>
         <v/>
       </c>
     </row>
@@ -4653,19 +10317,19 @@
         </is>
       </c>
       <c r="B14" s="9">
-        <f>IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A14, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Services|"&amp;$A14, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS/PKaaS|"&amp;$A14, Service_Input!$E:$E, 0))="Not Supported"), "Not Supported", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Services|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS/PKaaS|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Support"), "Limited Support", "Full Support"))</f>
+        <f>IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A14, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A14, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|LLM|"&amp;$A14, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A14, Service_Input!$E:$E, 0))="Not Supported"), "Not Supported", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|LLM|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Support"), "Limited Support", "Full Support"))</f>
         <v/>
       </c>
       <c r="C14" s="9">
-        <f>IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A14, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|NLP Services|"&amp;$A14, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Services|"&amp;$A14, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS/PKaaS|"&amp;$A14, Service_Input!$E:$E, 0))="Not Supported"), "Not Supported", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|NLP Services|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Services|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS/PKaaS|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Support"), "Limited Support", "Full Support"))</f>
+        <f>IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A14, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A14, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A14, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A14, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|LLM|"&amp;$A14, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A14, Service_Input!$E:$E, 0))="Not Supported"), "Not Supported", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|LLM|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Support"), "Limited Support", "Full Support"))</f>
         <v/>
       </c>
       <c r="D14" s="9">
-        <f>IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|NLP Services|"&amp;$A14, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Services|"&amp;$A14, Service_Input!$E:$E, 0))="Not Supported"), "Not Supported", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|NLP Services|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Services|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Support"), "Limited Support", "Full Support"))</f>
+        <f>IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A14, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A14, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A14, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A14, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|LLM|"&amp;$A14, Service_Input!$E:$E, 0))="Not Supported"), "Not Supported", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|LLM|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Support"), "Limited Support", "Full Support"))</f>
         <v/>
       </c>
       <c r="E14" s="9">
-        <f>IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A14, Service_Input!$E:$E, 0))="Not Supported", "Not Supported", IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Support", "Limited Support", "Full Support"))</f>
+        <f>IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A14, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A14, Service_Input!$E:$E, 0))="Not Supported"), "Not Supported", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Support"), "Limited Support", "Full Support"))</f>
         <v/>
       </c>
     </row>

--- a/Product Language Matrix/Smart_Availability_Matrix.xlsx
+++ b/Product Language Matrix/Smart_Availability_Matrix.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E351"/>
+  <dimension ref="A1:E386"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -560,7 +560,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Full Support</t>
         </is>
       </c>
       <c r="E2">
@@ -586,7 +586,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E3">
@@ -638,7 +638,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Full Support</t>
         </is>
       </c>
       <c r="E5">
@@ -690,7 +690,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E7">
@@ -794,7 +794,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E11">
@@ -846,7 +846,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Full Support</t>
         </is>
       </c>
       <c r="E13">
@@ -1002,7 +1002,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E19">
@@ -1054,7 +1054,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Limited Support</t>
         </is>
       </c>
       <c r="E21">
@@ -1080,7 +1080,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Full Support</t>
         </is>
       </c>
       <c r="E22">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E27">
@@ -1236,7 +1236,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E28">
@@ -1262,7 +1262,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Support</t>
         </is>
       </c>
       <c r="E29">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Support</t>
         </is>
       </c>
       <c r="E30">
@@ -1340,7 +1340,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Full Support</t>
         </is>
       </c>
       <c r="E32">
@@ -1392,7 +1392,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Support</t>
         </is>
       </c>
       <c r="E34">
@@ -1418,7 +1418,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Full Support</t>
         </is>
       </c>
       <c r="E35">
@@ -1444,7 +1444,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E36">
@@ -1496,7 +1496,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Full Support</t>
         </is>
       </c>
       <c r="E38">
@@ -1522,7 +1522,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E39">
@@ -1548,7 +1548,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E40">
@@ -1600,7 +1600,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Full Support</t>
         </is>
       </c>
       <c r="E42">
@@ -1626,7 +1626,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Limited Support</t>
         </is>
       </c>
       <c r="E43">
@@ -1704,7 +1704,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Support</t>
         </is>
       </c>
       <c r="E46">
@@ -1756,7 +1756,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Full Support</t>
         </is>
       </c>
       <c r="E48">
@@ -1782,7 +1782,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Limited Support</t>
         </is>
       </c>
       <c r="E49">
@@ -1808,7 +1808,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Limited Support</t>
         </is>
       </c>
       <c r="E50">
@@ -1834,7 +1834,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E51">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Limited Support</t>
         </is>
       </c>
       <c r="E54">
@@ -1990,7 +1990,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Full Support</t>
         </is>
       </c>
       <c r="E57">
@@ -2016,7 +2016,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Limited Support</t>
         </is>
       </c>
       <c r="E58">
@@ -2042,7 +2042,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Full Support</t>
         </is>
       </c>
       <c r="E59">
@@ -2068,7 +2068,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Full Support</t>
         </is>
       </c>
       <c r="E60">
@@ -2094,7 +2094,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Full Support</t>
         </is>
       </c>
       <c r="E61">
@@ -2120,7 +2120,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E62">
@@ -2146,7 +2146,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E63">
@@ -2172,7 +2172,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Full Support</t>
         </is>
       </c>
       <c r="E64">
@@ -2198,7 +2198,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Full Support</t>
         </is>
       </c>
       <c r="E65">
@@ -2224,7 +2224,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E66">
@@ -2276,7 +2276,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Full Support</t>
         </is>
       </c>
       <c r="E68">
@@ -2302,7 +2302,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Limited Support</t>
         </is>
       </c>
       <c r="E69">
@@ -2328,7 +2328,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E70">
@@ -2365,12 +2365,12 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Europe</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>ASR</t>
+          <t>KaaS</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2380,7 +2380,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E72">
@@ -2391,12 +2391,12 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Europe</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>ASR</t>
+          <t>KaaS</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2406,7 +2406,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E73">
@@ -2417,12 +2417,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Europe</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>ASR</t>
+          <t>KaaS</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2443,12 +2443,12 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Europe</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>ASR</t>
+          <t>KaaS</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2469,12 +2469,12 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Europe</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>ASR</t>
+          <t>KaaS</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2484,7 +2484,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Full Support</t>
         </is>
       </c>
       <c r="E76">
@@ -2495,12 +2495,12 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Europe</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>ASR</t>
+          <t>KaaS</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2510,7 +2510,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Full Support</t>
         </is>
       </c>
       <c r="E77">
@@ -2521,12 +2521,12 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Europe</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>ASR</t>
+          <t>KaaS</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Support</t>
         </is>
       </c>
       <c r="E78">
@@ -2552,7 +2552,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Redaction</t>
+          <t>ASR</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2578,7 +2578,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Redaction</t>
+          <t>ASR</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -2588,7 +2588,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Full Support</t>
         </is>
       </c>
       <c r="E80">
@@ -2604,7 +2604,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Redaction</t>
+          <t>ASR</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -2614,7 +2614,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Full Support</t>
         </is>
       </c>
       <c r="E81">
@@ -2630,7 +2630,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Redaction</t>
+          <t>ASR</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -2640,7 +2640,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Full Support</t>
         </is>
       </c>
       <c r="E82">
@@ -2656,7 +2656,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Redaction</t>
+          <t>ASR</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -2682,7 +2682,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Redaction</t>
+          <t>ASR</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -2692,7 +2692,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Limited Support</t>
         </is>
       </c>
       <c r="E84">
@@ -2708,7 +2708,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Redaction</t>
+          <t>ASR</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -2734,7 +2734,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Conversation Facts</t>
+          <t>Redaction</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -2744,7 +2744,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E86">
@@ -2760,7 +2760,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Conversation Facts</t>
+          <t>Redaction</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -2770,7 +2770,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Limited Support</t>
         </is>
       </c>
       <c r="E87">
@@ -2786,7 +2786,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Conversation Facts</t>
+          <t>Redaction</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -2812,7 +2812,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Conversation Facts</t>
+          <t>Redaction</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -2822,7 +2822,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Support</t>
         </is>
       </c>
       <c r="E89">
@@ -2838,7 +2838,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Conversation Facts</t>
+          <t>Redaction</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -2864,7 +2864,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Conversation Facts</t>
+          <t>Redaction</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -2874,7 +2874,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E91">
@@ -2890,7 +2890,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Conversation Facts</t>
+          <t>Redaction</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -2916,7 +2916,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Gen AI Disposition</t>
+          <t>Conversation Facts</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -2926,7 +2926,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Support</t>
         </is>
       </c>
       <c r="E93">
@@ -2942,7 +2942,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Gen AI Disposition</t>
+          <t>Conversation Facts</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -2952,7 +2952,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Full Support</t>
         </is>
       </c>
       <c r="E94">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Gen AI Disposition</t>
+          <t>Conversation Facts</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -2994,7 +2994,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Gen AI Disposition</t>
+          <t>Conversation Facts</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -3004,7 +3004,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Support</t>
         </is>
       </c>
       <c r="E96">
@@ -3020,7 +3020,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Gen AI Disposition</t>
+          <t>Conversation Facts</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -3030,7 +3030,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Limited Support</t>
         </is>
       </c>
       <c r="E97">
@@ -3046,7 +3046,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Gen AI Disposition</t>
+          <t>Conversation Facts</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -3072,7 +3072,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Gen AI Disposition</t>
+          <t>Conversation Facts</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -3082,7 +3082,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Full Support</t>
         </is>
       </c>
       <c r="E99">
@@ -3098,7 +3098,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>ITN</t>
+          <t>Gen AI Disposition</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -3124,7 +3124,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>ITN</t>
+          <t>Gen AI Disposition</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -3134,7 +3134,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E101">
@@ -3150,7 +3150,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>ITN</t>
+          <t>Gen AI Disposition</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -3176,7 +3176,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>ITN</t>
+          <t>Gen AI Disposition</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -3186,7 +3186,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Full Support</t>
         </is>
       </c>
       <c r="E103">
@@ -3202,7 +3202,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>ITN</t>
+          <t>Gen AI Disposition</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -3212,7 +3212,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Support</t>
         </is>
       </c>
       <c r="E104">
@@ -3228,7 +3228,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>ITN</t>
+          <t>Gen AI Disposition</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -3238,7 +3238,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Support</t>
         </is>
       </c>
       <c r="E105">
@@ -3254,7 +3254,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>ITN</t>
+          <t>Gen AI Disposition</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -3280,7 +3280,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Intent (UniFit)</t>
+          <t>ITN</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -3290,7 +3290,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E107">
@@ -3306,7 +3306,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Intent (UniFit)</t>
+          <t>ITN</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -3332,7 +3332,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Intent (UniFit)</t>
+          <t>ITN</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -3342,7 +3342,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Full Support</t>
         </is>
       </c>
       <c r="E109">
@@ -3358,7 +3358,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Intent (UniFit)</t>
+          <t>ITN</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -3384,7 +3384,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Intent (UniFit)</t>
+          <t>ITN</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -3410,7 +3410,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Intent (UniFit)</t>
+          <t>ITN</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -3436,7 +3436,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Intent (UniFit)</t>
+          <t>ITN</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -3462,7 +3462,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Entity (NER/Spacy)</t>
+          <t>Intent (UniFit)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -3472,7 +3472,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E114">
@@ -3488,7 +3488,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Entity (NER/Spacy)</t>
+          <t>Intent (UniFit)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -3498,7 +3498,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E115">
@@ -3514,7 +3514,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Entity (NER/Spacy)</t>
+          <t>Intent (UniFit)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -3540,7 +3540,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Entity (NER/Spacy)</t>
+          <t>Intent (UniFit)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -3550,7 +3550,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Full Support</t>
         </is>
       </c>
       <c r="E117">
@@ -3566,7 +3566,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Entity (NER/Spacy)</t>
+          <t>Intent (UniFit)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -3576,7 +3576,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Full Support</t>
         </is>
       </c>
       <c r="E118">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Entity (NER/Spacy)</t>
+          <t>Intent (UniFit)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -3602,7 +3602,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Full Support</t>
         </is>
       </c>
       <c r="E119">
@@ -3618,7 +3618,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Entity (NER/Spacy)</t>
+          <t>Intent (UniFit)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -3628,7 +3628,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Support</t>
         </is>
       </c>
       <c r="E120">
@@ -3644,7 +3644,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Gen AI Summary</t>
+          <t>Entity (NER/Spacy)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -3670,7 +3670,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Gen AI Summary</t>
+          <t>Entity (NER/Spacy)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -3696,7 +3696,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Gen AI Summary</t>
+          <t>Entity (NER/Spacy)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -3722,7 +3722,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Gen AI Summary</t>
+          <t>Entity (NER/Spacy)</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -3732,7 +3732,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Support</t>
         </is>
       </c>
       <c r="E124">
@@ -3748,7 +3748,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Gen AI Summary</t>
+          <t>Entity (NER/Spacy)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -3774,7 +3774,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Gen AI Summary</t>
+          <t>Entity (NER/Spacy)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Full Support</t>
         </is>
       </c>
       <c r="E126">
@@ -3800,7 +3800,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Gen AI Summary</t>
+          <t>Entity (NER/Spacy)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -3810,7 +3810,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Limited Support</t>
         </is>
       </c>
       <c r="E127">
@@ -3826,7 +3826,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Pro-active Service</t>
+          <t>Gen AI Summary</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -3852,7 +3852,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Pro-active Service</t>
+          <t>Gen AI Summary</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -3862,7 +3862,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Support</t>
         </is>
       </c>
       <c r="E129">
@@ -3878,7 +3878,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Pro-active Service</t>
+          <t>Gen AI Summary</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -3904,7 +3904,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Pro-active Service</t>
+          <t>Gen AI Summary</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -3914,7 +3914,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E131">
@@ -3930,7 +3930,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Pro-active Service</t>
+          <t>Gen AI Summary</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -3956,7 +3956,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Pro-active Service</t>
+          <t>Gen AI Summary</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -3966,7 +3966,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Full Support</t>
         </is>
       </c>
       <c r="E133">
@@ -3982,7 +3982,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Pro-active Service</t>
+          <t>Gen AI Summary</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -4008,7 +4008,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>LLM</t>
+          <t>Pro-active Service</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -4018,7 +4018,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Support</t>
         </is>
       </c>
       <c r="E135">
@@ -4034,7 +4034,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>LLM</t>
+          <t>Pro-active Service</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -4060,7 +4060,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>LLM</t>
+          <t>Pro-active Service</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -4070,7 +4070,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E137">
@@ -4086,7 +4086,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>LLM</t>
+          <t>Pro-active Service</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -4096,7 +4096,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E138">
@@ -4112,7 +4112,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>LLM</t>
+          <t>Pro-active Service</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -4138,7 +4138,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>LLM</t>
+          <t>Pro-active Service</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -4148,7 +4148,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Full Support</t>
         </is>
       </c>
       <c r="E140">
@@ -4164,7 +4164,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>LLM</t>
+          <t>Pro-active Service</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -4185,12 +4185,12 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>UAE</t>
+          <t>Europe</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>ASR</t>
+          <t>LLM</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -4200,7 +4200,7 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Full Support</t>
         </is>
       </c>
       <c r="E142">
@@ -4211,12 +4211,12 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>UAE</t>
+          <t>Europe</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>ASR</t>
+          <t>LLM</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -4237,12 +4237,12 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>UAE</t>
+          <t>Europe</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>ASR</t>
+          <t>LLM</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -4252,7 +4252,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E144">
@@ -4263,12 +4263,12 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>UAE</t>
+          <t>Europe</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>ASR</t>
+          <t>LLM</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -4289,12 +4289,12 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>UAE</t>
+          <t>Europe</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>ASR</t>
+          <t>LLM</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -4304,7 +4304,7 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E146">
@@ -4315,12 +4315,12 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>UAE</t>
+          <t>Europe</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>ASR</t>
+          <t>LLM</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -4330,7 +4330,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Full Support</t>
         </is>
       </c>
       <c r="E147">
@@ -4341,12 +4341,12 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>UAE</t>
+          <t>Europe</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>ASR</t>
+          <t>LLM</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -4367,12 +4367,12 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>UAE</t>
+          <t>Europe</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Redaction</t>
+          <t>KaaS</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -4382,7 +4382,7 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E149">
@@ -4393,12 +4393,12 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>UAE</t>
+          <t>Europe</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Redaction</t>
+          <t>KaaS</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Full Support</t>
         </is>
       </c>
       <c r="E150">
@@ -4419,12 +4419,12 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>UAE</t>
+          <t>Europe</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Redaction</t>
+          <t>KaaS</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -4445,12 +4445,12 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>UAE</t>
+          <t>Europe</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Redaction</t>
+          <t>KaaS</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -4460,7 +4460,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Full Support</t>
         </is>
       </c>
       <c r="E152">
@@ -4471,12 +4471,12 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>UAE</t>
+          <t>Europe</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Redaction</t>
+          <t>KaaS</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -4497,12 +4497,12 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>UAE</t>
+          <t>Europe</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Redaction</t>
+          <t>KaaS</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -4512,7 +4512,7 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E154">
@@ -4523,12 +4523,12 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>UAE</t>
+          <t>Europe</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Redaction</t>
+          <t>KaaS</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -4538,7 +4538,7 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E155">
@@ -4554,7 +4554,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Conversation Facts</t>
+          <t>ASR</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -4564,7 +4564,7 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Limited Support</t>
         </is>
       </c>
       <c r="E156">
@@ -4580,7 +4580,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Conversation Facts</t>
+          <t>ASR</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -4606,7 +4606,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Conversation Facts</t>
+          <t>ASR</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -4632,7 +4632,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Conversation Facts</t>
+          <t>ASR</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -4658,7 +4658,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Conversation Facts</t>
+          <t>ASR</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -4668,7 +4668,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E160">
@@ -4684,7 +4684,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Conversation Facts</t>
+          <t>ASR</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -4694,7 +4694,7 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Full Support</t>
         </is>
       </c>
       <c r="E161">
@@ -4710,7 +4710,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Conversation Facts</t>
+          <t>ASR</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -4720,7 +4720,7 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Limited Support</t>
         </is>
       </c>
       <c r="E162">
@@ -4736,7 +4736,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Gen AI Disposition</t>
+          <t>Redaction</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -4762,7 +4762,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Gen AI Disposition</t>
+          <t>Redaction</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -4772,7 +4772,7 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E164">
@@ -4788,7 +4788,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Gen AI Disposition</t>
+          <t>Redaction</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -4814,7 +4814,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Gen AI Disposition</t>
+          <t>Redaction</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Gen AI Disposition</t>
+          <t>Redaction</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -4850,7 +4850,7 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Limited Support</t>
         </is>
       </c>
       <c r="E167">
@@ -4866,7 +4866,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Gen AI Disposition</t>
+          <t>Redaction</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -4892,7 +4892,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Gen AI Disposition</t>
+          <t>Redaction</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -4902,7 +4902,7 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E169">
@@ -4918,7 +4918,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>ITN</t>
+          <t>Conversation Facts</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -4928,7 +4928,7 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Full Support</t>
         </is>
       </c>
       <c r="E170">
@@ -4944,7 +4944,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>ITN</t>
+          <t>Conversation Facts</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -4954,7 +4954,7 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Limited Support</t>
         </is>
       </c>
       <c r="E171">
@@ -4970,7 +4970,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>ITN</t>
+          <t>Conversation Facts</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -4996,7 +4996,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>ITN</t>
+          <t>Conversation Facts</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -5022,7 +5022,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>ITN</t>
+          <t>Conversation Facts</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -5048,7 +5048,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>ITN</t>
+          <t>Conversation Facts</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -5074,7 +5074,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>ITN</t>
+          <t>Conversation Facts</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -5100,7 +5100,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Intent (UniFit)</t>
+          <t>Gen AI Disposition</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -5126,7 +5126,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Intent (UniFit)</t>
+          <t>Gen AI Disposition</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -5152,7 +5152,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Intent (UniFit)</t>
+          <t>Gen AI Disposition</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -5162,7 +5162,7 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Full Support</t>
         </is>
       </c>
       <c r="E179">
@@ -5178,7 +5178,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Intent (UniFit)</t>
+          <t>Gen AI Disposition</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -5188,7 +5188,7 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Full Support</t>
         </is>
       </c>
       <c r="E180">
@@ -5204,7 +5204,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Intent (UniFit)</t>
+          <t>Gen AI Disposition</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -5214,7 +5214,7 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E181">
@@ -5230,7 +5230,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Intent (UniFit)</t>
+          <t>Gen AI Disposition</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -5256,7 +5256,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Intent (UniFit)</t>
+          <t>Gen AI Disposition</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -5266,7 +5266,7 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E183">
@@ -5282,7 +5282,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Entity (NER/Spacy)</t>
+          <t>ITN</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -5308,7 +5308,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Entity (NER/Spacy)</t>
+          <t>ITN</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -5334,7 +5334,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Entity (NER/Spacy)</t>
+          <t>ITN</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -5344,7 +5344,7 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Full Support</t>
         </is>
       </c>
       <c r="E186">
@@ -5360,7 +5360,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Entity (NER/Spacy)</t>
+          <t>ITN</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -5386,7 +5386,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Entity (NER/Spacy)</t>
+          <t>ITN</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -5396,7 +5396,7 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Limited Support</t>
         </is>
       </c>
       <c r="E188">
@@ -5412,7 +5412,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Entity (NER/Spacy)</t>
+          <t>ITN</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -5422,7 +5422,7 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Full Support</t>
         </is>
       </c>
       <c r="E189">
@@ -5438,7 +5438,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Entity (NER/Spacy)</t>
+          <t>ITN</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Gen AI Summary</t>
+          <t>Intent (UniFit)</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -5474,7 +5474,7 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E191">
@@ -5490,7 +5490,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Gen AI Summary</t>
+          <t>Intent (UniFit)</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -5516,7 +5516,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Gen AI Summary</t>
+          <t>Intent (UniFit)</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -5542,7 +5542,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Gen AI Summary</t>
+          <t>Intent (UniFit)</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -5552,7 +5552,7 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Full Support</t>
         </is>
       </c>
       <c r="E194">
@@ -5568,7 +5568,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Gen AI Summary</t>
+          <t>Intent (UniFit)</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -5578,7 +5578,7 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E195">
@@ -5594,7 +5594,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Gen AI Summary</t>
+          <t>Intent (UniFit)</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -5604,7 +5604,7 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Limited Support</t>
         </is>
       </c>
       <c r="E196">
@@ -5620,7 +5620,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Gen AI Summary</t>
+          <t>Intent (UniFit)</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -5630,7 +5630,7 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Limited Support</t>
         </is>
       </c>
       <c r="E197">
@@ -5646,7 +5646,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Pro-active Service</t>
+          <t>Entity (NER/Spacy)</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E198">
@@ -5672,7 +5672,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Pro-active Service</t>
+          <t>Entity (NER/Spacy)</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -5698,7 +5698,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Pro-active Service</t>
+          <t>Entity (NER/Spacy)</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -5708,7 +5708,7 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Support</t>
         </is>
       </c>
       <c r="E200">
@@ -5724,7 +5724,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Pro-active Service</t>
+          <t>Entity (NER/Spacy)</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -5734,7 +5734,7 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Full Support</t>
         </is>
       </c>
       <c r="E201">
@@ -5750,7 +5750,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Pro-active Service</t>
+          <t>Entity (NER/Spacy)</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -5776,7 +5776,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Pro-active Service</t>
+          <t>Entity (NER/Spacy)</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -5802,7 +5802,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Pro-active Service</t>
+          <t>Entity (NER/Spacy)</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -5812,7 +5812,7 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Full Support</t>
         </is>
       </c>
       <c r="E204">
@@ -5828,7 +5828,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>LLM</t>
+          <t>Gen AI Summary</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -5838,7 +5838,7 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E205">
@@ -5854,7 +5854,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>LLM</t>
+          <t>Gen AI Summary</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -5880,7 +5880,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>LLM</t>
+          <t>Gen AI Summary</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -5890,7 +5890,7 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Full Support</t>
         </is>
       </c>
       <c r="E207">
@@ -5906,7 +5906,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>LLM</t>
+          <t>Gen AI Summary</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -5916,7 +5916,7 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Full Support</t>
         </is>
       </c>
       <c r="E208">
@@ -5932,7 +5932,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>LLM</t>
+          <t>Gen AI Summary</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -5942,7 +5942,7 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E209">
@@ -5958,7 +5958,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>LLM</t>
+          <t>Gen AI Summary</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -5968,7 +5968,7 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E210">
@@ -5984,7 +5984,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>LLM</t>
+          <t>Gen AI Summary</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -5994,7 +5994,7 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Support</t>
         </is>
       </c>
       <c r="E211">
@@ -6005,12 +6005,12 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>APAC</t>
+          <t>UAE</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>ASR</t>
+          <t>Pro-active Service</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -6020,7 +6020,7 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Full Support</t>
         </is>
       </c>
       <c r="E212">
@@ -6031,12 +6031,12 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>APAC</t>
+          <t>UAE</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>ASR</t>
+          <t>Pro-active Service</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -6046,7 +6046,7 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Limited Support</t>
         </is>
       </c>
       <c r="E213">
@@ -6057,12 +6057,12 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>APAC</t>
+          <t>UAE</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>ASR</t>
+          <t>Pro-active Service</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -6083,12 +6083,12 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>APAC</t>
+          <t>UAE</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>ASR</t>
+          <t>Pro-active Service</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -6098,7 +6098,7 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Full Support</t>
         </is>
       </c>
       <c r="E215">
@@ -6109,12 +6109,12 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>APAC</t>
+          <t>UAE</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>ASR</t>
+          <t>Pro-active Service</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -6135,12 +6135,12 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>APAC</t>
+          <t>UAE</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>ASR</t>
+          <t>Pro-active Service</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -6150,7 +6150,7 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Full Support</t>
         </is>
       </c>
       <c r="E217">
@@ -6161,12 +6161,12 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>APAC</t>
+          <t>UAE</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>ASR</t>
+          <t>Pro-active Service</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -6176,7 +6176,7 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E218">
@@ -6187,12 +6187,12 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>APAC</t>
+          <t>UAE</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Redaction</t>
+          <t>LLM</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -6213,12 +6213,12 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>APAC</t>
+          <t>UAE</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Redaction</t>
+          <t>LLM</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -6228,7 +6228,7 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E220">
@@ -6239,12 +6239,12 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>APAC</t>
+          <t>UAE</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Redaction</t>
+          <t>LLM</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -6254,7 +6254,7 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E221">
@@ -6265,12 +6265,12 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>APAC</t>
+          <t>UAE</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Redaction</t>
+          <t>LLM</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E222">
@@ -6291,12 +6291,12 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>APAC</t>
+          <t>UAE</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Redaction</t>
+          <t>LLM</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -6306,7 +6306,7 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E223">
@@ -6317,12 +6317,12 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>APAC</t>
+          <t>UAE</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Redaction</t>
+          <t>LLM</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -6332,7 +6332,7 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Support</t>
         </is>
       </c>
       <c r="E224">
@@ -6343,12 +6343,12 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>APAC</t>
+          <t>UAE</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Redaction</t>
+          <t>LLM</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -6358,7 +6358,7 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Limited Support</t>
         </is>
       </c>
       <c r="E225">
@@ -6369,12 +6369,12 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>APAC</t>
+          <t>UAE</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Conversation Facts</t>
+          <t>KaaS</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -6384,7 +6384,7 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Full Support</t>
         </is>
       </c>
       <c r="E226">
@@ -6395,12 +6395,12 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>APAC</t>
+          <t>UAE</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Conversation Facts</t>
+          <t>KaaS</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -6421,12 +6421,12 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>APAC</t>
+          <t>UAE</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Conversation Facts</t>
+          <t>KaaS</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -6447,12 +6447,12 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>APAC</t>
+          <t>UAE</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Conversation Facts</t>
+          <t>KaaS</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -6462,7 +6462,7 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Full Support</t>
         </is>
       </c>
       <c r="E229">
@@ -6473,12 +6473,12 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>APAC</t>
+          <t>UAE</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Conversation Facts</t>
+          <t>KaaS</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -6488,7 +6488,7 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Limited Support</t>
         </is>
       </c>
       <c r="E230">
@@ -6499,12 +6499,12 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>APAC</t>
+          <t>UAE</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Conversation Facts</t>
+          <t>KaaS</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -6514,7 +6514,7 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E231">
@@ -6525,12 +6525,12 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>APAC</t>
+          <t>UAE</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Conversation Facts</t>
+          <t>KaaS</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -6540,7 +6540,7 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E232">
@@ -6556,7 +6556,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Gen AI Disposition</t>
+          <t>ASR</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -6582,7 +6582,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Gen AI Disposition</t>
+          <t>ASR</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -6592,7 +6592,7 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Support</t>
         </is>
       </c>
       <c r="E234">
@@ -6608,7 +6608,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Gen AI Disposition</t>
+          <t>ASR</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -6634,7 +6634,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Gen AI Disposition</t>
+          <t>ASR</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -6644,7 +6644,7 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Full Support</t>
         </is>
       </c>
       <c r="E236">
@@ -6660,7 +6660,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Gen AI Disposition</t>
+          <t>ASR</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -6670,7 +6670,7 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Full Support</t>
         </is>
       </c>
       <c r="E237">
@@ -6686,7 +6686,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Gen AI Disposition</t>
+          <t>ASR</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -6696,7 +6696,7 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Full Support</t>
         </is>
       </c>
       <c r="E238">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Gen AI Disposition</t>
+          <t>ASR</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -6722,7 +6722,7 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Full Support</t>
         </is>
       </c>
       <c r="E239">
@@ -6738,7 +6738,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>ITN</t>
+          <t>Redaction</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -6748,7 +6748,7 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Full Support</t>
         </is>
       </c>
       <c r="E240">
@@ -6764,7 +6764,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>ITN</t>
+          <t>Redaction</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -6774,7 +6774,7 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Limited Support</t>
         </is>
       </c>
       <c r="E241">
@@ -6790,7 +6790,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>ITN</t>
+          <t>Redaction</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -6800,7 +6800,7 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Full Support</t>
         </is>
       </c>
       <c r="E242">
@@ -6816,7 +6816,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>ITN</t>
+          <t>Redaction</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -6842,7 +6842,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>ITN</t>
+          <t>Redaction</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -6852,7 +6852,7 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Support</t>
         </is>
       </c>
       <c r="E244">
@@ -6868,7 +6868,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>ITN</t>
+          <t>Redaction</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -6894,7 +6894,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>ITN</t>
+          <t>Redaction</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -6920,7 +6920,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Intent (UniFit)</t>
+          <t>Conversation Facts</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -6930,7 +6930,7 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E247">
@@ -6946,7 +6946,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Intent (UniFit)</t>
+          <t>Conversation Facts</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -6956,7 +6956,7 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Limited Support</t>
         </is>
       </c>
       <c r="E248">
@@ -6972,7 +6972,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Intent (UniFit)</t>
+          <t>Conversation Facts</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -6998,7 +6998,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Intent (UniFit)</t>
+          <t>Conversation Facts</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -7008,7 +7008,7 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E250">
@@ -7024,7 +7024,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Intent (UniFit)</t>
+          <t>Conversation Facts</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -7050,7 +7050,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Intent (UniFit)</t>
+          <t>Conversation Facts</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -7060,7 +7060,7 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Full Support</t>
         </is>
       </c>
       <c r="E252">
@@ -7076,7 +7076,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Intent (UniFit)</t>
+          <t>Conversation Facts</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -7086,7 +7086,7 @@
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E253">
@@ -7102,7 +7102,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Entity (NER/Spacy)</t>
+          <t>Gen AI Disposition</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -7112,7 +7112,7 @@
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Limited Support</t>
         </is>
       </c>
       <c r="E254">
@@ -7128,7 +7128,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Entity (NER/Spacy)</t>
+          <t>Gen AI Disposition</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -7138,7 +7138,7 @@
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Support</t>
         </is>
       </c>
       <c r="E255">
@@ -7154,7 +7154,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Entity (NER/Spacy)</t>
+          <t>Gen AI Disposition</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -7164,7 +7164,7 @@
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Full Support</t>
         </is>
       </c>
       <c r="E256">
@@ -7180,7 +7180,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Entity (NER/Spacy)</t>
+          <t>Gen AI Disposition</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -7190,7 +7190,7 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Limited Support</t>
         </is>
       </c>
       <c r="E257">
@@ -7206,7 +7206,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Entity (NER/Spacy)</t>
+          <t>Gen AI Disposition</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -7232,7 +7232,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Entity (NER/Spacy)</t>
+          <t>Gen AI Disposition</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -7258,7 +7258,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Entity (NER/Spacy)</t>
+          <t>Gen AI Disposition</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -7284,7 +7284,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Gen AI Summary</t>
+          <t>ITN</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -7294,7 +7294,7 @@
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Support</t>
         </is>
       </c>
       <c r="E261">
@@ -7310,7 +7310,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Gen AI Summary</t>
+          <t>ITN</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -7320,7 +7320,7 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E262">
@@ -7336,7 +7336,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Gen AI Summary</t>
+          <t>ITN</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -7362,7 +7362,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Gen AI Summary</t>
+          <t>ITN</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -7372,7 +7372,7 @@
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E264">
@@ -7388,7 +7388,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Gen AI Summary</t>
+          <t>ITN</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -7398,7 +7398,7 @@
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E265">
@@ -7414,7 +7414,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Gen AI Summary</t>
+          <t>ITN</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -7424,7 +7424,7 @@
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Limited Support</t>
         </is>
       </c>
       <c r="E266">
@@ -7440,7 +7440,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Gen AI Summary</t>
+          <t>ITN</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -7466,7 +7466,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Pro-active Service</t>
+          <t>Intent (UniFit)</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -7476,7 +7476,7 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Support</t>
         </is>
       </c>
       <c r="E268">
@@ -7492,7 +7492,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Pro-active Service</t>
+          <t>Intent (UniFit)</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -7502,7 +7502,7 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E269">
@@ -7518,7 +7518,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Pro-active Service</t>
+          <t>Intent (UniFit)</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -7528,7 +7528,7 @@
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E270">
@@ -7544,7 +7544,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Pro-active Service</t>
+          <t>Intent (UniFit)</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -7570,7 +7570,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Pro-active Service</t>
+          <t>Intent (UniFit)</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -7580,7 +7580,7 @@
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Full Support</t>
         </is>
       </c>
       <c r="E272">
@@ -7596,7 +7596,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Pro-active Service</t>
+          <t>Intent (UniFit)</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -7622,7 +7622,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Pro-active Service</t>
+          <t>Intent (UniFit)</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -7632,7 +7632,7 @@
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E274">
@@ -7648,7 +7648,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>LLM</t>
+          <t>Entity (NER/Spacy)</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
@@ -7658,7 +7658,7 @@
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E275">
@@ -7674,7 +7674,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>LLM</t>
+          <t>Entity (NER/Spacy)</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -7700,7 +7700,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>LLM</t>
+          <t>Entity (NER/Spacy)</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -7726,7 +7726,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>LLM</t>
+          <t>Entity (NER/Spacy)</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -7736,7 +7736,7 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Full Support</t>
         </is>
       </c>
       <c r="E278">
@@ -7752,7 +7752,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>LLM</t>
+          <t>Entity (NER/Spacy)</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -7762,7 +7762,7 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Support</t>
         </is>
       </c>
       <c r="E279">
@@ -7778,7 +7778,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>LLM</t>
+          <t>Entity (NER/Spacy)</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -7788,7 +7788,7 @@
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Full Support</t>
         </is>
       </c>
       <c r="E280">
@@ -7804,7 +7804,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>LLM</t>
+          <t>Entity (NER/Spacy)</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -7814,7 +7814,7 @@
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E281">
@@ -7825,12 +7825,12 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>Saudi</t>
+          <t>APAC</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>ASR</t>
+          <t>Gen AI Summary</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -7840,7 +7840,7 @@
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Limited Support</t>
         </is>
       </c>
       <c r="E282">
@@ -7851,12 +7851,12 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>Saudi</t>
+          <t>APAC</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>ASR</t>
+          <t>Gen AI Summary</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -7866,7 +7866,7 @@
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Limited Support</t>
         </is>
       </c>
       <c r="E283">
@@ -7877,12 +7877,12 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>Saudi</t>
+          <t>APAC</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>ASR</t>
+          <t>Gen AI Summary</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -7892,7 +7892,7 @@
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Full Support</t>
         </is>
       </c>
       <c r="E284">
@@ -7903,12 +7903,12 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>Saudi</t>
+          <t>APAC</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>ASR</t>
+          <t>Gen AI Summary</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
@@ -7929,12 +7929,12 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>Saudi</t>
+          <t>APAC</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>ASR</t>
+          <t>Gen AI Summary</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
@@ -7955,12 +7955,12 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>Saudi</t>
+          <t>APAC</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>ASR</t>
+          <t>Gen AI Summary</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -7970,7 +7970,7 @@
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Limited Support</t>
         </is>
       </c>
       <c r="E287">
@@ -7981,12 +7981,12 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>Saudi</t>
+          <t>APAC</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>ASR</t>
+          <t>Gen AI Summary</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -7996,7 +7996,7 @@
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E288">
@@ -8007,12 +8007,12 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>Saudi</t>
+          <t>APAC</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Redaction</t>
+          <t>Pro-active Service</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -8022,7 +8022,7 @@
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Full Support</t>
         </is>
       </c>
       <c r="E289">
@@ -8033,12 +8033,12 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>Saudi</t>
+          <t>APAC</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Redaction</t>
+          <t>Pro-active Service</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -8048,7 +8048,7 @@
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E290">
@@ -8059,12 +8059,12 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>Saudi</t>
+          <t>APAC</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>Redaction</t>
+          <t>Pro-active Service</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -8085,12 +8085,12 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>Saudi</t>
+          <t>APAC</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>Redaction</t>
+          <t>Pro-active Service</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -8111,12 +8111,12 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>Saudi</t>
+          <t>APAC</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Redaction</t>
+          <t>Pro-active Service</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -8137,12 +8137,12 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>Saudi</t>
+          <t>APAC</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Redaction</t>
+          <t>Pro-active Service</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -8152,7 +8152,7 @@
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Limited Support</t>
         </is>
       </c>
       <c r="E294">
@@ -8163,12 +8163,12 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>Saudi</t>
+          <t>APAC</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Redaction</t>
+          <t>Pro-active Service</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -8178,7 +8178,7 @@
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Full Support</t>
         </is>
       </c>
       <c r="E295">
@@ -8189,12 +8189,12 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>Saudi</t>
+          <t>APAC</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Conversation Facts</t>
+          <t>LLM</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -8204,7 +8204,7 @@
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E296">
@@ -8215,12 +8215,12 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>Saudi</t>
+          <t>APAC</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Conversation Facts</t>
+          <t>LLM</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -8241,12 +8241,12 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>Saudi</t>
+          <t>APAC</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Conversation Facts</t>
+          <t>LLM</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -8267,12 +8267,12 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>Saudi</t>
+          <t>APAC</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Conversation Facts</t>
+          <t>LLM</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -8293,12 +8293,12 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>Saudi</t>
+          <t>APAC</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Conversation Facts</t>
+          <t>LLM</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -8308,7 +8308,7 @@
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Support</t>
         </is>
       </c>
       <c r="E300">
@@ -8319,12 +8319,12 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>Saudi</t>
+          <t>APAC</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Conversation Facts</t>
+          <t>LLM</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -8334,7 +8334,7 @@
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E301">
@@ -8345,12 +8345,12 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>Saudi</t>
+          <t>APAC</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Conversation Facts</t>
+          <t>LLM</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -8371,12 +8371,12 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>Saudi</t>
+          <t>APAC</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Gen AI Disposition</t>
+          <t>KaaS</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -8397,12 +8397,12 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>Saudi</t>
+          <t>APAC</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Gen AI Disposition</t>
+          <t>KaaS</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -8423,12 +8423,12 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>Saudi</t>
+          <t>APAC</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Gen AI Disposition</t>
+          <t>KaaS</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -8449,12 +8449,12 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>Saudi</t>
+          <t>APAC</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Gen AI Disposition</t>
+          <t>KaaS</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -8475,12 +8475,12 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>Saudi</t>
+          <t>APAC</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Gen AI Disposition</t>
+          <t>KaaS</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -8501,12 +8501,12 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>Saudi</t>
+          <t>APAC</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Gen AI Disposition</t>
+          <t>KaaS</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -8516,7 +8516,7 @@
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Full Support</t>
         </is>
       </c>
       <c r="E308">
@@ -8527,12 +8527,12 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>Saudi</t>
+          <t>APAC</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Gen AI Disposition</t>
+          <t>KaaS</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -8542,7 +8542,7 @@
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Limited Support</t>
         </is>
       </c>
       <c r="E309">
@@ -8558,7 +8558,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>ITN</t>
+          <t>ASR</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -8584,7 +8584,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>ITN</t>
+          <t>ASR</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -8610,7 +8610,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>ITN</t>
+          <t>ASR</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -8636,7 +8636,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>ITN</t>
+          <t>ASR</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -8646,7 +8646,7 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Full Support</t>
         </is>
       </c>
       <c r="E313">
@@ -8662,7 +8662,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>ITN</t>
+          <t>ASR</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -8672,7 +8672,7 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Full Support</t>
         </is>
       </c>
       <c r="E314">
@@ -8688,7 +8688,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>ITN</t>
+          <t>ASR</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -8698,7 +8698,7 @@
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E315">
@@ -8714,7 +8714,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>ITN</t>
+          <t>ASR</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -8740,7 +8740,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Intent (UniFit)</t>
+          <t>Redaction</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -8750,7 +8750,7 @@
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Limited Support</t>
         </is>
       </c>
       <c r="E317">
@@ -8766,7 +8766,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Intent (UniFit)</t>
+          <t>Redaction</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -8792,7 +8792,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Intent (UniFit)</t>
+          <t>Redaction</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -8802,7 +8802,7 @@
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Limited Support</t>
         </is>
       </c>
       <c r="E319">
@@ -8818,7 +8818,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Intent (UniFit)</t>
+          <t>Redaction</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -8844,7 +8844,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Intent (UniFit)</t>
+          <t>Redaction</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -8854,7 +8854,7 @@
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E321">
@@ -8870,7 +8870,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Intent (UniFit)</t>
+          <t>Redaction</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -8896,7 +8896,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Intent (UniFit)</t>
+          <t>Redaction</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -8922,7 +8922,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Entity (NER/Spacy)</t>
+          <t>Conversation Facts</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -8932,7 +8932,7 @@
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E324">
@@ -8948,7 +8948,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Entity (NER/Spacy)</t>
+          <t>Conversation Facts</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -8958,7 +8958,7 @@
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Full Support</t>
         </is>
       </c>
       <c r="E325">
@@ -8974,7 +8974,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Entity (NER/Spacy)</t>
+          <t>Conversation Facts</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -9000,7 +9000,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Entity (NER/Spacy)</t>
+          <t>Conversation Facts</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -9010,7 +9010,7 @@
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Limited Support</t>
         </is>
       </c>
       <c r="E327">
@@ -9026,7 +9026,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Entity (NER/Spacy)</t>
+          <t>Conversation Facts</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -9052,7 +9052,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Entity (NER/Spacy)</t>
+          <t>Conversation Facts</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -9062,7 +9062,7 @@
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Full Support</t>
         </is>
       </c>
       <c r="E329">
@@ -9078,7 +9078,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Entity (NER/Spacy)</t>
+          <t>Conversation Facts</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -9088,7 +9088,7 @@
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E330">
@@ -9104,7 +9104,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Gen AI Summary</t>
+          <t>Gen AI Disposition</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -9114,7 +9114,7 @@
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E331">
@@ -9130,7 +9130,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Gen AI Summary</t>
+          <t>Gen AI Disposition</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -9140,7 +9140,7 @@
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E332">
@@ -9156,7 +9156,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Gen AI Summary</t>
+          <t>Gen AI Disposition</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -9182,7 +9182,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Gen AI Summary</t>
+          <t>Gen AI Disposition</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -9192,7 +9192,7 @@
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Full Support</t>
         </is>
       </c>
       <c r="E334">
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>Gen AI Summary</t>
+          <t>Gen AI Disposition</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -9218,7 +9218,7 @@
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E335">
@@ -9234,7 +9234,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>Gen AI Summary</t>
+          <t>Gen AI Disposition</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -9244,7 +9244,7 @@
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E336">
@@ -9260,7 +9260,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>Gen AI Summary</t>
+          <t>Gen AI Disposition</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -9286,7 +9286,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>Pro-active Service</t>
+          <t>ITN</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -9296,7 +9296,7 @@
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Limited Support</t>
         </is>
       </c>
       <c r="E338">
@@ -9312,7 +9312,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Pro-active Service</t>
+          <t>ITN</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -9338,7 +9338,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Pro-active Service</t>
+          <t>ITN</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -9364,7 +9364,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Pro-active Service</t>
+          <t>ITN</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -9374,7 +9374,7 @@
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E341">
@@ -9390,7 +9390,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Pro-active Service</t>
+          <t>ITN</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -9400,7 +9400,7 @@
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Full Support</t>
         </is>
       </c>
       <c r="E342">
@@ -9416,7 +9416,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Pro-active Service</t>
+          <t>ITN</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -9426,7 +9426,7 @@
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Limited Support</t>
         </is>
       </c>
       <c r="E343">
@@ -9442,7 +9442,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Pro-active Service</t>
+          <t>ITN</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -9452,7 +9452,7 @@
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E344">
@@ -9468,7 +9468,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>LLM</t>
+          <t>Intent (UniFit)</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -9478,7 +9478,7 @@
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Limited Support</t>
         </is>
       </c>
       <c r="E345">
@@ -9494,7 +9494,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>LLM</t>
+          <t>Intent (UniFit)</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -9520,7 +9520,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>LLM</t>
+          <t>Intent (UniFit)</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -9546,7 +9546,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>LLM</t>
+          <t>Intent (UniFit)</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -9556,7 +9556,7 @@
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Support</t>
         </is>
       </c>
       <c r="E348">
@@ -9572,7 +9572,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>LLM</t>
+          <t>Intent (UniFit)</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
@@ -9582,7 +9582,7 @@
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Full Support</t>
         </is>
       </c>
       <c r="E349">
@@ -9598,7 +9598,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>LLM</t>
+          <t>Intent (UniFit)</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -9608,7 +9608,7 @@
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E350">
@@ -9624,7 +9624,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>LLM</t>
+          <t>Intent (UniFit)</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -9634,11 +9634,921 @@
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E351">
         <f>A351&amp;"|"&amp;B351&amp;"|"&amp;C351</f>
+        <v/>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>Saudi</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>Entity (NER/Spacy)</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>Limited Support</t>
+        </is>
+      </c>
+      <c r="E352">
+        <f>A352&amp;"|"&amp;B352&amp;"|"&amp;C352</f>
+        <v/>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>Saudi</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>Entity (NER/Spacy)</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>Hindi</t>
+        </is>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>Not Supported</t>
+        </is>
+      </c>
+      <c r="E353">
+        <f>A353&amp;"|"&amp;B353&amp;"|"&amp;C353</f>
+        <v/>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>Saudi</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>Entity (NER/Spacy)</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>Spanish</t>
+        </is>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>Limited Support</t>
+        </is>
+      </c>
+      <c r="E354">
+        <f>A354&amp;"|"&amp;B354&amp;"|"&amp;C354</f>
+        <v/>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>Saudi</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>Entity (NER/Spacy)</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>German</t>
+        </is>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>Full Support</t>
+        </is>
+      </c>
+      <c r="E355">
+        <f>A355&amp;"|"&amp;B355&amp;"|"&amp;C355</f>
+        <v/>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>Saudi</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>Entity (NER/Spacy)</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>Arabic</t>
+        </is>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>Full Support</t>
+        </is>
+      </c>
+      <c r="E356">
+        <f>A356&amp;"|"&amp;B356&amp;"|"&amp;C356</f>
+        <v/>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>Saudi</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>Entity (NER/Spacy)</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>French</t>
+        </is>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>Not Supported</t>
+        </is>
+      </c>
+      <c r="E357">
+        <f>A357&amp;"|"&amp;B357&amp;"|"&amp;C357</f>
+        <v/>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>Saudi</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>Entity (NER/Spacy)</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>Italian</t>
+        </is>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>Limited Support</t>
+        </is>
+      </c>
+      <c r="E358">
+        <f>A358&amp;"|"&amp;B358&amp;"|"&amp;C358</f>
+        <v/>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>Saudi</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>Gen AI Summary</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>Not Supported</t>
+        </is>
+      </c>
+      <c r="E359">
+        <f>A359&amp;"|"&amp;B359&amp;"|"&amp;C359</f>
+        <v/>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>Saudi</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>Gen AI Summary</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>Hindi</t>
+        </is>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>Not Supported</t>
+        </is>
+      </c>
+      <c r="E360">
+        <f>A360&amp;"|"&amp;B360&amp;"|"&amp;C360</f>
+        <v/>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>Saudi</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>Gen AI Summary</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>Spanish</t>
+        </is>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>Full Support</t>
+        </is>
+      </c>
+      <c r="E361">
+        <f>A361&amp;"|"&amp;B361&amp;"|"&amp;C361</f>
+        <v/>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>Saudi</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>Gen AI Summary</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>German</t>
+        </is>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>Full Support</t>
+        </is>
+      </c>
+      <c r="E362">
+        <f>A362&amp;"|"&amp;B362&amp;"|"&amp;C362</f>
+        <v/>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>Saudi</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>Gen AI Summary</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>Arabic</t>
+        </is>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>Limited Support</t>
+        </is>
+      </c>
+      <c r="E363">
+        <f>A363&amp;"|"&amp;B363&amp;"|"&amp;C363</f>
+        <v/>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>Saudi</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>Gen AI Summary</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>French</t>
+        </is>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>Limited Support</t>
+        </is>
+      </c>
+      <c r="E364">
+        <f>A364&amp;"|"&amp;B364&amp;"|"&amp;C364</f>
+        <v/>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>Saudi</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>Gen AI Summary</t>
+        </is>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>Italian</t>
+        </is>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>Full Support</t>
+        </is>
+      </c>
+      <c r="E365">
+        <f>A365&amp;"|"&amp;B365&amp;"|"&amp;C365</f>
+        <v/>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>Saudi</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>Pro-active Service</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>Full Support</t>
+        </is>
+      </c>
+      <c r="E366">
+        <f>A366&amp;"|"&amp;B366&amp;"|"&amp;C366</f>
+        <v/>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>Saudi</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>Pro-active Service</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>Hindi</t>
+        </is>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>Full Support</t>
+        </is>
+      </c>
+      <c r="E367">
+        <f>A367&amp;"|"&amp;B367&amp;"|"&amp;C367</f>
+        <v/>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>Saudi</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>Pro-active Service</t>
+        </is>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>Spanish</t>
+        </is>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>Full Support</t>
+        </is>
+      </c>
+      <c r="E368">
+        <f>A368&amp;"|"&amp;B368&amp;"|"&amp;C368</f>
+        <v/>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>Saudi</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>Pro-active Service</t>
+        </is>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>German</t>
+        </is>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>Not Supported</t>
+        </is>
+      </c>
+      <c r="E369">
+        <f>A369&amp;"|"&amp;B369&amp;"|"&amp;C369</f>
+        <v/>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>Saudi</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>Pro-active Service</t>
+        </is>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>Arabic</t>
+        </is>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>Full Support</t>
+        </is>
+      </c>
+      <c r="E370">
+        <f>A370&amp;"|"&amp;B370&amp;"|"&amp;C370</f>
+        <v/>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>Saudi</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>Pro-active Service</t>
+        </is>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>French</t>
+        </is>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>Not Supported</t>
+        </is>
+      </c>
+      <c r="E371">
+        <f>A371&amp;"|"&amp;B371&amp;"|"&amp;C371</f>
+        <v/>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>Saudi</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>Pro-active Service</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>Italian</t>
+        </is>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>Full Support</t>
+        </is>
+      </c>
+      <c r="E372">
+        <f>A372&amp;"|"&amp;B372&amp;"|"&amp;C372</f>
+        <v/>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>Saudi</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>LLM</t>
+        </is>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>Limited Support</t>
+        </is>
+      </c>
+      <c r="E373">
+        <f>A373&amp;"|"&amp;B373&amp;"|"&amp;C373</f>
+        <v/>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>Saudi</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>LLM</t>
+        </is>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>Hindi</t>
+        </is>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>Limited Support</t>
+        </is>
+      </c>
+      <c r="E374">
+        <f>A374&amp;"|"&amp;B374&amp;"|"&amp;C374</f>
+        <v/>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>Saudi</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>LLM</t>
+        </is>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>Spanish</t>
+        </is>
+      </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>Limited Support</t>
+        </is>
+      </c>
+      <c r="E375">
+        <f>A375&amp;"|"&amp;B375&amp;"|"&amp;C375</f>
+        <v/>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>Saudi</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>LLM</t>
+        </is>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>German</t>
+        </is>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>Limited Support</t>
+        </is>
+      </c>
+      <c r="E376">
+        <f>A376&amp;"|"&amp;B376&amp;"|"&amp;C376</f>
+        <v/>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>Saudi</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>LLM</t>
+        </is>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>Arabic</t>
+        </is>
+      </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>Full Support</t>
+        </is>
+      </c>
+      <c r="E377">
+        <f>A377&amp;"|"&amp;B377&amp;"|"&amp;C377</f>
+        <v/>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>Saudi</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>LLM</t>
+        </is>
+      </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>French</t>
+        </is>
+      </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>Full Support</t>
+        </is>
+      </c>
+      <c r="E378">
+        <f>A378&amp;"|"&amp;B378&amp;"|"&amp;C378</f>
+        <v/>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>Saudi</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>LLM</t>
+        </is>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>Italian</t>
+        </is>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>Full Support</t>
+        </is>
+      </c>
+      <c r="E379">
+        <f>A379&amp;"|"&amp;B379&amp;"|"&amp;C379</f>
+        <v/>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>Saudi</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>KaaS</t>
+        </is>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>Limited Support</t>
+        </is>
+      </c>
+      <c r="E380">
+        <f>A380&amp;"|"&amp;B380&amp;"|"&amp;C380</f>
+        <v/>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>Saudi</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>KaaS</t>
+        </is>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>Hindi</t>
+        </is>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>Limited Support</t>
+        </is>
+      </c>
+      <c r="E381">
+        <f>A381&amp;"|"&amp;B381&amp;"|"&amp;C381</f>
+        <v/>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>Saudi</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>KaaS</t>
+        </is>
+      </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>Spanish</t>
+        </is>
+      </c>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>Full Support</t>
+        </is>
+      </c>
+      <c r="E382">
+        <f>A382&amp;"|"&amp;B382&amp;"|"&amp;C382</f>
+        <v/>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>Saudi</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>KaaS</t>
+        </is>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>German</t>
+        </is>
+      </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>Full Support</t>
+        </is>
+      </c>
+      <c r="E383">
+        <f>A383&amp;"|"&amp;B383&amp;"|"&amp;C383</f>
+        <v/>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>Saudi</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>KaaS</t>
+        </is>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>Arabic</t>
+        </is>
+      </c>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>Full Support</t>
+        </is>
+      </c>
+      <c r="E384">
+        <f>A384&amp;"|"&amp;B384&amp;"|"&amp;C384</f>
+        <v/>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>Saudi</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>KaaS</t>
+        </is>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>French</t>
+        </is>
+      </c>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>Full Support</t>
+        </is>
+      </c>
+      <c r="E385">
+        <f>A385&amp;"|"&amp;B385&amp;"|"&amp;C385</f>
+        <v/>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>Saudi</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>KaaS</t>
+        </is>
+      </c>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>Italian</t>
+        </is>
+      </c>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>Full Support</t>
+        </is>
+      </c>
+      <c r="E386">
+        <f>A386&amp;"|"&amp;B386&amp;"|"&amp;C386</f>
         <v/>
       </c>
     </row>
@@ -9653,7 +10563,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:K14"/>
+  <dimension ref="A2:L14"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9672,6 +10582,7 @@
     <col width="20" customWidth="1" min="9" max="9"/>
     <col width="20" customWidth="1" min="10" max="10"/>
     <col width="20" customWidth="1" min="11" max="11"/>
+    <col width="20" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="2">
@@ -9749,6 +10660,11 @@
           <t>LLM</t>
         </is>
       </c>
+      <c r="L7" s="5" t="inlineStr">
+        <is>
+          <t>KaaS</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="inlineStr">
@@ -9796,6 +10712,10 @@
         <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;K$7&amp;"|"&amp;$A8, Service_Input!$E:$E, 0))</f>
         <v/>
       </c>
+      <c r="L8" s="6">
+        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;L$7&amp;"|"&amp;$A8, Service_Input!$E:$E, 0))</f>
+        <v/>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="4" t="inlineStr">
@@ -9843,6 +10763,10 @@
         <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;K$7&amp;"|"&amp;$A9, Service_Input!$E:$E, 0))</f>
         <v/>
       </c>
+      <c r="L9" s="6">
+        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;L$7&amp;"|"&amp;$A9, Service_Input!$E:$E, 0))</f>
+        <v/>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="inlineStr">
@@ -9890,6 +10814,10 @@
         <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;K$7&amp;"|"&amp;$A10, Service_Input!$E:$E, 0))</f>
         <v/>
       </c>
+      <c r="L10" s="6">
+        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;L$7&amp;"|"&amp;$A10, Service_Input!$E:$E, 0))</f>
+        <v/>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="4" t="inlineStr">
@@ -9937,6 +10865,10 @@
         <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;K$7&amp;"|"&amp;$A11, Service_Input!$E:$E, 0))</f>
         <v/>
       </c>
+      <c r="L11" s="6">
+        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;L$7&amp;"|"&amp;$A11, Service_Input!$E:$E, 0))</f>
+        <v/>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="4" t="inlineStr">
@@ -9984,6 +10916,10 @@
         <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;K$7&amp;"|"&amp;$A12, Service_Input!$E:$E, 0))</f>
         <v/>
       </c>
+      <c r="L12" s="6">
+        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;L$7&amp;"|"&amp;$A12, Service_Input!$E:$E, 0))</f>
+        <v/>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="4" t="inlineStr">
@@ -10031,6 +10967,10 @@
         <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;K$7&amp;"|"&amp;$A13, Service_Input!$E:$E, 0))</f>
         <v/>
       </c>
+      <c r="L13" s="6">
+        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;L$7&amp;"|"&amp;$A13, Service_Input!$E:$E, 0))</f>
+        <v/>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="4" t="inlineStr">
@@ -10078,17 +11018,21 @@
         <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;K$7&amp;"|"&amp;$A14, Service_Input!$E:$E, 0))</f>
         <v/>
       </c>
+      <c r="L14" s="6">
+        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;L$7&amp;"|"&amp;$A14, Service_Input!$E:$E, 0))</f>
+        <v/>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B8:K14">
+  <conditionalFormatting sqref="B8:L14">
     <cfRule type="containsText" priority="1" operator="containsText" dxfId="0" text="Full Support">
-      <formula>NOT(ISERROR(SEARCH("Full Support", B8:K14)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Full Support", B8:L14)))</formula>
     </cfRule>
     <cfRule type="containsText" priority="2" operator="containsText" dxfId="1" text="Limited Support">
-      <formula>NOT(ISERROR(SEARCH("Limited Support", B8:K14)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Limited Support", B8:L14)))</formula>
     </cfRule>
     <cfRule type="containsText" priority="3" operator="containsText" dxfId="2" text="Not Supported">
-      <formula>NOT(ISERROR(SEARCH("Not Supported", B8:K14)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Not Supported", B8:L14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -10179,15 +11123,15 @@
         </is>
       </c>
       <c r="B8" s="9">
-        <f>IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A8, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A8, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|LLM|"&amp;$A8, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A8, Service_Input!$E:$E, 0))="Not Supported"), "Not Supported", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|LLM|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Support"), "Limited Support", "Full Support"))</f>
+        <f>IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A8, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|LLM|"&amp;$A8, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A8, Service_Input!$E:$E, 0))="Not Supported"), "Not Supported", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|LLM|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Support"), "Limited Support", "Full Support"))</f>
         <v/>
       </c>
       <c r="C8" s="9">
-        <f>IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A8, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A8, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A8, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A8, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|LLM|"&amp;$A8, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A8, Service_Input!$E:$E, 0))="Not Supported"), "Not Supported", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|LLM|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Support"), "Limited Support", "Full Support"))</f>
+        <f>IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A8, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A8, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A8, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A8, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A8, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A8, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A8, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A8, Service_Input!$E:$E, 0))="Not Supported"), "Not Supported", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Support"), "Limited Support", "Full Support"))</f>
         <v/>
       </c>
       <c r="D8" s="9">
-        <f>IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A8, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A8, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A8, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A8, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|LLM|"&amp;$A8, Service_Input!$E:$E, 0))="Not Supported"), "Not Supported", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|LLM|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Support"), "Limited Support", "Full Support"))</f>
+        <f>IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A8, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A8, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A8, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A8, Service_Input!$E:$E, 0))="Not Supported"), "Not Supported", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Support"), "Limited Support", "Full Support"))</f>
         <v/>
       </c>
       <c r="E8" s="9">
@@ -10202,15 +11146,15 @@
         </is>
       </c>
       <c r="B9" s="9">
-        <f>IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A9, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A9, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|LLM|"&amp;$A9, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A9, Service_Input!$E:$E, 0))="Not Supported"), "Not Supported", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|LLM|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Support"), "Limited Support", "Full Support"))</f>
+        <f>IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A9, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|LLM|"&amp;$A9, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A9, Service_Input!$E:$E, 0))="Not Supported"), "Not Supported", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|LLM|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Support"), "Limited Support", "Full Support"))</f>
         <v/>
       </c>
       <c r="C9" s="9">
-        <f>IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A9, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A9, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A9, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A9, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|LLM|"&amp;$A9, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A9, Service_Input!$E:$E, 0))="Not Supported"), "Not Supported", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|LLM|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Support"), "Limited Support", "Full Support"))</f>
+        <f>IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A9, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A9, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A9, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A9, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A9, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A9, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A9, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A9, Service_Input!$E:$E, 0))="Not Supported"), "Not Supported", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Support"), "Limited Support", "Full Support"))</f>
         <v/>
       </c>
       <c r="D9" s="9">
-        <f>IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A9, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A9, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A9, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A9, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|LLM|"&amp;$A9, Service_Input!$E:$E, 0))="Not Supported"), "Not Supported", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|LLM|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Support"), "Limited Support", "Full Support"))</f>
+        <f>IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A9, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A9, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A9, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A9, Service_Input!$E:$E, 0))="Not Supported"), "Not Supported", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Support"), "Limited Support", "Full Support"))</f>
         <v/>
       </c>
       <c r="E9" s="9">
@@ -10225,15 +11169,15 @@
         </is>
       </c>
       <c r="B10" s="9">
-        <f>IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A10, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A10, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|LLM|"&amp;$A10, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A10, Service_Input!$E:$E, 0))="Not Supported"), "Not Supported", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|LLM|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Support"), "Limited Support", "Full Support"))</f>
+        <f>IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A10, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|LLM|"&amp;$A10, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A10, Service_Input!$E:$E, 0))="Not Supported"), "Not Supported", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|LLM|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Support"), "Limited Support", "Full Support"))</f>
         <v/>
       </c>
       <c r="C10" s="9">
-        <f>IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A10, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A10, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A10, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A10, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|LLM|"&amp;$A10, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A10, Service_Input!$E:$E, 0))="Not Supported"), "Not Supported", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|LLM|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Support"), "Limited Support", "Full Support"))</f>
+        <f>IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A10, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A10, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A10, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A10, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A10, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A10, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A10, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A10, Service_Input!$E:$E, 0))="Not Supported"), "Not Supported", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Support"), "Limited Support", "Full Support"))</f>
         <v/>
       </c>
       <c r="D10" s="9">
-        <f>IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A10, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A10, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A10, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A10, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|LLM|"&amp;$A10, Service_Input!$E:$E, 0))="Not Supported"), "Not Supported", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|LLM|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Support"), "Limited Support", "Full Support"))</f>
+        <f>IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A10, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A10, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A10, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A10, Service_Input!$E:$E, 0))="Not Supported"), "Not Supported", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Support"), "Limited Support", "Full Support"))</f>
         <v/>
       </c>
       <c r="E10" s="9">
@@ -10248,15 +11192,15 @@
         </is>
       </c>
       <c r="B11" s="9">
-        <f>IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A11, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A11, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|LLM|"&amp;$A11, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A11, Service_Input!$E:$E, 0))="Not Supported"), "Not Supported", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|LLM|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Support"), "Limited Support", "Full Support"))</f>
+        <f>IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A11, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|LLM|"&amp;$A11, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A11, Service_Input!$E:$E, 0))="Not Supported"), "Not Supported", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|LLM|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Support"), "Limited Support", "Full Support"))</f>
         <v/>
       </c>
       <c r="C11" s="9">
-        <f>IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A11, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A11, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A11, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A11, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|LLM|"&amp;$A11, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A11, Service_Input!$E:$E, 0))="Not Supported"), "Not Supported", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|LLM|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Support"), "Limited Support", "Full Support"))</f>
+        <f>IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A11, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A11, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A11, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A11, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A11, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A11, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A11, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A11, Service_Input!$E:$E, 0))="Not Supported"), "Not Supported", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Support"), "Limited Support", "Full Support"))</f>
         <v/>
       </c>
       <c r="D11" s="9">
-        <f>IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A11, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A11, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A11, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A11, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|LLM|"&amp;$A11, Service_Input!$E:$E, 0))="Not Supported"), "Not Supported", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|LLM|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Support"), "Limited Support", "Full Support"))</f>
+        <f>IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A11, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A11, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A11, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A11, Service_Input!$E:$E, 0))="Not Supported"), "Not Supported", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Support"), "Limited Support", "Full Support"))</f>
         <v/>
       </c>
       <c r="E11" s="9">
@@ -10271,15 +11215,15 @@
         </is>
       </c>
       <c r="B12" s="9">
-        <f>IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A12, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A12, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|LLM|"&amp;$A12, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A12, Service_Input!$E:$E, 0))="Not Supported"), "Not Supported", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|LLM|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Support"), "Limited Support", "Full Support"))</f>
+        <f>IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A12, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|LLM|"&amp;$A12, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A12, Service_Input!$E:$E, 0))="Not Supported"), "Not Supported", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|LLM|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Support"), "Limited Support", "Full Support"))</f>
         <v/>
       </c>
       <c r="C12" s="9">
-        <f>IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A12, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A12, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A12, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A12, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|LLM|"&amp;$A12, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A12, Service_Input!$E:$E, 0))="Not Supported"), "Not Supported", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|LLM|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Support"), "Limited Support", "Full Support"))</f>
+        <f>IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A12, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A12, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A12, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A12, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A12, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A12, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A12, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A12, Service_Input!$E:$E, 0))="Not Supported"), "Not Supported", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Support"), "Limited Support", "Full Support"))</f>
         <v/>
       </c>
       <c r="D12" s="9">
-        <f>IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A12, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A12, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A12, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A12, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|LLM|"&amp;$A12, Service_Input!$E:$E, 0))="Not Supported"), "Not Supported", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|LLM|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Support"), "Limited Support", "Full Support"))</f>
+        <f>IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A12, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A12, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A12, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A12, Service_Input!$E:$E, 0))="Not Supported"), "Not Supported", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Support"), "Limited Support", "Full Support"))</f>
         <v/>
       </c>
       <c r="E12" s="9">
@@ -10294,15 +11238,15 @@
         </is>
       </c>
       <c r="B13" s="9">
-        <f>IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A13, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A13, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|LLM|"&amp;$A13, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A13, Service_Input!$E:$E, 0))="Not Supported"), "Not Supported", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|LLM|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Support"), "Limited Support", "Full Support"))</f>
+        <f>IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A13, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|LLM|"&amp;$A13, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A13, Service_Input!$E:$E, 0))="Not Supported"), "Not Supported", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|LLM|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Support"), "Limited Support", "Full Support"))</f>
         <v/>
       </c>
       <c r="C13" s="9">
-        <f>IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A13, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A13, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A13, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A13, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|LLM|"&amp;$A13, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A13, Service_Input!$E:$E, 0))="Not Supported"), "Not Supported", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|LLM|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Support"), "Limited Support", "Full Support"))</f>
+        <f>IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A13, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A13, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A13, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A13, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A13, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A13, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A13, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A13, Service_Input!$E:$E, 0))="Not Supported"), "Not Supported", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Support"), "Limited Support", "Full Support"))</f>
         <v/>
       </c>
       <c r="D13" s="9">
-        <f>IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A13, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A13, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A13, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A13, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|LLM|"&amp;$A13, Service_Input!$E:$E, 0))="Not Supported"), "Not Supported", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|LLM|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Support"), "Limited Support", "Full Support"))</f>
+        <f>IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A13, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A13, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A13, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A13, Service_Input!$E:$E, 0))="Not Supported"), "Not Supported", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Support"), "Limited Support", "Full Support"))</f>
         <v/>
       </c>
       <c r="E13" s="9">
@@ -10317,15 +11261,15 @@
         </is>
       </c>
       <c r="B14" s="9">
-        <f>IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A14, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A14, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|LLM|"&amp;$A14, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A14, Service_Input!$E:$E, 0))="Not Supported"), "Not Supported", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|LLM|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Support"), "Limited Support", "Full Support"))</f>
+        <f>IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A14, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|LLM|"&amp;$A14, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A14, Service_Input!$E:$E, 0))="Not Supported"), "Not Supported", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|LLM|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Support"), "Limited Support", "Full Support"))</f>
         <v/>
       </c>
       <c r="C14" s="9">
-        <f>IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A14, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A14, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A14, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A14, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|LLM|"&amp;$A14, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A14, Service_Input!$E:$E, 0))="Not Supported"), "Not Supported", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|LLM|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Support"), "Limited Support", "Full Support"))</f>
+        <f>IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A14, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A14, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A14, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A14, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A14, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A14, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A14, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A14, Service_Input!$E:$E, 0))="Not Supported"), "Not Supported", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Support"), "Limited Support", "Full Support"))</f>
         <v/>
       </c>
       <c r="D14" s="9">
-        <f>IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A14, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A14, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A14, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A14, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|LLM|"&amp;$A14, Service_Input!$E:$E, 0))="Not Supported"), "Not Supported", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|LLM|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Support"), "Limited Support", "Full Support"))</f>
+        <f>IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A14, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A14, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A14, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A14, Service_Input!$E:$E, 0))="Not Supported"), "Not Supported", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Support"), "Limited Support", "Full Support"))</f>
         <v/>
       </c>
       <c r="E14" s="9">

--- a/Product Language Matrix/Smart_Availability_Matrix.xlsx
+++ b/Product Language Matrix/Smart_Availability_Matrix.xlsx
@@ -111,7 +111,18 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <color rgb="00FFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="00375623"/>
+          <bgColor rgb="00375623"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="00FFFFFF"/>
@@ -120,6 +131,17 @@
         <patternFill patternType="solid">
           <fgColor rgb="0070AD47"/>
           <bgColor rgb="0070AD47"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="00FFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="00BF8F00"/>
+          <bgColor rgb="00BF8F00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -560,7 +582,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Full Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E2">
@@ -612,7 +634,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Limited Support (In-Region)</t>
         </is>
       </c>
       <c r="E4">
@@ -638,7 +660,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E5">
@@ -664,7 +686,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Limited Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E6">
@@ -690,7 +712,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Full Support (In-Region)</t>
         </is>
       </c>
       <c r="E7">
@@ -716,7 +738,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Full Support (In-Region)</t>
         </is>
       </c>
       <c r="E8">
@@ -742,7 +764,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Full Support (In-Region)</t>
         </is>
       </c>
       <c r="E9">
@@ -768,7 +790,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Full Support (In-Region)</t>
         </is>
       </c>
       <c r="E10">
@@ -794,7 +816,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Full Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E11">
@@ -820,7 +842,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Full Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E12">
@@ -846,7 +868,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Limited Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E13">
@@ -872,7 +894,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Full Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E14">
@@ -898,7 +920,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Full Support (In-Region)</t>
         </is>
       </c>
       <c r="E15">
@@ -924,7 +946,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E16">
@@ -950,7 +972,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Limited Support (In-Region)</t>
         </is>
       </c>
       <c r="E17">
@@ -976,7 +998,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Limited Support (In-Region)</t>
         </is>
       </c>
       <c r="E18">
@@ -1054,7 +1076,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E21">
@@ -1080,7 +1102,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Limited Support (In-Region)</t>
         </is>
       </c>
       <c r="E22">
@@ -1132,7 +1154,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Full Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E24">
@@ -1184,7 +1206,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E26">
@@ -1236,7 +1258,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Full Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E28">
@@ -1262,7 +1284,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Full Support (In-Region)</t>
         </is>
       </c>
       <c r="E29">
@@ -1288,7 +1310,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Limited Support (In-Region)</t>
         </is>
       </c>
       <c r="E30">
@@ -1314,7 +1336,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Full Support (In-Region)</t>
         </is>
       </c>
       <c r="E31">
@@ -1340,7 +1362,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Limited Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E32">
@@ -1366,7 +1388,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Full Support (In-Region)</t>
         </is>
       </c>
       <c r="E33">
@@ -1392,7 +1414,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Limited Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E34">
@@ -1418,7 +1440,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E35">
@@ -1444,7 +1466,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Support (In-Region)</t>
         </is>
       </c>
       <c r="E36">
@@ -1470,7 +1492,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Full Support (In-Region)</t>
         </is>
       </c>
       <c r="E37">
@@ -1496,7 +1518,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Limited Support (In-Region)</t>
         </is>
       </c>
       <c r="E38">
@@ -1522,7 +1544,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Full Support (In-Region)</t>
         </is>
       </c>
       <c r="E39">
@@ -1548,7 +1570,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Support (In-Region)</t>
         </is>
       </c>
       <c r="E40">
@@ -1574,7 +1596,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E41">
@@ -1600,7 +1622,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E42">
@@ -1626,7 +1648,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Full Support (In-Region)</t>
         </is>
       </c>
       <c r="E43">
@@ -1652,7 +1674,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Full Support (In-Region)</t>
         </is>
       </c>
       <c r="E44">
@@ -1704,7 +1726,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E46">
@@ -1730,7 +1752,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Full Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E47">
@@ -1756,7 +1778,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E48">
@@ -1782,7 +1804,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Full Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E49">
@@ -1808,7 +1830,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Full Support (In-Region)</t>
         </is>
       </c>
       <c r="E50">
@@ -1834,7 +1856,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Full Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E51">
@@ -1860,7 +1882,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Limited Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E52">
@@ -1886,7 +1908,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Full Support (In-Region)</t>
         </is>
       </c>
       <c r="E53">
@@ -1912,7 +1934,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Limited Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E54">
@@ -1938,7 +1960,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Support (In-Region)</t>
         </is>
       </c>
       <c r="E55">
@@ -1990,7 +2012,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Full Support (In-Region)</t>
         </is>
       </c>
       <c r="E57">
@@ -2016,7 +2038,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E58">
@@ -2042,7 +2064,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E59">
@@ -2068,7 +2090,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Full Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E60">
@@ -2094,7 +2116,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Full Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E61">
@@ -2146,7 +2168,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Full Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E63">
@@ -2172,7 +2194,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Full Support (In-Region)</t>
         </is>
       </c>
       <c r="E64">
@@ -2188,7 +2210,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>LLM</t>
+          <t>SSA-LLM</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2198,7 +2220,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E65">
@@ -2214,7 +2236,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>LLM</t>
+          <t>SSA-LLM</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2240,7 +2262,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>LLM</t>
+          <t>SSA-LLM</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2250,7 +2272,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Full Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E67">
@@ -2266,7 +2288,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>LLM</t>
+          <t>SSA-LLM</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2276,7 +2298,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Full Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E68">
@@ -2292,7 +2314,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>LLM</t>
+          <t>SSA-LLM</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2302,7 +2324,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Full Support (In-Region)</t>
         </is>
       </c>
       <c r="E69">
@@ -2318,7 +2340,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>LLM</t>
+          <t>SSA-LLM</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2328,7 +2350,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Full Support (In-Region)</t>
         </is>
       </c>
       <c r="E70">
@@ -2344,7 +2366,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>LLM</t>
+          <t>SSA-LLM</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2354,7 +2376,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Limited Support (In-Region)</t>
         </is>
       </c>
       <c r="E71">
@@ -2380,7 +2402,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Full Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E72">
@@ -2406,7 +2428,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Full Support (In-Region)</t>
         </is>
       </c>
       <c r="E73">
@@ -2432,7 +2454,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E74">
@@ -2458,7 +2480,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E75">
@@ -2484,7 +2506,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Full Support (In-Region)</t>
         </is>
       </c>
       <c r="E76">
@@ -2510,7 +2532,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Limited Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E77">
@@ -2536,7 +2558,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Limited Support (In-Region)</t>
         </is>
       </c>
       <c r="E78">
@@ -2562,7 +2584,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Limited Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E79">
@@ -2588,7 +2610,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E80">
@@ -2614,7 +2636,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Limited Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E81">
@@ -2640,7 +2662,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Full Support (In-Region)</t>
         </is>
       </c>
       <c r="E82">
@@ -2666,7 +2688,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Limited Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E83">
@@ -2692,7 +2714,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Full Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E84">
@@ -2718,7 +2740,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Limited Support (In-Region)</t>
         </is>
       </c>
       <c r="E85">
@@ -2770,7 +2792,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E87">
@@ -2796,7 +2818,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Full Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E88">
@@ -2822,7 +2844,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Full Support (In-Region)</t>
         </is>
       </c>
       <c r="E89">
@@ -2848,7 +2870,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E90">
@@ -2900,7 +2922,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Limited Support (In-Region)</t>
         </is>
       </c>
       <c r="E92">
@@ -2926,7 +2948,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Full Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E93">
@@ -2952,7 +2974,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E94">
@@ -2978,7 +3000,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Full Support (In-Region)</t>
         </is>
       </c>
       <c r="E95">
@@ -3004,7 +3026,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Full Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E96">
@@ -3030,7 +3052,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Limited Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E97">
@@ -3056,7 +3078,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E98">
@@ -3082,7 +3104,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E99">
@@ -3108,7 +3130,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E100">
@@ -3134,7 +3156,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Full Support (In-Region)</t>
         </is>
       </c>
       <c r="E101">
@@ -3160,7 +3182,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Full Support (In-Region)</t>
         </is>
       </c>
       <c r="E102">
@@ -3186,7 +3208,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Limited Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E103">
@@ -3212,7 +3234,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E104">
@@ -3238,7 +3260,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Full Support (In-Region)</t>
         </is>
       </c>
       <c r="E105">
@@ -3264,7 +3286,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Limited Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E106">
@@ -3290,7 +3312,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Support (In-Region)</t>
         </is>
       </c>
       <c r="E107">
@@ -3316,7 +3338,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E108">
@@ -3342,7 +3364,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Full Support (In-Region)</t>
         </is>
       </c>
       <c r="E109">
@@ -3368,7 +3390,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Limited Support (In-Region)</t>
         </is>
       </c>
       <c r="E110">
@@ -3394,7 +3416,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Full Support (In-Region)</t>
         </is>
       </c>
       <c r="E111">
@@ -3446,7 +3468,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Limited Support (In-Region)</t>
         </is>
       </c>
       <c r="E113">
@@ -3472,7 +3494,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E114">
@@ -3498,7 +3520,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Full Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E115">
@@ -3524,7 +3546,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E116">
@@ -3550,7 +3572,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Full Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E117">
@@ -3576,7 +3598,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Full Support (In-Region)</t>
         </is>
       </c>
       <c r="E118">
@@ -3602,7 +3624,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Limited Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E119">
@@ -3628,7 +3650,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Limited Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E120">
@@ -3654,7 +3676,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Full Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E121">
@@ -3680,7 +3702,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Full Support (In-Region)</t>
         </is>
       </c>
       <c r="E122">
@@ -3706,7 +3728,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Full Support (In-Region)</t>
         </is>
       </c>
       <c r="E123">
@@ -3732,7 +3754,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Limited Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E124">
@@ -3758,7 +3780,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Limited Support (In-Region)</t>
         </is>
       </c>
       <c r="E125">
@@ -3784,7 +3806,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Full Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E126">
@@ -3810,7 +3832,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E127">
@@ -3862,7 +3884,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Full Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E129">
@@ -3888,7 +3910,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Full Support (In-Region)</t>
         </is>
       </c>
       <c r="E130">
@@ -3914,7 +3936,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Full Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E131">
@@ -3940,7 +3962,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E132">
@@ -3966,7 +3988,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Limited Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E133">
@@ -3992,7 +4014,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Full Support (In-Region)</t>
         </is>
       </c>
       <c r="E134">
@@ -4018,7 +4040,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E135">
@@ -4044,7 +4066,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Full Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E136">
@@ -4070,7 +4092,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E137">
@@ -4096,7 +4118,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Full Support (In-Region)</t>
         </is>
       </c>
       <c r="E138">
@@ -4122,7 +4144,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Limited Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E139">
@@ -4148,7 +4170,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Full Support (In-Region)</t>
         </is>
       </c>
       <c r="E140">
@@ -4174,7 +4196,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Limited Support (In-Region)</t>
         </is>
       </c>
       <c r="E141">
@@ -4190,7 +4212,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>LLM</t>
+          <t>SSA-LLM</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -4200,7 +4222,7 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Full Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E142">
@@ -4216,7 +4238,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>LLM</t>
+          <t>SSA-LLM</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -4226,7 +4248,7 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Limited Support (In-Region)</t>
         </is>
       </c>
       <c r="E143">
@@ -4242,7 +4264,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>LLM</t>
+          <t>SSA-LLM</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -4268,7 +4290,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>LLM</t>
+          <t>SSA-LLM</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -4278,7 +4300,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Full Support (In-Region)</t>
         </is>
       </c>
       <c r="E145">
@@ -4294,7 +4316,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>LLM</t>
+          <t>SSA-LLM</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -4320,7 +4342,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>LLM</t>
+          <t>SSA-LLM</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -4330,7 +4352,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Limited Support (In-Region)</t>
         </is>
       </c>
       <c r="E147">
@@ -4346,7 +4368,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>LLM</t>
+          <t>SSA-LLM</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -4408,7 +4430,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Full Support (In-Region)</t>
         </is>
       </c>
       <c r="E150">
@@ -4434,7 +4456,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E151">
@@ -4460,7 +4482,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Limited Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E152">
@@ -4486,7 +4508,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Full Support (In-Region)</t>
         </is>
       </c>
       <c r="E153">
@@ -4564,7 +4586,7 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E156">
@@ -4590,7 +4612,7 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E157">
@@ -4616,7 +4638,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Full Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E158">
@@ -4642,7 +4664,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Full Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E159">
@@ -4694,7 +4716,7 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Full Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E161">
@@ -4720,7 +4742,7 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Limited Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E162">
@@ -4746,7 +4768,7 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Full Support (In-Region)</t>
         </is>
       </c>
       <c r="E163">
@@ -4798,7 +4820,7 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Full Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E165">
@@ -4824,7 +4846,7 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E166">
@@ -4850,7 +4872,7 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Limited Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E167">
@@ -4928,7 +4950,7 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E170">
@@ -4954,7 +4976,7 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Full Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E171">
@@ -4980,7 +5002,7 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Limited Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E172">
@@ -5006,7 +5028,7 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Full Support (In-Region)</t>
         </is>
       </c>
       <c r="E173">
@@ -5032,7 +5054,7 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Limited Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E174">
@@ -5058,7 +5080,7 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Full Support (In-Region)</t>
         </is>
       </c>
       <c r="E175">
@@ -5084,7 +5106,7 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Limited Support (In-Region)</t>
         </is>
       </c>
       <c r="E176">
@@ -5110,7 +5132,7 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E177">
@@ -5136,7 +5158,7 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Full Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E178">
@@ -5162,7 +5184,7 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Full Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E179">
@@ -5188,7 +5210,7 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Full Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E180">
@@ -5214,7 +5236,7 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Support (In-Region)</t>
         </is>
       </c>
       <c r="E181">
@@ -5240,7 +5262,7 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Full Support (In-Region)</t>
         </is>
       </c>
       <c r="E182">
@@ -5266,7 +5288,7 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Full Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E183">
@@ -5292,7 +5314,7 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Full Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E184">
@@ -5318,7 +5340,7 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E185">
@@ -5344,7 +5366,7 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Full Support (In-Region)</t>
         </is>
       </c>
       <c r="E186">
@@ -5370,7 +5392,7 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Limited Support (In-Region)</t>
         </is>
       </c>
       <c r="E187">
@@ -5396,7 +5418,7 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E188">
@@ -5422,7 +5444,7 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E189">
@@ -5448,7 +5470,7 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Limited Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E190">
@@ -5500,7 +5522,7 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Full Support (In-Region)</t>
         </is>
       </c>
       <c r="E192">
@@ -5526,7 +5548,7 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Full Support (In-Region)</t>
         </is>
       </c>
       <c r="E193">
@@ -5552,7 +5574,7 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E194">
@@ -5578,7 +5600,7 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Full Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E195">
@@ -5604,7 +5626,7 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E196">
@@ -5630,7 +5652,7 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Full Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E197">
@@ -5656,7 +5678,7 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Full Support (In-Region)</t>
         </is>
       </c>
       <c r="E198">
@@ -5682,7 +5704,7 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Full Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E199">
@@ -5708,7 +5730,7 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Limited Support (In-Region)</t>
         </is>
       </c>
       <c r="E200">
@@ -5734,7 +5756,7 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Limited Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E201">
@@ -5760,7 +5782,7 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Full Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E202">
@@ -5786,7 +5808,7 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Full Support (In-Region)</t>
         </is>
       </c>
       <c r="E203">
@@ -5812,7 +5834,7 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Full Support (In-Region)</t>
         </is>
       </c>
       <c r="E204">
@@ -5864,7 +5886,7 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Full Support (In-Region)</t>
         </is>
       </c>
       <c r="E206">
@@ -5890,7 +5912,7 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Full Support (In-Region)</t>
         </is>
       </c>
       <c r="E207">
@@ -5916,7 +5938,7 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E208">
@@ -5968,7 +5990,7 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Full Support (In-Region)</t>
         </is>
       </c>
       <c r="E210">
@@ -5994,7 +6016,7 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Limited Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E211">
@@ -6020,7 +6042,7 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Limited Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E212">
@@ -6046,7 +6068,7 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Limited Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E213">
@@ -6072,7 +6094,7 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Full Support (In-Region)</t>
         </is>
       </c>
       <c r="E214">
@@ -6098,7 +6120,7 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Limited Support (In-Region)</t>
         </is>
       </c>
       <c r="E215">
@@ -6124,7 +6146,7 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Limited Support (In-Region)</t>
         </is>
       </c>
       <c r="E216">
@@ -6150,7 +6172,7 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E217">
@@ -6176,7 +6198,7 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Full Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E218">
@@ -6192,7 +6214,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>LLM</t>
+          <t>SSA-LLM</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -6202,7 +6224,7 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Support (In-Region)</t>
         </is>
       </c>
       <c r="E219">
@@ -6218,7 +6240,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>LLM</t>
+          <t>SSA-LLM</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -6228,7 +6250,7 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Full Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E220">
@@ -6244,7 +6266,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>LLM</t>
+          <t>SSA-LLM</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -6254,7 +6276,7 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Full Support (In-Region)</t>
         </is>
       </c>
       <c r="E221">
@@ -6270,7 +6292,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>LLM</t>
+          <t>SSA-LLM</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -6296,7 +6318,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>LLM</t>
+          <t>SSA-LLM</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -6306,7 +6328,7 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E223">
@@ -6322,7 +6344,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>LLM</t>
+          <t>SSA-LLM</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -6332,7 +6354,7 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Limited Support (In-Region)</t>
         </is>
       </c>
       <c r="E224">
@@ -6348,7 +6370,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>LLM</t>
+          <t>SSA-LLM</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -6358,7 +6380,7 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Full Support (In-Region)</t>
         </is>
       </c>
       <c r="E225">
@@ -6384,7 +6406,7 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E226">
@@ -6410,7 +6432,7 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E227">
@@ -6436,7 +6458,7 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E228">
@@ -6462,7 +6484,7 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E229">
@@ -6488,7 +6510,7 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Full Support (In-Region)</t>
         </is>
       </c>
       <c r="E230">
@@ -6540,7 +6562,7 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E232">
@@ -6566,7 +6588,7 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E233">
@@ -6592,7 +6614,7 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Limited Support (In-Region)</t>
         </is>
       </c>
       <c r="E234">
@@ -6618,7 +6640,7 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E235">
@@ -6644,7 +6666,7 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Limited Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E236">
@@ -6670,7 +6692,7 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Limited Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E237">
@@ -6696,7 +6718,7 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Full Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E238">
@@ -6722,7 +6744,7 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E239">
@@ -6748,7 +6770,7 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E240">
@@ -6774,7 +6796,7 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Limited Support (In-Region)</t>
         </is>
       </c>
       <c r="E241">
@@ -6800,7 +6822,7 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Full Support (In-Region)</t>
         </is>
       </c>
       <c r="E242">
@@ -6826,7 +6848,7 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E243">
@@ -6852,7 +6874,7 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Full Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E244">
@@ -6904,7 +6926,7 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Full Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E246">
@@ -6930,7 +6952,7 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Full Support (In-Region)</t>
         </is>
       </c>
       <c r="E247">
@@ -6956,7 +6978,7 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E248">
@@ -6982,7 +7004,7 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Full Support (In-Region)</t>
         </is>
       </c>
       <c r="E249">
@@ -7008,7 +7030,7 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Full Support (In-Region)</t>
         </is>
       </c>
       <c r="E250">
@@ -7034,7 +7056,7 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E251">
@@ -7060,7 +7082,7 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Limited Support (In-Region)</t>
         </is>
       </c>
       <c r="E252">
@@ -7086,7 +7108,7 @@
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Full Support (In-Region)</t>
         </is>
       </c>
       <c r="E253">
@@ -7112,7 +7134,7 @@
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E254">
@@ -7138,7 +7160,7 @@
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Full Support (In-Region)</t>
         </is>
       </c>
       <c r="E255">
@@ -7164,7 +7186,7 @@
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E256">
@@ -7190,7 +7212,7 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Full Support (In-Region)</t>
         </is>
       </c>
       <c r="E257">
@@ -7216,7 +7238,7 @@
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E258">
@@ -7242,7 +7264,7 @@
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E259">
@@ -7268,7 +7290,7 @@
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Full Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E260">
@@ -7294,7 +7316,7 @@
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E261">
@@ -7320,7 +7342,7 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Full Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E262">
@@ -7346,7 +7368,7 @@
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Limited Support (In-Region)</t>
         </is>
       </c>
       <c r="E263">
@@ -7372,7 +7394,7 @@
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Support (In-Region)</t>
         </is>
       </c>
       <c r="E264">
@@ -7398,7 +7420,7 @@
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Full Support (In-Region)</t>
         </is>
       </c>
       <c r="E265">
@@ -7424,7 +7446,7 @@
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E266">
@@ -7450,7 +7472,7 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Full Support (In-Region)</t>
         </is>
       </c>
       <c r="E267">
@@ -7476,7 +7498,7 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Limited Support (In-Region)</t>
         </is>
       </c>
       <c r="E268">
@@ -7528,7 +7550,7 @@
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Full Support (In-Region)</t>
         </is>
       </c>
       <c r="E270">
@@ -7554,7 +7576,7 @@
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Full Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E271">
@@ -7580,7 +7602,7 @@
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Full Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E272">
@@ -7632,7 +7654,7 @@
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Support (In-Region)</t>
         </is>
       </c>
       <c r="E274">
@@ -7658,7 +7680,7 @@
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Full Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E275">
@@ -7684,7 +7706,7 @@
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E276">
@@ -7710,7 +7732,7 @@
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Limited Support (In-Region)</t>
         </is>
       </c>
       <c r="E277">
@@ -7736,7 +7758,7 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Limited Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E278">
@@ -7762,7 +7784,7 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Limited Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E279">
@@ -7788,7 +7810,7 @@
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Full Support (In-Region)</t>
         </is>
       </c>
       <c r="E280">
@@ -7840,7 +7862,7 @@
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Full Support (In-Region)</t>
         </is>
       </c>
       <c r="E282">
@@ -7866,7 +7888,7 @@
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Full Support (In-Region)</t>
         </is>
       </c>
       <c r="E283">
@@ -7892,7 +7914,7 @@
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Full Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E284">
@@ -7944,7 +7966,7 @@
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Full Support (In-Region)</t>
         </is>
       </c>
       <c r="E286">
@@ -7970,7 +7992,7 @@
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Limited Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E287">
@@ -7996,7 +8018,7 @@
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Full Support (In-Region)</t>
         </is>
       </c>
       <c r="E288">
@@ -8022,7 +8044,7 @@
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Limited Support (In-Region)</t>
         </is>
       </c>
       <c r="E289">
@@ -8074,7 +8096,7 @@
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Full Support (In-Region)</t>
         </is>
       </c>
       <c r="E291">
@@ -8100,7 +8122,7 @@
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E292">
@@ -8126,7 +8148,7 @@
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E293">
@@ -8152,7 +8174,7 @@
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Full Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E294">
@@ -8178,7 +8200,7 @@
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Full Support (In-Region)</t>
         </is>
       </c>
       <c r="E295">
@@ -8194,7 +8216,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>LLM</t>
+          <t>SSA-LLM</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -8204,7 +8226,7 @@
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Full Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E296">
@@ -8220,7 +8242,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>LLM</t>
+          <t>SSA-LLM</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -8230,7 +8252,7 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E297">
@@ -8246,7 +8268,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>LLM</t>
+          <t>SSA-LLM</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -8256,7 +8278,7 @@
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Limited Support (In-Region)</t>
         </is>
       </c>
       <c r="E298">
@@ -8272,7 +8294,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>LLM</t>
+          <t>SSA-LLM</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -8282,7 +8304,7 @@
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Limited Support (In-Region)</t>
         </is>
       </c>
       <c r="E299">
@@ -8298,7 +8320,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>LLM</t>
+          <t>SSA-LLM</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -8308,7 +8330,7 @@
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E300">
@@ -8324,7 +8346,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>LLM</t>
+          <t>SSA-LLM</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -8334,7 +8356,7 @@
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E301">
@@ -8350,7 +8372,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>LLM</t>
+          <t>SSA-LLM</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -8360,7 +8382,7 @@
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Full Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E302">
@@ -8386,7 +8408,7 @@
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Limited Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E303">
@@ -8412,7 +8434,7 @@
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Full Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E304">
@@ -8438,7 +8460,7 @@
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Full Support (In-Region)</t>
         </is>
       </c>
       <c r="E305">
@@ -8464,7 +8486,7 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E306">
@@ -8490,7 +8512,7 @@
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E307">
@@ -8516,7 +8538,7 @@
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Full Support (In-Region)</t>
         </is>
       </c>
       <c r="E308">
@@ -8542,7 +8564,7 @@
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Full Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E309">
@@ -8568,7 +8590,7 @@
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Full Support (In-Region)</t>
         </is>
       </c>
       <c r="E310">
@@ -8594,7 +8616,7 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Full Support (In-Region)</t>
         </is>
       </c>
       <c r="E311">
@@ -8620,7 +8642,7 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Full Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E312">
@@ -8646,7 +8668,7 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E313">
@@ -8672,7 +8694,7 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Full Support (In-Region)</t>
         </is>
       </c>
       <c r="E314">
@@ -8724,7 +8746,7 @@
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Limited Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E316">
@@ -8750,7 +8772,7 @@
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Limited Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E317">
@@ -8776,7 +8798,7 @@
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E318">
@@ -8802,7 +8824,7 @@
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E319">
@@ -8828,7 +8850,7 @@
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Full Support (In-Region)</t>
         </is>
       </c>
       <c r="E320">
@@ -8854,7 +8876,7 @@
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Full Support (In-Region)</t>
         </is>
       </c>
       <c r="E321">
@@ -8880,7 +8902,7 @@
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Limited Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E322">
@@ -8906,7 +8928,7 @@
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Full Support (In-Region)</t>
         </is>
       </c>
       <c r="E323">
@@ -8958,7 +8980,7 @@
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E325">
@@ -8984,7 +9006,7 @@
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Full Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E326">
@@ -9010,7 +9032,7 @@
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Full Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E327">
@@ -9036,7 +9058,7 @@
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E328">
@@ -9062,7 +9084,7 @@
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Full Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E329">
@@ -9114,7 +9136,7 @@
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Support (In-Region)</t>
         </is>
       </c>
       <c r="E331">
@@ -9140,7 +9162,7 @@
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Full Support (In-Region)</t>
         </is>
       </c>
       <c r="E332">
@@ -9166,7 +9188,7 @@
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Full Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E333">
@@ -9192,7 +9214,7 @@
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Full Support (In-Region)</t>
         </is>
       </c>
       <c r="E334">
@@ -9218,7 +9240,7 @@
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Support (In-Region)</t>
         </is>
       </c>
       <c r="E335">
@@ -9244,7 +9266,7 @@
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Support (In-Region)</t>
         </is>
       </c>
       <c r="E336">
@@ -9270,7 +9292,7 @@
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Full Support (In-Region)</t>
         </is>
       </c>
       <c r="E337">
@@ -9296,7 +9318,7 @@
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Limited Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E338">
@@ -9322,7 +9344,7 @@
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E339">
@@ -9348,7 +9370,7 @@
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Full Support (In-Region)</t>
         </is>
       </c>
       <c r="E340">
@@ -9374,7 +9396,7 @@
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Full Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E341">
@@ -9400,7 +9422,7 @@
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Limited Support (In-Region)</t>
         </is>
       </c>
       <c r="E342">
@@ -9426,7 +9448,7 @@
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Full Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E343">
@@ -9452,7 +9474,7 @@
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E344">
@@ -9478,7 +9500,7 @@
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Limited Support (In-Region)</t>
         </is>
       </c>
       <c r="E345">
@@ -9504,7 +9526,7 @@
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Full Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E346">
@@ -9530,7 +9552,7 @@
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Limited Support (In-Region)</t>
         </is>
       </c>
       <c r="E347">
@@ -9556,7 +9578,7 @@
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Limited Support (In-Region)</t>
         </is>
       </c>
       <c r="E348">
@@ -9582,7 +9604,7 @@
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Limited Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E349">
@@ -9608,7 +9630,7 @@
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Full Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E350">
@@ -9634,7 +9656,7 @@
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Support (In-Region)</t>
         </is>
       </c>
       <c r="E351">
@@ -9660,7 +9682,7 @@
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Full Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E352">
@@ -9712,7 +9734,7 @@
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E354">
@@ -9738,7 +9760,7 @@
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E355">
@@ -9764,7 +9786,7 @@
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Limited Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E356">
@@ -9816,7 +9838,7 @@
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Full Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E358">
@@ -9868,7 +9890,7 @@
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Full Support (In-Region)</t>
         </is>
       </c>
       <c r="E360">
@@ -9894,7 +9916,7 @@
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Full Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E361">
@@ -9920,7 +9942,7 @@
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E362">
@@ -9946,7 +9968,7 @@
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Limited Support (In-Region)</t>
         </is>
       </c>
       <c r="E363">
@@ -9972,7 +9994,7 @@
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E364">
@@ -9998,7 +10020,7 @@
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Limited Support (In-Region)</t>
         </is>
       </c>
       <c r="E365">
@@ -10024,7 +10046,7 @@
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Full Support (In-Region)</t>
         </is>
       </c>
       <c r="E366">
@@ -10050,7 +10072,7 @@
       </c>
       <c r="D367" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Full Support (In-Region)</t>
         </is>
       </c>
       <c r="E367">
@@ -10076,7 +10098,7 @@
       </c>
       <c r="D368" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Limited Support (In-Region)</t>
         </is>
       </c>
       <c r="E368">
@@ -10102,7 +10124,7 @@
       </c>
       <c r="D369" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Full Support (In-Region)</t>
         </is>
       </c>
       <c r="E369">
@@ -10128,7 +10150,7 @@
       </c>
       <c r="D370" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Limited Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E370">
@@ -10180,7 +10202,7 @@
       </c>
       <c r="D372" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Full Support (In-Region)</t>
         </is>
       </c>
       <c r="E372">
@@ -10196,7 +10218,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>LLM</t>
+          <t>SSA-LLM</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
@@ -10206,7 +10228,7 @@
       </c>
       <c r="D373" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Limited Support (In-Region)</t>
         </is>
       </c>
       <c r="E373">
@@ -10222,7 +10244,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>LLM</t>
+          <t>SSA-LLM</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
@@ -10232,7 +10254,7 @@
       </c>
       <c r="D374" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Full Support (In-Region)</t>
         </is>
       </c>
       <c r="E374">
@@ -10248,7 +10270,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>LLM</t>
+          <t>SSA-LLM</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
@@ -10258,7 +10280,7 @@
       </c>
       <c r="D375" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Limited Support (In-Region)</t>
         </is>
       </c>
       <c r="E375">
@@ -10274,7 +10296,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>LLM</t>
+          <t>SSA-LLM</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
@@ -10284,7 +10306,7 @@
       </c>
       <c r="D376" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Full Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E376">
@@ -10300,7 +10322,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>LLM</t>
+          <t>SSA-LLM</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
@@ -10310,7 +10332,7 @@
       </c>
       <c r="D377" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Limited Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E377">
@@ -10326,7 +10348,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>LLM</t>
+          <t>SSA-LLM</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
@@ -10336,7 +10358,7 @@
       </c>
       <c r="D378" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Full Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E378">
@@ -10352,7 +10374,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>LLM</t>
+          <t>SSA-LLM</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
@@ -10362,7 +10384,7 @@
       </c>
       <c r="D379" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Limited Support (In-Region)</t>
         </is>
       </c>
       <c r="E379">
@@ -10388,7 +10410,7 @@
       </c>
       <c r="D380" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Full Support (In-Region)</t>
         </is>
       </c>
       <c r="E380">
@@ -10414,7 +10436,7 @@
       </c>
       <c r="D381" t="inlineStr">
         <is>
-          <t>Limited Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E381">
@@ -10440,7 +10462,7 @@
       </c>
       <c r="D382" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E382">
@@ -10466,7 +10488,7 @@
       </c>
       <c r="D383" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E383">
@@ -10492,7 +10514,7 @@
       </c>
       <c r="D384" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Full Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E384">
@@ -10518,7 +10540,7 @@
       </c>
       <c r="D385" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E385">
@@ -10544,7 +10566,7 @@
       </c>
       <c r="D386" t="inlineStr">
         <is>
-          <t>Full Support</t>
+          <t>Limited Support (In-Region)</t>
         </is>
       </c>
       <c r="E386">
@@ -10657,7 +10679,7 @@
       </c>
       <c r="K7" s="5" t="inlineStr">
         <is>
-          <t>LLM</t>
+          <t>SSA-LLM</t>
         </is>
       </c>
       <c r="L7" s="5" t="inlineStr">
@@ -11025,13 +11047,19 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B8:L14">
-    <cfRule type="containsText" priority="1" operator="containsText" dxfId="0" text="Full Support">
-      <formula>NOT(ISERROR(SEARCH("Full Support", B8:L14)))</formula>
+    <cfRule type="containsText" priority="1" operator="containsText" dxfId="0" text="Full Support (In-Region)">
+      <formula>NOT(ISERROR(SEARCH("Full Support (In-Region)", B8:L14)))</formula>
     </cfRule>
-    <cfRule type="containsText" priority="2" operator="containsText" dxfId="1" text="Limited Support">
-      <formula>NOT(ISERROR(SEARCH("Limited Support", B8:L14)))</formula>
+    <cfRule type="containsText" priority="2" operator="containsText" dxfId="1" text="Full Support (Cross-Region)">
+      <formula>NOT(ISERROR(SEARCH("Full Support (Cross-Region)", B8:L14)))</formula>
     </cfRule>
-    <cfRule type="containsText" priority="3" operator="containsText" dxfId="2" text="Not Supported">
+    <cfRule type="containsText" priority="3" operator="containsText" dxfId="2" text="Limited Support (In-Region)">
+      <formula>NOT(ISERROR(SEARCH("Limited Support (In-Region)", B8:L14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="4" operator="containsText" dxfId="3" text="Limited Support (Cross-Region)">
+      <formula>NOT(ISERROR(SEARCH("Limited Support (Cross-Region)", B8:L14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="5" operator="containsText" dxfId="4" text="Not Supported">
       <formula>NOT(ISERROR(SEARCH("Not Supported", B8:L14)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11123,19 +11151,19 @@
         </is>
       </c>
       <c r="B8" s="9">
-        <f>IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A8, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|LLM|"&amp;$A8, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A8, Service_Input!$E:$E, 0))="Not Supported"), "Not Supported", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|LLM|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Support"), "Limited Support", "Full Support"))</f>
+        <f>IF(OR(ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A8, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A8, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A8, Service_Input!$E:$E, 0))))), "Not Supported", IF(OR(ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A8, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A8, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A8, Service_Input!$E:$E, 0))))), "Limited Support", "Full Support"))</f>
         <v/>
       </c>
       <c r="C8" s="9">
-        <f>IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A8, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A8, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A8, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A8, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A8, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A8, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A8, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A8, Service_Input!$E:$E, 0))="Not Supported"), "Not Supported", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Support"), "Limited Support", "Full Support"))</f>
+        <f>IF(OR(ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A8, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A8, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A8, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A8, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A8, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A8, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A8, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A8, Service_Input!$E:$E, 0))))), "Not Supported", IF(OR(ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A8, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A8, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A8, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A8, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A8, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A8, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A8, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A8, Service_Input!$E:$E, 0))))), "Limited Support", "Full Support"))</f>
         <v/>
       </c>
       <c r="D8" s="9">
-        <f>IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A8, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A8, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A8, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A8, Service_Input!$E:$E, 0))="Not Supported"), "Not Supported", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Support"), "Limited Support", "Full Support"))</f>
+        <f>IF(OR(ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A8, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A8, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A8, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A8, Service_Input!$E:$E, 0))))), "Not Supported", IF(OR(ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A8, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A8, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A8, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A8, Service_Input!$E:$E, 0))))), "Limited Support", "Full Support"))</f>
         <v/>
       </c>
       <c r="E8" s="9">
-        <f>IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A8, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A8, Service_Input!$E:$E, 0))="Not Supported"), "Not Supported", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Support"), "Limited Support", "Full Support"))</f>
+        <f>IF(OR(ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A8, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A8, Service_Input!$E:$E, 0))))), "Not Supported", IF(OR(ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A8, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A8, Service_Input!$E:$E, 0))))), "Limited Support", "Full Support"))</f>
         <v/>
       </c>
     </row>
@@ -11146,19 +11174,19 @@
         </is>
       </c>
       <c r="B9" s="9">
-        <f>IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A9, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|LLM|"&amp;$A9, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A9, Service_Input!$E:$E, 0))="Not Supported"), "Not Supported", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|LLM|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Support"), "Limited Support", "Full Support"))</f>
+        <f>IF(OR(ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A9, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A9, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A9, Service_Input!$E:$E, 0))))), "Not Supported", IF(OR(ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A9, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A9, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A9, Service_Input!$E:$E, 0))))), "Limited Support", "Full Support"))</f>
         <v/>
       </c>
       <c r="C9" s="9">
-        <f>IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A9, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A9, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A9, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A9, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A9, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A9, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A9, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A9, Service_Input!$E:$E, 0))="Not Supported"), "Not Supported", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Support"), "Limited Support", "Full Support"))</f>
+        <f>IF(OR(ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A9, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A9, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A9, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A9, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A9, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A9, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A9, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A9, Service_Input!$E:$E, 0))))), "Not Supported", IF(OR(ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A9, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A9, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A9, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A9, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A9, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A9, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A9, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A9, Service_Input!$E:$E, 0))))), "Limited Support", "Full Support"))</f>
         <v/>
       </c>
       <c r="D9" s="9">
-        <f>IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A9, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A9, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A9, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A9, Service_Input!$E:$E, 0))="Not Supported"), "Not Supported", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Support"), "Limited Support", "Full Support"))</f>
+        <f>IF(OR(ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A9, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A9, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A9, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A9, Service_Input!$E:$E, 0))))), "Not Supported", IF(OR(ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A9, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A9, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A9, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A9, Service_Input!$E:$E, 0))))), "Limited Support", "Full Support"))</f>
         <v/>
       </c>
       <c r="E9" s="9">
-        <f>IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A9, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A9, Service_Input!$E:$E, 0))="Not Supported"), "Not Supported", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Support"), "Limited Support", "Full Support"))</f>
+        <f>IF(OR(ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A9, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A9, Service_Input!$E:$E, 0))))), "Not Supported", IF(OR(ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A9, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A9, Service_Input!$E:$E, 0))))), "Limited Support", "Full Support"))</f>
         <v/>
       </c>
     </row>
@@ -11169,19 +11197,19 @@
         </is>
       </c>
       <c r="B10" s="9">
-        <f>IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A10, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|LLM|"&amp;$A10, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A10, Service_Input!$E:$E, 0))="Not Supported"), "Not Supported", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|LLM|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Support"), "Limited Support", "Full Support"))</f>
+        <f>IF(OR(ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A10, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A10, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A10, Service_Input!$E:$E, 0))))), "Not Supported", IF(OR(ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A10, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A10, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A10, Service_Input!$E:$E, 0))))), "Limited Support", "Full Support"))</f>
         <v/>
       </c>
       <c r="C10" s="9">
-        <f>IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A10, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A10, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A10, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A10, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A10, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A10, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A10, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A10, Service_Input!$E:$E, 0))="Not Supported"), "Not Supported", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Support"), "Limited Support", "Full Support"))</f>
+        <f>IF(OR(ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A10, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A10, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A10, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A10, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A10, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A10, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A10, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A10, Service_Input!$E:$E, 0))))), "Not Supported", IF(OR(ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A10, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A10, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A10, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A10, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A10, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A10, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A10, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A10, Service_Input!$E:$E, 0))))), "Limited Support", "Full Support"))</f>
         <v/>
       </c>
       <c r="D10" s="9">
-        <f>IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A10, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A10, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A10, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A10, Service_Input!$E:$E, 0))="Not Supported"), "Not Supported", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Support"), "Limited Support", "Full Support"))</f>
+        <f>IF(OR(ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A10, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A10, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A10, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A10, Service_Input!$E:$E, 0))))), "Not Supported", IF(OR(ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A10, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A10, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A10, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A10, Service_Input!$E:$E, 0))))), "Limited Support", "Full Support"))</f>
         <v/>
       </c>
       <c r="E10" s="9">
-        <f>IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A10, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A10, Service_Input!$E:$E, 0))="Not Supported"), "Not Supported", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Support"), "Limited Support", "Full Support"))</f>
+        <f>IF(OR(ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A10, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A10, Service_Input!$E:$E, 0))))), "Not Supported", IF(OR(ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A10, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A10, Service_Input!$E:$E, 0))))), "Limited Support", "Full Support"))</f>
         <v/>
       </c>
     </row>
@@ -11192,19 +11220,19 @@
         </is>
       </c>
       <c r="B11" s="9">
-        <f>IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A11, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|LLM|"&amp;$A11, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A11, Service_Input!$E:$E, 0))="Not Supported"), "Not Supported", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|LLM|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Support"), "Limited Support", "Full Support"))</f>
+        <f>IF(OR(ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A11, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A11, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A11, Service_Input!$E:$E, 0))))), "Not Supported", IF(OR(ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A11, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A11, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A11, Service_Input!$E:$E, 0))))), "Limited Support", "Full Support"))</f>
         <v/>
       </c>
       <c r="C11" s="9">
-        <f>IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A11, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A11, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A11, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A11, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A11, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A11, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A11, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A11, Service_Input!$E:$E, 0))="Not Supported"), "Not Supported", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Support"), "Limited Support", "Full Support"))</f>
+        <f>IF(OR(ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A11, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A11, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A11, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A11, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A11, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A11, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A11, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A11, Service_Input!$E:$E, 0))))), "Not Supported", IF(OR(ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A11, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A11, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A11, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A11, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A11, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A11, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A11, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A11, Service_Input!$E:$E, 0))))), "Limited Support", "Full Support"))</f>
         <v/>
       </c>
       <c r="D11" s="9">
-        <f>IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A11, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A11, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A11, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A11, Service_Input!$E:$E, 0))="Not Supported"), "Not Supported", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Support"), "Limited Support", "Full Support"))</f>
+        <f>IF(OR(ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A11, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A11, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A11, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A11, Service_Input!$E:$E, 0))))), "Not Supported", IF(OR(ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A11, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A11, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A11, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A11, Service_Input!$E:$E, 0))))), "Limited Support", "Full Support"))</f>
         <v/>
       </c>
       <c r="E11" s="9">
-        <f>IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A11, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A11, Service_Input!$E:$E, 0))="Not Supported"), "Not Supported", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Support"), "Limited Support", "Full Support"))</f>
+        <f>IF(OR(ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A11, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A11, Service_Input!$E:$E, 0))))), "Not Supported", IF(OR(ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A11, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A11, Service_Input!$E:$E, 0))))), "Limited Support", "Full Support"))</f>
         <v/>
       </c>
     </row>
@@ -11215,19 +11243,19 @@
         </is>
       </c>
       <c r="B12" s="9">
-        <f>IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A12, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|LLM|"&amp;$A12, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A12, Service_Input!$E:$E, 0))="Not Supported"), "Not Supported", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|LLM|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Support"), "Limited Support", "Full Support"))</f>
+        <f>IF(OR(ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A12, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A12, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A12, Service_Input!$E:$E, 0))))), "Not Supported", IF(OR(ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A12, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A12, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A12, Service_Input!$E:$E, 0))))), "Limited Support", "Full Support"))</f>
         <v/>
       </c>
       <c r="C12" s="9">
-        <f>IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A12, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A12, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A12, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A12, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A12, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A12, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A12, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A12, Service_Input!$E:$E, 0))="Not Supported"), "Not Supported", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Support"), "Limited Support", "Full Support"))</f>
+        <f>IF(OR(ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A12, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A12, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A12, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A12, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A12, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A12, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A12, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A12, Service_Input!$E:$E, 0))))), "Not Supported", IF(OR(ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A12, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A12, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A12, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A12, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A12, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A12, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A12, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A12, Service_Input!$E:$E, 0))))), "Limited Support", "Full Support"))</f>
         <v/>
       </c>
       <c r="D12" s="9">
-        <f>IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A12, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A12, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A12, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A12, Service_Input!$E:$E, 0))="Not Supported"), "Not Supported", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Support"), "Limited Support", "Full Support"))</f>
+        <f>IF(OR(ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A12, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A12, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A12, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A12, Service_Input!$E:$E, 0))))), "Not Supported", IF(OR(ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A12, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A12, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A12, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A12, Service_Input!$E:$E, 0))))), "Limited Support", "Full Support"))</f>
         <v/>
       </c>
       <c r="E12" s="9">
-        <f>IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A12, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A12, Service_Input!$E:$E, 0))="Not Supported"), "Not Supported", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Support"), "Limited Support", "Full Support"))</f>
+        <f>IF(OR(ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A12, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A12, Service_Input!$E:$E, 0))))), "Not Supported", IF(OR(ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A12, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A12, Service_Input!$E:$E, 0))))), "Limited Support", "Full Support"))</f>
         <v/>
       </c>
     </row>
@@ -11238,19 +11266,19 @@
         </is>
       </c>
       <c r="B13" s="9">
-        <f>IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A13, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|LLM|"&amp;$A13, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A13, Service_Input!$E:$E, 0))="Not Supported"), "Not Supported", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|LLM|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Support"), "Limited Support", "Full Support"))</f>
+        <f>IF(OR(ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A13, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A13, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A13, Service_Input!$E:$E, 0))))), "Not Supported", IF(OR(ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A13, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A13, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A13, Service_Input!$E:$E, 0))))), "Limited Support", "Full Support"))</f>
         <v/>
       </c>
       <c r="C13" s="9">
-        <f>IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A13, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A13, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A13, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A13, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A13, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A13, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A13, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A13, Service_Input!$E:$E, 0))="Not Supported"), "Not Supported", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Support"), "Limited Support", "Full Support"))</f>
+        <f>IF(OR(ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A13, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A13, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A13, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A13, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A13, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A13, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A13, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A13, Service_Input!$E:$E, 0))))), "Not Supported", IF(OR(ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A13, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A13, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A13, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A13, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A13, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A13, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A13, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A13, Service_Input!$E:$E, 0))))), "Limited Support", "Full Support"))</f>
         <v/>
       </c>
       <c r="D13" s="9">
-        <f>IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A13, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A13, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A13, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A13, Service_Input!$E:$E, 0))="Not Supported"), "Not Supported", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Support"), "Limited Support", "Full Support"))</f>
+        <f>IF(OR(ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A13, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A13, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A13, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A13, Service_Input!$E:$E, 0))))), "Not Supported", IF(OR(ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A13, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A13, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A13, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A13, Service_Input!$E:$E, 0))))), "Limited Support", "Full Support"))</f>
         <v/>
       </c>
       <c r="E13" s="9">
-        <f>IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A13, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A13, Service_Input!$E:$E, 0))="Not Supported"), "Not Supported", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Support"), "Limited Support", "Full Support"))</f>
+        <f>IF(OR(ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A13, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A13, Service_Input!$E:$E, 0))))), "Not Supported", IF(OR(ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A13, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A13, Service_Input!$E:$E, 0))))), "Limited Support", "Full Support"))</f>
         <v/>
       </c>
     </row>
@@ -11261,31 +11289,37 @@
         </is>
       </c>
       <c r="B14" s="9">
-        <f>IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A14, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|LLM|"&amp;$A14, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A14, Service_Input!$E:$E, 0))="Not Supported"), "Not Supported", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|LLM|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Support"), "Limited Support", "Full Support"))</f>
+        <f>IF(OR(ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A14, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A14, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A14, Service_Input!$E:$E, 0))))), "Not Supported", IF(OR(ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A14, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A14, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A14, Service_Input!$E:$E, 0))))), "Limited Support", "Full Support"))</f>
         <v/>
       </c>
       <c r="C14" s="9">
-        <f>IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A14, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A14, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A14, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A14, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A14, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A14, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A14, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A14, Service_Input!$E:$E, 0))="Not Supported"), "Not Supported", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Support"), "Limited Support", "Full Support"))</f>
+        <f>IF(OR(ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A14, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A14, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A14, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A14, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A14, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A14, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A14, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A14, Service_Input!$E:$E, 0))))), "Not Supported", IF(OR(ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A14, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A14, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A14, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A14, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A14, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A14, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A14, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A14, Service_Input!$E:$E, 0))))), "Limited Support", "Full Support"))</f>
         <v/>
       </c>
       <c r="D14" s="9">
-        <f>IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A14, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A14, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A14, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A14, Service_Input!$E:$E, 0))="Not Supported"), "Not Supported", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Support"), "Limited Support", "Full Support"))</f>
+        <f>IF(OR(ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A14, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A14, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A14, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A14, Service_Input!$E:$E, 0))))), "Not Supported", IF(OR(ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A14, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A14, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A14, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A14, Service_Input!$E:$E, 0))))), "Limited Support", "Full Support"))</f>
         <v/>
       </c>
       <c r="E14" s="9">
-        <f>IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A14, Service_Input!$E:$E, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A14, Service_Input!$E:$E, 0))="Not Supported"), "Not Supported", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Support"), "Limited Support", "Full Support"))</f>
+        <f>IF(OR(ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A14, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A14, Service_Input!$E:$E, 0))))), "Not Supported", IF(OR(ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A14, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A14, Service_Input!$E:$E, 0))))), "Limited Support", "Full Support"))</f>
         <v/>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B8:E14">
-    <cfRule type="containsText" priority="1" operator="containsText" dxfId="0" text="Full Support">
-      <formula>NOT(ISERROR(SEARCH("Full Support", B8:E14)))</formula>
+    <cfRule type="containsText" priority="1" operator="containsText" dxfId="0" text="Full Support (In-Region)">
+      <formula>NOT(ISERROR(SEARCH("Full Support (In-Region)", B8:E14)))</formula>
     </cfRule>
-    <cfRule type="containsText" priority="2" operator="containsText" dxfId="1" text="Limited Support">
-      <formula>NOT(ISERROR(SEARCH("Limited Support", B8:E14)))</formula>
+    <cfRule type="containsText" priority="2" operator="containsText" dxfId="1" text="Full Support (Cross-Region)">
+      <formula>NOT(ISERROR(SEARCH("Full Support (Cross-Region)", B8:E14)))</formula>
     </cfRule>
-    <cfRule type="containsText" priority="3" operator="containsText" dxfId="2" text="Not Supported">
+    <cfRule type="containsText" priority="3" operator="containsText" dxfId="2" text="Limited Support (In-Region)">
+      <formula>NOT(ISERROR(SEARCH("Limited Support (In-Region)", B8:E14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="4" operator="containsText" dxfId="3" text="Limited Support (Cross-Region)">
+      <formula>NOT(ISERROR(SEARCH("Limited Support (Cross-Region)", B8:E14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="5" operator="containsText" dxfId="4" text="Not Supported">
       <formula>NOT(ISERROR(SEARCH("Not Supported", B8:E14)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Product Language Matrix/Smart_Availability_Matrix.xlsx
+++ b/Product Language Matrix/Smart_Availability_Matrix.xlsx
@@ -634,7 +634,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Limited Support (In-Region)</t>
+          <t>Full Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E4">
@@ -686,7 +686,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Limited Support (Cross-Region)</t>
+          <t>Limited Support (In-Region)</t>
         </is>
       </c>
       <c r="E6">
@@ -738,7 +738,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Full Support (In-Region)</t>
+          <t>Full Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E8">
@@ -764,7 +764,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Full Support (In-Region)</t>
+          <t>Limited Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E9">
@@ -816,7 +816,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Full Support (Cross-Region)</t>
+          <t>Limited Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E11">
@@ -842,7 +842,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Full Support (Cross-Region)</t>
+          <t>Limited Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E12">
@@ -868,7 +868,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Limited Support (Cross-Region)</t>
+          <t>Limited Support (In-Region)</t>
         </is>
       </c>
       <c r="E13">
@@ -894,7 +894,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Full Support (Cross-Region)</t>
+          <t>Limited Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E14">
@@ -920,7 +920,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Full Support (In-Region)</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E15">
@@ -946,7 +946,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E16">
@@ -998,7 +998,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Limited Support (In-Region)</t>
+          <t>Full Support (In-Region)</t>
         </is>
       </c>
       <c r="E18">
@@ -1024,7 +1024,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Full Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E19">
@@ -1102,7 +1102,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Limited Support (In-Region)</t>
+          <t>Full Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E22">
@@ -1128,7 +1128,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Full Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E23">
@@ -1154,7 +1154,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Full Support (Cross-Region)</t>
+          <t>Limited Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E24">
@@ -1180,7 +1180,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Support (In-Region)</t>
         </is>
       </c>
       <c r="E25">
@@ -1206,7 +1206,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Full Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E26">
@@ -1232,7 +1232,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Full Support (In-Region)</t>
         </is>
       </c>
       <c r="E27">
@@ -1258,7 +1258,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Full Support (Cross-Region)</t>
+          <t>Full Support (In-Region)</t>
         </is>
       </c>
       <c r="E28">
@@ -1310,7 +1310,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Limited Support (In-Region)</t>
+          <t>Full Support (In-Region)</t>
         </is>
       </c>
       <c r="E30">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Full Support (In-Region)</t>
+          <t>Full Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E31">
@@ -1362,7 +1362,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Limited Support (Cross-Region)</t>
+          <t>Full Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E32">
@@ -1388,7 +1388,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Full Support (In-Region)</t>
+          <t>Full Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E33">
@@ -1414,7 +1414,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Limited Support (Cross-Region)</t>
+          <t>Full Support (In-Region)</t>
         </is>
       </c>
       <c r="E34">
@@ -1440,7 +1440,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Support (In-Region)</t>
         </is>
       </c>
       <c r="E35">
@@ -1466,7 +1466,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Limited Support (In-Region)</t>
+          <t>Full Support (In-Region)</t>
         </is>
       </c>
       <c r="E36">
@@ -1492,7 +1492,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Full Support (In-Region)</t>
+          <t>Full Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E37">
@@ -1518,7 +1518,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Limited Support (In-Region)</t>
+          <t>Limited Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E38">
@@ -1544,7 +1544,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Full Support (In-Region)</t>
+          <t>Full Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E39">
@@ -1570,7 +1570,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Limited Support (In-Region)</t>
+          <t>Full Support (In-Region)</t>
         </is>
       </c>
       <c r="E40">
@@ -1596,7 +1596,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Full Support (In-Region)</t>
         </is>
       </c>
       <c r="E41">
@@ -1648,7 +1648,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Full Support (In-Region)</t>
+          <t>Limited Support (In-Region)</t>
         </is>
       </c>
       <c r="E43">
@@ -1674,7 +1674,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Full Support (In-Region)</t>
+          <t>Limited Support (In-Region)</t>
         </is>
       </c>
       <c r="E44">
@@ -1700,7 +1700,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Full Support (In-Region)</t>
         </is>
       </c>
       <c r="E45">
@@ -1726,7 +1726,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Full Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E46">
@@ -1752,7 +1752,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Full Support (Cross-Region)</t>
+          <t>Full Support (In-Region)</t>
         </is>
       </c>
       <c r="E47">
@@ -1778,7 +1778,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Full Support (In-Region)</t>
         </is>
       </c>
       <c r="E48">
@@ -1804,7 +1804,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Full Support (Cross-Region)</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E49">
@@ -1830,7 +1830,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Full Support (In-Region)</t>
+          <t>Full Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E50">
@@ -1856,7 +1856,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Full Support (Cross-Region)</t>
+          <t>Limited Support (In-Region)</t>
         </is>
       </c>
       <c r="E51">
@@ -1882,7 +1882,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Limited Support (Cross-Region)</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E52">
@@ -1908,7 +1908,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Full Support (In-Region)</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E53">
@@ -1934,7 +1934,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Limited Support (Cross-Region)</t>
+          <t>Full Support (In-Region)</t>
         </is>
       </c>
       <c r="E54">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Limited Support (In-Region)</t>
+          <t>Full Support (In-Region)</t>
         </is>
       </c>
       <c r="E55">
@@ -1986,7 +1986,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Support (In-Region)</t>
         </is>
       </c>
       <c r="E56">
@@ -2038,7 +2038,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Full Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E58">
@@ -2064,7 +2064,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E59">
@@ -2090,7 +2090,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Full Support (Cross-Region)</t>
+          <t>Limited Support (In-Region)</t>
         </is>
       </c>
       <c r="E60">
@@ -2142,7 +2142,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E62">
@@ -2168,7 +2168,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Full Support (Cross-Region)</t>
+          <t>Limited Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E63">
@@ -2194,7 +2194,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Full Support (In-Region)</t>
+          <t>Limited Support (In-Region)</t>
         </is>
       </c>
       <c r="E64">
@@ -2220,7 +2220,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E65">
@@ -2246,7 +2246,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E66">
@@ -2272,7 +2272,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Full Support (Cross-Region)</t>
+          <t>Limited Support (In-Region)</t>
         </is>
       </c>
       <c r="E67">
@@ -2298,7 +2298,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Full Support (Cross-Region)</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E68">
@@ -2324,7 +2324,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Full Support (In-Region)</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E69">
@@ -2350,7 +2350,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Full Support (In-Region)</t>
+          <t>Full Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E70">
@@ -2376,7 +2376,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Limited Support (In-Region)</t>
+          <t>Full Support (In-Region)</t>
         </is>
       </c>
       <c r="E71">
@@ -2402,7 +2402,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Full Support (Cross-Region)</t>
+          <t>Limited Support (In-Region)</t>
         </is>
       </c>
       <c r="E72">
@@ -2454,7 +2454,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E74">
@@ -2480,7 +2480,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Full Support (In-Region)</t>
         </is>
       </c>
       <c r="E75">
@@ -2506,7 +2506,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Full Support (In-Region)</t>
+          <t>Full Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E76">
@@ -2532,7 +2532,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Limited Support (Cross-Region)</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E77">
@@ -2558,7 +2558,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Limited Support (In-Region)</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E78">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Limited Support (Cross-Region)</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E79">
@@ -2636,7 +2636,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Limited Support (Cross-Region)</t>
+          <t>Full Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E81">
@@ -2662,7 +2662,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Full Support (In-Region)</t>
+          <t>Full Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E82">
@@ -2688,7 +2688,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Limited Support (Cross-Region)</t>
+          <t>Full Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E83">
@@ -2714,7 +2714,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Full Support (Cross-Region)</t>
+          <t>Limited Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E84">
@@ -2740,7 +2740,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Limited Support (In-Region)</t>
+          <t>Full Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E85">
@@ -2766,7 +2766,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E86">
@@ -2792,7 +2792,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Full Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E87">
@@ -2818,7 +2818,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Full Support (Cross-Region)</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E88">
@@ -2844,7 +2844,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Full Support (In-Region)</t>
+          <t>Full Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E89">
@@ -2896,7 +2896,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Support (In-Region)</t>
         </is>
       </c>
       <c r="E91">
@@ -2922,7 +2922,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Limited Support (In-Region)</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E92">
@@ -2948,7 +2948,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Full Support (Cross-Region)</t>
+          <t>Full Support (In-Region)</t>
         </is>
       </c>
       <c r="E93">
@@ -2974,7 +2974,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Full Support (In-Region)</t>
         </is>
       </c>
       <c r="E94">
@@ -3000,7 +3000,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Full Support (In-Region)</t>
+          <t>Full Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E95">
@@ -3026,7 +3026,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Full Support (Cross-Region)</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E96">
@@ -3052,7 +3052,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Limited Support (Cross-Region)</t>
+          <t>Full Support (In-Region)</t>
         </is>
       </c>
       <c r="E97">
@@ -3104,7 +3104,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Full Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E99">
@@ -3130,7 +3130,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Full Support (In-Region)</t>
         </is>
       </c>
       <c r="E100">
@@ -3156,7 +3156,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Full Support (In-Region)</t>
+          <t>Limited Support (In-Region)</t>
         </is>
       </c>
       <c r="E101">
@@ -3182,7 +3182,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Full Support (In-Region)</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E102">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Limited Support (Cross-Region)</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E103">
@@ -3234,7 +3234,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Support (In-Region)</t>
         </is>
       </c>
       <c r="E104">
@@ -3260,7 +3260,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Full Support (In-Region)</t>
+          <t>Limited Support (In-Region)</t>
         </is>
       </c>
       <c r="E105">
@@ -3286,7 +3286,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Limited Support (Cross-Region)</t>
+          <t>Full Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E106">
@@ -3312,7 +3312,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Limited Support (In-Region)</t>
+          <t>Full Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E107">
@@ -3338,7 +3338,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Support (In-Region)</t>
         </is>
       </c>
       <c r="E108">
@@ -3364,7 +3364,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Full Support (In-Region)</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E109">
@@ -3390,7 +3390,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Limited Support (In-Region)</t>
+          <t>Limited Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E110">
@@ -3416,7 +3416,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Full Support (In-Region)</t>
+          <t>Full Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E111">
@@ -3442,7 +3442,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E112">
@@ -3494,7 +3494,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Limited Support (Cross-Region)</t>
+          <t>Full Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E114">
@@ -3520,7 +3520,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Full Support (Cross-Region)</t>
+          <t>Full Support (In-Region)</t>
         </is>
       </c>
       <c r="E115">
@@ -3546,7 +3546,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Support (In-Region)</t>
         </is>
       </c>
       <c r="E116">
@@ -3572,7 +3572,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Full Support (Cross-Region)</t>
+          <t>Limited Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E117">
@@ -3598,7 +3598,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Full Support (In-Region)</t>
+          <t>Full Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E118">
@@ -3624,7 +3624,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Limited Support (Cross-Region)</t>
+          <t>Full Support (In-Region)</t>
         </is>
       </c>
       <c r="E119">
@@ -3650,7 +3650,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Limited Support (Cross-Region)</t>
+          <t>Full Support (In-Region)</t>
         </is>
       </c>
       <c r="E120">
@@ -3676,7 +3676,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Full Support (Cross-Region)</t>
+          <t>Limited Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E121">
@@ -3702,7 +3702,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Full Support (In-Region)</t>
+          <t>Limited Support (In-Region)</t>
         </is>
       </c>
       <c r="E122">
@@ -3728,7 +3728,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Full Support (In-Region)</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E123">
@@ -3754,7 +3754,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Limited Support (Cross-Region)</t>
+          <t>Limited Support (In-Region)</t>
         </is>
       </c>
       <c r="E124">
@@ -3780,7 +3780,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Limited Support (In-Region)</t>
+          <t>Full Support (In-Region)</t>
         </is>
       </c>
       <c r="E125">
@@ -3806,7 +3806,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Full Support (Cross-Region)</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E126">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Full Support (In-Region)</t>
         </is>
       </c>
       <c r="E127">
@@ -3858,7 +3858,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Full Support (In-Region)</t>
         </is>
       </c>
       <c r="E128">
@@ -3884,7 +3884,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Full Support (Cross-Region)</t>
+          <t>Limited Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E129">
@@ -3936,7 +3936,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Full Support (Cross-Region)</t>
+          <t>Limited Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E131">
@@ -3962,7 +3962,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E132">
@@ -3988,7 +3988,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Limited Support (Cross-Region)</t>
+          <t>Full Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E133">
@@ -4014,7 +4014,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Full Support (In-Region)</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E134">
@@ -4040,7 +4040,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Full Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E135">
@@ -4066,7 +4066,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Full Support (Cross-Region)</t>
+          <t>Limited Support (In-Region)</t>
         </is>
       </c>
       <c r="E136">
@@ -4092,7 +4092,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Limited Support (Cross-Region)</t>
+          <t>Full Support (In-Region)</t>
         </is>
       </c>
       <c r="E137">
@@ -4118,7 +4118,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Full Support (In-Region)</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E138">
@@ -4144,7 +4144,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Limited Support (Cross-Region)</t>
+          <t>Limited Support (In-Region)</t>
         </is>
       </c>
       <c r="E139">
@@ -4196,7 +4196,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Limited Support (In-Region)</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E141">
@@ -4248,7 +4248,7 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Limited Support (In-Region)</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E143">
@@ -4274,7 +4274,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Full Support (In-Region)</t>
         </is>
       </c>
       <c r="E144">
@@ -4300,7 +4300,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Full Support (In-Region)</t>
+          <t>Limited Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E145">
@@ -4404,7 +4404,7 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E149">
@@ -4430,7 +4430,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Full Support (In-Region)</t>
+          <t>Full Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E150">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Full Support (In-Region)</t>
         </is>
       </c>
       <c r="E151">
@@ -4482,7 +4482,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Limited Support (Cross-Region)</t>
+          <t>Full Support (In-Region)</t>
         </is>
       </c>
       <c r="E152">
@@ -4508,7 +4508,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Full Support (In-Region)</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E153">
@@ -4560,7 +4560,7 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Support (In-Region)</t>
         </is>
       </c>
       <c r="E155">
@@ -4586,7 +4586,7 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Full Support (In-Region)</t>
         </is>
       </c>
       <c r="E156">
@@ -4612,7 +4612,7 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Full Support (In-Region)</t>
         </is>
       </c>
       <c r="E157">
@@ -4638,7 +4638,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Full Support (Cross-Region)</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E158">
@@ -4664,7 +4664,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Full Support (Cross-Region)</t>
+          <t>Limited Support (In-Region)</t>
         </is>
       </c>
       <c r="E159">
@@ -4690,7 +4690,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Full Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E160">
@@ -4716,7 +4716,7 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Full Support (Cross-Region)</t>
+          <t>Limited Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E161">
@@ -4742,7 +4742,7 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Limited Support (Cross-Region)</t>
+          <t>Limited Support (In-Region)</t>
         </is>
       </c>
       <c r="E162">
@@ -4768,7 +4768,7 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Full Support (In-Region)</t>
+          <t>Limited Support (In-Region)</t>
         </is>
       </c>
       <c r="E163">
@@ -4794,7 +4794,7 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E164">
@@ -4820,7 +4820,7 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Full Support (Cross-Region)</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E165">
@@ -4846,7 +4846,7 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Full Support (In-Region)</t>
         </is>
       </c>
       <c r="E166">
@@ -4872,7 +4872,7 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Limited Support (Cross-Region)</t>
+          <t>Full Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E167">
@@ -4898,7 +4898,7 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E168">
@@ -4924,7 +4924,7 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Full Support (In-Region)</t>
         </is>
       </c>
       <c r="E169">
@@ -4976,7 +4976,7 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Full Support (Cross-Region)</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E171">
@@ -5002,7 +5002,7 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Limited Support (Cross-Region)</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E172">
@@ -5028,7 +5028,7 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Full Support (In-Region)</t>
+          <t>Limited Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E173">
@@ -5054,7 +5054,7 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Limited Support (Cross-Region)</t>
+          <t>Full Support (In-Region)</t>
         </is>
       </c>
       <c r="E174">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Full Support (In-Region)</t>
+          <t>Limited Support (In-Region)</t>
         </is>
       </c>
       <c r="E175">
@@ -5106,7 +5106,7 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Limited Support (In-Region)</t>
+          <t>Full Support (In-Region)</t>
         </is>
       </c>
       <c r="E176">
@@ -5132,7 +5132,7 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E177">
@@ -5158,7 +5158,7 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Full Support (Cross-Region)</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E178">
@@ -5184,7 +5184,7 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Full Support (Cross-Region)</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E179">
@@ -5210,7 +5210,7 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Full Support (Cross-Region)</t>
+          <t>Limited Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E180">
@@ -5236,7 +5236,7 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Limited Support (In-Region)</t>
+          <t>Full Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E181">
@@ -5262,7 +5262,7 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Full Support (In-Region)</t>
+          <t>Limited Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E182">
@@ -5288,7 +5288,7 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Full Support (Cross-Region)</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E183">
@@ -5314,7 +5314,7 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Full Support (Cross-Region)</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E184">
@@ -5340,7 +5340,7 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Full Support (In-Region)</t>
         </is>
       </c>
       <c r="E185">
@@ -5392,7 +5392,7 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Limited Support (In-Region)</t>
+          <t>Limited Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E187">
@@ -5418,7 +5418,7 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Support (In-Region)</t>
         </is>
       </c>
       <c r="E188">
@@ -5470,7 +5470,7 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Limited Support (Cross-Region)</t>
+          <t>Full Support (In-Region)</t>
         </is>
       </c>
       <c r="E190">
@@ -5496,7 +5496,7 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Full Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E191">
@@ -5522,7 +5522,7 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Full Support (In-Region)</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E192">
@@ -5548,7 +5548,7 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Full Support (In-Region)</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E193">
@@ -5574,7 +5574,7 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Full Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E194">
@@ -5600,7 +5600,7 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Full Support (Cross-Region)</t>
+          <t>Limited Support (In-Region)</t>
         </is>
       </c>
       <c r="E195">
@@ -5626,7 +5626,7 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Full Support (In-Region)</t>
         </is>
       </c>
       <c r="E196">
@@ -5652,7 +5652,7 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Full Support (Cross-Region)</t>
+          <t>Limited Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E197">
@@ -5678,7 +5678,7 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Full Support (In-Region)</t>
+          <t>Limited Support (In-Region)</t>
         </is>
       </c>
       <c r="E198">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Full Support (Cross-Region)</t>
+          <t>Limited Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E199">
@@ -5756,7 +5756,7 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Limited Support (Cross-Region)</t>
+          <t>Limited Support (In-Region)</t>
         </is>
       </c>
       <c r="E201">
@@ -5782,7 +5782,7 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Full Support (Cross-Region)</t>
+          <t>Full Support (In-Region)</t>
         </is>
       </c>
       <c r="E202">
@@ -5808,7 +5808,7 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Full Support (In-Region)</t>
+          <t>Full Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E203">
@@ -5860,7 +5860,7 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E205">
@@ -5886,7 +5886,7 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Full Support (In-Region)</t>
+          <t>Limited Support (In-Region)</t>
         </is>
       </c>
       <c r="E206">
@@ -5912,7 +5912,7 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Full Support (In-Region)</t>
+          <t>Limited Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E207">
@@ -5938,7 +5938,7 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Full Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E208">
@@ -5990,7 +5990,7 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Full Support (In-Region)</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E210">
@@ -6016,7 +6016,7 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>Limited Support (Cross-Region)</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E211">
@@ -6042,7 +6042,7 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>Limited Support (Cross-Region)</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E212">
@@ -6068,7 +6068,7 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>Limited Support (Cross-Region)</t>
+          <t>Full Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E213">
@@ -6094,7 +6094,7 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>Full Support (In-Region)</t>
+          <t>Limited Support (In-Region)</t>
         </is>
       </c>
       <c r="E214">
@@ -6120,7 +6120,7 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>Limited Support (In-Region)</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E215">
@@ -6146,7 +6146,7 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>Limited Support (In-Region)</t>
+          <t>Full Support (In-Region)</t>
         </is>
       </c>
       <c r="E216">
@@ -6172,7 +6172,7 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E217">
@@ -6198,7 +6198,7 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Full Support (Cross-Region)</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E218">
@@ -6224,7 +6224,7 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Limited Support (In-Region)</t>
+          <t>Full Support (In-Region)</t>
         </is>
       </c>
       <c r="E219">
@@ -6276,7 +6276,7 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>Full Support (In-Region)</t>
+          <t>Limited Support (In-Region)</t>
         </is>
       </c>
       <c r="E221">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>Limited Support (Cross-Region)</t>
+          <t>Full Support (In-Region)</t>
         </is>
       </c>
       <c r="E223">
@@ -6354,7 +6354,7 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>Limited Support (In-Region)</t>
+          <t>Limited Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E224">
@@ -6380,7 +6380,7 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>Full Support (In-Region)</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E225">
@@ -6432,7 +6432,7 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Full Support (In-Region)</t>
         </is>
       </c>
       <c r="E227">
@@ -6458,7 +6458,7 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Full Support (In-Region)</t>
         </is>
       </c>
       <c r="E228">
@@ -6484,7 +6484,7 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Support (In-Region)</t>
         </is>
       </c>
       <c r="E229">
@@ -6510,7 +6510,7 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>Full Support (In-Region)</t>
+          <t>Full Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E230">
@@ -6536,7 +6536,7 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Full Support (In-Region)</t>
         </is>
       </c>
       <c r="E231">
@@ -6562,7 +6562,7 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>Limited Support (Cross-Region)</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E232">
@@ -6588,7 +6588,7 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Full Support (In-Region)</t>
         </is>
       </c>
       <c r="E233">
@@ -6614,7 +6614,7 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>Limited Support (In-Region)</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E234">
@@ -6640,7 +6640,7 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Full Support (In-Region)</t>
         </is>
       </c>
       <c r="E235">
@@ -6692,7 +6692,7 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>Limited Support (Cross-Region)</t>
+          <t>Full Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E237">
@@ -6744,7 +6744,7 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Full Support (In-Region)</t>
         </is>
       </c>
       <c r="E239">
@@ -6822,7 +6822,7 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>Full Support (In-Region)</t>
+          <t>Limited Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E242">
@@ -6848,7 +6848,7 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>Limited Support (Cross-Region)</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E243">
@@ -6874,7 +6874,7 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>Full Support (Cross-Region)</t>
+          <t>Full Support (In-Region)</t>
         </is>
       </c>
       <c r="E244">
@@ -6926,7 +6926,7 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>Full Support (Cross-Region)</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E246">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>Full Support (In-Region)</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E247">
@@ -6978,7 +6978,7 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Full Support (In-Region)</t>
         </is>
       </c>
       <c r="E248">
@@ -7004,7 +7004,7 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>Full Support (In-Region)</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E249">
@@ -7030,7 +7030,7 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>Full Support (In-Region)</t>
+          <t>Limited Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E250">
@@ -7056,7 +7056,7 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>Limited Support (Cross-Region)</t>
+          <t>Limited Support (In-Region)</t>
         </is>
       </c>
       <c r="E251">
@@ -7082,7 +7082,7 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>Limited Support (In-Region)</t>
+          <t>Full Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E252">
@@ -7134,7 +7134,7 @@
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Full Support (In-Region)</t>
         </is>
       </c>
       <c r="E254">
@@ -7160,7 +7160,7 @@
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>Full Support (In-Region)</t>
+          <t>Full Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E255">
@@ -7186,7 +7186,7 @@
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Full Support (In-Region)</t>
         </is>
       </c>
       <c r="E256">
@@ -7212,7 +7212,7 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>Full Support (In-Region)</t>
+          <t>Limited Support (In-Region)</t>
         </is>
       </c>
       <c r="E257">
@@ -7264,7 +7264,7 @@
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E259">
@@ -7290,7 +7290,7 @@
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>Full Support (Cross-Region)</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E260">
@@ -7316,7 +7316,7 @@
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E261">
@@ -7342,7 +7342,7 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>Full Support (Cross-Region)</t>
+          <t>Limited Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E262">
@@ -7368,7 +7368,7 @@
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>Limited Support (In-Region)</t>
+          <t>Full Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E263">
@@ -7394,7 +7394,7 @@
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>Limited Support (In-Region)</t>
+          <t>Full Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E264">
@@ -7446,7 +7446,7 @@
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E266">
@@ -7498,7 +7498,7 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>Limited Support (In-Region)</t>
+          <t>Limited Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E268">
@@ -7524,7 +7524,7 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Support (In-Region)</t>
         </is>
       </c>
       <c r="E269">
@@ -7550,7 +7550,7 @@
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>Full Support (In-Region)</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E270">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>Full Support (Cross-Region)</t>
+          <t>Full Support (In-Region)</t>
         </is>
       </c>
       <c r="E271">
@@ -7628,7 +7628,7 @@
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Full Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E273">
@@ -7680,7 +7680,7 @@
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>Full Support (Cross-Region)</t>
+          <t>Limited Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E275">
@@ -7706,7 +7706,7 @@
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Full Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E276">
@@ -7732,7 +7732,7 @@
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>Limited Support (In-Region)</t>
+          <t>Full Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E277">
@@ -7758,7 +7758,7 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>Limited Support (Cross-Region)</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E278">
@@ -7784,7 +7784,7 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>Limited Support (Cross-Region)</t>
+          <t>Full Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E279">
@@ -7810,7 +7810,7 @@
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>Full Support (In-Region)</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E280">
@@ -7836,7 +7836,7 @@
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Full Support (In-Region)</t>
         </is>
       </c>
       <c r="E281">
@@ -7888,7 +7888,7 @@
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>Full Support (In-Region)</t>
+          <t>Limited Support (In-Region)</t>
         </is>
       </c>
       <c r="E283">
@@ -7914,7 +7914,7 @@
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>Full Support (Cross-Region)</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E284">
@@ -7940,7 +7940,7 @@
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Full Support (In-Region)</t>
         </is>
       </c>
       <c r="E285">
@@ -7966,7 +7966,7 @@
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>Full Support (In-Region)</t>
+          <t>Limited Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E286">
@@ -7992,7 +7992,7 @@
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>Limited Support (Cross-Region)</t>
+          <t>Full Support (In-Region)</t>
         </is>
       </c>
       <c r="E287">
@@ -8018,7 +8018,7 @@
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>Full Support (In-Region)</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E288">
@@ -8044,7 +8044,7 @@
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>Limited Support (In-Region)</t>
+          <t>Full Support (In-Region)</t>
         </is>
       </c>
       <c r="E289">
@@ -8070,7 +8070,7 @@
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Full Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E290">
@@ -8096,7 +8096,7 @@
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>Full Support (In-Region)</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E291">
@@ -8122,7 +8122,7 @@
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Full Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E292">
@@ -8174,7 +8174,7 @@
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>Full Support (Cross-Region)</t>
+          <t>Full Support (In-Region)</t>
         </is>
       </c>
       <c r="E294">
@@ -8200,7 +8200,7 @@
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>Full Support (In-Region)</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E295">
@@ -8226,7 +8226,7 @@
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>Full Support (Cross-Region)</t>
+          <t>Limited Support (In-Region)</t>
         </is>
       </c>
       <c r="E296">
@@ -8252,7 +8252,7 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E297">
@@ -8330,7 +8330,7 @@
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Full Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E300">
@@ -8356,7 +8356,7 @@
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>Limited Support (Cross-Region)</t>
+          <t>Limited Support (In-Region)</t>
         </is>
       </c>
       <c r="E301">
@@ -8382,7 +8382,7 @@
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>Full Support (Cross-Region)</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E302">
@@ -8512,7 +8512,7 @@
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Full Support (In-Region)</t>
         </is>
       </c>
       <c r="E307">
@@ -8538,7 +8538,7 @@
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>Full Support (In-Region)</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E308">
@@ -8564,7 +8564,7 @@
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>Full Support (Cross-Region)</t>
+          <t>Limited Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E309">
@@ -8616,7 +8616,7 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>Full Support (In-Region)</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E311">
@@ -8642,7 +8642,7 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>Full Support (Cross-Region)</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E312">
@@ -8668,7 +8668,7 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Full Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E313">
@@ -8694,7 +8694,7 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>Full Support (In-Region)</t>
+          <t>Full Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E314">
@@ -8720,7 +8720,7 @@
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Full Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E315">
@@ -8746,7 +8746,7 @@
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>Limited Support (Cross-Region)</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E316">
@@ -8798,7 +8798,7 @@
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Full Support (In-Region)</t>
         </is>
       </c>
       <c r="E318">
@@ -8824,7 +8824,7 @@
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Support (In-Region)</t>
         </is>
       </c>
       <c r="E319">
@@ -8850,7 +8850,7 @@
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>Full Support (In-Region)</t>
+          <t>Limited Support (In-Region)</t>
         </is>
       </c>
       <c r="E320">
@@ -8876,7 +8876,7 @@
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>Full Support (In-Region)</t>
+          <t>Full Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E321">
@@ -8902,7 +8902,7 @@
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>Limited Support (Cross-Region)</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E322">
@@ -8928,7 +8928,7 @@
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>Full Support (In-Region)</t>
+          <t>Full Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E323">
@@ -8954,7 +8954,7 @@
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E324">
@@ -8980,7 +8980,7 @@
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Full Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E325">
@@ -9006,7 +9006,7 @@
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>Full Support (Cross-Region)</t>
+          <t>Limited Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E326">
@@ -9032,7 +9032,7 @@
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>Full Support (Cross-Region)</t>
+          <t>Full Support (In-Region)</t>
         </is>
       </c>
       <c r="E327">
@@ -9058,7 +9058,7 @@
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>Limited Support (Cross-Region)</t>
+          <t>Full Support (In-Region)</t>
         </is>
       </c>
       <c r="E328">
@@ -9084,7 +9084,7 @@
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>Full Support (Cross-Region)</t>
+          <t>Limited Support (In-Region)</t>
         </is>
       </c>
       <c r="E329">
@@ -9110,7 +9110,7 @@
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E330">
@@ -9136,7 +9136,7 @@
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>Limited Support (In-Region)</t>
+          <t>Full Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E331">
@@ -9162,7 +9162,7 @@
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>Full Support (In-Region)</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E332">
@@ -9188,7 +9188,7 @@
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>Full Support (Cross-Region)</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E333">
@@ -9214,7 +9214,7 @@
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>Full Support (In-Region)</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E334">
@@ -9240,7 +9240,7 @@
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>Limited Support (In-Region)</t>
+          <t>Full Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E335">
@@ -9266,7 +9266,7 @@
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>Limited Support (In-Region)</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E336">
@@ -9318,7 +9318,7 @@
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>Limited Support (Cross-Region)</t>
+          <t>Full Support (In-Region)</t>
         </is>
       </c>
       <c r="E338">
@@ -9396,7 +9396,7 @@
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>Full Support (Cross-Region)</t>
+          <t>Full Support (In-Region)</t>
         </is>
       </c>
       <c r="E341">
@@ -9422,7 +9422,7 @@
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>Limited Support (In-Region)</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E342">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>Full Support (Cross-Region)</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E343">
@@ -9474,7 +9474,7 @@
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>Limited Support (Cross-Region)</t>
+          <t>Full Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E344">
@@ -9500,7 +9500,7 @@
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>Limited Support (In-Region)</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E345">
@@ -9526,7 +9526,7 @@
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>Full Support (Cross-Region)</t>
+          <t>Limited Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E346">
@@ -9552,7 +9552,7 @@
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>Limited Support (In-Region)</t>
+          <t>Full Support (In-Region)</t>
         </is>
       </c>
       <c r="E347">
@@ -9578,7 +9578,7 @@
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>Limited Support (In-Region)</t>
+          <t>Limited Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E348">
@@ -9604,7 +9604,7 @@
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>Limited Support (Cross-Region)</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E349">
@@ -9630,7 +9630,7 @@
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>Full Support (Cross-Region)</t>
+          <t>Full Support (In-Region)</t>
         </is>
       </c>
       <c r="E350">
@@ -9656,7 +9656,7 @@
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>Limited Support (In-Region)</t>
+          <t>Limited Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E351">
@@ -9682,7 +9682,7 @@
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>Full Support (Cross-Region)</t>
+          <t>Limited Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E352">
@@ -9760,7 +9760,7 @@
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Support (In-Region)</t>
         </is>
       </c>
       <c r="E355">
@@ -9786,7 +9786,7 @@
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>Limited Support (Cross-Region)</t>
+          <t>Limited Support (In-Region)</t>
         </is>
       </c>
       <c r="E356">
@@ -9812,7 +9812,7 @@
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Full Support (In-Region)</t>
         </is>
       </c>
       <c r="E357">
@@ -9864,7 +9864,7 @@
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Full Support (In-Region)</t>
         </is>
       </c>
       <c r="E359">
@@ -9890,7 +9890,7 @@
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>Full Support (In-Region)</t>
+          <t>Full Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E360">
@@ -9916,7 +9916,7 @@
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>Full Support (Cross-Region)</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E361">
@@ -9942,7 +9942,7 @@
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Full Support (In-Region)</t>
         </is>
       </c>
       <c r="E362">
@@ -9968,7 +9968,7 @@
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>Limited Support (In-Region)</t>
+          <t>Full Support (In-Region)</t>
         </is>
       </c>
       <c r="E363">
@@ -9994,7 +9994,7 @@
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E364">
@@ -10020,7 +10020,7 @@
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>Limited Support (In-Region)</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E365">
@@ -10046,7 +10046,7 @@
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>Full Support (In-Region)</t>
+          <t>Limited Support (In-Region)</t>
         </is>
       </c>
       <c r="E366">
@@ -10072,7 +10072,7 @@
       </c>
       <c r="D367" t="inlineStr">
         <is>
-          <t>Full Support (In-Region)</t>
+          <t>Limited Support (In-Region)</t>
         </is>
       </c>
       <c r="E367">
@@ -10098,7 +10098,7 @@
       </c>
       <c r="D368" t="inlineStr">
         <is>
-          <t>Limited Support (In-Region)</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E368">
@@ -10150,7 +10150,7 @@
       </c>
       <c r="D370" t="inlineStr">
         <is>
-          <t>Limited Support (Cross-Region)</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E370">
@@ -10228,7 +10228,7 @@
       </c>
       <c r="D373" t="inlineStr">
         <is>
-          <t>Limited Support (In-Region)</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E373">
@@ -10254,7 +10254,7 @@
       </c>
       <c r="D374" t="inlineStr">
         <is>
-          <t>Full Support (In-Region)</t>
+          <t>Limited Support (In-Region)</t>
         </is>
       </c>
       <c r="E374">
@@ -10280,7 +10280,7 @@
       </c>
       <c r="D375" t="inlineStr">
         <is>
-          <t>Limited Support (In-Region)</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E375">
@@ -10306,7 +10306,7 @@
       </c>
       <c r="D376" t="inlineStr">
         <is>
-          <t>Full Support (Cross-Region)</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E376">
@@ -10332,7 +10332,7 @@
       </c>
       <c r="D377" t="inlineStr">
         <is>
-          <t>Limited Support (Cross-Region)</t>
+          <t>Full Support (In-Region)</t>
         </is>
       </c>
       <c r="E377">
@@ -10358,7 +10358,7 @@
       </c>
       <c r="D378" t="inlineStr">
         <is>
-          <t>Full Support (Cross-Region)</t>
+          <t>Full Support (In-Region)</t>
         </is>
       </c>
       <c r="E378">
@@ -10384,7 +10384,7 @@
       </c>
       <c r="D379" t="inlineStr">
         <is>
-          <t>Limited Support (In-Region)</t>
+          <t>Limited Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E379">
@@ -10436,7 +10436,7 @@
       </c>
       <c r="D381" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Support (In-Region)</t>
         </is>
       </c>
       <c r="E381">
@@ -10462,7 +10462,7 @@
       </c>
       <c r="D382" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Full Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E382">
@@ -10488,7 +10488,7 @@
       </c>
       <c r="D383" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Full Support (Cross-Region)</t>
         </is>
       </c>
       <c r="E383">
@@ -10514,7 +10514,7 @@
       </c>
       <c r="D384" t="inlineStr">
         <is>
-          <t>Full Support (Cross-Region)</t>
+          <t>Full Support (In-Region)</t>
         </is>
       </c>
       <c r="E384">
@@ -10540,7 +10540,7 @@
       </c>
       <c r="D385" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Support (In-Region)</t>
         </is>
       </c>
       <c r="E385">
@@ -10566,7 +10566,7 @@
       </c>
       <c r="D386" t="inlineStr">
         <is>
-          <t>Limited Support (In-Region)</t>
+          <t>Full Support (In-Region)</t>
         </is>
       </c>
       <c r="E386">
@@ -11151,19 +11151,19 @@
         </is>
       </c>
       <c r="B8" s="9">
-        <f>IF(OR(ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A8, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A8, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A8, Service_Input!$E:$E, 0))))), "Not Supported", IF(OR(ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A8, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A8, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A8, Service_Input!$E:$E, 0))))), "Limited Support", "Full Support"))</f>
+        <f>IF(OR(ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A8, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A8, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A8, Service_Input!$E:$E, 0))))), "Not Supported", IF(OR(ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A8, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A8, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A8, Service_Input!$E:$E, 0))))), IF(OR(ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A8, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A8, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A8, Service_Input!$E:$E, 0))))), "Limited Support (Cross-Region)", "Limited Support (In-Region)"), IF(OR(ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A8, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A8, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A8, Service_Input!$E:$E, 0))))), "Full Support (Cross-Region)", "Full Support (In-Region)")))</f>
         <v/>
       </c>
       <c r="C8" s="9">
-        <f>IF(OR(ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A8, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A8, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A8, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A8, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A8, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A8, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A8, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A8, Service_Input!$E:$E, 0))))), "Not Supported", IF(OR(ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A8, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A8, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A8, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A8, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A8, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A8, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A8, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A8, Service_Input!$E:$E, 0))))), "Limited Support", "Full Support"))</f>
+        <f>IF(OR(ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A8, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A8, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A8, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A8, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A8, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A8, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A8, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A8, Service_Input!$E:$E, 0))))), "Not Supported", IF(OR(ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A8, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A8, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A8, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A8, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A8, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A8, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A8, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A8, Service_Input!$E:$E, 0))))), IF(OR(ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A8, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A8, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A8, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A8, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A8, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A8, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A8, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A8, Service_Input!$E:$E, 0))))), "Limited Support (Cross-Region)", "Limited Support (In-Region)"), IF(OR(ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A8, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A8, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A8, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A8, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A8, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A8, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A8, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A8, Service_Input!$E:$E, 0))))), "Full Support (Cross-Region)", "Full Support (In-Region)")))</f>
         <v/>
       </c>
       <c r="D8" s="9">
-        <f>IF(OR(ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A8, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A8, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A8, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A8, Service_Input!$E:$E, 0))))), "Not Supported", IF(OR(ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A8, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A8, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A8, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A8, Service_Input!$E:$E, 0))))), "Limited Support", "Full Support"))</f>
+        <f>IF(OR(ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A8, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A8, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A8, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A8, Service_Input!$E:$E, 0))))), "Not Supported", IF(OR(ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A8, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A8, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A8, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A8, Service_Input!$E:$E, 0))))), IF(OR(ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A8, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A8, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A8, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A8, Service_Input!$E:$E, 0))))), "Limited Support (Cross-Region)", "Limited Support (In-Region)"), IF(OR(ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A8, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A8, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A8, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A8, Service_Input!$E:$E, 0))))), "Full Support (Cross-Region)", "Full Support (In-Region)")))</f>
         <v/>
       </c>
       <c r="E8" s="9">
-        <f>IF(OR(ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A8, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A8, Service_Input!$E:$E, 0))))), "Not Supported", IF(OR(ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A8, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A8, Service_Input!$E:$E, 0))))), "Limited Support", "Full Support"))</f>
+        <f>IF(OR(ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A8, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A8, Service_Input!$E:$E, 0))))), "Not Supported", IF(OR(ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A8, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A8, Service_Input!$E:$E, 0))))), IF(OR(ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A8, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A8, Service_Input!$E:$E, 0))))), "Limited Support (Cross-Region)", "Limited Support (In-Region)"), IF(OR(ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A8, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A8, Service_Input!$E:$E, 0))))), "Full Support (Cross-Region)", "Full Support (In-Region)")))</f>
         <v/>
       </c>
     </row>
@@ -11174,19 +11174,19 @@
         </is>
       </c>
       <c r="B9" s="9">
-        <f>IF(OR(ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A9, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A9, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A9, Service_Input!$E:$E, 0))))), "Not Supported", IF(OR(ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A9, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A9, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A9, Service_Input!$E:$E, 0))))), "Limited Support", "Full Support"))</f>
+        <f>IF(OR(ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A9, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A9, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A9, Service_Input!$E:$E, 0))))), "Not Supported", IF(OR(ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A9, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A9, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A9, Service_Input!$E:$E, 0))))), IF(OR(ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A9, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A9, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A9, Service_Input!$E:$E, 0))))), "Limited Support (Cross-Region)", "Limited Support (In-Region)"), IF(OR(ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A9, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A9, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A9, Service_Input!$E:$E, 0))))), "Full Support (Cross-Region)", "Full Support (In-Region)")))</f>
         <v/>
       </c>
       <c r="C9" s="9">
-        <f>IF(OR(ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A9, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A9, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A9, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A9, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A9, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A9, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A9, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A9, Service_Input!$E:$E, 0))))), "Not Supported", IF(OR(ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A9, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A9, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A9, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A9, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A9, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A9, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A9, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A9, Service_Input!$E:$E, 0))))), "Limited Support", "Full Support"))</f>
+        <f>IF(OR(ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A9, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A9, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A9, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A9, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A9, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A9, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A9, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A9, Service_Input!$E:$E, 0))))), "Not Supported", IF(OR(ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A9, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A9, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A9, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A9, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A9, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A9, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A9, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A9, Service_Input!$E:$E, 0))))), IF(OR(ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A9, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A9, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A9, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A9, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A9, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A9, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A9, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A9, Service_Input!$E:$E, 0))))), "Limited Support (Cross-Region)", "Limited Support (In-Region)"), IF(OR(ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A9, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A9, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A9, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A9, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A9, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A9, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A9, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A9, Service_Input!$E:$E, 0))))), "Full Support (Cross-Region)", "Full Support (In-Region)")))</f>
         <v/>
       </c>
       <c r="D9" s="9">
-        <f>IF(OR(ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A9, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A9, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A9, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A9, Service_Input!$E:$E, 0))))), "Not Supported", IF(OR(ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A9, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A9, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A9, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A9, Service_Input!$E:$E, 0))))), "Limited Support", "Full Support"))</f>
+        <f>IF(OR(ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A9, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A9, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A9, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A9, Service_Input!$E:$E, 0))))), "Not Supported", IF(OR(ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A9, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A9, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A9, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A9, Service_Input!$E:$E, 0))))), IF(OR(ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A9, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A9, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A9, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A9, Service_Input!$E:$E, 0))))), "Limited Support (Cross-Region)", "Limited Support (In-Region)"), IF(OR(ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A9, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A9, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A9, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A9, Service_Input!$E:$E, 0))))), "Full Support (Cross-Region)", "Full Support (In-Region)")))</f>
         <v/>
       </c>
       <c r="E9" s="9">
-        <f>IF(OR(ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A9, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A9, Service_Input!$E:$E, 0))))), "Not Supported", IF(OR(ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A9, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A9, Service_Input!$E:$E, 0))))), "Limited Support", "Full Support"))</f>
+        <f>IF(OR(ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A9, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A9, Service_Input!$E:$E, 0))))), "Not Supported", IF(OR(ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A9, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A9, Service_Input!$E:$E, 0))))), IF(OR(ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A9, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A9, Service_Input!$E:$E, 0))))), "Limited Support (Cross-Region)", "Limited Support (In-Region)"), IF(OR(ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A9, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A9, Service_Input!$E:$E, 0))))), "Full Support (Cross-Region)", "Full Support (In-Region)")))</f>
         <v/>
       </c>
     </row>
@@ -11197,19 +11197,19 @@
         </is>
       </c>
       <c r="B10" s="9">
-        <f>IF(OR(ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A10, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A10, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A10, Service_Input!$E:$E, 0))))), "Not Supported", IF(OR(ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A10, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A10, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A10, Service_Input!$E:$E, 0))))), "Limited Support", "Full Support"))</f>
+        <f>IF(OR(ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A10, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A10, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A10, Service_Input!$E:$E, 0))))), "Not Supported", IF(OR(ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A10, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A10, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A10, Service_Input!$E:$E, 0))))), IF(OR(ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A10, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A10, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A10, Service_Input!$E:$E, 0))))), "Limited Support (Cross-Region)", "Limited Support (In-Region)"), IF(OR(ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A10, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A10, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A10, Service_Input!$E:$E, 0))))), "Full Support (Cross-Region)", "Full Support (In-Region)")))</f>
         <v/>
       </c>
       <c r="C10" s="9">
-        <f>IF(OR(ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A10, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A10, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A10, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A10, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A10, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A10, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A10, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A10, Service_Input!$E:$E, 0))))), "Not Supported", IF(OR(ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A10, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A10, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A10, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A10, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A10, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A10, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A10, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A10, Service_Input!$E:$E, 0))))), "Limited Support", "Full Support"))</f>
+        <f>IF(OR(ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A10, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A10, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A10, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A10, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A10, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A10, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A10, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A10, Service_Input!$E:$E, 0))))), "Not Supported", IF(OR(ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A10, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A10, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A10, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A10, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A10, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A10, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A10, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A10, Service_Input!$E:$E, 0))))), IF(OR(ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A10, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A10, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A10, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A10, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A10, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A10, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A10, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A10, Service_Input!$E:$E, 0))))), "Limited Support (Cross-Region)", "Limited Support (In-Region)"), IF(OR(ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A10, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A10, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A10, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A10, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A10, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A10, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A10, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A10, Service_Input!$E:$E, 0))))), "Full Support (Cross-Region)", "Full Support (In-Region)")))</f>
         <v/>
       </c>
       <c r="D10" s="9">
-        <f>IF(OR(ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A10, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A10, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A10, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A10, Service_Input!$E:$E, 0))))), "Not Supported", IF(OR(ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A10, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A10, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A10, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A10, Service_Input!$E:$E, 0))))), "Limited Support", "Full Support"))</f>
+        <f>IF(OR(ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A10, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A10, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A10, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A10, Service_Input!$E:$E, 0))))), "Not Supported", IF(OR(ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A10, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A10, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A10, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A10, Service_Input!$E:$E, 0))))), IF(OR(ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A10, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A10, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A10, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A10, Service_Input!$E:$E, 0))))), "Limited Support (Cross-Region)", "Limited Support (In-Region)"), IF(OR(ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A10, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A10, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A10, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A10, Service_Input!$E:$E, 0))))), "Full Support (Cross-Region)", "Full Support (In-Region)")))</f>
         <v/>
       </c>
       <c r="E10" s="9">
-        <f>IF(OR(ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A10, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A10, Service_Input!$E:$E, 0))))), "Not Supported", IF(OR(ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A10, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A10, Service_Input!$E:$E, 0))))), "Limited Support", "Full Support"))</f>
+        <f>IF(OR(ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A10, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A10, Service_Input!$E:$E, 0))))), "Not Supported", IF(OR(ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A10, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A10, Service_Input!$E:$E, 0))))), IF(OR(ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A10, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A10, Service_Input!$E:$E, 0))))), "Limited Support (Cross-Region)", "Limited Support (In-Region)"), IF(OR(ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A10, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A10, Service_Input!$E:$E, 0))))), "Full Support (Cross-Region)", "Full Support (In-Region)")))</f>
         <v/>
       </c>
     </row>
@@ -11220,19 +11220,19 @@
         </is>
       </c>
       <c r="B11" s="9">
-        <f>IF(OR(ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A11, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A11, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A11, Service_Input!$E:$E, 0))))), "Not Supported", IF(OR(ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A11, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A11, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A11, Service_Input!$E:$E, 0))))), "Limited Support", "Full Support"))</f>
+        <f>IF(OR(ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A11, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A11, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A11, Service_Input!$E:$E, 0))))), "Not Supported", IF(OR(ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A11, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A11, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A11, Service_Input!$E:$E, 0))))), IF(OR(ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A11, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A11, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A11, Service_Input!$E:$E, 0))))), "Limited Support (Cross-Region)", "Limited Support (In-Region)"), IF(OR(ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A11, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A11, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A11, Service_Input!$E:$E, 0))))), "Full Support (Cross-Region)", "Full Support (In-Region)")))</f>
         <v/>
       </c>
       <c r="C11" s="9">
-        <f>IF(OR(ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A11, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A11, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A11, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A11, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A11, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A11, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A11, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A11, Service_Input!$E:$E, 0))))), "Not Supported", IF(OR(ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A11, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A11, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A11, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A11, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A11, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A11, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A11, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A11, Service_Input!$E:$E, 0))))), "Limited Support", "Full Support"))</f>
+        <f>IF(OR(ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A11, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A11, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A11, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A11, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A11, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A11, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A11, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A11, Service_Input!$E:$E, 0))))), "Not Supported", IF(OR(ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A11, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A11, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A11, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A11, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A11, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A11, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A11, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A11, Service_Input!$E:$E, 0))))), IF(OR(ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A11, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A11, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A11, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A11, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A11, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A11, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A11, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A11, Service_Input!$E:$E, 0))))), "Limited Support (Cross-Region)", "Limited Support (In-Region)"), IF(OR(ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A11, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A11, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A11, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A11, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A11, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A11, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A11, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A11, Service_Input!$E:$E, 0))))), "Full Support (Cross-Region)", "Full Support (In-Region)")))</f>
         <v/>
       </c>
       <c r="D11" s="9">
-        <f>IF(OR(ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A11, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A11, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A11, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A11, Service_Input!$E:$E, 0))))), "Not Supported", IF(OR(ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A11, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A11, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A11, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A11, Service_Input!$E:$E, 0))))), "Limited Support", "Full Support"))</f>
+        <f>IF(OR(ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A11, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A11, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A11, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A11, Service_Input!$E:$E, 0))))), "Not Supported", IF(OR(ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A11, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A11, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A11, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A11, Service_Input!$E:$E, 0))))), IF(OR(ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A11, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A11, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A11, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A11, Service_Input!$E:$E, 0))))), "Limited Support (Cross-Region)", "Limited Support (In-Region)"), IF(OR(ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A11, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A11, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A11, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A11, Service_Input!$E:$E, 0))))), "Full Support (Cross-Region)", "Full Support (In-Region)")))</f>
         <v/>
       </c>
       <c r="E11" s="9">
-        <f>IF(OR(ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A11, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A11, Service_Input!$E:$E, 0))))), "Not Supported", IF(OR(ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A11, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A11, Service_Input!$E:$E, 0))))), "Limited Support", "Full Support"))</f>
+        <f>IF(OR(ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A11, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A11, Service_Input!$E:$E, 0))))), "Not Supported", IF(OR(ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A11, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A11, Service_Input!$E:$E, 0))))), IF(OR(ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A11, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A11, Service_Input!$E:$E, 0))))), "Limited Support (Cross-Region)", "Limited Support (In-Region)"), IF(OR(ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A11, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A11, Service_Input!$E:$E, 0))))), "Full Support (Cross-Region)", "Full Support (In-Region)")))</f>
         <v/>
       </c>
     </row>
@@ -11243,19 +11243,19 @@
         </is>
       </c>
       <c r="B12" s="9">
-        <f>IF(OR(ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A12, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A12, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A12, Service_Input!$E:$E, 0))))), "Not Supported", IF(OR(ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A12, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A12, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A12, Service_Input!$E:$E, 0))))), "Limited Support", "Full Support"))</f>
+        <f>IF(OR(ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A12, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A12, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A12, Service_Input!$E:$E, 0))))), "Not Supported", IF(OR(ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A12, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A12, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A12, Service_Input!$E:$E, 0))))), IF(OR(ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A12, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A12, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A12, Service_Input!$E:$E, 0))))), "Limited Support (Cross-Region)", "Limited Support (In-Region)"), IF(OR(ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A12, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A12, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A12, Service_Input!$E:$E, 0))))), "Full Support (Cross-Region)", "Full Support (In-Region)")))</f>
         <v/>
       </c>
       <c r="C12" s="9">
-        <f>IF(OR(ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A12, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A12, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A12, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A12, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A12, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A12, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A12, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A12, Service_Input!$E:$E, 0))))), "Not Supported", IF(OR(ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A12, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A12, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A12, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A12, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A12, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A12, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A12, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A12, Service_Input!$E:$E, 0))))), "Limited Support", "Full Support"))</f>
+        <f>IF(OR(ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A12, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A12, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A12, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A12, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A12, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A12, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A12, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A12, Service_Input!$E:$E, 0))))), "Not Supported", IF(OR(ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A12, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A12, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A12, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A12, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A12, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A12, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A12, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A12, Service_Input!$E:$E, 0))))), IF(OR(ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A12, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A12, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A12, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A12, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A12, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A12, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A12, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A12, Service_Input!$E:$E, 0))))), "Limited Support (Cross-Region)", "Limited Support (In-Region)"), IF(OR(ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A12, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A12, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A12, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A12, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A12, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A12, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A12, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A12, Service_Input!$E:$E, 0))))), "Full Support (Cross-Region)", "Full Support (In-Region)")))</f>
         <v/>
       </c>
       <c r="D12" s="9">
-        <f>IF(OR(ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A12, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A12, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A12, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A12, Service_Input!$E:$E, 0))))), "Not Supported", IF(OR(ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A12, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A12, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A12, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A12, Service_Input!$E:$E, 0))))), "Limited Support", "Full Support"))</f>
+        <f>IF(OR(ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A12, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A12, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A12, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A12, Service_Input!$E:$E, 0))))), "Not Supported", IF(OR(ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A12, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A12, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A12, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A12, Service_Input!$E:$E, 0))))), IF(OR(ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A12, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A12, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A12, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A12, Service_Input!$E:$E, 0))))), "Limited Support (Cross-Region)", "Limited Support (In-Region)"), IF(OR(ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A12, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A12, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A12, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A12, Service_Input!$E:$E, 0))))), "Full Support (Cross-Region)", "Full Support (In-Region)")))</f>
         <v/>
       </c>
       <c r="E12" s="9">
-        <f>IF(OR(ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A12, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A12, Service_Input!$E:$E, 0))))), "Not Supported", IF(OR(ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A12, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A12, Service_Input!$E:$E, 0))))), "Limited Support", "Full Support"))</f>
+        <f>IF(OR(ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A12, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A12, Service_Input!$E:$E, 0))))), "Not Supported", IF(OR(ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A12, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A12, Service_Input!$E:$E, 0))))), IF(OR(ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A12, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A12, Service_Input!$E:$E, 0))))), "Limited Support (Cross-Region)", "Limited Support (In-Region)"), IF(OR(ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A12, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A12, Service_Input!$E:$E, 0))))), "Full Support (Cross-Region)", "Full Support (In-Region)")))</f>
         <v/>
       </c>
     </row>
@@ -11266,19 +11266,19 @@
         </is>
       </c>
       <c r="B13" s="9">
-        <f>IF(OR(ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A13, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A13, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A13, Service_Input!$E:$E, 0))))), "Not Supported", IF(OR(ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A13, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A13, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A13, Service_Input!$E:$E, 0))))), "Limited Support", "Full Support"))</f>
+        <f>IF(OR(ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A13, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A13, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A13, Service_Input!$E:$E, 0))))), "Not Supported", IF(OR(ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A13, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A13, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A13, Service_Input!$E:$E, 0))))), IF(OR(ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A13, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A13, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A13, Service_Input!$E:$E, 0))))), "Limited Support (Cross-Region)", "Limited Support (In-Region)"), IF(OR(ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A13, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A13, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A13, Service_Input!$E:$E, 0))))), "Full Support (Cross-Region)", "Full Support (In-Region)")))</f>
         <v/>
       </c>
       <c r="C13" s="9">
-        <f>IF(OR(ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A13, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A13, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A13, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A13, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A13, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A13, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A13, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A13, Service_Input!$E:$E, 0))))), "Not Supported", IF(OR(ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A13, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A13, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A13, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A13, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A13, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A13, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A13, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A13, Service_Input!$E:$E, 0))))), "Limited Support", "Full Support"))</f>
+        <f>IF(OR(ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A13, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A13, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A13, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A13, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A13, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A13, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A13, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A13, Service_Input!$E:$E, 0))))), "Not Supported", IF(OR(ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A13, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A13, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A13, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A13, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A13, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A13, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A13, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A13, Service_Input!$E:$E, 0))))), IF(OR(ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A13, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A13, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A13, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A13, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A13, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A13, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A13, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A13, Service_Input!$E:$E, 0))))), "Limited Support (Cross-Region)", "Limited Support (In-Region)"), IF(OR(ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A13, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A13, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A13, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A13, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A13, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A13, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A13, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A13, Service_Input!$E:$E, 0))))), "Full Support (Cross-Region)", "Full Support (In-Region)")))</f>
         <v/>
       </c>
       <c r="D13" s="9">
-        <f>IF(OR(ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A13, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A13, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A13, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A13, Service_Input!$E:$E, 0))))), "Not Supported", IF(OR(ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A13, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A13, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A13, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A13, Service_Input!$E:$E, 0))))), "Limited Support", "Full Support"))</f>
+        <f>IF(OR(ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A13, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A13, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A13, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A13, Service_Input!$E:$E, 0))))), "Not Supported", IF(OR(ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A13, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A13, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A13, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A13, Service_Input!$E:$E, 0))))), IF(OR(ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A13, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A13, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A13, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A13, Service_Input!$E:$E, 0))))), "Limited Support (Cross-Region)", "Limited Support (In-Region)"), IF(OR(ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A13, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A13, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A13, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A13, Service_Input!$E:$E, 0))))), "Full Support (Cross-Region)", "Full Support (In-Region)")))</f>
         <v/>
       </c>
       <c r="E13" s="9">
-        <f>IF(OR(ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A13, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A13, Service_Input!$E:$E, 0))))), "Not Supported", IF(OR(ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A13, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A13, Service_Input!$E:$E, 0))))), "Limited Support", "Full Support"))</f>
+        <f>IF(OR(ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A13, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A13, Service_Input!$E:$E, 0))))), "Not Supported", IF(OR(ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A13, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A13, Service_Input!$E:$E, 0))))), IF(OR(ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A13, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A13, Service_Input!$E:$E, 0))))), "Limited Support (Cross-Region)", "Limited Support (In-Region)"), IF(OR(ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A13, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A13, Service_Input!$E:$E, 0))))), "Full Support (Cross-Region)", "Full Support (In-Region)")))</f>
         <v/>
       </c>
     </row>
@@ -11289,19 +11289,19 @@
         </is>
       </c>
       <c r="B14" s="9">
-        <f>IF(OR(ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A14, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A14, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A14, Service_Input!$E:$E, 0))))), "Not Supported", IF(OR(ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A14, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A14, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A14, Service_Input!$E:$E, 0))))), "Limited Support", "Full Support"))</f>
+        <f>IF(OR(ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A14, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A14, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A14, Service_Input!$E:$E, 0))))), "Not Supported", IF(OR(ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A14, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A14, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A14, Service_Input!$E:$E, 0))))), IF(OR(ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A14, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A14, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A14, Service_Input!$E:$E, 0))))), "Limited Support (Cross-Region)", "Limited Support (In-Region)"), IF(OR(ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A14, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A14, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A14, Service_Input!$E:$E, 0))))), "Full Support (Cross-Region)", "Full Support (In-Region)")))</f>
         <v/>
       </c>
       <c r="C14" s="9">
-        <f>IF(OR(ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A14, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A14, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A14, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A14, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A14, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A14, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A14, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A14, Service_Input!$E:$E, 0))))), "Not Supported", IF(OR(ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A14, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A14, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A14, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A14, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A14, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A14, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A14, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A14, Service_Input!$E:$E, 0))))), "Limited Support", "Full Support"))</f>
+        <f>IF(OR(ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A14, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A14, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A14, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A14, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A14, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A14, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A14, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A14, Service_Input!$E:$E, 0))))), "Not Supported", IF(OR(ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A14, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A14, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A14, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A14, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A14, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A14, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A14, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A14, Service_Input!$E:$E, 0))))), IF(OR(ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A14, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A14, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A14, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A14, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A14, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A14, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A14, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A14, Service_Input!$E:$E, 0))))), "Limited Support (Cross-Region)", "Limited Support (In-Region)"), IF(OR(ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A14, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A14, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A14, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A14, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A14, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A14, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A14, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A14, Service_Input!$E:$E, 0))))), "Full Support (Cross-Region)", "Full Support (In-Region)")))</f>
         <v/>
       </c>
       <c r="D14" s="9">
-        <f>IF(OR(ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A14, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A14, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A14, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A14, Service_Input!$E:$E, 0))))), "Not Supported", IF(OR(ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A14, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A14, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A14, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A14, Service_Input!$E:$E, 0))))), "Limited Support", "Full Support"))</f>
+        <f>IF(OR(ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A14, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A14, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A14, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A14, Service_Input!$E:$E, 0))))), "Not Supported", IF(OR(ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A14, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A14, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A14, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A14, Service_Input!$E:$E, 0))))), IF(OR(ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A14, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A14, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A14, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A14, Service_Input!$E:$E, 0))))), "Limited Support (Cross-Region)", "Limited Support (In-Region)"), IF(OR(ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A14, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A14, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A14, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A14, Service_Input!$E:$E, 0))))), "Full Support (Cross-Region)", "Full Support (In-Region)")))</f>
         <v/>
       </c>
       <c r="E14" s="9">
-        <f>IF(OR(ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A14, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A14, Service_Input!$E:$E, 0))))), "Not Supported", IF(OR(ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A14, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A14, Service_Input!$E:$E, 0))))), "Limited Support", "Full Support"))</f>
+        <f>IF(OR(ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A14, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A14, Service_Input!$E:$E, 0))))), "Not Supported", IF(OR(ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A14, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Limited Support", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A14, Service_Input!$E:$E, 0))))), IF(OR(ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A14, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A14, Service_Input!$E:$E, 0))))), "Limited Support (Cross-Region)", "Limited Support (In-Region)"), IF(OR(ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A14, Service_Input!$E:$E, 0)))), ISNUMBER(SEARCH("Cross-Region", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A14, Service_Input!$E:$E, 0))))), "Full Support (Cross-Region)", "Full Support (In-Region)")))</f>
         <v/>
       </c>
     </row>

--- a/Product Language Matrix/Smart_Availability_Matrix.xlsx
+++ b/Product Language Matrix/Smart_Availability_Matrix.xlsx
@@ -90,7 +90,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -106,7 +106,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -515,7 +514,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G386"/>
+  <dimension ref="A1:E386"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,8 +522,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col hidden="1" width="13" customWidth="1" min="6" max="6"/>
-    <col hidden="1" width="13" customWidth="1" min="7" max="7"/>
+    <col hidden="1" width="13" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -550,17 +548,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Hosting_Type</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>Lookup_Key</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Hosting_Lookup_Key</t>
         </is>
       </c>
     </row>
@@ -582,20 +570,11 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Cross-Region</t>
-        </is>
-      </c>
-      <c r="F2">
+          <t>General Availability</t>
+        </is>
+      </c>
+      <c r="E2">
         <f>A2&amp;"|"&amp;B2&amp;"|"&amp;C2</f>
-        <v/>
-      </c>
-      <c r="G2">
-        <f>A2&amp;"|"&amp;B2&amp;"|"&amp;C2&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -617,20 +596,11 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Not Supported</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F3">
+          <t>Limited Availability</t>
+        </is>
+      </c>
+      <c r="E3">
         <f>A3&amp;"|"&amp;B3&amp;"|"&amp;C3</f>
-        <v/>
-      </c>
-      <c r="G3">
-        <f>A3&amp;"|"&amp;B3&amp;"|"&amp;C3&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -652,20 +622,11 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Cross-Region</t>
-        </is>
-      </c>
-      <c r="F4">
+          <t>Not Supported</t>
+        </is>
+      </c>
+      <c r="E4">
         <f>A4&amp;"|"&amp;B4&amp;"|"&amp;C4</f>
-        <v/>
-      </c>
-      <c r="G4">
-        <f>A4&amp;"|"&amp;B4&amp;"|"&amp;C4&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -687,20 +648,11 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>In-Region</t>
-        </is>
-      </c>
-      <c r="F5">
+          <t>General Availability</t>
+        </is>
+      </c>
+      <c r="E5">
         <f>A5&amp;"|"&amp;B5&amp;"|"&amp;C5</f>
-        <v/>
-      </c>
-      <c r="G5">
-        <f>A5&amp;"|"&amp;B5&amp;"|"&amp;C5&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -722,20 +674,11 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>General Availability</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>In-Region</t>
-        </is>
-      </c>
-      <c r="F6">
+          <t>Limited Availability</t>
+        </is>
+      </c>
+      <c r="E6">
         <f>A6&amp;"|"&amp;B6&amp;"|"&amp;C6</f>
-        <v/>
-      </c>
-      <c r="G6">
-        <f>A6&amp;"|"&amp;B6&amp;"|"&amp;C6&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -757,20 +700,11 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Not Supported</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F7">
+          <t>General Availability</t>
+        </is>
+      </c>
+      <c r="E7">
         <f>A7&amp;"|"&amp;B7&amp;"|"&amp;C7</f>
-        <v/>
-      </c>
-      <c r="G7">
-        <f>A7&amp;"|"&amp;B7&amp;"|"&amp;C7&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -795,17 +729,8 @@
           <t>General Availability</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>In-Region</t>
-        </is>
-      </c>
-      <c r="F8">
+      <c r="E8">
         <f>A8&amp;"|"&amp;B8&amp;"|"&amp;C8</f>
-        <v/>
-      </c>
-      <c r="G8">
-        <f>A8&amp;"|"&amp;B8&amp;"|"&amp;C8&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -827,20 +752,11 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Not Supported</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F9">
+          <t>Limited Availability</t>
+        </is>
+      </c>
+      <c r="E9">
         <f>A9&amp;"|"&amp;B9&amp;"|"&amp;C9</f>
-        <v/>
-      </c>
-      <c r="G9">
-        <f>A9&amp;"|"&amp;B9&amp;"|"&amp;C9&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -862,20 +778,11 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Cross-Region</t>
-        </is>
-      </c>
-      <c r="F10">
+          <t>Not Supported</t>
+        </is>
+      </c>
+      <c r="E10">
         <f>A10&amp;"|"&amp;B10&amp;"|"&amp;C10</f>
-        <v/>
-      </c>
-      <c r="G10">
-        <f>A10&amp;"|"&amp;B10&amp;"|"&amp;C10&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -900,17 +807,8 @@
           <t>Not Supported</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F11">
+      <c r="E11">
         <f>A11&amp;"|"&amp;B11&amp;"|"&amp;C11</f>
-        <v/>
-      </c>
-      <c r="G11">
-        <f>A11&amp;"|"&amp;B11&amp;"|"&amp;C11&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -935,17 +833,8 @@
           <t>General Availability</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>In-Region</t>
-        </is>
-      </c>
-      <c r="F12">
+      <c r="E12">
         <f>A12&amp;"|"&amp;B12&amp;"|"&amp;C12</f>
-        <v/>
-      </c>
-      <c r="G12">
-        <f>A12&amp;"|"&amp;B12&amp;"|"&amp;C12&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -967,20 +856,11 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Cross-Region</t>
-        </is>
-      </c>
-      <c r="F13">
+          <t>General Availability</t>
+        </is>
+      </c>
+      <c r="E13">
         <f>A13&amp;"|"&amp;B13&amp;"|"&amp;C13</f>
-        <v/>
-      </c>
-      <c r="G13">
-        <f>A13&amp;"|"&amp;B13&amp;"|"&amp;C13&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -1002,20 +882,11 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>In-Region</t>
-        </is>
-      </c>
-      <c r="F14">
+          <t>General Availability</t>
+        </is>
+      </c>
+      <c r="E14">
         <f>A14&amp;"|"&amp;B14&amp;"|"&amp;C14</f>
-        <v/>
-      </c>
-      <c r="G14">
-        <f>A14&amp;"|"&amp;B14&amp;"|"&amp;C14&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -1040,17 +911,8 @@
           <t>Not Supported</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F15">
+      <c r="E15">
         <f>A15&amp;"|"&amp;B15&amp;"|"&amp;C15</f>
-        <v/>
-      </c>
-      <c r="G15">
-        <f>A15&amp;"|"&amp;B15&amp;"|"&amp;C15&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -1075,17 +937,8 @@
           <t>General Availability</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>In-Region</t>
-        </is>
-      </c>
-      <c r="F16">
+      <c r="E16">
         <f>A16&amp;"|"&amp;B16&amp;"|"&amp;C16</f>
-        <v/>
-      </c>
-      <c r="G16">
-        <f>A16&amp;"|"&amp;B16&amp;"|"&amp;C16&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -1110,17 +963,8 @@
           <t>General Availability</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Cross-Region</t>
-        </is>
-      </c>
-      <c r="F17">
+      <c r="E17">
         <f>A17&amp;"|"&amp;B17&amp;"|"&amp;C17</f>
-        <v/>
-      </c>
-      <c r="G17">
-        <f>A17&amp;"|"&amp;B17&amp;"|"&amp;C17&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -1142,20 +986,11 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Not Supported</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F18">
+          <t>General Availability</t>
+        </is>
+      </c>
+      <c r="E18">
         <f>A18&amp;"|"&amp;B18&amp;"|"&amp;C18</f>
-        <v/>
-      </c>
-      <c r="G18">
-        <f>A18&amp;"|"&amp;B18&amp;"|"&amp;C18&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -1180,17 +1015,8 @@
           <t>General Availability</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Cross-Region</t>
-        </is>
-      </c>
-      <c r="F19">
+      <c r="E19">
         <f>A19&amp;"|"&amp;B19&amp;"|"&amp;C19</f>
-        <v/>
-      </c>
-      <c r="G19">
-        <f>A19&amp;"|"&amp;B19&amp;"|"&amp;C19&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -1212,20 +1038,11 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Not Supported</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F20">
+          <t>General Availability</t>
+        </is>
+      </c>
+      <c r="E20">
         <f>A20&amp;"|"&amp;B20&amp;"|"&amp;C20</f>
-        <v/>
-      </c>
-      <c r="G20">
-        <f>A20&amp;"|"&amp;B20&amp;"|"&amp;C20&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -1250,17 +1067,8 @@
           <t>General Availability</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Cross-Region</t>
-        </is>
-      </c>
-      <c r="F21">
+      <c r="E21">
         <f>A21&amp;"|"&amp;B21&amp;"|"&amp;C21</f>
-        <v/>
-      </c>
-      <c r="G21">
-        <f>A21&amp;"|"&amp;B21&amp;"|"&amp;C21&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -1285,17 +1093,8 @@
           <t>General Availability</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Cross-Region</t>
-        </is>
-      </c>
-      <c r="F22">
+      <c r="E22">
         <f>A22&amp;"|"&amp;B22&amp;"|"&amp;C22</f>
-        <v/>
-      </c>
-      <c r="G22">
-        <f>A22&amp;"|"&amp;B22&amp;"|"&amp;C22&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -1320,17 +1119,8 @@
           <t>General Availability</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>In-Region</t>
-        </is>
-      </c>
-      <c r="F23">
+      <c r="E23">
         <f>A23&amp;"|"&amp;B23&amp;"|"&amp;C23</f>
-        <v/>
-      </c>
-      <c r="G23">
-        <f>A23&amp;"|"&amp;B23&amp;"|"&amp;C23&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -1355,17 +1145,8 @@
           <t>General Availability</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>In-Region</t>
-        </is>
-      </c>
-      <c r="F24">
+      <c r="E24">
         <f>A24&amp;"|"&amp;B24&amp;"|"&amp;C24</f>
-        <v/>
-      </c>
-      <c r="G24">
-        <f>A24&amp;"|"&amp;B24&amp;"|"&amp;C24&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -1387,20 +1168,11 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Not Supported</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F25">
+          <t>General Availability</t>
+        </is>
+      </c>
+      <c r="E25">
         <f>A25&amp;"|"&amp;B25&amp;"|"&amp;C25</f>
-        <v/>
-      </c>
-      <c r="G25">
-        <f>A25&amp;"|"&amp;B25&amp;"|"&amp;C25&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -1422,20 +1194,11 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>General Availability</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>In-Region</t>
-        </is>
-      </c>
-      <c r="F26">
+          <t>Not Supported</t>
+        </is>
+      </c>
+      <c r="E26">
         <f>A26&amp;"|"&amp;B26&amp;"|"&amp;C26</f>
-        <v/>
-      </c>
-      <c r="G26">
-        <f>A26&amp;"|"&amp;B26&amp;"|"&amp;C26&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -1457,20 +1220,11 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>General Availability</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>In-Region</t>
-        </is>
-      </c>
-      <c r="F27">
+          <t>Limited Availability</t>
+        </is>
+      </c>
+      <c r="E27">
         <f>A27&amp;"|"&amp;B27&amp;"|"&amp;C27</f>
-        <v/>
-      </c>
-      <c r="G27">
-        <f>A27&amp;"|"&amp;B27&amp;"|"&amp;C27&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -1495,17 +1249,8 @@
           <t>Not Supported</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F28">
+      <c r="E28">
         <f>A28&amp;"|"&amp;B28&amp;"|"&amp;C28</f>
-        <v/>
-      </c>
-      <c r="G28">
-        <f>A28&amp;"|"&amp;B28&amp;"|"&amp;C28&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -1527,20 +1272,11 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>General Availability</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>Cross-Region</t>
-        </is>
-      </c>
-      <c r="F29">
+          <t>Not Supported</t>
+        </is>
+      </c>
+      <c r="E29">
         <f>A29&amp;"|"&amp;B29&amp;"|"&amp;C29</f>
-        <v/>
-      </c>
-      <c r="G29">
-        <f>A29&amp;"|"&amp;B29&amp;"|"&amp;C29&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -1562,20 +1298,11 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Not Supported</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F30">
+          <t>General Availability</t>
+        </is>
+      </c>
+      <c r="E30">
         <f>A30&amp;"|"&amp;B30&amp;"|"&amp;C30</f>
-        <v/>
-      </c>
-      <c r="G30">
-        <f>A30&amp;"|"&amp;B30&amp;"|"&amp;C30&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -1600,17 +1327,8 @@
           <t>Limited Availability</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>In-Region</t>
-        </is>
-      </c>
-      <c r="F31">
+      <c r="E31">
         <f>A31&amp;"|"&amp;B31&amp;"|"&amp;C31</f>
-        <v/>
-      </c>
-      <c r="G31">
-        <f>A31&amp;"|"&amp;B31&amp;"|"&amp;C31&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -1632,20 +1350,11 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>General Availability</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>Cross-Region</t>
-        </is>
-      </c>
-      <c r="F32">
+          <t>Not Supported</t>
+        </is>
+      </c>
+      <c r="E32">
         <f>A32&amp;"|"&amp;B32&amp;"|"&amp;C32</f>
-        <v/>
-      </c>
-      <c r="G32">
-        <f>A32&amp;"|"&amp;B32&amp;"|"&amp;C32&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -1670,17 +1379,8 @@
           <t>Limited Availability</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>In-Region</t>
-        </is>
-      </c>
-      <c r="F33">
+      <c r="E33">
         <f>A33&amp;"|"&amp;B33&amp;"|"&amp;C33</f>
-        <v/>
-      </c>
-      <c r="G33">
-        <f>A33&amp;"|"&amp;B33&amp;"|"&amp;C33&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -1702,20 +1402,11 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Not Supported</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F34">
+          <t>Limited Availability</t>
+        </is>
+      </c>
+      <c r="E34">
         <f>A34&amp;"|"&amp;B34&amp;"|"&amp;C34</f>
-        <v/>
-      </c>
-      <c r="G34">
-        <f>A34&amp;"|"&amp;B34&amp;"|"&amp;C34&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -1737,20 +1428,11 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>General Availability</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>In-Region</t>
-        </is>
-      </c>
-      <c r="F35">
+          <t>Limited Availability</t>
+        </is>
+      </c>
+      <c r="E35">
         <f>A35&amp;"|"&amp;B35&amp;"|"&amp;C35</f>
-        <v/>
-      </c>
-      <c r="G35">
-        <f>A35&amp;"|"&amp;B35&amp;"|"&amp;C35&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -1772,20 +1454,11 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>General Availability</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>In-Region</t>
-        </is>
-      </c>
-      <c r="F36">
+          <t>Limited Availability</t>
+        </is>
+      </c>
+      <c r="E36">
         <f>A36&amp;"|"&amp;B36&amp;"|"&amp;C36</f>
-        <v/>
-      </c>
-      <c r="G36">
-        <f>A36&amp;"|"&amp;B36&amp;"|"&amp;C36&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -1810,17 +1483,8 @@
           <t>Limited Availability</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>Cross-Region</t>
-        </is>
-      </c>
-      <c r="F37">
+      <c r="E37">
         <f>A37&amp;"|"&amp;B37&amp;"|"&amp;C37</f>
-        <v/>
-      </c>
-      <c r="G37">
-        <f>A37&amp;"|"&amp;B37&amp;"|"&amp;C37&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -1845,17 +1509,8 @@
           <t>Limited Availability</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>Cross-Region</t>
-        </is>
-      </c>
-      <c r="F38">
+      <c r="E38">
         <f>A38&amp;"|"&amp;B38&amp;"|"&amp;C38</f>
-        <v/>
-      </c>
-      <c r="G38">
-        <f>A38&amp;"|"&amp;B38&amp;"|"&amp;C38&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -1877,20 +1532,11 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Not Supported</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F39">
+          <t>General Availability</t>
+        </is>
+      </c>
+      <c r="E39">
         <f>A39&amp;"|"&amp;B39&amp;"|"&amp;C39</f>
-        <v/>
-      </c>
-      <c r="G39">
-        <f>A39&amp;"|"&amp;B39&amp;"|"&amp;C39&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -1912,20 +1558,11 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>In-Region</t>
-        </is>
-      </c>
-      <c r="F40">
+          <t>General Availability</t>
+        </is>
+      </c>
+      <c r="E40">
         <f>A40&amp;"|"&amp;B40&amp;"|"&amp;C40</f>
-        <v/>
-      </c>
-      <c r="G40">
-        <f>A40&amp;"|"&amp;B40&amp;"|"&amp;C40&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -1947,20 +1584,11 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>In-Region</t>
-        </is>
-      </c>
-      <c r="F41">
+          <t>General Availability</t>
+        </is>
+      </c>
+      <c r="E41">
         <f>A41&amp;"|"&amp;B41&amp;"|"&amp;C41</f>
-        <v/>
-      </c>
-      <c r="G41">
-        <f>A41&amp;"|"&amp;B41&amp;"|"&amp;C41&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -1985,17 +1613,8 @@
           <t>General Availability</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>Cross-Region</t>
-        </is>
-      </c>
-      <c r="F42">
+      <c r="E42">
         <f>A42&amp;"|"&amp;B42&amp;"|"&amp;C42</f>
-        <v/>
-      </c>
-      <c r="G42">
-        <f>A42&amp;"|"&amp;B42&amp;"|"&amp;C42&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -2020,17 +1639,8 @@
           <t>Limited Availability</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>In-Region</t>
-        </is>
-      </c>
-      <c r="F43">
+      <c r="E43">
         <f>A43&amp;"|"&amp;B43&amp;"|"&amp;C43</f>
-        <v/>
-      </c>
-      <c r="G43">
-        <f>A43&amp;"|"&amp;B43&amp;"|"&amp;C43&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -2052,20 +1662,11 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>In-Region</t>
-        </is>
-      </c>
-      <c r="F44">
+          <t>Not Supported</t>
+        </is>
+      </c>
+      <c r="E44">
         <f>A44&amp;"|"&amp;B44&amp;"|"&amp;C44</f>
-        <v/>
-      </c>
-      <c r="G44">
-        <f>A44&amp;"|"&amp;B44&amp;"|"&amp;C44&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -2087,20 +1688,11 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>General Availability</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>Cross-Region</t>
-        </is>
-      </c>
-      <c r="F45">
+          <t>Limited Availability</t>
+        </is>
+      </c>
+      <c r="E45">
         <f>A45&amp;"|"&amp;B45&amp;"|"&amp;C45</f>
-        <v/>
-      </c>
-      <c r="G45">
-        <f>A45&amp;"|"&amp;B45&amp;"|"&amp;C45&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -2122,20 +1714,11 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>In-Region</t>
-        </is>
-      </c>
-      <c r="F46">
+          <t>Not Supported</t>
+        </is>
+      </c>
+      <c r="E46">
         <f>A46&amp;"|"&amp;B46&amp;"|"&amp;C46</f>
-        <v/>
-      </c>
-      <c r="G46">
-        <f>A46&amp;"|"&amp;B46&amp;"|"&amp;C46&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -2157,20 +1740,11 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>General Availability</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>Cross-Region</t>
-        </is>
-      </c>
-      <c r="F47">
+          <t>Not Supported</t>
+        </is>
+      </c>
+      <c r="E47">
         <f>A47&amp;"|"&amp;B47&amp;"|"&amp;C47</f>
-        <v/>
-      </c>
-      <c r="G47">
-        <f>A47&amp;"|"&amp;B47&amp;"|"&amp;C47&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -2192,20 +1766,11 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>Cross-Region</t>
-        </is>
-      </c>
-      <c r="F48">
+          <t>General Availability</t>
+        </is>
+      </c>
+      <c r="E48">
         <f>A48&amp;"|"&amp;B48&amp;"|"&amp;C48</f>
-        <v/>
-      </c>
-      <c r="G48">
-        <f>A48&amp;"|"&amp;B48&amp;"|"&amp;C48&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -2230,17 +1795,8 @@
           <t>General Availability</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>Cross-Region</t>
-        </is>
-      </c>
-      <c r="F49">
+      <c r="E49">
         <f>A49&amp;"|"&amp;B49&amp;"|"&amp;C49</f>
-        <v/>
-      </c>
-      <c r="G49">
-        <f>A49&amp;"|"&amp;B49&amp;"|"&amp;C49&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -2265,17 +1821,8 @@
           <t>General Availability</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>In-Region</t>
-        </is>
-      </c>
-      <c r="F50">
+      <c r="E50">
         <f>A50&amp;"|"&amp;B50&amp;"|"&amp;C50</f>
-        <v/>
-      </c>
-      <c r="G50">
-        <f>A50&amp;"|"&amp;B50&amp;"|"&amp;C50&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -2297,20 +1844,11 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>General Availability</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>Cross-Region</t>
-        </is>
-      </c>
-      <c r="F51">
+          <t>Limited Availability</t>
+        </is>
+      </c>
+      <c r="E51">
         <f>A51&amp;"|"&amp;B51&amp;"|"&amp;C51</f>
-        <v/>
-      </c>
-      <c r="G51">
-        <f>A51&amp;"|"&amp;B51&amp;"|"&amp;C51&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -2335,17 +1873,8 @@
           <t>Limited Availability</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>Cross-Region</t>
-        </is>
-      </c>
-      <c r="F52">
+      <c r="E52">
         <f>A52&amp;"|"&amp;B52&amp;"|"&amp;C52</f>
-        <v/>
-      </c>
-      <c r="G52">
-        <f>A52&amp;"|"&amp;B52&amp;"|"&amp;C52&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -2367,20 +1896,11 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>General Availability</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>Cross-Region</t>
-        </is>
-      </c>
-      <c r="F53">
+          <t>Limited Availability</t>
+        </is>
+      </c>
+      <c r="E53">
         <f>A53&amp;"|"&amp;B53&amp;"|"&amp;C53</f>
-        <v/>
-      </c>
-      <c r="G53">
-        <f>A53&amp;"|"&amp;B53&amp;"|"&amp;C53&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -2405,17 +1925,8 @@
           <t>General Availability</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>In-Region</t>
-        </is>
-      </c>
-      <c r="F54">
+      <c r="E54">
         <f>A54&amp;"|"&amp;B54&amp;"|"&amp;C54</f>
-        <v/>
-      </c>
-      <c r="G54">
-        <f>A54&amp;"|"&amp;B54&amp;"|"&amp;C54&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -2437,20 +1948,11 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Not Supported</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F55">
+          <t>General Availability</t>
+        </is>
+      </c>
+      <c r="E55">
         <f>A55&amp;"|"&amp;B55&amp;"|"&amp;C55</f>
-        <v/>
-      </c>
-      <c r="G55">
-        <f>A55&amp;"|"&amp;B55&amp;"|"&amp;C55&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -2472,20 +1974,11 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>General Availability</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>Cross-Region</t>
-        </is>
-      </c>
-      <c r="F56">
+          <t>Not Supported</t>
+        </is>
+      </c>
+      <c r="E56">
         <f>A56&amp;"|"&amp;B56&amp;"|"&amp;C56</f>
-        <v/>
-      </c>
-      <c r="G56">
-        <f>A56&amp;"|"&amp;B56&amp;"|"&amp;C56&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -2507,20 +2000,11 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>In-Region</t>
-        </is>
-      </c>
-      <c r="F57">
+          <t>General Availability</t>
+        </is>
+      </c>
+      <c r="E57">
         <f>A57&amp;"|"&amp;B57&amp;"|"&amp;C57</f>
-        <v/>
-      </c>
-      <c r="G57">
-        <f>A57&amp;"|"&amp;B57&amp;"|"&amp;C57&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -2542,20 +2026,11 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>General Availability</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>Cross-Region</t>
-        </is>
-      </c>
-      <c r="F58">
+          <t>Limited Availability</t>
+        </is>
+      </c>
+      <c r="E58">
         <f>A58&amp;"|"&amp;B58&amp;"|"&amp;C58</f>
-        <v/>
-      </c>
-      <c r="G58">
-        <f>A58&amp;"|"&amp;B58&amp;"|"&amp;C58&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -2577,20 +2052,11 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>General Availability</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>In-Region</t>
-        </is>
-      </c>
-      <c r="F59">
+          <t>Limited Availability</t>
+        </is>
+      </c>
+      <c r="E59">
         <f>A59&amp;"|"&amp;B59&amp;"|"&amp;C59</f>
-        <v/>
-      </c>
-      <c r="G59">
-        <f>A59&amp;"|"&amp;B59&amp;"|"&amp;C59&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -2612,20 +2078,11 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>General Availability</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>Cross-Region</t>
-        </is>
-      </c>
-      <c r="F60">
+          <t>Limited Availability</t>
+        </is>
+      </c>
+      <c r="E60">
         <f>A60&amp;"|"&amp;B60&amp;"|"&amp;C60</f>
-        <v/>
-      </c>
-      <c r="G60">
-        <f>A60&amp;"|"&amp;B60&amp;"|"&amp;C60&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -2647,20 +2104,11 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Not Supported</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F61">
+          <t>General Availability</t>
+        </is>
+      </c>
+      <c r="E61">
         <f>A61&amp;"|"&amp;B61&amp;"|"&amp;C61</f>
-        <v/>
-      </c>
-      <c r="G61">
-        <f>A61&amp;"|"&amp;B61&amp;"|"&amp;C61&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -2682,20 +2130,11 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>In-Region</t>
-        </is>
-      </c>
-      <c r="F62">
+          <t>Not Supported</t>
+        </is>
+      </c>
+      <c r="E62">
         <f>A62&amp;"|"&amp;B62&amp;"|"&amp;C62</f>
-        <v/>
-      </c>
-      <c r="G62">
-        <f>A62&amp;"|"&amp;B62&amp;"|"&amp;C62&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -2717,20 +2156,11 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>Cross-Region</t>
-        </is>
-      </c>
-      <c r="F63">
+          <t>General Availability</t>
+        </is>
+      </c>
+      <c r="E63">
         <f>A63&amp;"|"&amp;B63&amp;"|"&amp;C63</f>
-        <v/>
-      </c>
-      <c r="G63">
-        <f>A63&amp;"|"&amp;B63&amp;"|"&amp;C63&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -2755,17 +2185,8 @@
           <t>General Availability</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>In-Region</t>
-        </is>
-      </c>
-      <c r="F64">
+      <c r="E64">
         <f>A64&amp;"|"&amp;B64&amp;"|"&amp;C64</f>
-        <v/>
-      </c>
-      <c r="G64">
-        <f>A64&amp;"|"&amp;B64&amp;"|"&amp;C64&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -2787,20 +2208,11 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>General Availability</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>Cross-Region</t>
-        </is>
-      </c>
-      <c r="F65">
+          <t>Not Supported</t>
+        </is>
+      </c>
+      <c r="E65">
         <f>A65&amp;"|"&amp;B65&amp;"|"&amp;C65</f>
-        <v/>
-      </c>
-      <c r="G65">
-        <f>A65&amp;"|"&amp;B65&amp;"|"&amp;C65&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -2822,20 +2234,11 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Not Supported</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F66">
+          <t>General Availability</t>
+        </is>
+      </c>
+      <c r="E66">
         <f>A66&amp;"|"&amp;B66&amp;"|"&amp;C66</f>
-        <v/>
-      </c>
-      <c r="G66">
-        <f>A66&amp;"|"&amp;B66&amp;"|"&amp;C66&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -2857,20 +2260,11 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Not Supported</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F67">
+          <t>General Availability</t>
+        </is>
+      </c>
+      <c r="E67">
         <f>A67&amp;"|"&amp;B67&amp;"|"&amp;C67</f>
-        <v/>
-      </c>
-      <c r="G67">
-        <f>A67&amp;"|"&amp;B67&amp;"|"&amp;C67&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -2892,20 +2286,11 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Not Supported</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F68">
+          <t>Limited Availability</t>
+        </is>
+      </c>
+      <c r="E68">
         <f>A68&amp;"|"&amp;B68&amp;"|"&amp;C68</f>
-        <v/>
-      </c>
-      <c r="G68">
-        <f>A68&amp;"|"&amp;B68&amp;"|"&amp;C68&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -2927,20 +2312,11 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>General Availability</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>In-Region</t>
-        </is>
-      </c>
-      <c r="F69">
+          <t>Limited Availability</t>
+        </is>
+      </c>
+      <c r="E69">
         <f>A69&amp;"|"&amp;B69&amp;"|"&amp;C69</f>
-        <v/>
-      </c>
-      <c r="G69">
-        <f>A69&amp;"|"&amp;B69&amp;"|"&amp;C69&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -2965,17 +2341,8 @@
           <t>Limited Availability</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>In-Region</t>
-        </is>
-      </c>
-      <c r="F70">
+      <c r="E70">
         <f>A70&amp;"|"&amp;B70&amp;"|"&amp;C70</f>
-        <v/>
-      </c>
-      <c r="G70">
-        <f>A70&amp;"|"&amp;B70&amp;"|"&amp;C70&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -2997,20 +2364,11 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Not Supported</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F71">
+          <t>General Availability</t>
+        </is>
+      </c>
+      <c r="E71">
         <f>A71&amp;"|"&amp;B71&amp;"|"&amp;C71</f>
-        <v/>
-      </c>
-      <c r="G71">
-        <f>A71&amp;"|"&amp;B71&amp;"|"&amp;C71&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -3035,17 +2393,8 @@
           <t>Limited Availability</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>Cross-Region</t>
-        </is>
-      </c>
-      <c r="F72">
+      <c r="E72">
         <f>A72&amp;"|"&amp;B72&amp;"|"&amp;C72</f>
-        <v/>
-      </c>
-      <c r="G72">
-        <f>A72&amp;"|"&amp;B72&amp;"|"&amp;C72&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -3067,20 +2416,11 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>General Availability</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>Cross-Region</t>
-        </is>
-      </c>
-      <c r="F73">
+          <t>Limited Availability</t>
+        </is>
+      </c>
+      <c r="E73">
         <f>A73&amp;"|"&amp;B73&amp;"|"&amp;C73</f>
-        <v/>
-      </c>
-      <c r="G73">
-        <f>A73&amp;"|"&amp;B73&amp;"|"&amp;C73&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -3105,17 +2445,8 @@
           <t>General Availability</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>In-Region</t>
-        </is>
-      </c>
-      <c r="F74">
+      <c r="E74">
         <f>A74&amp;"|"&amp;B74&amp;"|"&amp;C74</f>
-        <v/>
-      </c>
-      <c r="G74">
-        <f>A74&amp;"|"&amp;B74&amp;"|"&amp;C74&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -3137,20 +2468,11 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>Cross-Region</t>
-        </is>
-      </c>
-      <c r="F75">
+          <t>Not Supported</t>
+        </is>
+      </c>
+      <c r="E75">
         <f>A75&amp;"|"&amp;B75&amp;"|"&amp;C75</f>
-        <v/>
-      </c>
-      <c r="G75">
-        <f>A75&amp;"|"&amp;B75&amp;"|"&amp;C75&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -3172,20 +2494,11 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>General Availability</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>In-Region</t>
-        </is>
-      </c>
-      <c r="F76">
+          <t>Limited Availability</t>
+        </is>
+      </c>
+      <c r="E76">
         <f>A76&amp;"|"&amp;B76&amp;"|"&amp;C76</f>
-        <v/>
-      </c>
-      <c r="G76">
-        <f>A76&amp;"|"&amp;B76&amp;"|"&amp;C76&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -3210,17 +2523,8 @@
           <t>Not Supported</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F77">
+      <c r="E77">
         <f>A77&amp;"|"&amp;B77&amp;"|"&amp;C77</f>
-        <v/>
-      </c>
-      <c r="G77">
-        <f>A77&amp;"|"&amp;B77&amp;"|"&amp;C77&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -3242,20 +2546,11 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Not Supported</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F78">
+          <t>General Availability</t>
+        </is>
+      </c>
+      <c r="E78">
         <f>A78&amp;"|"&amp;B78&amp;"|"&amp;C78</f>
-        <v/>
-      </c>
-      <c r="G78">
-        <f>A78&amp;"|"&amp;B78&amp;"|"&amp;C78&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -3280,17 +2575,8 @@
           <t>General Availability</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>In-Region</t>
-        </is>
-      </c>
-      <c r="F79">
+      <c r="E79">
         <f>A79&amp;"|"&amp;B79&amp;"|"&amp;C79</f>
-        <v/>
-      </c>
-      <c r="G79">
-        <f>A79&amp;"|"&amp;B79&amp;"|"&amp;C79&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -3312,20 +2598,11 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Not Supported</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F80">
+          <t>Limited Availability</t>
+        </is>
+      </c>
+      <c r="E80">
         <f>A80&amp;"|"&amp;B80&amp;"|"&amp;C80</f>
-        <v/>
-      </c>
-      <c r="G80">
-        <f>A80&amp;"|"&amp;B80&amp;"|"&amp;C80&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -3347,20 +2624,11 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>In-Region</t>
-        </is>
-      </c>
-      <c r="F81">
+          <t>Not Supported</t>
+        </is>
+      </c>
+      <c r="E81">
         <f>A81&amp;"|"&amp;B81&amp;"|"&amp;C81</f>
-        <v/>
-      </c>
-      <c r="G81">
-        <f>A81&amp;"|"&amp;B81&amp;"|"&amp;C81&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -3385,17 +2653,8 @@
           <t>General Availability</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>In-Region</t>
-        </is>
-      </c>
-      <c r="F82">
+      <c r="E82">
         <f>A82&amp;"|"&amp;B82&amp;"|"&amp;C82</f>
-        <v/>
-      </c>
-      <c r="G82">
-        <f>A82&amp;"|"&amp;B82&amp;"|"&amp;C82&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -3417,20 +2676,11 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>In-Region</t>
-        </is>
-      </c>
-      <c r="F83">
+          <t>Not Supported</t>
+        </is>
+      </c>
+      <c r="E83">
         <f>A83&amp;"|"&amp;B83&amp;"|"&amp;C83</f>
-        <v/>
-      </c>
-      <c r="G83">
-        <f>A83&amp;"|"&amp;B83&amp;"|"&amp;C83&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -3455,17 +2705,8 @@
           <t>Limited Availability</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>Cross-Region</t>
-        </is>
-      </c>
-      <c r="F84">
+      <c r="E84">
         <f>A84&amp;"|"&amp;B84&amp;"|"&amp;C84</f>
-        <v/>
-      </c>
-      <c r="G84">
-        <f>A84&amp;"|"&amp;B84&amp;"|"&amp;C84&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -3487,20 +2728,11 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>Cross-Region</t>
-        </is>
-      </c>
-      <c r="F85">
+          <t>General Availability</t>
+        </is>
+      </c>
+      <c r="E85">
         <f>A85&amp;"|"&amp;B85&amp;"|"&amp;C85</f>
-        <v/>
-      </c>
-      <c r="G85">
-        <f>A85&amp;"|"&amp;B85&amp;"|"&amp;C85&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -3525,17 +2757,8 @@
           <t>Not Supported</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F86">
+      <c r="E86">
         <f>A86&amp;"|"&amp;B86&amp;"|"&amp;C86</f>
-        <v/>
-      </c>
-      <c r="G86">
-        <f>A86&amp;"|"&amp;B86&amp;"|"&amp;C86&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -3560,17 +2783,8 @@
           <t>Not Supported</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F87">
+      <c r="E87">
         <f>A87&amp;"|"&amp;B87&amp;"|"&amp;C87</f>
-        <v/>
-      </c>
-      <c r="G87">
-        <f>A87&amp;"|"&amp;B87&amp;"|"&amp;C87&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -3595,17 +2809,8 @@
           <t>Limited Availability</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>Cross-Region</t>
-        </is>
-      </c>
-      <c r="F88">
+      <c r="E88">
         <f>A88&amp;"|"&amp;B88&amp;"|"&amp;C88</f>
-        <v/>
-      </c>
-      <c r="G88">
-        <f>A88&amp;"|"&amp;B88&amp;"|"&amp;C88&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -3630,17 +2835,8 @@
           <t>General Availability</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>Cross-Region</t>
-        </is>
-      </c>
-      <c r="F89">
+      <c r="E89">
         <f>A89&amp;"|"&amp;B89&amp;"|"&amp;C89</f>
-        <v/>
-      </c>
-      <c r="G89">
-        <f>A89&amp;"|"&amp;B89&amp;"|"&amp;C89&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -3665,17 +2861,8 @@
           <t>Limited Availability</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>In-Region</t>
-        </is>
-      </c>
-      <c r="F90">
+      <c r="E90">
         <f>A90&amp;"|"&amp;B90&amp;"|"&amp;C90</f>
-        <v/>
-      </c>
-      <c r="G90">
-        <f>A90&amp;"|"&amp;B90&amp;"|"&amp;C90&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -3697,20 +2884,11 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>General Availability</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>In-Region</t>
-        </is>
-      </c>
-      <c r="F91">
+          <t>Limited Availability</t>
+        </is>
+      </c>
+      <c r="E91">
         <f>A91&amp;"|"&amp;B91&amp;"|"&amp;C91</f>
-        <v/>
-      </c>
-      <c r="G91">
-        <f>A91&amp;"|"&amp;B91&amp;"|"&amp;C91&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -3735,17 +2913,8 @@
           <t>General Availability</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>Cross-Region</t>
-        </is>
-      </c>
-      <c r="F92">
+      <c r="E92">
         <f>A92&amp;"|"&amp;B92&amp;"|"&amp;C92</f>
-        <v/>
-      </c>
-      <c r="G92">
-        <f>A92&amp;"|"&amp;B92&amp;"|"&amp;C92&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -3767,20 +2936,11 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>General Availability</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>In-Region</t>
-        </is>
-      </c>
-      <c r="F93">
+          <t>Not Supported</t>
+        </is>
+      </c>
+      <c r="E93">
         <f>A93&amp;"|"&amp;B93&amp;"|"&amp;C93</f>
-        <v/>
-      </c>
-      <c r="G93">
-        <f>A93&amp;"|"&amp;B93&amp;"|"&amp;C93&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -3802,20 +2962,11 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>Cross-Region</t>
-        </is>
-      </c>
-      <c r="F94">
+          <t>General Availability</t>
+        </is>
+      </c>
+      <c r="E94">
         <f>A94&amp;"|"&amp;B94&amp;"|"&amp;C94</f>
-        <v/>
-      </c>
-      <c r="G94">
-        <f>A94&amp;"|"&amp;B94&amp;"|"&amp;C94&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -3837,20 +2988,11 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>General Availability</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>Cross-Region</t>
-        </is>
-      </c>
-      <c r="F95">
+          <t>Not Supported</t>
+        </is>
+      </c>
+      <c r="E95">
         <f>A95&amp;"|"&amp;B95&amp;"|"&amp;C95</f>
-        <v/>
-      </c>
-      <c r="G95">
-        <f>A95&amp;"|"&amp;B95&amp;"|"&amp;C95&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -3875,17 +3017,8 @@
           <t>Not Supported</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F96">
+      <c r="E96">
         <f>A96&amp;"|"&amp;B96&amp;"|"&amp;C96</f>
-        <v/>
-      </c>
-      <c r="G96">
-        <f>A96&amp;"|"&amp;B96&amp;"|"&amp;C96&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -3907,20 +3040,11 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>General Availability</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>In-Region</t>
-        </is>
-      </c>
-      <c r="F97">
+          <t>Not Supported</t>
+        </is>
+      </c>
+      <c r="E97">
         <f>A97&amp;"|"&amp;B97&amp;"|"&amp;C97</f>
-        <v/>
-      </c>
-      <c r="G97">
-        <f>A97&amp;"|"&amp;B97&amp;"|"&amp;C97&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -3942,20 +3066,11 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>General Availability</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>In-Region</t>
-        </is>
-      </c>
-      <c r="F98">
+          <t>Limited Availability</t>
+        </is>
+      </c>
+      <c r="E98">
         <f>A98&amp;"|"&amp;B98&amp;"|"&amp;C98</f>
-        <v/>
-      </c>
-      <c r="G98">
-        <f>A98&amp;"|"&amp;B98&amp;"|"&amp;C98&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -3977,20 +3092,11 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>In-Region</t>
-        </is>
-      </c>
-      <c r="F99">
+          <t>General Availability</t>
+        </is>
+      </c>
+      <c r="E99">
         <f>A99&amp;"|"&amp;B99&amp;"|"&amp;C99</f>
-        <v/>
-      </c>
-      <c r="G99">
-        <f>A99&amp;"|"&amp;B99&amp;"|"&amp;C99&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -4012,20 +3118,11 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Not Supported</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F100">
+          <t>General Availability</t>
+        </is>
+      </c>
+      <c r="E100">
         <f>A100&amp;"|"&amp;B100&amp;"|"&amp;C100</f>
-        <v/>
-      </c>
-      <c r="G100">
-        <f>A100&amp;"|"&amp;B100&amp;"|"&amp;C100&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -4050,17 +3147,8 @@
           <t>Limited Availability</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>In-Region</t>
-        </is>
-      </c>
-      <c r="F101">
+      <c r="E101">
         <f>A101&amp;"|"&amp;B101&amp;"|"&amp;C101</f>
-        <v/>
-      </c>
-      <c r="G101">
-        <f>A101&amp;"|"&amp;B101&amp;"|"&amp;C101&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -4082,20 +3170,11 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Not Supported</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F102">
+          <t>General Availability</t>
+        </is>
+      </c>
+      <c r="E102">
         <f>A102&amp;"|"&amp;B102&amp;"|"&amp;C102</f>
-        <v/>
-      </c>
-      <c r="G102">
-        <f>A102&amp;"|"&amp;B102&amp;"|"&amp;C102&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -4117,20 +3196,11 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Not Supported</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F103">
+          <t>Limited Availability</t>
+        </is>
+      </c>
+      <c r="E103">
         <f>A103&amp;"|"&amp;B103&amp;"|"&amp;C103</f>
-        <v/>
-      </c>
-      <c r="G103">
-        <f>A103&amp;"|"&amp;B103&amp;"|"&amp;C103&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -4155,17 +3225,8 @@
           <t>Limited Availability</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>Cross-Region</t>
-        </is>
-      </c>
-      <c r="F104">
+      <c r="E104">
         <f>A104&amp;"|"&amp;B104&amp;"|"&amp;C104</f>
-        <v/>
-      </c>
-      <c r="G104">
-        <f>A104&amp;"|"&amp;B104&amp;"|"&amp;C104&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -4187,20 +3248,11 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>In-Region</t>
-        </is>
-      </c>
-      <c r="F105">
+          <t>Not Supported</t>
+        </is>
+      </c>
+      <c r="E105">
         <f>A105&amp;"|"&amp;B105&amp;"|"&amp;C105</f>
-        <v/>
-      </c>
-      <c r="G105">
-        <f>A105&amp;"|"&amp;B105&amp;"|"&amp;C105&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -4225,17 +3277,8 @@
           <t>Not Supported</t>
         </is>
       </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F106">
+      <c r="E106">
         <f>A106&amp;"|"&amp;B106&amp;"|"&amp;C106</f>
-        <v/>
-      </c>
-      <c r="G106">
-        <f>A106&amp;"|"&amp;B106&amp;"|"&amp;C106&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -4260,17 +3303,8 @@
           <t>General Availability</t>
         </is>
       </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>Cross-Region</t>
-        </is>
-      </c>
-      <c r="F107">
+      <c r="E107">
         <f>A107&amp;"|"&amp;B107&amp;"|"&amp;C107</f>
-        <v/>
-      </c>
-      <c r="G107">
-        <f>A107&amp;"|"&amp;B107&amp;"|"&amp;C107&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -4295,17 +3329,8 @@
           <t>General Availability</t>
         </is>
       </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>In-Region</t>
-        </is>
-      </c>
-      <c r="F108">
+      <c r="E108">
         <f>A108&amp;"|"&amp;B108&amp;"|"&amp;C108</f>
-        <v/>
-      </c>
-      <c r="G108">
-        <f>A108&amp;"|"&amp;B108&amp;"|"&amp;C108&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -4327,20 +3352,11 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>In-Region</t>
-        </is>
-      </c>
-      <c r="F109">
+          <t>General Availability</t>
+        </is>
+      </c>
+      <c r="E109">
         <f>A109&amp;"|"&amp;B109&amp;"|"&amp;C109</f>
-        <v/>
-      </c>
-      <c r="G109">
-        <f>A109&amp;"|"&amp;B109&amp;"|"&amp;C109&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -4362,20 +3378,11 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>General Availability</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>In-Region</t>
-        </is>
-      </c>
-      <c r="F110">
+          <t>Limited Availability</t>
+        </is>
+      </c>
+      <c r="E110">
         <f>A110&amp;"|"&amp;B110&amp;"|"&amp;C110</f>
-        <v/>
-      </c>
-      <c r="G110">
-        <f>A110&amp;"|"&amp;B110&amp;"|"&amp;C110&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -4397,20 +3404,11 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>In-Region</t>
-        </is>
-      </c>
-      <c r="F111">
+          <t>General Availability</t>
+        </is>
+      </c>
+      <c r="E111">
         <f>A111&amp;"|"&amp;B111&amp;"|"&amp;C111</f>
-        <v/>
-      </c>
-      <c r="G111">
-        <f>A111&amp;"|"&amp;B111&amp;"|"&amp;C111&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -4432,20 +3430,11 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>Cross-Region</t>
-        </is>
-      </c>
-      <c r="F112">
+          <t>General Availability</t>
+        </is>
+      </c>
+      <c r="E112">
         <f>A112&amp;"|"&amp;B112&amp;"|"&amp;C112</f>
-        <v/>
-      </c>
-      <c r="G112">
-        <f>A112&amp;"|"&amp;B112&amp;"|"&amp;C112&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -4470,17 +3459,8 @@
           <t>General Availability</t>
         </is>
       </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>In-Region</t>
-        </is>
-      </c>
-      <c r="F113">
+      <c r="E113">
         <f>A113&amp;"|"&amp;B113&amp;"|"&amp;C113</f>
-        <v/>
-      </c>
-      <c r="G113">
-        <f>A113&amp;"|"&amp;B113&amp;"|"&amp;C113&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -4505,17 +3485,8 @@
           <t>General Availability</t>
         </is>
       </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>In-Region</t>
-        </is>
-      </c>
-      <c r="F114">
+      <c r="E114">
         <f>A114&amp;"|"&amp;B114&amp;"|"&amp;C114</f>
-        <v/>
-      </c>
-      <c r="G114">
-        <f>A114&amp;"|"&amp;B114&amp;"|"&amp;C114&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -4540,17 +3511,8 @@
           <t>General Availability</t>
         </is>
       </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>In-Region</t>
-        </is>
-      </c>
-      <c r="F115">
+      <c r="E115">
         <f>A115&amp;"|"&amp;B115&amp;"|"&amp;C115</f>
-        <v/>
-      </c>
-      <c r="G115">
-        <f>A115&amp;"|"&amp;B115&amp;"|"&amp;C115&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -4572,20 +3534,11 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>General Availability</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>Cross-Region</t>
-        </is>
-      </c>
-      <c r="F116">
+          <t>Limited Availability</t>
+        </is>
+      </c>
+      <c r="E116">
         <f>A116&amp;"|"&amp;B116&amp;"|"&amp;C116</f>
-        <v/>
-      </c>
-      <c r="G116">
-        <f>A116&amp;"|"&amp;B116&amp;"|"&amp;C116&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -4607,20 +3560,11 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>Cross-Region</t>
-        </is>
-      </c>
-      <c r="F117">
+          <t>General Availability</t>
+        </is>
+      </c>
+      <c r="E117">
         <f>A117&amp;"|"&amp;B117&amp;"|"&amp;C117</f>
-        <v/>
-      </c>
-      <c r="G117">
-        <f>A117&amp;"|"&amp;B117&amp;"|"&amp;C117&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -4642,20 +3586,11 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>General Availability</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>In-Region</t>
-        </is>
-      </c>
-      <c r="F118">
+          <t>Limited Availability</t>
+        </is>
+      </c>
+      <c r="E118">
         <f>A118&amp;"|"&amp;B118&amp;"|"&amp;C118</f>
-        <v/>
-      </c>
-      <c r="G118">
-        <f>A118&amp;"|"&amp;B118&amp;"|"&amp;C118&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -4677,20 +3612,11 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Not Supported</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F119">
+          <t>General Availability</t>
+        </is>
+      </c>
+      <c r="E119">
         <f>A119&amp;"|"&amp;B119&amp;"|"&amp;C119</f>
-        <v/>
-      </c>
-      <c r="G119">
-        <f>A119&amp;"|"&amp;B119&amp;"|"&amp;C119&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -4712,20 +3638,11 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>In-Region</t>
-        </is>
-      </c>
-      <c r="F120">
+          <t>General Availability</t>
+        </is>
+      </c>
+      <c r="E120">
         <f>A120&amp;"|"&amp;B120&amp;"|"&amp;C120</f>
-        <v/>
-      </c>
-      <c r="G120">
-        <f>A120&amp;"|"&amp;B120&amp;"|"&amp;C120&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -4750,17 +3667,8 @@
           <t>Limited Availability</t>
         </is>
       </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>Cross-Region</t>
-        </is>
-      </c>
-      <c r="F121">
+      <c r="E121">
         <f>A121&amp;"|"&amp;B121&amp;"|"&amp;C121</f>
-        <v/>
-      </c>
-      <c r="G121">
-        <f>A121&amp;"|"&amp;B121&amp;"|"&amp;C121&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -4782,20 +3690,11 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>In-Region</t>
-        </is>
-      </c>
-      <c r="F122">
+          <t>General Availability</t>
+        </is>
+      </c>
+      <c r="E122">
         <f>A122&amp;"|"&amp;B122&amp;"|"&amp;C122</f>
-        <v/>
-      </c>
-      <c r="G122">
-        <f>A122&amp;"|"&amp;B122&amp;"|"&amp;C122&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -4817,20 +3716,11 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>General Availability</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>Cross-Region</t>
-        </is>
-      </c>
-      <c r="F123">
+          <t>Limited Availability</t>
+        </is>
+      </c>
+      <c r="E123">
         <f>A123&amp;"|"&amp;B123&amp;"|"&amp;C123</f>
-        <v/>
-      </c>
-      <c r="G123">
-        <f>A123&amp;"|"&amp;B123&amp;"|"&amp;C123&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -4852,20 +3742,11 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>General Availability</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>In-Region</t>
-        </is>
-      </c>
-      <c r="F124">
+          <t>Not Supported</t>
+        </is>
+      </c>
+      <c r="E124">
         <f>A124&amp;"|"&amp;B124&amp;"|"&amp;C124</f>
-        <v/>
-      </c>
-      <c r="G124">
-        <f>A124&amp;"|"&amp;B124&amp;"|"&amp;C124&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -4890,17 +3771,8 @@
           <t>General Availability</t>
         </is>
       </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>In-Region</t>
-        </is>
-      </c>
-      <c r="F125">
+      <c r="E125">
         <f>A125&amp;"|"&amp;B125&amp;"|"&amp;C125</f>
-        <v/>
-      </c>
-      <c r="G125">
-        <f>A125&amp;"|"&amp;B125&amp;"|"&amp;C125&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -4922,20 +3794,11 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>Cross-Region</t>
-        </is>
-      </c>
-      <c r="F126">
+          <t>General Availability</t>
+        </is>
+      </c>
+      <c r="E126">
         <f>A126&amp;"|"&amp;B126&amp;"|"&amp;C126</f>
-        <v/>
-      </c>
-      <c r="G126">
-        <f>A126&amp;"|"&amp;B126&amp;"|"&amp;C126&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -4957,20 +3820,11 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>In-Region</t>
-        </is>
-      </c>
-      <c r="F127">
+          <t>Not Supported</t>
+        </is>
+      </c>
+      <c r="E127">
         <f>A127&amp;"|"&amp;B127&amp;"|"&amp;C127</f>
-        <v/>
-      </c>
-      <c r="G127">
-        <f>A127&amp;"|"&amp;B127&amp;"|"&amp;C127&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -4992,20 +3846,11 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>In-Region</t>
-        </is>
-      </c>
-      <c r="F128">
+          <t>Not Supported</t>
+        </is>
+      </c>
+      <c r="E128">
         <f>A128&amp;"|"&amp;B128&amp;"|"&amp;C128</f>
-        <v/>
-      </c>
-      <c r="G128">
-        <f>A128&amp;"|"&amp;B128&amp;"|"&amp;C128&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -5027,20 +3872,11 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>Cross-Region</t>
-        </is>
-      </c>
-      <c r="F129">
+          <t>Not Supported</t>
+        </is>
+      </c>
+      <c r="E129">
         <f>A129&amp;"|"&amp;B129&amp;"|"&amp;C129</f>
-        <v/>
-      </c>
-      <c r="G129">
-        <f>A129&amp;"|"&amp;B129&amp;"|"&amp;C129&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -5065,17 +3901,8 @@
           <t>General Availability</t>
         </is>
       </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>In-Region</t>
-        </is>
-      </c>
-      <c r="F130">
+      <c r="E130">
         <f>A130&amp;"|"&amp;B130&amp;"|"&amp;C130</f>
-        <v/>
-      </c>
-      <c r="G130">
-        <f>A130&amp;"|"&amp;B130&amp;"|"&amp;C130&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -5097,20 +3924,11 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>General Availability</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>Cross-Region</t>
-        </is>
-      </c>
-      <c r="F131">
+          <t>Not Supported</t>
+        </is>
+      </c>
+      <c r="E131">
         <f>A131&amp;"|"&amp;B131&amp;"|"&amp;C131</f>
-        <v/>
-      </c>
-      <c r="G131">
-        <f>A131&amp;"|"&amp;B131&amp;"|"&amp;C131&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -5132,20 +3950,11 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>General Availability</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>In-Region</t>
-        </is>
-      </c>
-      <c r="F132">
+          <t>Not Supported</t>
+        </is>
+      </c>
+      <c r="E132">
         <f>A132&amp;"|"&amp;B132&amp;"|"&amp;C132</f>
-        <v/>
-      </c>
-      <c r="G132">
-        <f>A132&amp;"|"&amp;B132&amp;"|"&amp;C132&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -5167,20 +3976,11 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>Cross-Region</t>
-        </is>
-      </c>
-      <c r="F133">
+          <t>General Availability</t>
+        </is>
+      </c>
+      <c r="E133">
         <f>A133&amp;"|"&amp;B133&amp;"|"&amp;C133</f>
-        <v/>
-      </c>
-      <c r="G133">
-        <f>A133&amp;"|"&amp;B133&amp;"|"&amp;C133&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -5202,20 +4002,11 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>General Availability</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>In-Region</t>
-        </is>
-      </c>
-      <c r="F134">
+          <t>Limited Availability</t>
+        </is>
+      </c>
+      <c r="E134">
         <f>A134&amp;"|"&amp;B134&amp;"|"&amp;C134</f>
-        <v/>
-      </c>
-      <c r="G134">
-        <f>A134&amp;"|"&amp;B134&amp;"|"&amp;C134&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -5240,17 +4031,8 @@
           <t>General Availability</t>
         </is>
       </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>In-Region</t>
-        </is>
-      </c>
-      <c r="F135">
+      <c r="E135">
         <f>A135&amp;"|"&amp;B135&amp;"|"&amp;C135</f>
-        <v/>
-      </c>
-      <c r="G135">
-        <f>A135&amp;"|"&amp;B135&amp;"|"&amp;C135&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -5275,17 +4057,8 @@
           <t>General Availability</t>
         </is>
       </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>Cross-Region</t>
-        </is>
-      </c>
-      <c r="F136">
+      <c r="E136">
         <f>A136&amp;"|"&amp;B136&amp;"|"&amp;C136</f>
-        <v/>
-      </c>
-      <c r="G136">
-        <f>A136&amp;"|"&amp;B136&amp;"|"&amp;C136&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -5307,20 +4080,11 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Not Supported</t>
-        </is>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F137">
+          <t>General Availability</t>
+        </is>
+      </c>
+      <c r="E137">
         <f>A137&amp;"|"&amp;B137&amp;"|"&amp;C137</f>
-        <v/>
-      </c>
-      <c r="G137">
-        <f>A137&amp;"|"&amp;B137&amp;"|"&amp;C137&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -5345,17 +4109,8 @@
           <t>General Availability</t>
         </is>
       </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>Cross-Region</t>
-        </is>
-      </c>
-      <c r="F138">
+      <c r="E138">
         <f>A138&amp;"|"&amp;B138&amp;"|"&amp;C138</f>
-        <v/>
-      </c>
-      <c r="G138">
-        <f>A138&amp;"|"&amp;B138&amp;"|"&amp;C138&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -5380,17 +4135,8 @@
           <t>General Availability</t>
         </is>
       </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>In-Region</t>
-        </is>
-      </c>
-      <c r="F139">
+      <c r="E139">
         <f>A139&amp;"|"&amp;B139&amp;"|"&amp;C139</f>
-        <v/>
-      </c>
-      <c r="G139">
-        <f>A139&amp;"|"&amp;B139&amp;"|"&amp;C139&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -5412,20 +4158,11 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>Cross-Region</t>
-        </is>
-      </c>
-      <c r="F140">
+          <t>Not Supported</t>
+        </is>
+      </c>
+      <c r="E140">
         <f>A140&amp;"|"&amp;B140&amp;"|"&amp;C140</f>
-        <v/>
-      </c>
-      <c r="G140">
-        <f>A140&amp;"|"&amp;B140&amp;"|"&amp;C140&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -5447,20 +4184,11 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>Cross-Region</t>
-        </is>
-      </c>
-      <c r="F141">
+          <t>Not Supported</t>
+        </is>
+      </c>
+      <c r="E141">
         <f>A141&amp;"|"&amp;B141&amp;"|"&amp;C141</f>
-        <v/>
-      </c>
-      <c r="G141">
-        <f>A141&amp;"|"&amp;B141&amp;"|"&amp;C141&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -5482,20 +4210,11 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>Cross-Region</t>
-        </is>
-      </c>
-      <c r="F142">
+          <t>General Availability</t>
+        </is>
+      </c>
+      <c r="E142">
         <f>A142&amp;"|"&amp;B142&amp;"|"&amp;C142</f>
-        <v/>
-      </c>
-      <c r="G142">
-        <f>A142&amp;"|"&amp;B142&amp;"|"&amp;C142&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -5520,17 +4239,8 @@
           <t>General Availability</t>
         </is>
       </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>In-Region</t>
-        </is>
-      </c>
-      <c r="F143">
+      <c r="E143">
         <f>A143&amp;"|"&amp;B143&amp;"|"&amp;C143</f>
-        <v/>
-      </c>
-      <c r="G143">
-        <f>A143&amp;"|"&amp;B143&amp;"|"&amp;C143&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -5555,17 +4265,8 @@
           <t>General Availability</t>
         </is>
       </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>Cross-Region</t>
-        </is>
-      </c>
-      <c r="F144">
+      <c r="E144">
         <f>A144&amp;"|"&amp;B144&amp;"|"&amp;C144</f>
-        <v/>
-      </c>
-      <c r="G144">
-        <f>A144&amp;"|"&amp;B144&amp;"|"&amp;C144&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -5587,20 +4288,11 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>General Availability</t>
-        </is>
-      </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>Cross-Region</t>
-        </is>
-      </c>
-      <c r="F145">
+          <t>Limited Availability</t>
+        </is>
+      </c>
+      <c r="E145">
         <f>A145&amp;"|"&amp;B145&amp;"|"&amp;C145</f>
-        <v/>
-      </c>
-      <c r="G145">
-        <f>A145&amp;"|"&amp;B145&amp;"|"&amp;C145&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -5622,20 +4314,11 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Not Supported</t>
-        </is>
-      </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F146">
+          <t>Limited Availability</t>
+        </is>
+      </c>
+      <c r="E146">
         <f>A146&amp;"|"&amp;B146&amp;"|"&amp;C146</f>
-        <v/>
-      </c>
-      <c r="G146">
-        <f>A146&amp;"|"&amp;B146&amp;"|"&amp;C146&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -5657,20 +4340,11 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
-        </is>
-      </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>Cross-Region</t>
-        </is>
-      </c>
-      <c r="F147">
+          <t>Not Supported</t>
+        </is>
+      </c>
+      <c r="E147">
         <f>A147&amp;"|"&amp;B147&amp;"|"&amp;C147</f>
-        <v/>
-      </c>
-      <c r="G147">
-        <f>A147&amp;"|"&amp;B147&amp;"|"&amp;C147&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -5692,20 +4366,11 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>In-Region</t>
-        </is>
-      </c>
-      <c r="F148">
+          <t>General Availability</t>
+        </is>
+      </c>
+      <c r="E148">
         <f>A148&amp;"|"&amp;B148&amp;"|"&amp;C148</f>
-        <v/>
-      </c>
-      <c r="G148">
-        <f>A148&amp;"|"&amp;B148&amp;"|"&amp;C148&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -5730,17 +4395,8 @@
           <t>General Availability</t>
         </is>
       </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>Cross-Region</t>
-        </is>
-      </c>
-      <c r="F149">
+      <c r="E149">
         <f>A149&amp;"|"&amp;B149&amp;"|"&amp;C149</f>
-        <v/>
-      </c>
-      <c r="G149">
-        <f>A149&amp;"|"&amp;B149&amp;"|"&amp;C149&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -5765,17 +4421,8 @@
           <t>Not Supported</t>
         </is>
       </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F150">
+      <c r="E150">
         <f>A150&amp;"|"&amp;B150&amp;"|"&amp;C150</f>
-        <v/>
-      </c>
-      <c r="G150">
-        <f>A150&amp;"|"&amp;B150&amp;"|"&amp;C150&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -5800,17 +4447,8 @@
           <t>Limited Availability</t>
         </is>
       </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>In-Region</t>
-        </is>
-      </c>
-      <c r="F151">
+      <c r="E151">
         <f>A151&amp;"|"&amp;B151&amp;"|"&amp;C151</f>
-        <v/>
-      </c>
-      <c r="G151">
-        <f>A151&amp;"|"&amp;B151&amp;"|"&amp;C151&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -5832,20 +4470,11 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Not Supported</t>
-        </is>
-      </c>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F152">
+          <t>Limited Availability</t>
+        </is>
+      </c>
+      <c r="E152">
         <f>A152&amp;"|"&amp;B152&amp;"|"&amp;C152</f>
-        <v/>
-      </c>
-      <c r="G152">
-        <f>A152&amp;"|"&amp;B152&amp;"|"&amp;C152&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -5870,17 +4499,8 @@
           <t>General Availability</t>
         </is>
       </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>Cross-Region</t>
-        </is>
-      </c>
-      <c r="F153">
+      <c r="E153">
         <f>A153&amp;"|"&amp;B153&amp;"|"&amp;C153</f>
-        <v/>
-      </c>
-      <c r="G153">
-        <f>A153&amp;"|"&amp;B153&amp;"|"&amp;C153&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -5902,20 +4522,11 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>General Availability</t>
-        </is>
-      </c>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>In-Region</t>
-        </is>
-      </c>
-      <c r="F154">
+          <t>Limited Availability</t>
+        </is>
+      </c>
+      <c r="E154">
         <f>A154&amp;"|"&amp;B154&amp;"|"&amp;C154</f>
-        <v/>
-      </c>
-      <c r="G154">
-        <f>A154&amp;"|"&amp;B154&amp;"|"&amp;C154&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -5940,17 +4551,8 @@
           <t>Not Supported</t>
         </is>
       </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F155">
+      <c r="E155">
         <f>A155&amp;"|"&amp;B155&amp;"|"&amp;C155</f>
-        <v/>
-      </c>
-      <c r="G155">
-        <f>A155&amp;"|"&amp;B155&amp;"|"&amp;C155&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -5975,17 +4577,8 @@
           <t>General Availability</t>
         </is>
       </c>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>Cross-Region</t>
-        </is>
-      </c>
-      <c r="F156">
+      <c r="E156">
         <f>A156&amp;"|"&amp;B156&amp;"|"&amp;C156</f>
-        <v/>
-      </c>
-      <c r="G156">
-        <f>A156&amp;"|"&amp;B156&amp;"|"&amp;C156&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -6010,17 +4603,8 @@
           <t>Limited Availability</t>
         </is>
       </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>Cross-Region</t>
-        </is>
-      </c>
-      <c r="F157">
+      <c r="E157">
         <f>A157&amp;"|"&amp;B157&amp;"|"&amp;C157</f>
-        <v/>
-      </c>
-      <c r="G157">
-        <f>A157&amp;"|"&amp;B157&amp;"|"&amp;C157&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -6042,20 +4626,11 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>General Availability</t>
-        </is>
-      </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>In-Region</t>
-        </is>
-      </c>
-      <c r="F158">
+          <t>Limited Availability</t>
+        </is>
+      </c>
+      <c r="E158">
         <f>A158&amp;"|"&amp;B158&amp;"|"&amp;C158</f>
-        <v/>
-      </c>
-      <c r="G158">
-        <f>A158&amp;"|"&amp;B158&amp;"|"&amp;C158&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -6080,17 +4655,8 @@
           <t>General Availability</t>
         </is>
       </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>In-Region</t>
-        </is>
-      </c>
-      <c r="F159">
+      <c r="E159">
         <f>A159&amp;"|"&amp;B159&amp;"|"&amp;C159</f>
-        <v/>
-      </c>
-      <c r="G159">
-        <f>A159&amp;"|"&amp;B159&amp;"|"&amp;C159&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -6112,20 +4678,11 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>General Availability</t>
-        </is>
-      </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>Cross-Region</t>
-        </is>
-      </c>
-      <c r="F160">
+          <t>Not Supported</t>
+        </is>
+      </c>
+      <c r="E160">
         <f>A160&amp;"|"&amp;B160&amp;"|"&amp;C160</f>
-        <v/>
-      </c>
-      <c r="G160">
-        <f>A160&amp;"|"&amp;B160&amp;"|"&amp;C160&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -6150,17 +4707,8 @@
           <t>General Availability</t>
         </is>
       </c>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>Cross-Region</t>
-        </is>
-      </c>
-      <c r="F161">
+      <c r="E161">
         <f>A161&amp;"|"&amp;B161&amp;"|"&amp;C161</f>
-        <v/>
-      </c>
-      <c r="G161">
-        <f>A161&amp;"|"&amp;B161&amp;"|"&amp;C161&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -6185,17 +4733,8 @@
           <t>General Availability</t>
         </is>
       </c>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>Cross-Region</t>
-        </is>
-      </c>
-      <c r="F162">
+      <c r="E162">
         <f>A162&amp;"|"&amp;B162&amp;"|"&amp;C162</f>
-        <v/>
-      </c>
-      <c r="G162">
-        <f>A162&amp;"|"&amp;B162&amp;"|"&amp;C162&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -6220,17 +4759,8 @@
           <t>General Availability</t>
         </is>
       </c>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>In-Region</t>
-        </is>
-      </c>
-      <c r="F163">
+      <c r="E163">
         <f>A163&amp;"|"&amp;B163&amp;"|"&amp;C163</f>
-        <v/>
-      </c>
-      <c r="G163">
-        <f>A163&amp;"|"&amp;B163&amp;"|"&amp;C163&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -6255,17 +4785,8 @@
           <t>General Availability</t>
         </is>
       </c>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>In-Region</t>
-        </is>
-      </c>
-      <c r="F164">
+      <c r="E164">
         <f>A164&amp;"|"&amp;B164&amp;"|"&amp;C164</f>
-        <v/>
-      </c>
-      <c r="G164">
-        <f>A164&amp;"|"&amp;B164&amp;"|"&amp;C164&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -6287,20 +4808,11 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>General Availability</t>
-        </is>
-      </c>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>Cross-Region</t>
-        </is>
-      </c>
-      <c r="F165">
+          <t>Limited Availability</t>
+        </is>
+      </c>
+      <c r="E165">
         <f>A165&amp;"|"&amp;B165&amp;"|"&amp;C165</f>
-        <v/>
-      </c>
-      <c r="G165">
-        <f>A165&amp;"|"&amp;B165&amp;"|"&amp;C165&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -6322,20 +4834,11 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>General Availability</t>
-        </is>
-      </c>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>Cross-Region</t>
-        </is>
-      </c>
-      <c r="F166">
+          <t>Not Supported</t>
+        </is>
+      </c>
+      <c r="E166">
         <f>A166&amp;"|"&amp;B166&amp;"|"&amp;C166</f>
-        <v/>
-      </c>
-      <c r="G166">
-        <f>A166&amp;"|"&amp;B166&amp;"|"&amp;C166&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -6357,20 +4860,11 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>General Availability</t>
-        </is>
-      </c>
-      <c r="E167" t="inlineStr">
-        <is>
-          <t>Cross-Region</t>
-        </is>
-      </c>
-      <c r="F167">
+          <t>Not Supported</t>
+        </is>
+      </c>
+      <c r="E167">
         <f>A167&amp;"|"&amp;B167&amp;"|"&amp;C167</f>
-        <v/>
-      </c>
-      <c r="G167">
-        <f>A167&amp;"|"&amp;B167&amp;"|"&amp;C167&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -6392,20 +4886,11 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
-        </is>
-      </c>
-      <c r="E168" t="inlineStr">
-        <is>
-          <t>In-Region</t>
-        </is>
-      </c>
-      <c r="F168">
+          <t>General Availability</t>
+        </is>
+      </c>
+      <c r="E168">
         <f>A168&amp;"|"&amp;B168&amp;"|"&amp;C168</f>
-        <v/>
-      </c>
-      <c r="G168">
-        <f>A168&amp;"|"&amp;B168&amp;"|"&amp;C168&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -6430,17 +4915,8 @@
           <t>General Availability</t>
         </is>
       </c>
-      <c r="E169" t="inlineStr">
-        <is>
-          <t>Cross-Region</t>
-        </is>
-      </c>
-      <c r="F169">
+      <c r="E169">
         <f>A169&amp;"|"&amp;B169&amp;"|"&amp;C169</f>
-        <v/>
-      </c>
-      <c r="G169">
-        <f>A169&amp;"|"&amp;B169&amp;"|"&amp;C169&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -6462,20 +4938,11 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
-        </is>
-      </c>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>In-Region</t>
-        </is>
-      </c>
-      <c r="F170">
+          <t>Not Supported</t>
+        </is>
+      </c>
+      <c r="E170">
         <f>A170&amp;"|"&amp;B170&amp;"|"&amp;C170</f>
-        <v/>
-      </c>
-      <c r="G170">
-        <f>A170&amp;"|"&amp;B170&amp;"|"&amp;C170&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -6497,20 +4964,11 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>General Availability</t>
-        </is>
-      </c>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>In-Region</t>
-        </is>
-      </c>
-      <c r="F171">
+          <t>Not Supported</t>
+        </is>
+      </c>
+      <c r="E171">
         <f>A171&amp;"|"&amp;B171&amp;"|"&amp;C171</f>
-        <v/>
-      </c>
-      <c r="G171">
-        <f>A171&amp;"|"&amp;B171&amp;"|"&amp;C171&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -6532,20 +4990,11 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
-        </is>
-      </c>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>Cross-Region</t>
-        </is>
-      </c>
-      <c r="F172">
+          <t>Not Supported</t>
+        </is>
+      </c>
+      <c r="E172">
         <f>A172&amp;"|"&amp;B172&amp;"|"&amp;C172</f>
-        <v/>
-      </c>
-      <c r="G172">
-        <f>A172&amp;"|"&amp;B172&amp;"|"&amp;C172&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -6570,17 +5019,8 @@
           <t>Not Supported</t>
         </is>
       </c>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F173">
+      <c r="E173">
         <f>A173&amp;"|"&amp;B173&amp;"|"&amp;C173</f>
-        <v/>
-      </c>
-      <c r="G173">
-        <f>A173&amp;"|"&amp;B173&amp;"|"&amp;C173&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -6602,20 +5042,11 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>General Availability</t>
-        </is>
-      </c>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>Cross-Region</t>
-        </is>
-      </c>
-      <c r="F174">
+          <t>Limited Availability</t>
+        </is>
+      </c>
+      <c r="E174">
         <f>A174&amp;"|"&amp;B174&amp;"|"&amp;C174</f>
-        <v/>
-      </c>
-      <c r="G174">
-        <f>A174&amp;"|"&amp;B174&amp;"|"&amp;C174&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -6640,17 +5071,8 @@
           <t>Not Supported</t>
         </is>
       </c>
-      <c r="E175" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F175">
+      <c r="E175">
         <f>A175&amp;"|"&amp;B175&amp;"|"&amp;C175</f>
-        <v/>
-      </c>
-      <c r="G175">
-        <f>A175&amp;"|"&amp;B175&amp;"|"&amp;C175&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -6672,20 +5094,11 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>General Availability</t>
-        </is>
-      </c>
-      <c r="E176" t="inlineStr">
-        <is>
-          <t>Cross-Region</t>
-        </is>
-      </c>
-      <c r="F176">
+          <t>Not Supported</t>
+        </is>
+      </c>
+      <c r="E176">
         <f>A176&amp;"|"&amp;B176&amp;"|"&amp;C176</f>
-        <v/>
-      </c>
-      <c r="G176">
-        <f>A176&amp;"|"&amp;B176&amp;"|"&amp;C176&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -6710,17 +5123,8 @@
           <t>Not Supported</t>
         </is>
       </c>
-      <c r="E177" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F177">
+      <c r="E177">
         <f>A177&amp;"|"&amp;B177&amp;"|"&amp;C177</f>
-        <v/>
-      </c>
-      <c r="G177">
-        <f>A177&amp;"|"&amp;B177&amp;"|"&amp;C177&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -6742,20 +5146,11 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>General Availability</t>
-        </is>
-      </c>
-      <c r="E178" t="inlineStr">
-        <is>
-          <t>In-Region</t>
-        </is>
-      </c>
-      <c r="F178">
+          <t>Limited Availability</t>
+        </is>
+      </c>
+      <c r="E178">
         <f>A178&amp;"|"&amp;B178&amp;"|"&amp;C178</f>
-        <v/>
-      </c>
-      <c r="G178">
-        <f>A178&amp;"|"&amp;B178&amp;"|"&amp;C178&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -6777,20 +5172,11 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>General Availability</t>
-        </is>
-      </c>
-      <c r="E179" t="inlineStr">
-        <is>
-          <t>In-Region</t>
-        </is>
-      </c>
-      <c r="F179">
+          <t>Limited Availability</t>
+        </is>
+      </c>
+      <c r="E179">
         <f>A179&amp;"|"&amp;B179&amp;"|"&amp;C179</f>
-        <v/>
-      </c>
-      <c r="G179">
-        <f>A179&amp;"|"&amp;B179&amp;"|"&amp;C179&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -6812,20 +5198,11 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>General Availability</t>
-        </is>
-      </c>
-      <c r="E180" t="inlineStr">
-        <is>
-          <t>In-Region</t>
-        </is>
-      </c>
-      <c r="F180">
+          <t>Not Supported</t>
+        </is>
+      </c>
+      <c r="E180">
         <f>A180&amp;"|"&amp;B180&amp;"|"&amp;C180</f>
-        <v/>
-      </c>
-      <c r="G180">
-        <f>A180&amp;"|"&amp;B180&amp;"|"&amp;C180&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -6847,20 +5224,11 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Not Supported</t>
-        </is>
-      </c>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F181">
+          <t>General Availability</t>
+        </is>
+      </c>
+      <c r="E181">
         <f>A181&amp;"|"&amp;B181&amp;"|"&amp;C181</f>
-        <v/>
-      </c>
-      <c r="G181">
-        <f>A181&amp;"|"&amp;B181&amp;"|"&amp;C181&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -6882,20 +5250,11 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
-        </is>
-      </c>
-      <c r="E182" t="inlineStr">
-        <is>
-          <t>In-Region</t>
-        </is>
-      </c>
-      <c r="F182">
+          <t>Not Supported</t>
+        </is>
+      </c>
+      <c r="E182">
         <f>A182&amp;"|"&amp;B182&amp;"|"&amp;C182</f>
-        <v/>
-      </c>
-      <c r="G182">
-        <f>A182&amp;"|"&amp;B182&amp;"|"&amp;C182&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -6917,20 +5276,11 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
-        </is>
-      </c>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>Cross-Region</t>
-        </is>
-      </c>
-      <c r="F183">
+          <t>General Availability</t>
+        </is>
+      </c>
+      <c r="E183">
         <f>A183&amp;"|"&amp;B183&amp;"|"&amp;C183</f>
-        <v/>
-      </c>
-      <c r="G183">
-        <f>A183&amp;"|"&amp;B183&amp;"|"&amp;C183&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -6952,20 +5302,11 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Not Supported</t>
-        </is>
-      </c>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F184">
+          <t>Limited Availability</t>
+        </is>
+      </c>
+      <c r="E184">
         <f>A184&amp;"|"&amp;B184&amp;"|"&amp;C184</f>
-        <v/>
-      </c>
-      <c r="G184">
-        <f>A184&amp;"|"&amp;B184&amp;"|"&amp;C184&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -6987,20 +5328,11 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>General Availability</t>
-        </is>
-      </c>
-      <c r="E185" t="inlineStr">
-        <is>
-          <t>In-Region</t>
-        </is>
-      </c>
-      <c r="F185">
+          <t>Not Supported</t>
+        </is>
+      </c>
+      <c r="E185">
         <f>A185&amp;"|"&amp;B185&amp;"|"&amp;C185</f>
-        <v/>
-      </c>
-      <c r="G185">
-        <f>A185&amp;"|"&amp;B185&amp;"|"&amp;C185&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -7025,17 +5357,8 @@
           <t>General Availability</t>
         </is>
       </c>
-      <c r="E186" t="inlineStr">
-        <is>
-          <t>Cross-Region</t>
-        </is>
-      </c>
-      <c r="F186">
+      <c r="E186">
         <f>A186&amp;"|"&amp;B186&amp;"|"&amp;C186</f>
-        <v/>
-      </c>
-      <c r="G186">
-        <f>A186&amp;"|"&amp;B186&amp;"|"&amp;C186&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -7057,20 +5380,11 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
-        </is>
-      </c>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>In-Region</t>
-        </is>
-      </c>
-      <c r="F187">
+          <t>General Availability</t>
+        </is>
+      </c>
+      <c r="E187">
         <f>A187&amp;"|"&amp;B187&amp;"|"&amp;C187</f>
-        <v/>
-      </c>
-      <c r="G187">
-        <f>A187&amp;"|"&amp;B187&amp;"|"&amp;C187&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -7092,20 +5406,11 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Not Supported</t>
-        </is>
-      </c>
-      <c r="E188" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F188">
+          <t>General Availability</t>
+        </is>
+      </c>
+      <c r="E188">
         <f>A188&amp;"|"&amp;B188&amp;"|"&amp;C188</f>
-        <v/>
-      </c>
-      <c r="G188">
-        <f>A188&amp;"|"&amp;B188&amp;"|"&amp;C188&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -7127,20 +5432,11 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Not Supported</t>
-        </is>
-      </c>
-      <c r="E189" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F189">
+          <t>General Availability</t>
+        </is>
+      </c>
+      <c r="E189">
         <f>A189&amp;"|"&amp;B189&amp;"|"&amp;C189</f>
-        <v/>
-      </c>
-      <c r="G189">
-        <f>A189&amp;"|"&amp;B189&amp;"|"&amp;C189&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -7162,20 +5458,11 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Not Supported</t>
-        </is>
-      </c>
-      <c r="E190" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F190">
+          <t>Limited Availability</t>
+        </is>
+      </c>
+      <c r="E190">
         <f>A190&amp;"|"&amp;B190&amp;"|"&amp;C190</f>
-        <v/>
-      </c>
-      <c r="G190">
-        <f>A190&amp;"|"&amp;B190&amp;"|"&amp;C190&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -7200,17 +5487,8 @@
           <t>General Availability</t>
         </is>
       </c>
-      <c r="E191" t="inlineStr">
-        <is>
-          <t>In-Region</t>
-        </is>
-      </c>
-      <c r="F191">
+      <c r="E191">
         <f>A191&amp;"|"&amp;B191&amp;"|"&amp;C191</f>
-        <v/>
-      </c>
-      <c r="G191">
-        <f>A191&amp;"|"&amp;B191&amp;"|"&amp;C191&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -7232,20 +5510,11 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>General Availability</t>
-        </is>
-      </c>
-      <c r="E192" t="inlineStr">
-        <is>
-          <t>Cross-Region</t>
-        </is>
-      </c>
-      <c r="F192">
+          <t>Limited Availability</t>
+        </is>
+      </c>
+      <c r="E192">
         <f>A192&amp;"|"&amp;B192&amp;"|"&amp;C192</f>
-        <v/>
-      </c>
-      <c r="G192">
-        <f>A192&amp;"|"&amp;B192&amp;"|"&amp;C192&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -7267,20 +5536,11 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
-        </is>
-      </c>
-      <c r="E193" t="inlineStr">
-        <is>
-          <t>In-Region</t>
-        </is>
-      </c>
-      <c r="F193">
+          <t>General Availability</t>
+        </is>
+      </c>
+      <c r="E193">
         <f>A193&amp;"|"&amp;B193&amp;"|"&amp;C193</f>
-        <v/>
-      </c>
-      <c r="G193">
-        <f>A193&amp;"|"&amp;B193&amp;"|"&amp;C193&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -7302,20 +5562,11 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>General Availability</t>
-        </is>
-      </c>
-      <c r="E194" t="inlineStr">
-        <is>
-          <t>In-Region</t>
-        </is>
-      </c>
-      <c r="F194">
+          <t>Not Supported</t>
+        </is>
+      </c>
+      <c r="E194">
         <f>A194&amp;"|"&amp;B194&amp;"|"&amp;C194</f>
-        <v/>
-      </c>
-      <c r="G194">
-        <f>A194&amp;"|"&amp;B194&amp;"|"&amp;C194&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -7337,20 +5588,11 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>General Availability</t>
-        </is>
-      </c>
-      <c r="E195" t="inlineStr">
-        <is>
-          <t>In-Region</t>
-        </is>
-      </c>
-      <c r="F195">
+          <t>Limited Availability</t>
+        </is>
+      </c>
+      <c r="E195">
         <f>A195&amp;"|"&amp;B195&amp;"|"&amp;C195</f>
-        <v/>
-      </c>
-      <c r="G195">
-        <f>A195&amp;"|"&amp;B195&amp;"|"&amp;C195&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -7375,17 +5617,8 @@
           <t>Limited Availability</t>
         </is>
       </c>
-      <c r="E196" t="inlineStr">
-        <is>
-          <t>In-Region</t>
-        </is>
-      </c>
-      <c r="F196">
+      <c r="E196">
         <f>A196&amp;"|"&amp;B196&amp;"|"&amp;C196</f>
-        <v/>
-      </c>
-      <c r="G196">
-        <f>A196&amp;"|"&amp;B196&amp;"|"&amp;C196&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -7407,20 +5640,11 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>General Availability</t>
-        </is>
-      </c>
-      <c r="E197" t="inlineStr">
-        <is>
-          <t>Cross-Region</t>
-        </is>
-      </c>
-      <c r="F197">
+          <t>Not Supported</t>
+        </is>
+      </c>
+      <c r="E197">
         <f>A197&amp;"|"&amp;B197&amp;"|"&amp;C197</f>
-        <v/>
-      </c>
-      <c r="G197">
-        <f>A197&amp;"|"&amp;B197&amp;"|"&amp;C197&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -7442,20 +5666,11 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>General Availability</t>
-        </is>
-      </c>
-      <c r="E198" t="inlineStr">
-        <is>
-          <t>In-Region</t>
-        </is>
-      </c>
-      <c r="F198">
+          <t>Not Supported</t>
+        </is>
+      </c>
+      <c r="E198">
         <f>A198&amp;"|"&amp;B198&amp;"|"&amp;C198</f>
-        <v/>
-      </c>
-      <c r="G198">
-        <f>A198&amp;"|"&amp;B198&amp;"|"&amp;C198&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -7477,20 +5692,11 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
-        </is>
-      </c>
-      <c r="E199" t="inlineStr">
-        <is>
-          <t>Cross-Region</t>
-        </is>
-      </c>
-      <c r="F199">
+          <t>General Availability</t>
+        </is>
+      </c>
+      <c r="E199">
         <f>A199&amp;"|"&amp;B199&amp;"|"&amp;C199</f>
-        <v/>
-      </c>
-      <c r="G199">
-        <f>A199&amp;"|"&amp;B199&amp;"|"&amp;C199&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -7512,20 +5718,11 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Not Supported</t>
-        </is>
-      </c>
-      <c r="E200" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F200">
+          <t>General Availability</t>
+        </is>
+      </c>
+      <c r="E200">
         <f>A200&amp;"|"&amp;B200&amp;"|"&amp;C200</f>
-        <v/>
-      </c>
-      <c r="G200">
-        <f>A200&amp;"|"&amp;B200&amp;"|"&amp;C200&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -7547,20 +5744,11 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>General Availability</t>
-        </is>
-      </c>
-      <c r="E201" t="inlineStr">
-        <is>
-          <t>In-Region</t>
-        </is>
-      </c>
-      <c r="F201">
+          <t>Limited Availability</t>
+        </is>
+      </c>
+      <c r="E201">
         <f>A201&amp;"|"&amp;B201&amp;"|"&amp;C201</f>
-        <v/>
-      </c>
-      <c r="G201">
-        <f>A201&amp;"|"&amp;B201&amp;"|"&amp;C201&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -7582,20 +5770,11 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
-        </is>
-      </c>
-      <c r="E202" t="inlineStr">
-        <is>
-          <t>Cross-Region</t>
-        </is>
-      </c>
-      <c r="F202">
+          <t>General Availability</t>
+        </is>
+      </c>
+      <c r="E202">
         <f>A202&amp;"|"&amp;B202&amp;"|"&amp;C202</f>
-        <v/>
-      </c>
-      <c r="G202">
-        <f>A202&amp;"|"&amp;B202&amp;"|"&amp;C202&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -7617,20 +5796,11 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
-        </is>
-      </c>
-      <c r="E203" t="inlineStr">
-        <is>
-          <t>In-Region</t>
-        </is>
-      </c>
-      <c r="F203">
+          <t>General Availability</t>
+        </is>
+      </c>
+      <c r="E203">
         <f>A203&amp;"|"&amp;B203&amp;"|"&amp;C203</f>
-        <v/>
-      </c>
-      <c r="G203">
-        <f>A203&amp;"|"&amp;B203&amp;"|"&amp;C203&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -7652,20 +5822,11 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Not Supported</t>
-        </is>
-      </c>
-      <c r="E204" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F204">
+          <t>General Availability</t>
+        </is>
+      </c>
+      <c r="E204">
         <f>A204&amp;"|"&amp;B204&amp;"|"&amp;C204</f>
-        <v/>
-      </c>
-      <c r="G204">
-        <f>A204&amp;"|"&amp;B204&amp;"|"&amp;C204&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -7690,17 +5851,8 @@
           <t>General Availability</t>
         </is>
       </c>
-      <c r="E205" t="inlineStr">
-        <is>
-          <t>Cross-Region</t>
-        </is>
-      </c>
-      <c r="F205">
+      <c r="E205">
         <f>A205&amp;"|"&amp;B205&amp;"|"&amp;C205</f>
-        <v/>
-      </c>
-      <c r="G205">
-        <f>A205&amp;"|"&amp;B205&amp;"|"&amp;C205&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -7722,20 +5874,11 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Not Supported</t>
-        </is>
-      </c>
-      <c r="E206" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F206">
+          <t>Limited Availability</t>
+        </is>
+      </c>
+      <c r="E206">
         <f>A206&amp;"|"&amp;B206&amp;"|"&amp;C206</f>
-        <v/>
-      </c>
-      <c r="G206">
-        <f>A206&amp;"|"&amp;B206&amp;"|"&amp;C206&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -7757,20 +5900,11 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
-        </is>
-      </c>
-      <c r="E207" t="inlineStr">
-        <is>
-          <t>In-Region</t>
-        </is>
-      </c>
-      <c r="F207">
+          <t>General Availability</t>
+        </is>
+      </c>
+      <c r="E207">
         <f>A207&amp;"|"&amp;B207&amp;"|"&amp;C207</f>
-        <v/>
-      </c>
-      <c r="G207">
-        <f>A207&amp;"|"&amp;B207&amp;"|"&amp;C207&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -7795,17 +5929,8 @@
           <t>General Availability</t>
         </is>
       </c>
-      <c r="E208" t="inlineStr">
-        <is>
-          <t>In-Region</t>
-        </is>
-      </c>
-      <c r="F208">
+      <c r="E208">
         <f>A208&amp;"|"&amp;B208&amp;"|"&amp;C208</f>
-        <v/>
-      </c>
-      <c r="G208">
-        <f>A208&amp;"|"&amp;B208&amp;"|"&amp;C208&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -7830,17 +5955,8 @@
           <t>General Availability</t>
         </is>
       </c>
-      <c r="E209" t="inlineStr">
-        <is>
-          <t>In-Region</t>
-        </is>
-      </c>
-      <c r="F209">
+      <c r="E209">
         <f>A209&amp;"|"&amp;B209&amp;"|"&amp;C209</f>
-        <v/>
-      </c>
-      <c r="G209">
-        <f>A209&amp;"|"&amp;B209&amp;"|"&amp;C209&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -7865,17 +5981,8 @@
           <t>Not Supported</t>
         </is>
       </c>
-      <c r="E210" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F210">
+      <c r="E210">
         <f>A210&amp;"|"&amp;B210&amp;"|"&amp;C210</f>
-        <v/>
-      </c>
-      <c r="G210">
-        <f>A210&amp;"|"&amp;B210&amp;"|"&amp;C210&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -7897,20 +6004,11 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>General Availability</t>
-        </is>
-      </c>
-      <c r="E211" t="inlineStr">
-        <is>
-          <t>Cross-Region</t>
-        </is>
-      </c>
-      <c r="F211">
+          <t>Limited Availability</t>
+        </is>
+      </c>
+      <c r="E211">
         <f>A211&amp;"|"&amp;B211&amp;"|"&amp;C211</f>
-        <v/>
-      </c>
-      <c r="G211">
-        <f>A211&amp;"|"&amp;B211&amp;"|"&amp;C211&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -7935,17 +6033,8 @@
           <t>General Availability</t>
         </is>
       </c>
-      <c r="E212" t="inlineStr">
-        <is>
-          <t>Cross-Region</t>
-        </is>
-      </c>
-      <c r="F212">
+      <c r="E212">
         <f>A212&amp;"|"&amp;B212&amp;"|"&amp;C212</f>
-        <v/>
-      </c>
-      <c r="G212">
-        <f>A212&amp;"|"&amp;B212&amp;"|"&amp;C212&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -7970,17 +6059,8 @@
           <t>General Availability</t>
         </is>
       </c>
-      <c r="E213" t="inlineStr">
-        <is>
-          <t>In-Region</t>
-        </is>
-      </c>
-      <c r="F213">
+      <c r="E213">
         <f>A213&amp;"|"&amp;B213&amp;"|"&amp;C213</f>
-        <v/>
-      </c>
-      <c r="G213">
-        <f>A213&amp;"|"&amp;B213&amp;"|"&amp;C213&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -8005,17 +6085,8 @@
           <t>Limited Availability</t>
         </is>
       </c>
-      <c r="E214" t="inlineStr">
-        <is>
-          <t>Cross-Region</t>
-        </is>
-      </c>
-      <c r="F214">
+      <c r="E214">
         <f>A214&amp;"|"&amp;B214&amp;"|"&amp;C214</f>
-        <v/>
-      </c>
-      <c r="G214">
-        <f>A214&amp;"|"&amp;B214&amp;"|"&amp;C214&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -8037,20 +6108,11 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>General Availability</t>
-        </is>
-      </c>
-      <c r="E215" t="inlineStr">
-        <is>
-          <t>Cross-Region</t>
-        </is>
-      </c>
-      <c r="F215">
+          <t>Limited Availability</t>
+        </is>
+      </c>
+      <c r="E215">
         <f>A215&amp;"|"&amp;B215&amp;"|"&amp;C215</f>
-        <v/>
-      </c>
-      <c r="G215">
-        <f>A215&amp;"|"&amp;B215&amp;"|"&amp;C215&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -8072,20 +6134,11 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>General Availability</t>
-        </is>
-      </c>
-      <c r="E216" t="inlineStr">
-        <is>
-          <t>In-Region</t>
-        </is>
-      </c>
-      <c r="F216">
+          <t>Limited Availability</t>
+        </is>
+      </c>
+      <c r="E216">
         <f>A216&amp;"|"&amp;B216&amp;"|"&amp;C216</f>
-        <v/>
-      </c>
-      <c r="G216">
-        <f>A216&amp;"|"&amp;B216&amp;"|"&amp;C216&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -8107,20 +6160,11 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>Not Supported</t>
-        </is>
-      </c>
-      <c r="E217" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F217">
+          <t>General Availability</t>
+        </is>
+      </c>
+      <c r="E217">
         <f>A217&amp;"|"&amp;B217&amp;"|"&amp;C217</f>
-        <v/>
-      </c>
-      <c r="G217">
-        <f>A217&amp;"|"&amp;B217&amp;"|"&amp;C217&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -8142,20 +6186,11 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>General Availability</t>
-        </is>
-      </c>
-      <c r="E218" t="inlineStr">
-        <is>
-          <t>Cross-Region</t>
-        </is>
-      </c>
-      <c r="F218">
+          <t>Not Supported</t>
+        </is>
+      </c>
+      <c r="E218">
         <f>A218&amp;"|"&amp;B218&amp;"|"&amp;C218</f>
-        <v/>
-      </c>
-      <c r="G218">
-        <f>A218&amp;"|"&amp;B218&amp;"|"&amp;C218&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -8177,20 +6212,11 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>General Availability</t>
-        </is>
-      </c>
-      <c r="E219" t="inlineStr">
-        <is>
-          <t>In-Region</t>
-        </is>
-      </c>
-      <c r="F219">
+          <t>Limited Availability</t>
+        </is>
+      </c>
+      <c r="E219">
         <f>A219&amp;"|"&amp;B219&amp;"|"&amp;C219</f>
-        <v/>
-      </c>
-      <c r="G219">
-        <f>A219&amp;"|"&amp;B219&amp;"|"&amp;C219&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -8212,20 +6238,11 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
-        </is>
-      </c>
-      <c r="E220" t="inlineStr">
-        <is>
-          <t>In-Region</t>
-        </is>
-      </c>
-      <c r="F220">
+          <t>Not Supported</t>
+        </is>
+      </c>
+      <c r="E220">
         <f>A220&amp;"|"&amp;B220&amp;"|"&amp;C220</f>
-        <v/>
-      </c>
-      <c r="G220">
-        <f>A220&amp;"|"&amp;B220&amp;"|"&amp;C220&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -8247,20 +6264,11 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>Not Supported</t>
-        </is>
-      </c>
-      <c r="E221" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F221">
+          <t>Limited Availability</t>
+        </is>
+      </c>
+      <c r="E221">
         <f>A221&amp;"|"&amp;B221&amp;"|"&amp;C221</f>
-        <v/>
-      </c>
-      <c r="G221">
-        <f>A221&amp;"|"&amp;B221&amp;"|"&amp;C221&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -8282,20 +6290,11 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>General Availability</t>
-        </is>
-      </c>
-      <c r="E222" t="inlineStr">
-        <is>
-          <t>In-Region</t>
-        </is>
-      </c>
-      <c r="F222">
+          <t>Not Supported</t>
+        </is>
+      </c>
+      <c r="E222">
         <f>A222&amp;"|"&amp;B222&amp;"|"&amp;C222</f>
-        <v/>
-      </c>
-      <c r="G222">
-        <f>A222&amp;"|"&amp;B222&amp;"|"&amp;C222&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -8320,17 +6319,8 @@
           <t>General Availability</t>
         </is>
       </c>
-      <c r="E223" t="inlineStr">
-        <is>
-          <t>Cross-Region</t>
-        </is>
-      </c>
-      <c r="F223">
+      <c r="E223">
         <f>A223&amp;"|"&amp;B223&amp;"|"&amp;C223</f>
-        <v/>
-      </c>
-      <c r="G223">
-        <f>A223&amp;"|"&amp;B223&amp;"|"&amp;C223&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -8355,17 +6345,8 @@
           <t>Limited Availability</t>
         </is>
       </c>
-      <c r="E224" t="inlineStr">
-        <is>
-          <t>In-Region</t>
-        </is>
-      </c>
-      <c r="F224">
+      <c r="E224">
         <f>A224&amp;"|"&amp;B224&amp;"|"&amp;C224</f>
-        <v/>
-      </c>
-      <c r="G224">
-        <f>A224&amp;"|"&amp;B224&amp;"|"&amp;C224&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -8387,20 +6368,11 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>Not Supported</t>
-        </is>
-      </c>
-      <c r="E225" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F225">
+          <t>Limited Availability</t>
+        </is>
+      </c>
+      <c r="E225">
         <f>A225&amp;"|"&amp;B225&amp;"|"&amp;C225</f>
-        <v/>
-      </c>
-      <c r="G225">
-        <f>A225&amp;"|"&amp;B225&amp;"|"&amp;C225&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -8422,20 +6394,11 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
-        </is>
-      </c>
-      <c r="E226" t="inlineStr">
-        <is>
-          <t>In-Region</t>
-        </is>
-      </c>
-      <c r="F226">
+          <t>General Availability</t>
+        </is>
+      </c>
+      <c r="E226">
         <f>A226&amp;"|"&amp;B226&amp;"|"&amp;C226</f>
-        <v/>
-      </c>
-      <c r="G226">
-        <f>A226&amp;"|"&amp;B226&amp;"|"&amp;C226&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -8460,17 +6423,8 @@
           <t>Not Supported</t>
         </is>
       </c>
-      <c r="E227" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F227">
+      <c r="E227">
         <f>A227&amp;"|"&amp;B227&amp;"|"&amp;C227</f>
-        <v/>
-      </c>
-      <c r="G227">
-        <f>A227&amp;"|"&amp;B227&amp;"|"&amp;C227&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -8492,20 +6446,11 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>Not Supported</t>
-        </is>
-      </c>
-      <c r="E228" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F228">
+          <t>General Availability</t>
+        </is>
+      </c>
+      <c r="E228">
         <f>A228&amp;"|"&amp;B228&amp;"|"&amp;C228</f>
-        <v/>
-      </c>
-      <c r="G228">
-        <f>A228&amp;"|"&amp;B228&amp;"|"&amp;C228&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -8530,17 +6475,8 @@
           <t>General Availability</t>
         </is>
       </c>
-      <c r="E229" t="inlineStr">
-        <is>
-          <t>In-Region</t>
-        </is>
-      </c>
-      <c r="F229">
+      <c r="E229">
         <f>A229&amp;"|"&amp;B229&amp;"|"&amp;C229</f>
-        <v/>
-      </c>
-      <c r="G229">
-        <f>A229&amp;"|"&amp;B229&amp;"|"&amp;C229&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -8565,17 +6501,8 @@
           <t>Limited Availability</t>
         </is>
       </c>
-      <c r="E230" t="inlineStr">
-        <is>
-          <t>In-Region</t>
-        </is>
-      </c>
-      <c r="F230">
+      <c r="E230">
         <f>A230&amp;"|"&amp;B230&amp;"|"&amp;C230</f>
-        <v/>
-      </c>
-      <c r="G230">
-        <f>A230&amp;"|"&amp;B230&amp;"|"&amp;C230&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -8597,20 +6524,11 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>General Availability</t>
-        </is>
-      </c>
-      <c r="E231" t="inlineStr">
-        <is>
-          <t>In-Region</t>
-        </is>
-      </c>
-      <c r="F231">
+          <t>Limited Availability</t>
+        </is>
+      </c>
+      <c r="E231">
         <f>A231&amp;"|"&amp;B231&amp;"|"&amp;C231</f>
-        <v/>
-      </c>
-      <c r="G231">
-        <f>A231&amp;"|"&amp;B231&amp;"|"&amp;C231&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -8635,17 +6553,8 @@
           <t>Limited Availability</t>
         </is>
       </c>
-      <c r="E232" t="inlineStr">
-        <is>
-          <t>Cross-Region</t>
-        </is>
-      </c>
-      <c r="F232">
+      <c r="E232">
         <f>A232&amp;"|"&amp;B232&amp;"|"&amp;C232</f>
-        <v/>
-      </c>
-      <c r="G232">
-        <f>A232&amp;"|"&amp;B232&amp;"|"&amp;C232&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -8667,20 +6576,11 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>General Availability</t>
-        </is>
-      </c>
-      <c r="E233" t="inlineStr">
-        <is>
-          <t>Cross-Region</t>
-        </is>
-      </c>
-      <c r="F233">
+          <t>Limited Availability</t>
+        </is>
+      </c>
+      <c r="E233">
         <f>A233&amp;"|"&amp;B233&amp;"|"&amp;C233</f>
-        <v/>
-      </c>
-      <c r="G233">
-        <f>A233&amp;"|"&amp;B233&amp;"|"&amp;C233&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -8702,20 +6602,11 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>General Availability</t>
-        </is>
-      </c>
-      <c r="E234" t="inlineStr">
-        <is>
-          <t>In-Region</t>
-        </is>
-      </c>
-      <c r="F234">
+          <t>Limited Availability</t>
+        </is>
+      </c>
+      <c r="E234">
         <f>A234&amp;"|"&amp;B234&amp;"|"&amp;C234</f>
-        <v/>
-      </c>
-      <c r="G234">
-        <f>A234&amp;"|"&amp;B234&amp;"|"&amp;C234&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -8737,20 +6628,11 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
-        </is>
-      </c>
-      <c r="E235" t="inlineStr">
-        <is>
-          <t>In-Region</t>
-        </is>
-      </c>
-      <c r="F235">
+          <t>General Availability</t>
+        </is>
+      </c>
+      <c r="E235">
         <f>A235&amp;"|"&amp;B235&amp;"|"&amp;C235</f>
-        <v/>
-      </c>
-      <c r="G235">
-        <f>A235&amp;"|"&amp;B235&amp;"|"&amp;C235&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -8772,20 +6654,11 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>Not Supported</t>
-        </is>
-      </c>
-      <c r="E236" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F236">
+          <t>General Availability</t>
+        </is>
+      </c>
+      <c r="E236">
         <f>A236&amp;"|"&amp;B236&amp;"|"&amp;C236</f>
-        <v/>
-      </c>
-      <c r="G236">
-        <f>A236&amp;"|"&amp;B236&amp;"|"&amp;C236&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -8807,20 +6680,11 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
-        </is>
-      </c>
-      <c r="E237" t="inlineStr">
-        <is>
-          <t>In-Region</t>
-        </is>
-      </c>
-      <c r="F237">
+          <t>General Availability</t>
+        </is>
+      </c>
+      <c r="E237">
         <f>A237&amp;"|"&amp;B237&amp;"|"&amp;C237</f>
-        <v/>
-      </c>
-      <c r="G237">
-        <f>A237&amp;"|"&amp;B237&amp;"|"&amp;C237&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -8845,17 +6709,8 @@
           <t>Not Supported</t>
         </is>
       </c>
-      <c r="E238" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F238">
+      <c r="E238">
         <f>A238&amp;"|"&amp;B238&amp;"|"&amp;C238</f>
-        <v/>
-      </c>
-      <c r="G238">
-        <f>A238&amp;"|"&amp;B238&amp;"|"&amp;C238&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -8880,17 +6735,8 @@
           <t>Limited Availability</t>
         </is>
       </c>
-      <c r="E239" t="inlineStr">
-        <is>
-          <t>Cross-Region</t>
-        </is>
-      </c>
-      <c r="F239">
+      <c r="E239">
         <f>A239&amp;"|"&amp;B239&amp;"|"&amp;C239</f>
-        <v/>
-      </c>
-      <c r="G239">
-        <f>A239&amp;"|"&amp;B239&amp;"|"&amp;C239&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -8912,20 +6758,11 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>Not Supported</t>
-        </is>
-      </c>
-      <c r="E240" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F240">
+          <t>Limited Availability</t>
+        </is>
+      </c>
+      <c r="E240">
         <f>A240&amp;"|"&amp;B240&amp;"|"&amp;C240</f>
-        <v/>
-      </c>
-      <c r="G240">
-        <f>A240&amp;"|"&amp;B240&amp;"|"&amp;C240&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -8947,20 +6784,11 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
-        </is>
-      </c>
-      <c r="E241" t="inlineStr">
-        <is>
-          <t>Cross-Region</t>
-        </is>
-      </c>
-      <c r="F241">
+          <t>General Availability</t>
+        </is>
+      </c>
+      <c r="E241">
         <f>A241&amp;"|"&amp;B241&amp;"|"&amp;C241</f>
-        <v/>
-      </c>
-      <c r="G241">
-        <f>A241&amp;"|"&amp;B241&amp;"|"&amp;C241&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -8982,20 +6810,11 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>General Availability</t>
-        </is>
-      </c>
-      <c r="E242" t="inlineStr">
-        <is>
-          <t>In-Region</t>
-        </is>
-      </c>
-      <c r="F242">
+          <t>Not Supported</t>
+        </is>
+      </c>
+      <c r="E242">
         <f>A242&amp;"|"&amp;B242&amp;"|"&amp;C242</f>
-        <v/>
-      </c>
-      <c r="G242">
-        <f>A242&amp;"|"&amp;B242&amp;"|"&amp;C242&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -9017,20 +6836,11 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
-        </is>
-      </c>
-      <c r="E243" t="inlineStr">
-        <is>
-          <t>Cross-Region</t>
-        </is>
-      </c>
-      <c r="F243">
+          <t>Not Supported</t>
+        </is>
+      </c>
+      <c r="E243">
         <f>A243&amp;"|"&amp;B243&amp;"|"&amp;C243</f>
-        <v/>
-      </c>
-      <c r="G243">
-        <f>A243&amp;"|"&amp;B243&amp;"|"&amp;C243&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -9055,17 +6865,8 @@
           <t>General Availability</t>
         </is>
       </c>
-      <c r="E244" t="inlineStr">
-        <is>
-          <t>Cross-Region</t>
-        </is>
-      </c>
-      <c r="F244">
+      <c r="E244">
         <f>A244&amp;"|"&amp;B244&amp;"|"&amp;C244</f>
-        <v/>
-      </c>
-      <c r="G244">
-        <f>A244&amp;"|"&amp;B244&amp;"|"&amp;C244&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -9087,20 +6888,11 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>General Availability</t>
-        </is>
-      </c>
-      <c r="E245" t="inlineStr">
-        <is>
-          <t>Cross-Region</t>
-        </is>
-      </c>
-      <c r="F245">
+          <t>Not Supported</t>
+        </is>
+      </c>
+      <c r="E245">
         <f>A245&amp;"|"&amp;B245&amp;"|"&amp;C245</f>
-        <v/>
-      </c>
-      <c r="G245">
-        <f>A245&amp;"|"&amp;B245&amp;"|"&amp;C245&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -9122,20 +6914,11 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>Not Supported</t>
-        </is>
-      </c>
-      <c r="E246" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F246">
+          <t>Limited Availability</t>
+        </is>
+      </c>
+      <c r="E246">
         <f>A246&amp;"|"&amp;B246&amp;"|"&amp;C246</f>
-        <v/>
-      </c>
-      <c r="G246">
-        <f>A246&amp;"|"&amp;B246&amp;"|"&amp;C246&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -9160,17 +6943,8 @@
           <t>Not Supported</t>
         </is>
       </c>
-      <c r="E247" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F247">
+      <c r="E247">
         <f>A247&amp;"|"&amp;B247&amp;"|"&amp;C247</f>
-        <v/>
-      </c>
-      <c r="G247">
-        <f>A247&amp;"|"&amp;B247&amp;"|"&amp;C247&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -9192,20 +6966,11 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>Not Supported</t>
-        </is>
-      </c>
-      <c r="E248" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F248">
+          <t>General Availability</t>
+        </is>
+      </c>
+      <c r="E248">
         <f>A248&amp;"|"&amp;B248&amp;"|"&amp;C248</f>
-        <v/>
-      </c>
-      <c r="G248">
-        <f>A248&amp;"|"&amp;B248&amp;"|"&amp;C248&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -9230,17 +6995,8 @@
           <t>Not Supported</t>
         </is>
       </c>
-      <c r="E249" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F249">
+      <c r="E249">
         <f>A249&amp;"|"&amp;B249&amp;"|"&amp;C249</f>
-        <v/>
-      </c>
-      <c r="G249">
-        <f>A249&amp;"|"&amp;B249&amp;"|"&amp;C249&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -9265,17 +7021,8 @@
           <t>General Availability</t>
         </is>
       </c>
-      <c r="E250" t="inlineStr">
-        <is>
-          <t>Cross-Region</t>
-        </is>
-      </c>
-      <c r="F250">
+      <c r="E250">
         <f>A250&amp;"|"&amp;B250&amp;"|"&amp;C250</f>
-        <v/>
-      </c>
-      <c r="G250">
-        <f>A250&amp;"|"&amp;B250&amp;"|"&amp;C250&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -9300,17 +7047,8 @@
           <t>General Availability</t>
         </is>
       </c>
-      <c r="E251" t="inlineStr">
-        <is>
-          <t>In-Region</t>
-        </is>
-      </c>
-      <c r="F251">
+      <c r="E251">
         <f>A251&amp;"|"&amp;B251&amp;"|"&amp;C251</f>
-        <v/>
-      </c>
-      <c r="G251">
-        <f>A251&amp;"|"&amp;B251&amp;"|"&amp;C251&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -9332,20 +7070,11 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>Not Supported</t>
-        </is>
-      </c>
-      <c r="E252" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F252">
+          <t>General Availability</t>
+        </is>
+      </c>
+      <c r="E252">
         <f>A252&amp;"|"&amp;B252&amp;"|"&amp;C252</f>
-        <v/>
-      </c>
-      <c r="G252">
-        <f>A252&amp;"|"&amp;B252&amp;"|"&amp;C252&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -9367,20 +7096,11 @@
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
-        </is>
-      </c>
-      <c r="E253" t="inlineStr">
-        <is>
-          <t>Cross-Region</t>
-        </is>
-      </c>
-      <c r="F253">
+          <t>General Availability</t>
+        </is>
+      </c>
+      <c r="E253">
         <f>A253&amp;"|"&amp;B253&amp;"|"&amp;C253</f>
-        <v/>
-      </c>
-      <c r="G253">
-        <f>A253&amp;"|"&amp;B253&amp;"|"&amp;C253&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -9402,20 +7122,11 @@
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>General Availability</t>
-        </is>
-      </c>
-      <c r="E254" t="inlineStr">
-        <is>
-          <t>Cross-Region</t>
-        </is>
-      </c>
-      <c r="F254">
+          <t>Limited Availability</t>
+        </is>
+      </c>
+      <c r="E254">
         <f>A254&amp;"|"&amp;B254&amp;"|"&amp;C254</f>
-        <v/>
-      </c>
-      <c r="G254">
-        <f>A254&amp;"|"&amp;B254&amp;"|"&amp;C254&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -9437,20 +7148,11 @@
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
-        </is>
-      </c>
-      <c r="E255" t="inlineStr">
-        <is>
-          <t>Cross-Region</t>
-        </is>
-      </c>
-      <c r="F255">
+          <t>General Availability</t>
+        </is>
+      </c>
+      <c r="E255">
         <f>A255&amp;"|"&amp;B255&amp;"|"&amp;C255</f>
-        <v/>
-      </c>
-      <c r="G255">
-        <f>A255&amp;"|"&amp;B255&amp;"|"&amp;C255&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -9475,17 +7177,8 @@
           <t>Limited Availability</t>
         </is>
       </c>
-      <c r="E256" t="inlineStr">
-        <is>
-          <t>In-Region</t>
-        </is>
-      </c>
-      <c r="F256">
+      <c r="E256">
         <f>A256&amp;"|"&amp;B256&amp;"|"&amp;C256</f>
-        <v/>
-      </c>
-      <c r="G256">
-        <f>A256&amp;"|"&amp;B256&amp;"|"&amp;C256&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -9510,17 +7203,8 @@
           <t>Not Supported</t>
         </is>
       </c>
-      <c r="E257" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F257">
+      <c r="E257">
         <f>A257&amp;"|"&amp;B257&amp;"|"&amp;C257</f>
-        <v/>
-      </c>
-      <c r="G257">
-        <f>A257&amp;"|"&amp;B257&amp;"|"&amp;C257&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -9542,20 +7226,11 @@
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
-        </is>
-      </c>
-      <c r="E258" t="inlineStr">
-        <is>
-          <t>Cross-Region</t>
-        </is>
-      </c>
-      <c r="F258">
+          <t>General Availability</t>
+        </is>
+      </c>
+      <c r="E258">
         <f>A258&amp;"|"&amp;B258&amp;"|"&amp;C258</f>
-        <v/>
-      </c>
-      <c r="G258">
-        <f>A258&amp;"|"&amp;B258&amp;"|"&amp;C258&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -9577,20 +7252,11 @@
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>General Availability</t>
-        </is>
-      </c>
-      <c r="E259" t="inlineStr">
-        <is>
-          <t>In-Region</t>
-        </is>
-      </c>
-      <c r="F259">
+          <t>Not Supported</t>
+        </is>
+      </c>
+      <c r="E259">
         <f>A259&amp;"|"&amp;B259&amp;"|"&amp;C259</f>
-        <v/>
-      </c>
-      <c r="G259">
-        <f>A259&amp;"|"&amp;B259&amp;"|"&amp;C259&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -9612,20 +7278,11 @@
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>General Availability</t>
-        </is>
-      </c>
-      <c r="E260" t="inlineStr">
-        <is>
-          <t>Cross-Region</t>
-        </is>
-      </c>
-      <c r="F260">
+          <t>Limited Availability</t>
+        </is>
+      </c>
+      <c r="E260">
         <f>A260&amp;"|"&amp;B260&amp;"|"&amp;C260</f>
-        <v/>
-      </c>
-      <c r="G260">
-        <f>A260&amp;"|"&amp;B260&amp;"|"&amp;C260&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -9647,20 +7304,11 @@
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>General Availability</t>
-        </is>
-      </c>
-      <c r="E261" t="inlineStr">
-        <is>
-          <t>In-Region</t>
-        </is>
-      </c>
-      <c r="F261">
+          <t>Limited Availability</t>
+        </is>
+      </c>
+      <c r="E261">
         <f>A261&amp;"|"&amp;B261&amp;"|"&amp;C261</f>
-        <v/>
-      </c>
-      <c r="G261">
-        <f>A261&amp;"|"&amp;B261&amp;"|"&amp;C261&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -9682,20 +7330,11 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>General Availability</t>
-        </is>
-      </c>
-      <c r="E262" t="inlineStr">
-        <is>
-          <t>Cross-Region</t>
-        </is>
-      </c>
-      <c r="F262">
+          <t>Not Supported</t>
+        </is>
+      </c>
+      <c r="E262">
         <f>A262&amp;"|"&amp;B262&amp;"|"&amp;C262</f>
-        <v/>
-      </c>
-      <c r="G262">
-        <f>A262&amp;"|"&amp;B262&amp;"|"&amp;C262&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -9717,20 +7356,11 @@
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>Not Supported</t>
-        </is>
-      </c>
-      <c r="E263" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F263">
+          <t>General Availability</t>
+        </is>
+      </c>
+      <c r="E263">
         <f>A263&amp;"|"&amp;B263&amp;"|"&amp;C263</f>
-        <v/>
-      </c>
-      <c r="G263">
-        <f>A263&amp;"|"&amp;B263&amp;"|"&amp;C263&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -9755,17 +7385,8 @@
           <t>General Availability</t>
         </is>
       </c>
-      <c r="E264" t="inlineStr">
-        <is>
-          <t>Cross-Region</t>
-        </is>
-      </c>
-      <c r="F264">
+      <c r="E264">
         <f>A264&amp;"|"&amp;B264&amp;"|"&amp;C264</f>
-        <v/>
-      </c>
-      <c r="G264">
-        <f>A264&amp;"|"&amp;B264&amp;"|"&amp;C264&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -9790,17 +7411,8 @@
           <t>Limited Availability</t>
         </is>
       </c>
-      <c r="E265" t="inlineStr">
-        <is>
-          <t>In-Region</t>
-        </is>
-      </c>
-      <c r="F265">
+      <c r="E265">
         <f>A265&amp;"|"&amp;B265&amp;"|"&amp;C265</f>
-        <v/>
-      </c>
-      <c r="G265">
-        <f>A265&amp;"|"&amp;B265&amp;"|"&amp;C265&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -9822,20 +7434,11 @@
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>General Availability</t>
-        </is>
-      </c>
-      <c r="E266" t="inlineStr">
-        <is>
-          <t>In-Region</t>
-        </is>
-      </c>
-      <c r="F266">
+          <t>Limited Availability</t>
+        </is>
+      </c>
+      <c r="E266">
         <f>A266&amp;"|"&amp;B266&amp;"|"&amp;C266</f>
-        <v/>
-      </c>
-      <c r="G266">
-        <f>A266&amp;"|"&amp;B266&amp;"|"&amp;C266&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -9857,20 +7460,11 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
-        </is>
-      </c>
-      <c r="E267" t="inlineStr">
-        <is>
-          <t>In-Region</t>
-        </is>
-      </c>
-      <c r="F267">
+          <t>Not Supported</t>
+        </is>
+      </c>
+      <c r="E267">
         <f>A267&amp;"|"&amp;B267&amp;"|"&amp;C267</f>
-        <v/>
-      </c>
-      <c r="G267">
-        <f>A267&amp;"|"&amp;B267&amp;"|"&amp;C267&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -9895,17 +7489,8 @@
           <t>General Availability</t>
         </is>
       </c>
-      <c r="E268" t="inlineStr">
-        <is>
-          <t>In-Region</t>
-        </is>
-      </c>
-      <c r="F268">
+      <c r="E268">
         <f>A268&amp;"|"&amp;B268&amp;"|"&amp;C268</f>
-        <v/>
-      </c>
-      <c r="G268">
-        <f>A268&amp;"|"&amp;B268&amp;"|"&amp;C268&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -9927,20 +7512,11 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>Not Supported</t>
-        </is>
-      </c>
-      <c r="E269" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F269">
+          <t>General Availability</t>
+        </is>
+      </c>
+      <c r="E269">
         <f>A269&amp;"|"&amp;B269&amp;"|"&amp;C269</f>
-        <v/>
-      </c>
-      <c r="G269">
-        <f>A269&amp;"|"&amp;B269&amp;"|"&amp;C269&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -9962,20 +7538,11 @@
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>Not Supported</t>
-        </is>
-      </c>
-      <c r="E270" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F270">
+          <t>General Availability</t>
+        </is>
+      </c>
+      <c r="E270">
         <f>A270&amp;"|"&amp;B270&amp;"|"&amp;C270</f>
-        <v/>
-      </c>
-      <c r="G270">
-        <f>A270&amp;"|"&amp;B270&amp;"|"&amp;C270&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -10000,17 +7567,8 @@
           <t>Limited Availability</t>
         </is>
       </c>
-      <c r="E271" t="inlineStr">
-        <is>
-          <t>In-Region</t>
-        </is>
-      </c>
-      <c r="F271">
+      <c r="E271">
         <f>A271&amp;"|"&amp;B271&amp;"|"&amp;C271</f>
-        <v/>
-      </c>
-      <c r="G271">
-        <f>A271&amp;"|"&amp;B271&amp;"|"&amp;C271&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -10032,20 +7590,11 @@
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
-        </is>
-      </c>
-      <c r="E272" t="inlineStr">
-        <is>
-          <t>In-Region</t>
-        </is>
-      </c>
-      <c r="F272">
+          <t>Not Supported</t>
+        </is>
+      </c>
+      <c r="E272">
         <f>A272&amp;"|"&amp;B272&amp;"|"&amp;C272</f>
-        <v/>
-      </c>
-      <c r="G272">
-        <f>A272&amp;"|"&amp;B272&amp;"|"&amp;C272&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -10067,20 +7616,11 @@
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
-        </is>
-      </c>
-      <c r="E273" t="inlineStr">
-        <is>
-          <t>In-Region</t>
-        </is>
-      </c>
-      <c r="F273">
+          <t>Not Supported</t>
+        </is>
+      </c>
+      <c r="E273">
         <f>A273&amp;"|"&amp;B273&amp;"|"&amp;C273</f>
-        <v/>
-      </c>
-      <c r="G273">
-        <f>A273&amp;"|"&amp;B273&amp;"|"&amp;C273&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -10105,17 +7645,8 @@
           <t>General Availability</t>
         </is>
       </c>
-      <c r="E274" t="inlineStr">
-        <is>
-          <t>In-Region</t>
-        </is>
-      </c>
-      <c r="F274">
+      <c r="E274">
         <f>A274&amp;"|"&amp;B274&amp;"|"&amp;C274</f>
-        <v/>
-      </c>
-      <c r="G274">
-        <f>A274&amp;"|"&amp;B274&amp;"|"&amp;C274&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -10137,20 +7668,11 @@
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>Not Supported</t>
-        </is>
-      </c>
-      <c r="E275" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F275">
+          <t>Limited Availability</t>
+        </is>
+      </c>
+      <c r="E275">
         <f>A275&amp;"|"&amp;B275&amp;"|"&amp;C275</f>
-        <v/>
-      </c>
-      <c r="G275">
-        <f>A275&amp;"|"&amp;B275&amp;"|"&amp;C275&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -10175,17 +7697,8 @@
           <t>Not Supported</t>
         </is>
       </c>
-      <c r="E276" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F276">
+      <c r="E276">
         <f>A276&amp;"|"&amp;B276&amp;"|"&amp;C276</f>
-        <v/>
-      </c>
-      <c r="G276">
-        <f>A276&amp;"|"&amp;B276&amp;"|"&amp;C276&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -10207,20 +7720,11 @@
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>General Availability</t>
-        </is>
-      </c>
-      <c r="E277" t="inlineStr">
-        <is>
-          <t>In-Region</t>
-        </is>
-      </c>
-      <c r="F277">
+          <t>Limited Availability</t>
+        </is>
+      </c>
+      <c r="E277">
         <f>A277&amp;"|"&amp;B277&amp;"|"&amp;C277</f>
-        <v/>
-      </c>
-      <c r="G277">
-        <f>A277&amp;"|"&amp;B277&amp;"|"&amp;C277&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -10242,20 +7746,11 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>Not Supported</t>
-        </is>
-      </c>
-      <c r="E278" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F278">
+          <t>General Availability</t>
+        </is>
+      </c>
+      <c r="E278">
         <f>A278&amp;"|"&amp;B278&amp;"|"&amp;C278</f>
-        <v/>
-      </c>
-      <c r="G278">
-        <f>A278&amp;"|"&amp;B278&amp;"|"&amp;C278&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -10280,17 +7775,8 @@
           <t>General Availability</t>
         </is>
       </c>
-      <c r="E279" t="inlineStr">
-        <is>
-          <t>In-Region</t>
-        </is>
-      </c>
-      <c r="F279">
+      <c r="E279">
         <f>A279&amp;"|"&amp;B279&amp;"|"&amp;C279</f>
-        <v/>
-      </c>
-      <c r="G279">
-        <f>A279&amp;"|"&amp;B279&amp;"|"&amp;C279&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -10315,17 +7801,8 @@
           <t>Limited Availability</t>
         </is>
       </c>
-      <c r="E280" t="inlineStr">
-        <is>
-          <t>In-Region</t>
-        </is>
-      </c>
-      <c r="F280">
+      <c r="E280">
         <f>A280&amp;"|"&amp;B280&amp;"|"&amp;C280</f>
-        <v/>
-      </c>
-      <c r="G280">
-        <f>A280&amp;"|"&amp;B280&amp;"|"&amp;C280&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -10347,20 +7824,11 @@
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>Not Supported</t>
-        </is>
-      </c>
-      <c r="E281" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F281">
+          <t>General Availability</t>
+        </is>
+      </c>
+      <c r="E281">
         <f>A281&amp;"|"&amp;B281&amp;"|"&amp;C281</f>
-        <v/>
-      </c>
-      <c r="G281">
-        <f>A281&amp;"|"&amp;B281&amp;"|"&amp;C281&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -10382,20 +7850,11 @@
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>General Availability</t>
-        </is>
-      </c>
-      <c r="E282" t="inlineStr">
-        <is>
-          <t>In-Region</t>
-        </is>
-      </c>
-      <c r="F282">
+          <t>Not Supported</t>
+        </is>
+      </c>
+      <c r="E282">
         <f>A282&amp;"|"&amp;B282&amp;"|"&amp;C282</f>
-        <v/>
-      </c>
-      <c r="G282">
-        <f>A282&amp;"|"&amp;B282&amp;"|"&amp;C282&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -10417,20 +7876,11 @@
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>General Availability</t>
-        </is>
-      </c>
-      <c r="E283" t="inlineStr">
-        <is>
-          <t>Cross-Region</t>
-        </is>
-      </c>
-      <c r="F283">
+          <t>Not Supported</t>
+        </is>
+      </c>
+      <c r="E283">
         <f>A283&amp;"|"&amp;B283&amp;"|"&amp;C283</f>
-        <v/>
-      </c>
-      <c r="G283">
-        <f>A283&amp;"|"&amp;B283&amp;"|"&amp;C283&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -10455,17 +7905,8 @@
           <t>Not Supported</t>
         </is>
       </c>
-      <c r="E284" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F284">
+      <c r="E284">
         <f>A284&amp;"|"&amp;B284&amp;"|"&amp;C284</f>
-        <v/>
-      </c>
-      <c r="G284">
-        <f>A284&amp;"|"&amp;B284&amp;"|"&amp;C284&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -10487,20 +7928,11 @@
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
-        </is>
-      </c>
-      <c r="E285" t="inlineStr">
-        <is>
-          <t>In-Region</t>
-        </is>
-      </c>
-      <c r="F285">
+          <t>Not Supported</t>
+        </is>
+      </c>
+      <c r="E285">
         <f>A285&amp;"|"&amp;B285&amp;"|"&amp;C285</f>
-        <v/>
-      </c>
-      <c r="G285">
-        <f>A285&amp;"|"&amp;B285&amp;"|"&amp;C285&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -10522,20 +7954,11 @@
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
-        </is>
-      </c>
-      <c r="E286" t="inlineStr">
-        <is>
-          <t>In-Region</t>
-        </is>
-      </c>
-      <c r="F286">
+          <t>Not Supported</t>
+        </is>
+      </c>
+      <c r="E286">
         <f>A286&amp;"|"&amp;B286&amp;"|"&amp;C286</f>
-        <v/>
-      </c>
-      <c r="G286">
-        <f>A286&amp;"|"&amp;B286&amp;"|"&amp;C286&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -10557,20 +7980,11 @@
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>General Availability</t>
-        </is>
-      </c>
-      <c r="E287" t="inlineStr">
-        <is>
-          <t>In-Region</t>
-        </is>
-      </c>
-      <c r="F287">
+          <t>Limited Availability</t>
+        </is>
+      </c>
+      <c r="E287">
         <f>A287&amp;"|"&amp;B287&amp;"|"&amp;C287</f>
-        <v/>
-      </c>
-      <c r="G287">
-        <f>A287&amp;"|"&amp;B287&amp;"|"&amp;C287&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -10595,17 +8009,8 @@
           <t>General Availability</t>
         </is>
       </c>
-      <c r="E288" t="inlineStr">
-        <is>
-          <t>In-Region</t>
-        </is>
-      </c>
-      <c r="F288">
+      <c r="E288">
         <f>A288&amp;"|"&amp;B288&amp;"|"&amp;C288</f>
-        <v/>
-      </c>
-      <c r="G288">
-        <f>A288&amp;"|"&amp;B288&amp;"|"&amp;C288&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -10627,20 +8032,11 @@
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>General Availability</t>
-        </is>
-      </c>
-      <c r="E289" t="inlineStr">
-        <is>
-          <t>Cross-Region</t>
-        </is>
-      </c>
-      <c r="F289">
+          <t>Limited Availability</t>
+        </is>
+      </c>
+      <c r="E289">
         <f>A289&amp;"|"&amp;B289&amp;"|"&amp;C289</f>
-        <v/>
-      </c>
-      <c r="G289">
-        <f>A289&amp;"|"&amp;B289&amp;"|"&amp;C289&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -10662,20 +8058,11 @@
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>General Availability</t>
-        </is>
-      </c>
-      <c r="E290" t="inlineStr">
-        <is>
-          <t>Cross-Region</t>
-        </is>
-      </c>
-      <c r="F290">
+          <t>Limited Availability</t>
+        </is>
+      </c>
+      <c r="E290">
         <f>A290&amp;"|"&amp;B290&amp;"|"&amp;C290</f>
-        <v/>
-      </c>
-      <c r="G290">
-        <f>A290&amp;"|"&amp;B290&amp;"|"&amp;C290&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -10697,20 +8084,11 @@
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
-        </is>
-      </c>
-      <c r="E291" t="inlineStr">
-        <is>
-          <t>In-Region</t>
-        </is>
-      </c>
-      <c r="F291">
+          <t>General Availability</t>
+        </is>
+      </c>
+      <c r="E291">
         <f>A291&amp;"|"&amp;B291&amp;"|"&amp;C291</f>
-        <v/>
-      </c>
-      <c r="G291">
-        <f>A291&amp;"|"&amp;B291&amp;"|"&amp;C291&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -10735,17 +8113,8 @@
           <t>General Availability</t>
         </is>
       </c>
-      <c r="E292" t="inlineStr">
-        <is>
-          <t>Cross-Region</t>
-        </is>
-      </c>
-      <c r="F292">
+      <c r="E292">
         <f>A292&amp;"|"&amp;B292&amp;"|"&amp;C292</f>
-        <v/>
-      </c>
-      <c r="G292">
-        <f>A292&amp;"|"&amp;B292&amp;"|"&amp;C292&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -10770,17 +8139,8 @@
           <t>Not Supported</t>
         </is>
       </c>
-      <c r="E293" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F293">
+      <c r="E293">
         <f>A293&amp;"|"&amp;B293&amp;"|"&amp;C293</f>
-        <v/>
-      </c>
-      <c r="G293">
-        <f>A293&amp;"|"&amp;B293&amp;"|"&amp;C293&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -10802,20 +8162,11 @@
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>Not Supported</t>
-        </is>
-      </c>
-      <c r="E294" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F294">
+          <t>General Availability</t>
+        </is>
+      </c>
+      <c r="E294">
         <f>A294&amp;"|"&amp;B294&amp;"|"&amp;C294</f>
-        <v/>
-      </c>
-      <c r="G294">
-        <f>A294&amp;"|"&amp;B294&amp;"|"&amp;C294&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -10837,20 +8188,11 @@
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>General Availability</t>
-        </is>
-      </c>
-      <c r="E295" t="inlineStr">
-        <is>
-          <t>In-Region</t>
-        </is>
-      </c>
-      <c r="F295">
+          <t>Not Supported</t>
+        </is>
+      </c>
+      <c r="E295">
         <f>A295&amp;"|"&amp;B295&amp;"|"&amp;C295</f>
-        <v/>
-      </c>
-      <c r="G295">
-        <f>A295&amp;"|"&amp;B295&amp;"|"&amp;C295&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -10875,17 +8217,8 @@
           <t>General Availability</t>
         </is>
       </c>
-      <c r="E296" t="inlineStr">
-        <is>
-          <t>In-Region</t>
-        </is>
-      </c>
-      <c r="F296">
+      <c r="E296">
         <f>A296&amp;"|"&amp;B296&amp;"|"&amp;C296</f>
-        <v/>
-      </c>
-      <c r="G296">
-        <f>A296&amp;"|"&amp;B296&amp;"|"&amp;C296&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -10910,17 +8243,8 @@
           <t>Not Supported</t>
         </is>
       </c>
-      <c r="E297" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F297">
+      <c r="E297">
         <f>A297&amp;"|"&amp;B297&amp;"|"&amp;C297</f>
-        <v/>
-      </c>
-      <c r="G297">
-        <f>A297&amp;"|"&amp;B297&amp;"|"&amp;C297&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -10945,17 +8269,8 @@
           <t>Not Supported</t>
         </is>
       </c>
-      <c r="E298" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F298">
+      <c r="E298">
         <f>A298&amp;"|"&amp;B298&amp;"|"&amp;C298</f>
-        <v/>
-      </c>
-      <c r="G298">
-        <f>A298&amp;"|"&amp;B298&amp;"|"&amp;C298&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -10977,20 +8292,11 @@
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>Not Supported</t>
-        </is>
-      </c>
-      <c r="E299" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F299">
+          <t>General Availability</t>
+        </is>
+      </c>
+      <c r="E299">
         <f>A299&amp;"|"&amp;B299&amp;"|"&amp;C299</f>
-        <v/>
-      </c>
-      <c r="G299">
-        <f>A299&amp;"|"&amp;B299&amp;"|"&amp;C299&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -11015,17 +8321,8 @@
           <t>Limited Availability</t>
         </is>
       </c>
-      <c r="E300" t="inlineStr">
-        <is>
-          <t>Cross-Region</t>
-        </is>
-      </c>
-      <c r="F300">
+      <c r="E300">
         <f>A300&amp;"|"&amp;B300&amp;"|"&amp;C300</f>
-        <v/>
-      </c>
-      <c r="G300">
-        <f>A300&amp;"|"&amp;B300&amp;"|"&amp;C300&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -11047,20 +8344,11 @@
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>General Availability</t>
-        </is>
-      </c>
-      <c r="E301" t="inlineStr">
-        <is>
-          <t>In-Region</t>
-        </is>
-      </c>
-      <c r="F301">
+          <t>Limited Availability</t>
+        </is>
+      </c>
+      <c r="E301">
         <f>A301&amp;"|"&amp;B301&amp;"|"&amp;C301</f>
-        <v/>
-      </c>
-      <c r="G301">
-        <f>A301&amp;"|"&amp;B301&amp;"|"&amp;C301&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -11085,17 +8373,8 @@
           <t>General Availability</t>
         </is>
       </c>
-      <c r="E302" t="inlineStr">
-        <is>
-          <t>Cross-Region</t>
-        </is>
-      </c>
-      <c r="F302">
+      <c r="E302">
         <f>A302&amp;"|"&amp;B302&amp;"|"&amp;C302</f>
-        <v/>
-      </c>
-      <c r="G302">
-        <f>A302&amp;"|"&amp;B302&amp;"|"&amp;C302&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -11117,20 +8396,11 @@
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>General Availability</t>
-        </is>
-      </c>
-      <c r="E303" t="inlineStr">
-        <is>
-          <t>Cross-Region</t>
-        </is>
-      </c>
-      <c r="F303">
+          <t>Not Supported</t>
+        </is>
+      </c>
+      <c r="E303">
         <f>A303&amp;"|"&amp;B303&amp;"|"&amp;C303</f>
-        <v/>
-      </c>
-      <c r="G303">
-        <f>A303&amp;"|"&amp;B303&amp;"|"&amp;C303&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -11155,17 +8425,8 @@
           <t>General Availability</t>
         </is>
       </c>
-      <c r="E304" t="inlineStr">
-        <is>
-          <t>In-Region</t>
-        </is>
-      </c>
-      <c r="F304">
+      <c r="E304">
         <f>A304&amp;"|"&amp;B304&amp;"|"&amp;C304</f>
-        <v/>
-      </c>
-      <c r="G304">
-        <f>A304&amp;"|"&amp;B304&amp;"|"&amp;C304&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -11187,20 +8448,11 @@
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>General Availability</t>
-        </is>
-      </c>
-      <c r="E305" t="inlineStr">
-        <is>
-          <t>Cross-Region</t>
-        </is>
-      </c>
-      <c r="F305">
+          <t>Limited Availability</t>
+        </is>
+      </c>
+      <c r="E305">
         <f>A305&amp;"|"&amp;B305&amp;"|"&amp;C305</f>
-        <v/>
-      </c>
-      <c r="G305">
-        <f>A305&amp;"|"&amp;B305&amp;"|"&amp;C305&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -11222,20 +8474,11 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
-        </is>
-      </c>
-      <c r="E306" t="inlineStr">
-        <is>
-          <t>In-Region</t>
-        </is>
-      </c>
-      <c r="F306">
+          <t>Not Supported</t>
+        </is>
+      </c>
+      <c r="E306">
         <f>A306&amp;"|"&amp;B306&amp;"|"&amp;C306</f>
-        <v/>
-      </c>
-      <c r="G306">
-        <f>A306&amp;"|"&amp;B306&amp;"|"&amp;C306&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -11260,17 +8503,8 @@
           <t>General Availability</t>
         </is>
       </c>
-      <c r="E307" t="inlineStr">
-        <is>
-          <t>In-Region</t>
-        </is>
-      </c>
-      <c r="F307">
+      <c r="E307">
         <f>A307&amp;"|"&amp;B307&amp;"|"&amp;C307</f>
-        <v/>
-      </c>
-      <c r="G307">
-        <f>A307&amp;"|"&amp;B307&amp;"|"&amp;C307&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -11295,17 +8529,8 @@
           <t>General Availability</t>
         </is>
       </c>
-      <c r="E308" t="inlineStr">
-        <is>
-          <t>In-Region</t>
-        </is>
-      </c>
-      <c r="F308">
+      <c r="E308">
         <f>A308&amp;"|"&amp;B308&amp;"|"&amp;C308</f>
-        <v/>
-      </c>
-      <c r="G308">
-        <f>A308&amp;"|"&amp;B308&amp;"|"&amp;C308&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -11327,20 +8552,11 @@
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
-        </is>
-      </c>
-      <c r="E309" t="inlineStr">
-        <is>
-          <t>Cross-Region</t>
-        </is>
-      </c>
-      <c r="F309">
+          <t>General Availability</t>
+        </is>
+      </c>
+      <c r="E309">
         <f>A309&amp;"|"&amp;B309&amp;"|"&amp;C309</f>
-        <v/>
-      </c>
-      <c r="G309">
-        <f>A309&amp;"|"&amp;B309&amp;"|"&amp;C309&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -11365,17 +8581,8 @@
           <t>Limited Availability</t>
         </is>
       </c>
-      <c r="E310" t="inlineStr">
-        <is>
-          <t>In-Region</t>
-        </is>
-      </c>
-      <c r="F310">
+      <c r="E310">
         <f>A310&amp;"|"&amp;B310&amp;"|"&amp;C310</f>
-        <v/>
-      </c>
-      <c r="G310">
-        <f>A310&amp;"|"&amp;B310&amp;"|"&amp;C310&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -11397,20 +8604,11 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
-        </is>
-      </c>
-      <c r="E311" t="inlineStr">
-        <is>
-          <t>In-Region</t>
-        </is>
-      </c>
-      <c r="F311">
+          <t>General Availability</t>
+        </is>
+      </c>
+      <c r="E311">
         <f>A311&amp;"|"&amp;B311&amp;"|"&amp;C311</f>
-        <v/>
-      </c>
-      <c r="G311">
-        <f>A311&amp;"|"&amp;B311&amp;"|"&amp;C311&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -11432,20 +8630,11 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>General Availability</t>
-        </is>
-      </c>
-      <c r="E312" t="inlineStr">
-        <is>
-          <t>Cross-Region</t>
-        </is>
-      </c>
-      <c r="F312">
+          <t>Limited Availability</t>
+        </is>
+      </c>
+      <c r="E312">
         <f>A312&amp;"|"&amp;B312&amp;"|"&amp;C312</f>
-        <v/>
-      </c>
-      <c r="G312">
-        <f>A312&amp;"|"&amp;B312&amp;"|"&amp;C312&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -11467,20 +8656,11 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>General Availability</t>
-        </is>
-      </c>
-      <c r="E313" t="inlineStr">
-        <is>
-          <t>In-Region</t>
-        </is>
-      </c>
-      <c r="F313">
+          <t>Not Supported</t>
+        </is>
+      </c>
+      <c r="E313">
         <f>A313&amp;"|"&amp;B313&amp;"|"&amp;C313</f>
-        <v/>
-      </c>
-      <c r="G313">
-        <f>A313&amp;"|"&amp;B313&amp;"|"&amp;C313&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -11502,20 +8682,11 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>General Availability</t>
-        </is>
-      </c>
-      <c r="E314" t="inlineStr">
-        <is>
-          <t>In-Region</t>
-        </is>
-      </c>
-      <c r="F314">
+          <t>Not Supported</t>
+        </is>
+      </c>
+      <c r="E314">
         <f>A314&amp;"|"&amp;B314&amp;"|"&amp;C314</f>
-        <v/>
-      </c>
-      <c r="G314">
-        <f>A314&amp;"|"&amp;B314&amp;"|"&amp;C314&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -11540,17 +8711,8 @@
           <t>Limited Availability</t>
         </is>
       </c>
-      <c r="E315" t="inlineStr">
-        <is>
-          <t>In-Region</t>
-        </is>
-      </c>
-      <c r="F315">
+      <c r="E315">
         <f>A315&amp;"|"&amp;B315&amp;"|"&amp;C315</f>
-        <v/>
-      </c>
-      <c r="G315">
-        <f>A315&amp;"|"&amp;B315&amp;"|"&amp;C315&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -11575,17 +8737,8 @@
           <t>Not Supported</t>
         </is>
       </c>
-      <c r="E316" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F316">
+      <c r="E316">
         <f>A316&amp;"|"&amp;B316&amp;"|"&amp;C316</f>
-        <v/>
-      </c>
-      <c r="G316">
-        <f>A316&amp;"|"&amp;B316&amp;"|"&amp;C316&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -11607,20 +8760,11 @@
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>General Availability</t>
-        </is>
-      </c>
-      <c r="E317" t="inlineStr">
-        <is>
-          <t>In-Region</t>
-        </is>
-      </c>
-      <c r="F317">
+          <t>Limited Availability</t>
+        </is>
+      </c>
+      <c r="E317">
         <f>A317&amp;"|"&amp;B317&amp;"|"&amp;C317</f>
-        <v/>
-      </c>
-      <c r="G317">
-        <f>A317&amp;"|"&amp;B317&amp;"|"&amp;C317&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -11645,17 +8789,8 @@
           <t>Not Supported</t>
         </is>
       </c>
-      <c r="E318" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F318">
+      <c r="E318">
         <f>A318&amp;"|"&amp;B318&amp;"|"&amp;C318</f>
-        <v/>
-      </c>
-      <c r="G318">
-        <f>A318&amp;"|"&amp;B318&amp;"|"&amp;C318&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -11677,20 +8812,11 @@
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>General Availability</t>
-        </is>
-      </c>
-      <c r="E319" t="inlineStr">
-        <is>
-          <t>Cross-Region</t>
-        </is>
-      </c>
-      <c r="F319">
+          <t>Limited Availability</t>
+        </is>
+      </c>
+      <c r="E319">
         <f>A319&amp;"|"&amp;B319&amp;"|"&amp;C319</f>
-        <v/>
-      </c>
-      <c r="G319">
-        <f>A319&amp;"|"&amp;B319&amp;"|"&amp;C319&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -11712,20 +8838,11 @@
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>General Availability</t>
-        </is>
-      </c>
-      <c r="E320" t="inlineStr">
-        <is>
-          <t>Cross-Region</t>
-        </is>
-      </c>
-      <c r="F320">
+          <t>Limited Availability</t>
+        </is>
+      </c>
+      <c r="E320">
         <f>A320&amp;"|"&amp;B320&amp;"|"&amp;C320</f>
-        <v/>
-      </c>
-      <c r="G320">
-        <f>A320&amp;"|"&amp;B320&amp;"|"&amp;C320&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -11747,20 +8864,11 @@
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>Not Supported</t>
-        </is>
-      </c>
-      <c r="E321" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F321">
+          <t>Limited Availability</t>
+        </is>
+      </c>
+      <c r="E321">
         <f>A321&amp;"|"&amp;B321&amp;"|"&amp;C321</f>
-        <v/>
-      </c>
-      <c r="G321">
-        <f>A321&amp;"|"&amp;B321&amp;"|"&amp;C321&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -11785,17 +8893,8 @@
           <t>General Availability</t>
         </is>
       </c>
-      <c r="E322" t="inlineStr">
-        <is>
-          <t>Cross-Region</t>
-        </is>
-      </c>
-      <c r="F322">
+      <c r="E322">
         <f>A322&amp;"|"&amp;B322&amp;"|"&amp;C322</f>
-        <v/>
-      </c>
-      <c r="G322">
-        <f>A322&amp;"|"&amp;B322&amp;"|"&amp;C322&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -11820,17 +8919,8 @@
           <t>General Availability</t>
         </is>
       </c>
-      <c r="E323" t="inlineStr">
-        <is>
-          <t>In-Region</t>
-        </is>
-      </c>
-      <c r="F323">
+      <c r="E323">
         <f>A323&amp;"|"&amp;B323&amp;"|"&amp;C323</f>
-        <v/>
-      </c>
-      <c r="G323">
-        <f>A323&amp;"|"&amp;B323&amp;"|"&amp;C323&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -11852,20 +8942,11 @@
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>Not Supported</t>
-        </is>
-      </c>
-      <c r="E324" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F324">
+          <t>Limited Availability</t>
+        </is>
+      </c>
+      <c r="E324">
         <f>A324&amp;"|"&amp;B324&amp;"|"&amp;C324</f>
-        <v/>
-      </c>
-      <c r="G324">
-        <f>A324&amp;"|"&amp;B324&amp;"|"&amp;C324&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -11890,17 +8971,8 @@
           <t>General Availability</t>
         </is>
       </c>
-      <c r="E325" t="inlineStr">
-        <is>
-          <t>Cross-Region</t>
-        </is>
-      </c>
-      <c r="F325">
+      <c r="E325">
         <f>A325&amp;"|"&amp;B325&amp;"|"&amp;C325</f>
-        <v/>
-      </c>
-      <c r="G325">
-        <f>A325&amp;"|"&amp;B325&amp;"|"&amp;C325&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -11922,20 +8994,11 @@
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
-        </is>
-      </c>
-      <c r="E326" t="inlineStr">
-        <is>
-          <t>Cross-Region</t>
-        </is>
-      </c>
-      <c r="F326">
+          <t>Not Supported</t>
+        </is>
+      </c>
+      <c r="E326">
         <f>A326&amp;"|"&amp;B326&amp;"|"&amp;C326</f>
-        <v/>
-      </c>
-      <c r="G326">
-        <f>A326&amp;"|"&amp;B326&amp;"|"&amp;C326&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -11957,20 +9020,11 @@
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>General Availability</t>
-        </is>
-      </c>
-      <c r="E327" t="inlineStr">
-        <is>
-          <t>In-Region</t>
-        </is>
-      </c>
-      <c r="F327">
+          <t>Limited Availability</t>
+        </is>
+      </c>
+      <c r="E327">
         <f>A327&amp;"|"&amp;B327&amp;"|"&amp;C327</f>
-        <v/>
-      </c>
-      <c r="G327">
-        <f>A327&amp;"|"&amp;B327&amp;"|"&amp;C327&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -11992,20 +9046,11 @@
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>Not Supported</t>
-        </is>
-      </c>
-      <c r="E328" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F328">
+          <t>General Availability</t>
+        </is>
+      </c>
+      <c r="E328">
         <f>A328&amp;"|"&amp;B328&amp;"|"&amp;C328</f>
-        <v/>
-      </c>
-      <c r="G328">
-        <f>A328&amp;"|"&amp;B328&amp;"|"&amp;C328&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -12027,20 +9072,11 @@
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>General Availability</t>
-        </is>
-      </c>
-      <c r="E329" t="inlineStr">
-        <is>
-          <t>Cross-Region</t>
-        </is>
-      </c>
-      <c r="F329">
+          <t>Limited Availability</t>
+        </is>
+      </c>
+      <c r="E329">
         <f>A329&amp;"|"&amp;B329&amp;"|"&amp;C329</f>
-        <v/>
-      </c>
-      <c r="G329">
-        <f>A329&amp;"|"&amp;B329&amp;"|"&amp;C329&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -12065,17 +9101,8 @@
           <t>General Availability</t>
         </is>
       </c>
-      <c r="E330" t="inlineStr">
-        <is>
-          <t>Cross-Region</t>
-        </is>
-      </c>
-      <c r="F330">
+      <c r="E330">
         <f>A330&amp;"|"&amp;B330&amp;"|"&amp;C330</f>
-        <v/>
-      </c>
-      <c r="G330">
-        <f>A330&amp;"|"&amp;B330&amp;"|"&amp;C330&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -12097,20 +9124,11 @@
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>General Availability</t>
-        </is>
-      </c>
-      <c r="E331" t="inlineStr">
-        <is>
-          <t>Cross-Region</t>
-        </is>
-      </c>
-      <c r="F331">
+          <t>Limited Availability</t>
+        </is>
+      </c>
+      <c r="E331">
         <f>A331&amp;"|"&amp;B331&amp;"|"&amp;C331</f>
-        <v/>
-      </c>
-      <c r="G331">
-        <f>A331&amp;"|"&amp;B331&amp;"|"&amp;C331&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -12132,20 +9150,11 @@
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
-        </is>
-      </c>
-      <c r="E332" t="inlineStr">
-        <is>
-          <t>In-Region</t>
-        </is>
-      </c>
-      <c r="F332">
+          <t>General Availability</t>
+        </is>
+      </c>
+      <c r="E332">
         <f>A332&amp;"|"&amp;B332&amp;"|"&amp;C332</f>
-        <v/>
-      </c>
-      <c r="G332">
-        <f>A332&amp;"|"&amp;B332&amp;"|"&amp;C332&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -12167,20 +9176,11 @@
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>Not Supported</t>
-        </is>
-      </c>
-      <c r="E333" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F333">
+          <t>Limited Availability</t>
+        </is>
+      </c>
+      <c r="E333">
         <f>A333&amp;"|"&amp;B333&amp;"|"&amp;C333</f>
-        <v/>
-      </c>
-      <c r="G333">
-        <f>A333&amp;"|"&amp;B333&amp;"|"&amp;C333&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -12202,20 +9202,11 @@
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
-        </is>
-      </c>
-      <c r="E334" t="inlineStr">
-        <is>
-          <t>In-Region</t>
-        </is>
-      </c>
-      <c r="F334">
+          <t>Not Supported</t>
+        </is>
+      </c>
+      <c r="E334">
         <f>A334&amp;"|"&amp;B334&amp;"|"&amp;C334</f>
-        <v/>
-      </c>
-      <c r="G334">
-        <f>A334&amp;"|"&amp;B334&amp;"|"&amp;C334&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -12237,20 +9228,11 @@
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
-        </is>
-      </c>
-      <c r="E335" t="inlineStr">
-        <is>
-          <t>In-Region</t>
-        </is>
-      </c>
-      <c r="F335">
+          <t>Not Supported</t>
+        </is>
+      </c>
+      <c r="E335">
         <f>A335&amp;"|"&amp;B335&amp;"|"&amp;C335</f>
-        <v/>
-      </c>
-      <c r="G335">
-        <f>A335&amp;"|"&amp;B335&amp;"|"&amp;C335&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -12272,20 +9254,11 @@
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>Not Supported</t>
-        </is>
-      </c>
-      <c r="E336" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F336">
+          <t>General Availability</t>
+        </is>
+      </c>
+      <c r="E336">
         <f>A336&amp;"|"&amp;B336&amp;"|"&amp;C336</f>
-        <v/>
-      </c>
-      <c r="G336">
-        <f>A336&amp;"|"&amp;B336&amp;"|"&amp;C336&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -12310,17 +9283,8 @@
           <t>Not Supported</t>
         </is>
       </c>
-      <c r="E337" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F337">
+      <c r="E337">
         <f>A337&amp;"|"&amp;B337&amp;"|"&amp;C337</f>
-        <v/>
-      </c>
-      <c r="G337">
-        <f>A337&amp;"|"&amp;B337&amp;"|"&amp;C337&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -12342,20 +9306,11 @@
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>General Availability</t>
-        </is>
-      </c>
-      <c r="E338" t="inlineStr">
-        <is>
-          <t>In-Region</t>
-        </is>
-      </c>
-      <c r="F338">
+          <t>Not Supported</t>
+        </is>
+      </c>
+      <c r="E338">
         <f>A338&amp;"|"&amp;B338&amp;"|"&amp;C338</f>
-        <v/>
-      </c>
-      <c r="G338">
-        <f>A338&amp;"|"&amp;B338&amp;"|"&amp;C338&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -12377,20 +9332,11 @@
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>General Availability</t>
-        </is>
-      </c>
-      <c r="E339" t="inlineStr">
-        <is>
-          <t>Cross-Region</t>
-        </is>
-      </c>
-      <c r="F339">
+          <t>Not Supported</t>
+        </is>
+      </c>
+      <c r="E339">
         <f>A339&amp;"|"&amp;B339&amp;"|"&amp;C339</f>
-        <v/>
-      </c>
-      <c r="G339">
-        <f>A339&amp;"|"&amp;B339&amp;"|"&amp;C339&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -12415,17 +9361,8 @@
           <t>Limited Availability</t>
         </is>
       </c>
-      <c r="E340" t="inlineStr">
-        <is>
-          <t>In-Region</t>
-        </is>
-      </c>
-      <c r="F340">
+      <c r="E340">
         <f>A340&amp;"|"&amp;B340&amp;"|"&amp;C340</f>
-        <v/>
-      </c>
-      <c r="G340">
-        <f>A340&amp;"|"&amp;B340&amp;"|"&amp;C340&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -12447,20 +9384,11 @@
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
-        </is>
-      </c>
-      <c r="E341" t="inlineStr">
-        <is>
-          <t>In-Region</t>
-        </is>
-      </c>
-      <c r="F341">
+          <t>Not Supported</t>
+        </is>
+      </c>
+      <c r="E341">
         <f>A341&amp;"|"&amp;B341&amp;"|"&amp;C341</f>
-        <v/>
-      </c>
-      <c r="G341">
-        <f>A341&amp;"|"&amp;B341&amp;"|"&amp;C341&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -12482,20 +9410,11 @@
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
-        </is>
-      </c>
-      <c r="E342" t="inlineStr">
-        <is>
-          <t>Cross-Region</t>
-        </is>
-      </c>
-      <c r="F342">
+          <t>General Availability</t>
+        </is>
+      </c>
+      <c r="E342">
         <f>A342&amp;"|"&amp;B342&amp;"|"&amp;C342</f>
-        <v/>
-      </c>
-      <c r="G342">
-        <f>A342&amp;"|"&amp;B342&amp;"|"&amp;C342&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -12517,20 +9436,11 @@
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>Not Supported</t>
-        </is>
-      </c>
-      <c r="E343" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F343">
+          <t>Limited Availability</t>
+        </is>
+      </c>
+      <c r="E343">
         <f>A343&amp;"|"&amp;B343&amp;"|"&amp;C343</f>
-        <v/>
-      </c>
-      <c r="G343">
-        <f>A343&amp;"|"&amp;B343&amp;"|"&amp;C343&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -12555,17 +9465,8 @@
           <t>General Availability</t>
         </is>
       </c>
-      <c r="E344" t="inlineStr">
-        <is>
-          <t>In-Region</t>
-        </is>
-      </c>
-      <c r="F344">
+      <c r="E344">
         <f>A344&amp;"|"&amp;B344&amp;"|"&amp;C344</f>
-        <v/>
-      </c>
-      <c r="G344">
-        <f>A344&amp;"|"&amp;B344&amp;"|"&amp;C344&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -12590,17 +9491,8 @@
           <t>General Availability</t>
         </is>
       </c>
-      <c r="E345" t="inlineStr">
-        <is>
-          <t>Cross-Region</t>
-        </is>
-      </c>
-      <c r="F345">
+      <c r="E345">
         <f>A345&amp;"|"&amp;B345&amp;"|"&amp;C345</f>
-        <v/>
-      </c>
-      <c r="G345">
-        <f>A345&amp;"|"&amp;B345&amp;"|"&amp;C345&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -12625,17 +9517,8 @@
           <t>General Availability</t>
         </is>
       </c>
-      <c r="E346" t="inlineStr">
-        <is>
-          <t>In-Region</t>
-        </is>
-      </c>
-      <c r="F346">
+      <c r="E346">
         <f>A346&amp;"|"&amp;B346&amp;"|"&amp;C346</f>
-        <v/>
-      </c>
-      <c r="G346">
-        <f>A346&amp;"|"&amp;B346&amp;"|"&amp;C346&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -12660,17 +9543,8 @@
           <t>General Availability</t>
         </is>
       </c>
-      <c r="E347" t="inlineStr">
-        <is>
-          <t>Cross-Region</t>
-        </is>
-      </c>
-      <c r="F347">
+      <c r="E347">
         <f>A347&amp;"|"&amp;B347&amp;"|"&amp;C347</f>
-        <v/>
-      </c>
-      <c r="G347">
-        <f>A347&amp;"|"&amp;B347&amp;"|"&amp;C347&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -12695,17 +9569,8 @@
           <t>General Availability</t>
         </is>
       </c>
-      <c r="E348" t="inlineStr">
-        <is>
-          <t>Cross-Region</t>
-        </is>
-      </c>
-      <c r="F348">
+      <c r="E348">
         <f>A348&amp;"|"&amp;B348&amp;"|"&amp;C348</f>
-        <v/>
-      </c>
-      <c r="G348">
-        <f>A348&amp;"|"&amp;B348&amp;"|"&amp;C348&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -12727,20 +9592,11 @@
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>Not Supported</t>
-        </is>
-      </c>
-      <c r="E349" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F349">
+          <t>Limited Availability</t>
+        </is>
+      </c>
+      <c r="E349">
         <f>A349&amp;"|"&amp;B349&amp;"|"&amp;C349</f>
-        <v/>
-      </c>
-      <c r="G349">
-        <f>A349&amp;"|"&amp;B349&amp;"|"&amp;C349&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -12762,20 +9618,11 @@
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>General Availability</t>
-        </is>
-      </c>
-      <c r="E350" t="inlineStr">
-        <is>
-          <t>Cross-Region</t>
-        </is>
-      </c>
-      <c r="F350">
+          <t>Not Supported</t>
+        </is>
+      </c>
+      <c r="E350">
         <f>A350&amp;"|"&amp;B350&amp;"|"&amp;C350</f>
-        <v/>
-      </c>
-      <c r="G350">
-        <f>A350&amp;"|"&amp;B350&amp;"|"&amp;C350&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -12797,20 +9644,11 @@
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>Not Supported</t>
-        </is>
-      </c>
-      <c r="E351" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F351">
+          <t>General Availability</t>
+        </is>
+      </c>
+      <c r="E351">
         <f>A351&amp;"|"&amp;B351&amp;"|"&amp;C351</f>
-        <v/>
-      </c>
-      <c r="G351">
-        <f>A351&amp;"|"&amp;B351&amp;"|"&amp;C351&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -12835,17 +9673,8 @@
           <t>Not Supported</t>
         </is>
       </c>
-      <c r="E352" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F352">
+      <c r="E352">
         <f>A352&amp;"|"&amp;B352&amp;"|"&amp;C352</f>
-        <v/>
-      </c>
-      <c r="G352">
-        <f>A352&amp;"|"&amp;B352&amp;"|"&amp;C352&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -12870,17 +9699,8 @@
           <t>General Availability</t>
         </is>
       </c>
-      <c r="E353" t="inlineStr">
-        <is>
-          <t>In-Region</t>
-        </is>
-      </c>
-      <c r="F353">
+      <c r="E353">
         <f>A353&amp;"|"&amp;B353&amp;"|"&amp;C353</f>
-        <v/>
-      </c>
-      <c r="G353">
-        <f>A353&amp;"|"&amp;B353&amp;"|"&amp;C353&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -12902,20 +9722,11 @@
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
-        </is>
-      </c>
-      <c r="E354" t="inlineStr">
-        <is>
-          <t>In-Region</t>
-        </is>
-      </c>
-      <c r="F354">
+          <t>Not Supported</t>
+        </is>
+      </c>
+      <c r="E354">
         <f>A354&amp;"|"&amp;B354&amp;"|"&amp;C354</f>
-        <v/>
-      </c>
-      <c r="G354">
-        <f>A354&amp;"|"&amp;B354&amp;"|"&amp;C354&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -12937,20 +9748,11 @@
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>General Availability</t>
-        </is>
-      </c>
-      <c r="E355" t="inlineStr">
-        <is>
-          <t>Cross-Region</t>
-        </is>
-      </c>
-      <c r="F355">
+          <t>Limited Availability</t>
+        </is>
+      </c>
+      <c r="E355">
         <f>A355&amp;"|"&amp;B355&amp;"|"&amp;C355</f>
-        <v/>
-      </c>
-      <c r="G355">
-        <f>A355&amp;"|"&amp;B355&amp;"|"&amp;C355&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -12972,20 +9774,11 @@
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>Not Supported</t>
-        </is>
-      </c>
-      <c r="E356" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F356">
+          <t>General Availability</t>
+        </is>
+      </c>
+      <c r="E356">
         <f>A356&amp;"|"&amp;B356&amp;"|"&amp;C356</f>
-        <v/>
-      </c>
-      <c r="G356">
-        <f>A356&amp;"|"&amp;B356&amp;"|"&amp;C356&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -13007,20 +9800,11 @@
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>Not Supported</t>
-        </is>
-      </c>
-      <c r="E357" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F357">
+          <t>Limited Availability</t>
+        </is>
+      </c>
+      <c r="E357">
         <f>A357&amp;"|"&amp;B357&amp;"|"&amp;C357</f>
-        <v/>
-      </c>
-      <c r="G357">
-        <f>A357&amp;"|"&amp;B357&amp;"|"&amp;C357&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -13042,20 +9826,11 @@
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>General Availability</t>
-        </is>
-      </c>
-      <c r="E358" t="inlineStr">
-        <is>
-          <t>Cross-Region</t>
-        </is>
-      </c>
-      <c r="F358">
+          <t>Limited Availability</t>
+        </is>
+      </c>
+      <c r="E358">
         <f>A358&amp;"|"&amp;B358&amp;"|"&amp;C358</f>
-        <v/>
-      </c>
-      <c r="G358">
-        <f>A358&amp;"|"&amp;B358&amp;"|"&amp;C358&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -13080,17 +9855,8 @@
           <t>Limited Availability</t>
         </is>
       </c>
-      <c r="E359" t="inlineStr">
-        <is>
-          <t>In-Region</t>
-        </is>
-      </c>
-      <c r="F359">
+      <c r="E359">
         <f>A359&amp;"|"&amp;B359&amp;"|"&amp;C359</f>
-        <v/>
-      </c>
-      <c r="G359">
-        <f>A359&amp;"|"&amp;B359&amp;"|"&amp;C359&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -13112,20 +9878,11 @@
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>General Availability</t>
-        </is>
-      </c>
-      <c r="E360" t="inlineStr">
-        <is>
-          <t>In-Region</t>
-        </is>
-      </c>
-      <c r="F360">
+          <t>Limited Availability</t>
+        </is>
+      </c>
+      <c r="E360">
         <f>A360&amp;"|"&amp;B360&amp;"|"&amp;C360</f>
-        <v/>
-      </c>
-      <c r="G360">
-        <f>A360&amp;"|"&amp;B360&amp;"|"&amp;C360&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -13147,20 +9904,11 @@
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>General Availability</t>
-        </is>
-      </c>
-      <c r="E361" t="inlineStr">
-        <is>
-          <t>In-Region</t>
-        </is>
-      </c>
-      <c r="F361">
+          <t>Not Supported</t>
+        </is>
+      </c>
+      <c r="E361">
         <f>A361&amp;"|"&amp;B361&amp;"|"&amp;C361</f>
-        <v/>
-      </c>
-      <c r="G361">
-        <f>A361&amp;"|"&amp;B361&amp;"|"&amp;C361&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -13182,20 +9930,11 @@
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>General Availability</t>
-        </is>
-      </c>
-      <c r="E362" t="inlineStr">
-        <is>
-          <t>In-Region</t>
-        </is>
-      </c>
-      <c r="F362">
+          <t>Limited Availability</t>
+        </is>
+      </c>
+      <c r="E362">
         <f>A362&amp;"|"&amp;B362&amp;"|"&amp;C362</f>
-        <v/>
-      </c>
-      <c r="G362">
-        <f>A362&amp;"|"&amp;B362&amp;"|"&amp;C362&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -13217,20 +9956,11 @@
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
-        </is>
-      </c>
-      <c r="E363" t="inlineStr">
-        <is>
-          <t>In-Region</t>
-        </is>
-      </c>
-      <c r="F363">
+          <t>Not Supported</t>
+        </is>
+      </c>
+      <c r="E363">
         <f>A363&amp;"|"&amp;B363&amp;"|"&amp;C363</f>
-        <v/>
-      </c>
-      <c r="G363">
-        <f>A363&amp;"|"&amp;B363&amp;"|"&amp;C363&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -13252,20 +9982,11 @@
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>General Availability</t>
-        </is>
-      </c>
-      <c r="E364" t="inlineStr">
-        <is>
-          <t>In-Region</t>
-        </is>
-      </c>
-      <c r="F364">
+          <t>Limited Availability</t>
+        </is>
+      </c>
+      <c r="E364">
         <f>A364&amp;"|"&amp;B364&amp;"|"&amp;C364</f>
-        <v/>
-      </c>
-      <c r="G364">
-        <f>A364&amp;"|"&amp;B364&amp;"|"&amp;C364&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -13287,20 +10008,11 @@
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>General Availability</t>
-        </is>
-      </c>
-      <c r="E365" t="inlineStr">
-        <is>
-          <t>Cross-Region</t>
-        </is>
-      </c>
-      <c r="F365">
+          <t>Not Supported</t>
+        </is>
+      </c>
+      <c r="E365">
         <f>A365&amp;"|"&amp;B365&amp;"|"&amp;C365</f>
-        <v/>
-      </c>
-      <c r="G365">
-        <f>A365&amp;"|"&amp;B365&amp;"|"&amp;C365&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -13325,17 +10037,8 @@
           <t>Limited Availability</t>
         </is>
       </c>
-      <c r="E366" t="inlineStr">
-        <is>
-          <t>In-Region</t>
-        </is>
-      </c>
-      <c r="F366">
+      <c r="E366">
         <f>A366&amp;"|"&amp;B366&amp;"|"&amp;C366</f>
-        <v/>
-      </c>
-      <c r="G366">
-        <f>A366&amp;"|"&amp;B366&amp;"|"&amp;C366&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -13357,20 +10060,11 @@
       </c>
       <c r="D367" t="inlineStr">
         <is>
-          <t>General Availability</t>
-        </is>
-      </c>
-      <c r="E367" t="inlineStr">
-        <is>
-          <t>In-Region</t>
-        </is>
-      </c>
-      <c r="F367">
+          <t>Not Supported</t>
+        </is>
+      </c>
+      <c r="E367">
         <f>A367&amp;"|"&amp;B367&amp;"|"&amp;C367</f>
-        <v/>
-      </c>
-      <c r="G367">
-        <f>A367&amp;"|"&amp;B367&amp;"|"&amp;C367&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -13392,20 +10086,11 @@
       </c>
       <c r="D368" t="inlineStr">
         <is>
-          <t>General Availability</t>
-        </is>
-      </c>
-      <c r="E368" t="inlineStr">
-        <is>
-          <t>In-Region</t>
-        </is>
-      </c>
-      <c r="F368">
+          <t>Limited Availability</t>
+        </is>
+      </c>
+      <c r="E368">
         <f>A368&amp;"|"&amp;B368&amp;"|"&amp;C368</f>
-        <v/>
-      </c>
-      <c r="G368">
-        <f>A368&amp;"|"&amp;B368&amp;"|"&amp;C368&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -13430,17 +10115,8 @@
           <t>Limited Availability</t>
         </is>
       </c>
-      <c r="E369" t="inlineStr">
-        <is>
-          <t>In-Region</t>
-        </is>
-      </c>
-      <c r="F369">
+      <c r="E369">
         <f>A369&amp;"|"&amp;B369&amp;"|"&amp;C369</f>
-        <v/>
-      </c>
-      <c r="G369">
-        <f>A369&amp;"|"&amp;B369&amp;"|"&amp;C369&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -13465,17 +10141,8 @@
           <t>Limited Availability</t>
         </is>
       </c>
-      <c r="E370" t="inlineStr">
-        <is>
-          <t>Cross-Region</t>
-        </is>
-      </c>
-      <c r="F370">
+      <c r="E370">
         <f>A370&amp;"|"&amp;B370&amp;"|"&amp;C370</f>
-        <v/>
-      </c>
-      <c r="G370">
-        <f>A370&amp;"|"&amp;B370&amp;"|"&amp;C370&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -13497,20 +10164,11 @@
       </c>
       <c r="D371" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
-        </is>
-      </c>
-      <c r="E371" t="inlineStr">
-        <is>
-          <t>In-Region</t>
-        </is>
-      </c>
-      <c r="F371">
+          <t>Not Supported</t>
+        </is>
+      </c>
+      <c r="E371">
         <f>A371&amp;"|"&amp;B371&amp;"|"&amp;C371</f>
-        <v/>
-      </c>
-      <c r="G371">
-        <f>A371&amp;"|"&amp;B371&amp;"|"&amp;C371&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -13535,17 +10193,8 @@
           <t>General Availability</t>
         </is>
       </c>
-      <c r="E372" t="inlineStr">
-        <is>
-          <t>Cross-Region</t>
-        </is>
-      </c>
-      <c r="F372">
+      <c r="E372">
         <f>A372&amp;"|"&amp;B372&amp;"|"&amp;C372</f>
-        <v/>
-      </c>
-      <c r="G372">
-        <f>A372&amp;"|"&amp;B372&amp;"|"&amp;C372&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -13567,20 +10216,11 @@
       </c>
       <c r="D373" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
-        </is>
-      </c>
-      <c r="E373" t="inlineStr">
-        <is>
-          <t>Cross-Region</t>
-        </is>
-      </c>
-      <c r="F373">
+          <t>General Availability</t>
+        </is>
+      </c>
+      <c r="E373">
         <f>A373&amp;"|"&amp;B373&amp;"|"&amp;C373</f>
-        <v/>
-      </c>
-      <c r="G373">
-        <f>A373&amp;"|"&amp;B373&amp;"|"&amp;C373&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -13605,17 +10245,8 @@
           <t>Limited Availability</t>
         </is>
       </c>
-      <c r="E374" t="inlineStr">
-        <is>
-          <t>In-Region</t>
-        </is>
-      </c>
-      <c r="F374">
+      <c r="E374">
         <f>A374&amp;"|"&amp;B374&amp;"|"&amp;C374</f>
-        <v/>
-      </c>
-      <c r="G374">
-        <f>A374&amp;"|"&amp;B374&amp;"|"&amp;C374&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -13640,17 +10271,8 @@
           <t>Limited Availability</t>
         </is>
       </c>
-      <c r="E375" t="inlineStr">
-        <is>
-          <t>Cross-Region</t>
-        </is>
-      </c>
-      <c r="F375">
+      <c r="E375">
         <f>A375&amp;"|"&amp;B375&amp;"|"&amp;C375</f>
-        <v/>
-      </c>
-      <c r="G375">
-        <f>A375&amp;"|"&amp;B375&amp;"|"&amp;C375&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -13675,17 +10297,8 @@
           <t>General Availability</t>
         </is>
       </c>
-      <c r="E376" t="inlineStr">
-        <is>
-          <t>In-Region</t>
-        </is>
-      </c>
-      <c r="F376">
+      <c r="E376">
         <f>A376&amp;"|"&amp;B376&amp;"|"&amp;C376</f>
-        <v/>
-      </c>
-      <c r="G376">
-        <f>A376&amp;"|"&amp;B376&amp;"|"&amp;C376&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -13707,20 +10320,11 @@
       </c>
       <c r="D377" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
-        </is>
-      </c>
-      <c r="E377" t="inlineStr">
-        <is>
-          <t>Cross-Region</t>
-        </is>
-      </c>
-      <c r="F377">
+          <t>General Availability</t>
+        </is>
+      </c>
+      <c r="E377">
         <f>A377&amp;"|"&amp;B377&amp;"|"&amp;C377</f>
-        <v/>
-      </c>
-      <c r="G377">
-        <f>A377&amp;"|"&amp;B377&amp;"|"&amp;C377&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -13745,17 +10349,8 @@
           <t>General Availability</t>
         </is>
       </c>
-      <c r="E378" t="inlineStr">
-        <is>
-          <t>Cross-Region</t>
-        </is>
-      </c>
-      <c r="F378">
+      <c r="E378">
         <f>A378&amp;"|"&amp;B378&amp;"|"&amp;C378</f>
-        <v/>
-      </c>
-      <c r="G378">
-        <f>A378&amp;"|"&amp;B378&amp;"|"&amp;C378&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -13777,20 +10372,11 @@
       </c>
       <c r="D379" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
-        </is>
-      </c>
-      <c r="E379" t="inlineStr">
-        <is>
-          <t>In-Region</t>
-        </is>
-      </c>
-      <c r="F379">
+          <t>General Availability</t>
+        </is>
+      </c>
+      <c r="E379">
         <f>A379&amp;"|"&amp;B379&amp;"|"&amp;C379</f>
-        <v/>
-      </c>
-      <c r="G379">
-        <f>A379&amp;"|"&amp;B379&amp;"|"&amp;C379&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -13812,20 +10398,11 @@
       </c>
       <c r="D380" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
-        </is>
-      </c>
-      <c r="E380" t="inlineStr">
-        <is>
-          <t>Cross-Region</t>
-        </is>
-      </c>
-      <c r="F380">
+          <t>General Availability</t>
+        </is>
+      </c>
+      <c r="E380">
         <f>A380&amp;"|"&amp;B380&amp;"|"&amp;C380</f>
-        <v/>
-      </c>
-      <c r="G380">
-        <f>A380&amp;"|"&amp;B380&amp;"|"&amp;C380&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -13847,20 +10424,11 @@
       </c>
       <c r="D381" t="inlineStr">
         <is>
-          <t>Not Supported</t>
-        </is>
-      </c>
-      <c r="E381" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F381">
+          <t>General Availability</t>
+        </is>
+      </c>
+      <c r="E381">
         <f>A381&amp;"|"&amp;B381&amp;"|"&amp;C381</f>
-        <v/>
-      </c>
-      <c r="G381">
-        <f>A381&amp;"|"&amp;B381&amp;"|"&amp;C381&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -13885,17 +10453,8 @@
           <t>General Availability</t>
         </is>
       </c>
-      <c r="E382" t="inlineStr">
-        <is>
-          <t>In-Region</t>
-        </is>
-      </c>
-      <c r="F382">
+      <c r="E382">
         <f>A382&amp;"|"&amp;B382&amp;"|"&amp;C382</f>
-        <v/>
-      </c>
-      <c r="G382">
-        <f>A382&amp;"|"&amp;B382&amp;"|"&amp;C382&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -13920,17 +10479,8 @@
           <t>General Availability</t>
         </is>
       </c>
-      <c r="E383" t="inlineStr">
-        <is>
-          <t>Cross-Region</t>
-        </is>
-      </c>
-      <c r="F383">
+      <c r="E383">
         <f>A383&amp;"|"&amp;B383&amp;"|"&amp;C383</f>
-        <v/>
-      </c>
-      <c r="G383">
-        <f>A383&amp;"|"&amp;B383&amp;"|"&amp;C383&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -13952,20 +10502,11 @@
       </c>
       <c r="D384" t="inlineStr">
         <is>
-          <t>Not Supported</t>
-        </is>
-      </c>
-      <c r="E384" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F384">
+          <t>General Availability</t>
+        </is>
+      </c>
+      <c r="E384">
         <f>A384&amp;"|"&amp;B384&amp;"|"&amp;C384</f>
-        <v/>
-      </c>
-      <c r="G384">
-        <f>A384&amp;"|"&amp;B384&amp;"|"&amp;C384&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -13987,20 +10528,11 @@
       </c>
       <c r="D385" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
-        </is>
-      </c>
-      <c r="E385" t="inlineStr">
-        <is>
-          <t>Cross-Region</t>
-        </is>
-      </c>
-      <c r="F385">
+          <t>General Availability</t>
+        </is>
+      </c>
+      <c r="E385">
         <f>A385&amp;"|"&amp;B385&amp;"|"&amp;C385</f>
-        <v/>
-      </c>
-      <c r="G385">
-        <f>A385&amp;"|"&amp;B385&amp;"|"&amp;C385&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -14022,20 +10554,11 @@
       </c>
       <c r="D386" t="inlineStr">
         <is>
-          <t>Not Supported</t>
-        </is>
-      </c>
-      <c r="E386" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F386">
+          <t>General Availability</t>
+        </is>
+      </c>
+      <c r="E386">
         <f>A386&amp;"|"&amp;B386&amp;"|"&amp;C386</f>
-        <v/>
-      </c>
-      <c r="G386">
-        <f>A386&amp;"|"&amp;B386&amp;"|"&amp;C386&amp;"|hosting"</f>
         <v/>
       </c>
     </row>
@@ -14160,47 +10683,47 @@
         </is>
       </c>
       <c r="B8" s="6">
-        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;B$7&amp;"|"&amp;$A8, Service_Input!$F:$F, 0))</f>
+        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;B$7&amp;"|"&amp;$A8, Service_Input!$E:$E, 0))</f>
         <v/>
       </c>
       <c r="C8" s="6">
-        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;C$7&amp;"|"&amp;$A8, Service_Input!$F:$F, 0))</f>
+        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;C$7&amp;"|"&amp;$A8, Service_Input!$E:$E, 0))</f>
         <v/>
       </c>
       <c r="D8" s="6">
-        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;D$7&amp;"|"&amp;$A8, Service_Input!$F:$F, 0))</f>
+        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;D$7&amp;"|"&amp;$A8, Service_Input!$E:$E, 0))</f>
         <v/>
       </c>
       <c r="E8" s="6">
-        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;E$7&amp;"|"&amp;$A8, Service_Input!$F:$F, 0))</f>
+        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;E$7&amp;"|"&amp;$A8, Service_Input!$E:$E, 0))</f>
         <v/>
       </c>
       <c r="F8" s="6">
-        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;F$7&amp;"|"&amp;$A8, Service_Input!$F:$F, 0))</f>
+        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;F$7&amp;"|"&amp;$A8, Service_Input!$E:$E, 0))</f>
         <v/>
       </c>
       <c r="G8" s="6">
-        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;G$7&amp;"|"&amp;$A8, Service_Input!$F:$F, 0))</f>
+        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;G$7&amp;"|"&amp;$A8, Service_Input!$E:$E, 0))</f>
         <v/>
       </c>
       <c r="H8" s="6">
-        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;H$7&amp;"|"&amp;$A8, Service_Input!$F:$F, 0))</f>
+        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;H$7&amp;"|"&amp;$A8, Service_Input!$E:$E, 0))</f>
         <v/>
       </c>
       <c r="I8" s="6">
-        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;I$7&amp;"|"&amp;$A8, Service_Input!$F:$F, 0))</f>
+        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;I$7&amp;"|"&amp;$A8, Service_Input!$E:$E, 0))</f>
         <v/>
       </c>
       <c r="J8" s="6">
-        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;J$7&amp;"|"&amp;$A8, Service_Input!$F:$F, 0))</f>
+        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;J$7&amp;"|"&amp;$A8, Service_Input!$E:$E, 0))</f>
         <v/>
       </c>
       <c r="K8" s="6">
-        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;K$7&amp;"|"&amp;$A8, Service_Input!$F:$F, 0))</f>
+        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;K$7&amp;"|"&amp;$A8, Service_Input!$E:$E, 0))</f>
         <v/>
       </c>
       <c r="L8" s="6">
-        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;L$7&amp;"|"&amp;$A8, Service_Input!$F:$F, 0))</f>
+        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;L$7&amp;"|"&amp;$A8, Service_Input!$E:$E, 0))</f>
         <v/>
       </c>
     </row>
@@ -14211,47 +10734,47 @@
         </is>
       </c>
       <c r="B9" s="6">
-        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;B$7&amp;"|"&amp;$A9, Service_Input!$F:$F, 0))</f>
+        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;B$7&amp;"|"&amp;$A9, Service_Input!$E:$E, 0))</f>
         <v/>
       </c>
       <c r="C9" s="6">
-        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;C$7&amp;"|"&amp;$A9, Service_Input!$F:$F, 0))</f>
+        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;C$7&amp;"|"&amp;$A9, Service_Input!$E:$E, 0))</f>
         <v/>
       </c>
       <c r="D9" s="6">
-        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;D$7&amp;"|"&amp;$A9, Service_Input!$F:$F, 0))</f>
+        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;D$7&amp;"|"&amp;$A9, Service_Input!$E:$E, 0))</f>
         <v/>
       </c>
       <c r="E9" s="6">
-        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;E$7&amp;"|"&amp;$A9, Service_Input!$F:$F, 0))</f>
+        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;E$7&amp;"|"&amp;$A9, Service_Input!$E:$E, 0))</f>
         <v/>
       </c>
       <c r="F9" s="6">
-        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;F$7&amp;"|"&amp;$A9, Service_Input!$F:$F, 0))</f>
+        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;F$7&amp;"|"&amp;$A9, Service_Input!$E:$E, 0))</f>
         <v/>
       </c>
       <c r="G9" s="6">
-        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;G$7&amp;"|"&amp;$A9, Service_Input!$F:$F, 0))</f>
+        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;G$7&amp;"|"&amp;$A9, Service_Input!$E:$E, 0))</f>
         <v/>
       </c>
       <c r="H9" s="6">
-        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;H$7&amp;"|"&amp;$A9, Service_Input!$F:$F, 0))</f>
+        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;H$7&amp;"|"&amp;$A9, Service_Input!$E:$E, 0))</f>
         <v/>
       </c>
       <c r="I9" s="6">
-        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;I$7&amp;"|"&amp;$A9, Service_Input!$F:$F, 0))</f>
+        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;I$7&amp;"|"&amp;$A9, Service_Input!$E:$E, 0))</f>
         <v/>
       </c>
       <c r="J9" s="6">
-        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;J$7&amp;"|"&amp;$A9, Service_Input!$F:$F, 0))</f>
+        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;J$7&amp;"|"&amp;$A9, Service_Input!$E:$E, 0))</f>
         <v/>
       </c>
       <c r="K9" s="6">
-        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;K$7&amp;"|"&amp;$A9, Service_Input!$F:$F, 0))</f>
+        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;K$7&amp;"|"&amp;$A9, Service_Input!$E:$E, 0))</f>
         <v/>
       </c>
       <c r="L9" s="6">
-        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;L$7&amp;"|"&amp;$A9, Service_Input!$F:$F, 0))</f>
+        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;L$7&amp;"|"&amp;$A9, Service_Input!$E:$E, 0))</f>
         <v/>
       </c>
     </row>
@@ -14262,47 +10785,47 @@
         </is>
       </c>
       <c r="B10" s="6">
-        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;B$7&amp;"|"&amp;$A10, Service_Input!$F:$F, 0))</f>
+        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;B$7&amp;"|"&amp;$A10, Service_Input!$E:$E, 0))</f>
         <v/>
       </c>
       <c r="C10" s="6">
-        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;C$7&amp;"|"&amp;$A10, Service_Input!$F:$F, 0))</f>
+        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;C$7&amp;"|"&amp;$A10, Service_Input!$E:$E, 0))</f>
         <v/>
       </c>
       <c r="D10" s="6">
-        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;D$7&amp;"|"&amp;$A10, Service_Input!$F:$F, 0))</f>
+        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;D$7&amp;"|"&amp;$A10, Service_Input!$E:$E, 0))</f>
         <v/>
       </c>
       <c r="E10" s="6">
-        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;E$7&amp;"|"&amp;$A10, Service_Input!$F:$F, 0))</f>
+        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;E$7&amp;"|"&amp;$A10, Service_Input!$E:$E, 0))</f>
         <v/>
       </c>
       <c r="F10" s="6">
-        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;F$7&amp;"|"&amp;$A10, Service_Input!$F:$F, 0))</f>
+        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;F$7&amp;"|"&amp;$A10, Service_Input!$E:$E, 0))</f>
         <v/>
       </c>
       <c r="G10" s="6">
-        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;G$7&amp;"|"&amp;$A10, Service_Input!$F:$F, 0))</f>
+        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;G$7&amp;"|"&amp;$A10, Service_Input!$E:$E, 0))</f>
         <v/>
       </c>
       <c r="H10" s="6">
-        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;H$7&amp;"|"&amp;$A10, Service_Input!$F:$F, 0))</f>
+        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;H$7&amp;"|"&amp;$A10, Service_Input!$E:$E, 0))</f>
         <v/>
       </c>
       <c r="I10" s="6">
-        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;I$7&amp;"|"&amp;$A10, Service_Input!$F:$F, 0))</f>
+        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;I$7&amp;"|"&amp;$A10, Service_Input!$E:$E, 0))</f>
         <v/>
       </c>
       <c r="J10" s="6">
-        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;J$7&amp;"|"&amp;$A10, Service_Input!$F:$F, 0))</f>
+        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;J$7&amp;"|"&amp;$A10, Service_Input!$E:$E, 0))</f>
         <v/>
       </c>
       <c r="K10" s="6">
-        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;K$7&amp;"|"&amp;$A10, Service_Input!$F:$F, 0))</f>
+        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;K$7&amp;"|"&amp;$A10, Service_Input!$E:$E, 0))</f>
         <v/>
       </c>
       <c r="L10" s="6">
-        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;L$7&amp;"|"&amp;$A10, Service_Input!$F:$F, 0))</f>
+        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;L$7&amp;"|"&amp;$A10, Service_Input!$E:$E, 0))</f>
         <v/>
       </c>
     </row>
@@ -14313,47 +10836,47 @@
         </is>
       </c>
       <c r="B11" s="6">
-        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;B$7&amp;"|"&amp;$A11, Service_Input!$F:$F, 0))</f>
+        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;B$7&amp;"|"&amp;$A11, Service_Input!$E:$E, 0))</f>
         <v/>
       </c>
       <c r="C11" s="6">
-        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;C$7&amp;"|"&amp;$A11, Service_Input!$F:$F, 0))</f>
+        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;C$7&amp;"|"&amp;$A11, Service_Input!$E:$E, 0))</f>
         <v/>
       </c>
       <c r="D11" s="6">
-        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;D$7&amp;"|"&amp;$A11, Service_Input!$F:$F, 0))</f>
+        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;D$7&amp;"|"&amp;$A11, Service_Input!$E:$E, 0))</f>
         <v/>
       </c>
       <c r="E11" s="6">
-        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;E$7&amp;"|"&amp;$A11, Service_Input!$F:$F, 0))</f>
+        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;E$7&amp;"|"&amp;$A11, Service_Input!$E:$E, 0))</f>
         <v/>
       </c>
       <c r="F11" s="6">
-        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;F$7&amp;"|"&amp;$A11, Service_Input!$F:$F, 0))</f>
+        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;F$7&amp;"|"&amp;$A11, Service_Input!$E:$E, 0))</f>
         <v/>
       </c>
       <c r="G11" s="6">
-        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;G$7&amp;"|"&amp;$A11, Service_Input!$F:$F, 0))</f>
+        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;G$7&amp;"|"&amp;$A11, Service_Input!$E:$E, 0))</f>
         <v/>
       </c>
       <c r="H11" s="6">
-        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;H$7&amp;"|"&amp;$A11, Service_Input!$F:$F, 0))</f>
+        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;H$7&amp;"|"&amp;$A11, Service_Input!$E:$E, 0))</f>
         <v/>
       </c>
       <c r="I11" s="6">
-        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;I$7&amp;"|"&amp;$A11, Service_Input!$F:$F, 0))</f>
+        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;I$7&amp;"|"&amp;$A11, Service_Input!$E:$E, 0))</f>
         <v/>
       </c>
       <c r="J11" s="6">
-        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;J$7&amp;"|"&amp;$A11, Service_Input!$F:$F, 0))</f>
+        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;J$7&amp;"|"&amp;$A11, Service_Input!$E:$E, 0))</f>
         <v/>
       </c>
       <c r="K11" s="6">
-        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;K$7&amp;"|"&amp;$A11, Service_Input!$F:$F, 0))</f>
+        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;K$7&amp;"|"&amp;$A11, Service_Input!$E:$E, 0))</f>
         <v/>
       </c>
       <c r="L11" s="6">
-        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;L$7&amp;"|"&amp;$A11, Service_Input!$F:$F, 0))</f>
+        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;L$7&amp;"|"&amp;$A11, Service_Input!$E:$E, 0))</f>
         <v/>
       </c>
     </row>
@@ -14364,47 +10887,47 @@
         </is>
       </c>
       <c r="B12" s="6">
-        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;B$7&amp;"|"&amp;$A12, Service_Input!$F:$F, 0))</f>
+        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;B$7&amp;"|"&amp;$A12, Service_Input!$E:$E, 0))</f>
         <v/>
       </c>
       <c r="C12" s="6">
-        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;C$7&amp;"|"&amp;$A12, Service_Input!$F:$F, 0))</f>
+        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;C$7&amp;"|"&amp;$A12, Service_Input!$E:$E, 0))</f>
         <v/>
       </c>
       <c r="D12" s="6">
-        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;D$7&amp;"|"&amp;$A12, Service_Input!$F:$F, 0))</f>
+        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;D$7&amp;"|"&amp;$A12, Service_Input!$E:$E, 0))</f>
         <v/>
       </c>
       <c r="E12" s="6">
-        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;E$7&amp;"|"&amp;$A12, Service_Input!$F:$F, 0))</f>
+        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;E$7&amp;"|"&amp;$A12, Service_Input!$E:$E, 0))</f>
         <v/>
       </c>
       <c r="F12" s="6">
-        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;F$7&amp;"|"&amp;$A12, Service_Input!$F:$F, 0))</f>
+        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;F$7&amp;"|"&amp;$A12, Service_Input!$E:$E, 0))</f>
         <v/>
       </c>
       <c r="G12" s="6">
-        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;G$7&amp;"|"&amp;$A12, Service_Input!$F:$F, 0))</f>
+        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;G$7&amp;"|"&amp;$A12, Service_Input!$E:$E, 0))</f>
         <v/>
       </c>
       <c r="H12" s="6">
-        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;H$7&amp;"|"&amp;$A12, Service_Input!$F:$F, 0))</f>
+        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;H$7&amp;"|"&amp;$A12, Service_Input!$E:$E, 0))</f>
         <v/>
       </c>
       <c r="I12" s="6">
-        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;I$7&amp;"|"&amp;$A12, Service_Input!$F:$F, 0))</f>
+        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;I$7&amp;"|"&amp;$A12, Service_Input!$E:$E, 0))</f>
         <v/>
       </c>
       <c r="J12" s="6">
-        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;J$7&amp;"|"&amp;$A12, Service_Input!$F:$F, 0))</f>
+        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;J$7&amp;"|"&amp;$A12, Service_Input!$E:$E, 0))</f>
         <v/>
       </c>
       <c r="K12" s="6">
-        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;K$7&amp;"|"&amp;$A12, Service_Input!$F:$F, 0))</f>
+        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;K$7&amp;"|"&amp;$A12, Service_Input!$E:$E, 0))</f>
         <v/>
       </c>
       <c r="L12" s="6">
-        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;L$7&amp;"|"&amp;$A12, Service_Input!$F:$F, 0))</f>
+        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;L$7&amp;"|"&amp;$A12, Service_Input!$E:$E, 0))</f>
         <v/>
       </c>
     </row>
@@ -14415,47 +10938,47 @@
         </is>
       </c>
       <c r="B13" s="6">
-        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;B$7&amp;"|"&amp;$A13, Service_Input!$F:$F, 0))</f>
+        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;B$7&amp;"|"&amp;$A13, Service_Input!$E:$E, 0))</f>
         <v/>
       </c>
       <c r="C13" s="6">
-        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;C$7&amp;"|"&amp;$A13, Service_Input!$F:$F, 0))</f>
+        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;C$7&amp;"|"&amp;$A13, Service_Input!$E:$E, 0))</f>
         <v/>
       </c>
       <c r="D13" s="6">
-        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;D$7&amp;"|"&amp;$A13, Service_Input!$F:$F, 0))</f>
+        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;D$7&amp;"|"&amp;$A13, Service_Input!$E:$E, 0))</f>
         <v/>
       </c>
       <c r="E13" s="6">
-        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;E$7&amp;"|"&amp;$A13, Service_Input!$F:$F, 0))</f>
+        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;E$7&amp;"|"&amp;$A13, Service_Input!$E:$E, 0))</f>
         <v/>
       </c>
       <c r="F13" s="6">
-        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;F$7&amp;"|"&amp;$A13, Service_Input!$F:$F, 0))</f>
+        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;F$7&amp;"|"&amp;$A13, Service_Input!$E:$E, 0))</f>
         <v/>
       </c>
       <c r="G13" s="6">
-        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;G$7&amp;"|"&amp;$A13, Service_Input!$F:$F, 0))</f>
+        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;G$7&amp;"|"&amp;$A13, Service_Input!$E:$E, 0))</f>
         <v/>
       </c>
       <c r="H13" s="6">
-        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;H$7&amp;"|"&amp;$A13, Service_Input!$F:$F, 0))</f>
+        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;H$7&amp;"|"&amp;$A13, Service_Input!$E:$E, 0))</f>
         <v/>
       </c>
       <c r="I13" s="6">
-        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;I$7&amp;"|"&amp;$A13, Service_Input!$F:$F, 0))</f>
+        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;I$7&amp;"|"&amp;$A13, Service_Input!$E:$E, 0))</f>
         <v/>
       </c>
       <c r="J13" s="6">
-        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;J$7&amp;"|"&amp;$A13, Service_Input!$F:$F, 0))</f>
+        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;J$7&amp;"|"&amp;$A13, Service_Input!$E:$E, 0))</f>
         <v/>
       </c>
       <c r="K13" s="6">
-        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;K$7&amp;"|"&amp;$A13, Service_Input!$F:$F, 0))</f>
+        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;K$7&amp;"|"&amp;$A13, Service_Input!$E:$E, 0))</f>
         <v/>
       </c>
       <c r="L13" s="6">
-        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;L$7&amp;"|"&amp;$A13, Service_Input!$F:$F, 0))</f>
+        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;L$7&amp;"|"&amp;$A13, Service_Input!$E:$E, 0))</f>
         <v/>
       </c>
     </row>
@@ -14466,47 +10989,47 @@
         </is>
       </c>
       <c r="B14" s="6">
-        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;B$7&amp;"|"&amp;$A14, Service_Input!$F:$F, 0))</f>
+        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;B$7&amp;"|"&amp;$A14, Service_Input!$E:$E, 0))</f>
         <v/>
       </c>
       <c r="C14" s="6">
-        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;C$7&amp;"|"&amp;$A14, Service_Input!$F:$F, 0))</f>
+        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;C$7&amp;"|"&amp;$A14, Service_Input!$E:$E, 0))</f>
         <v/>
       </c>
       <c r="D14" s="6">
-        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;D$7&amp;"|"&amp;$A14, Service_Input!$F:$F, 0))</f>
+        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;D$7&amp;"|"&amp;$A14, Service_Input!$E:$E, 0))</f>
         <v/>
       </c>
       <c r="E14" s="6">
-        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;E$7&amp;"|"&amp;$A14, Service_Input!$F:$F, 0))</f>
+        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;E$7&amp;"|"&amp;$A14, Service_Input!$E:$E, 0))</f>
         <v/>
       </c>
       <c r="F14" s="6">
-        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;F$7&amp;"|"&amp;$A14, Service_Input!$F:$F, 0))</f>
+        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;F$7&amp;"|"&amp;$A14, Service_Input!$E:$E, 0))</f>
         <v/>
       </c>
       <c r="G14" s="6">
-        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;G$7&amp;"|"&amp;$A14, Service_Input!$F:$F, 0))</f>
+        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;G$7&amp;"|"&amp;$A14, Service_Input!$E:$E, 0))</f>
         <v/>
       </c>
       <c r="H14" s="6">
-        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;H$7&amp;"|"&amp;$A14, Service_Input!$F:$F, 0))</f>
+        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;H$7&amp;"|"&amp;$A14, Service_Input!$E:$E, 0))</f>
         <v/>
       </c>
       <c r="I14" s="6">
-        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;I$7&amp;"|"&amp;$A14, Service_Input!$F:$F, 0))</f>
+        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;I$7&amp;"|"&amp;$A14, Service_Input!$E:$E, 0))</f>
         <v/>
       </c>
       <c r="J14" s="6">
-        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;J$7&amp;"|"&amp;$A14, Service_Input!$F:$F, 0))</f>
+        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;J$7&amp;"|"&amp;$A14, Service_Input!$E:$E, 0))</f>
         <v/>
       </c>
       <c r="K14" s="6">
-        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;K$7&amp;"|"&amp;$A14, Service_Input!$F:$F, 0))</f>
+        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;K$7&amp;"|"&amp;$A14, Service_Input!$E:$E, 0))</f>
         <v/>
       </c>
       <c r="L14" s="6">
-        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;L$7&amp;"|"&amp;$A14, Service_Input!$F:$F, 0))</f>
+        <f>INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|"&amp;L$7&amp;"|"&amp;$A14, Service_Input!$E:$E, 0))</f>
         <v/>
       </c>
     </row>
@@ -14572,7 +11095,7 @@
       </c>
       <c r="E4" s="7" t="inlineStr">
         <is>
-          <t>*Calculated based on service dependencies and hosting type</t>
+          <t>*Cross-Region = service not available locally but available in another region</t>
         </is>
       </c>
     </row>
@@ -14609,20 +11132,20 @@
           <t>English</t>
         </is>
       </c>
-      <c r="B8" s="9">
-        <f>IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A8, Service_Input!$F:$F, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A8, Service_Input!$F:$F, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A8, Service_Input!$F:$F, 0))="Not Supported"), "Not Supported", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A8, Service_Input!$F:$F, 0))="Limited Availability", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A8, Service_Input!$F:$F, 0))="Limited Availability", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A8, Service_Input!$F:$F, 0))="Limited Availability"), "Limited Availability", IF(OR(INDEX(Service_Input!$E:$E, MATCH($C$4&amp;"|ASR|"&amp;$A8, Service_Input!$F:$F, 0))="Cross-Region", INDEX(Service_Input!$E:$E, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A8, Service_Input!$F:$F, 0))="Cross-Region", INDEX(Service_Input!$E:$E, MATCH($C$4&amp;"|KaaS|"&amp;$A8, Service_Input!$F:$F, 0))="Cross-Region"), "Full Support (Cross-Region)", "Full Support (In-Region)")))</f>
-        <v/>
-      </c>
-      <c r="C8" s="9">
-        <f>IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A8, Service_Input!$F:$F, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A8, Service_Input!$F:$F, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A8, Service_Input!$F:$F, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A8, Service_Input!$F:$F, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A8, Service_Input!$F:$F, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A8, Service_Input!$F:$F, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A8, Service_Input!$F:$F, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A8, Service_Input!$F:$F, 0))="Not Supported"), "Not Supported", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A8, Service_Input!$F:$F, 0))="Limited Availability", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A8, Service_Input!$F:$F, 0))="Limited Availability", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A8, Service_Input!$F:$F, 0))="Limited Availability", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A8, Service_Input!$F:$F, 0))="Limited Availability", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A8, Service_Input!$F:$F, 0))="Limited Availability", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A8, Service_Input!$F:$F, 0))="Limited Availability", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A8, Service_Input!$F:$F, 0))="Limited Availability", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A8, Service_Input!$F:$F, 0))="Limited Availability"), "Limited Availability", IF(OR(INDEX(Service_Input!$E:$E, MATCH($C$4&amp;"|ASR|"&amp;$A8, Service_Input!$F:$F, 0))="Cross-Region", INDEX(Service_Input!$E:$E, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A8, Service_Input!$F:$F, 0))="Cross-Region", INDEX(Service_Input!$E:$E, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A8, Service_Input!$F:$F, 0))="Cross-Region", INDEX(Service_Input!$E:$E, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A8, Service_Input!$F:$F, 0))="Cross-Region", INDEX(Service_Input!$E:$E, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A8, Service_Input!$F:$F, 0))="Cross-Region", INDEX(Service_Input!$E:$E, MATCH($C$4&amp;"|Redaction|"&amp;$A8, Service_Input!$F:$F, 0))="Cross-Region", INDEX(Service_Input!$E:$E, MATCH($C$4&amp;"|KaaS|"&amp;$A8, Service_Input!$F:$F, 0))="Cross-Region", INDEX(Service_Input!$E:$E, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A8, Service_Input!$F:$F, 0))="Cross-Region"), "Full Support (Cross-Region)", "Full Support (In-Region)")))</f>
-        <v/>
-      </c>
-      <c r="D8" s="9">
-        <f>IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A8, Service_Input!$F:$F, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A8, Service_Input!$F:$F, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A8, Service_Input!$F:$F, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A8, Service_Input!$F:$F, 0))="Not Supported"), "Not Supported", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A8, Service_Input!$F:$F, 0))="Limited Availability", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A8, Service_Input!$F:$F, 0))="Limited Availability", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A8, Service_Input!$F:$F, 0))="Limited Availability", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A8, Service_Input!$F:$F, 0))="Limited Availability"), "Limited Availability", IF(OR(INDEX(Service_Input!$E:$E, MATCH($C$4&amp;"|ASR|"&amp;$A8, Service_Input!$F:$F, 0))="Cross-Region", INDEX(Service_Input!$E:$E, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A8, Service_Input!$F:$F, 0))="Cross-Region", INDEX(Service_Input!$E:$E, MATCH($C$4&amp;"|Redaction|"&amp;$A8, Service_Input!$F:$F, 0))="Cross-Region", INDEX(Service_Input!$E:$E, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A8, Service_Input!$F:$F, 0))="Cross-Region"), "Full Support (Cross-Region)", "Full Support (In-Region)")))</f>
-        <v/>
-      </c>
-      <c r="E8" s="9">
-        <f>IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A8, Service_Input!$F:$F, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A8, Service_Input!$F:$F, 0))="Not Supported"), "Not Supported", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A8, Service_Input!$F:$F, 0))="Limited Availability", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A8, Service_Input!$F:$F, 0))="Limited Availability"), "Limited Availability", IF(OR(INDEX(Service_Input!$E:$E, MATCH($C$4&amp;"|ASR|"&amp;$A8, Service_Input!$F:$F, 0))="Cross-Region", INDEX(Service_Input!$E:$E, MATCH($C$4&amp;"|Redaction|"&amp;$A8, Service_Input!$F:$F, 0))="Cross-Region"), "Full Support (Cross-Region)", "Full Support (In-Region)")))</f>
+      <c r="B8" s="6">
+        <f>IF(OR(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"SSA-LLM",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")=5), "Not Supported", IF(OR(AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A8, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A8, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"SSA-LLM",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A8, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")&lt;5)), "Full Support (Cross-Region)", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Availability"), "Limited Availability", "Full Support (In-Region)")))</f>
+        <v/>
+      </c>
+      <c r="C8" s="6">
+        <f>IF(OR(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Intent (UniFit)",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Entity (NER/Spacy)",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Gen AI Summary",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Pro-active Service",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")=5), "Not Supported", IF(OR(AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A8, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A8, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Intent (UniFit)",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A8, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Entity (NER/Spacy)",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A8, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Gen AI Summary",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A8, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A8, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A8, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A8, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Pro-active Service",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")&lt;5)), "Full Support (Cross-Region)", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Availability"), "Limited Availability", "Full Support (In-Region)")))</f>
+        <v/>
+      </c>
+      <c r="D8" s="6">
+        <f>IF(OR(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Conversation Facts",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")=5), "Not Supported", IF(OR(AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A8, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A8, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A8, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A8, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Conversation Facts",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")&lt;5)), "Full Support (Cross-Region)", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Availability"), "Limited Availability", "Full Support (In-Region)")))</f>
+        <v/>
+      </c>
+      <c r="E8" s="6">
+        <f>IF(OR(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")=5), "Not Supported", IF(OR(AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A8, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A8, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")&lt;5)), "Full Support (Cross-Region)", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Availability"), "Limited Availability", "Full Support (In-Region)")))</f>
         <v/>
       </c>
     </row>
@@ -14632,20 +11155,20 @@
           <t>Hindi</t>
         </is>
       </c>
-      <c r="B9" s="9">
-        <f>IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A9, Service_Input!$F:$F, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A9, Service_Input!$F:$F, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A9, Service_Input!$F:$F, 0))="Not Supported"), "Not Supported", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A9, Service_Input!$F:$F, 0))="Limited Availability", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A9, Service_Input!$F:$F, 0))="Limited Availability", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A9, Service_Input!$F:$F, 0))="Limited Availability"), "Limited Availability", IF(OR(INDEX(Service_Input!$E:$E, MATCH($C$4&amp;"|ASR|"&amp;$A9, Service_Input!$F:$F, 0))="Cross-Region", INDEX(Service_Input!$E:$E, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A9, Service_Input!$F:$F, 0))="Cross-Region", INDEX(Service_Input!$E:$E, MATCH($C$4&amp;"|KaaS|"&amp;$A9, Service_Input!$F:$F, 0))="Cross-Region"), "Full Support (Cross-Region)", "Full Support (In-Region)")))</f>
-        <v/>
-      </c>
-      <c r="C9" s="9">
-        <f>IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A9, Service_Input!$F:$F, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A9, Service_Input!$F:$F, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A9, Service_Input!$F:$F, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A9, Service_Input!$F:$F, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A9, Service_Input!$F:$F, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A9, Service_Input!$F:$F, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A9, Service_Input!$F:$F, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A9, Service_Input!$F:$F, 0))="Not Supported"), "Not Supported", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A9, Service_Input!$F:$F, 0))="Limited Availability", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A9, Service_Input!$F:$F, 0))="Limited Availability", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A9, Service_Input!$F:$F, 0))="Limited Availability", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A9, Service_Input!$F:$F, 0))="Limited Availability", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A9, Service_Input!$F:$F, 0))="Limited Availability", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A9, Service_Input!$F:$F, 0))="Limited Availability", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A9, Service_Input!$F:$F, 0))="Limited Availability", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A9, Service_Input!$F:$F, 0))="Limited Availability"), "Limited Availability", IF(OR(INDEX(Service_Input!$E:$E, MATCH($C$4&amp;"|ASR|"&amp;$A9, Service_Input!$F:$F, 0))="Cross-Region", INDEX(Service_Input!$E:$E, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A9, Service_Input!$F:$F, 0))="Cross-Region", INDEX(Service_Input!$E:$E, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A9, Service_Input!$F:$F, 0))="Cross-Region", INDEX(Service_Input!$E:$E, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A9, Service_Input!$F:$F, 0))="Cross-Region", INDEX(Service_Input!$E:$E, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A9, Service_Input!$F:$F, 0))="Cross-Region", INDEX(Service_Input!$E:$E, MATCH($C$4&amp;"|Redaction|"&amp;$A9, Service_Input!$F:$F, 0))="Cross-Region", INDEX(Service_Input!$E:$E, MATCH($C$4&amp;"|KaaS|"&amp;$A9, Service_Input!$F:$F, 0))="Cross-Region", INDEX(Service_Input!$E:$E, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A9, Service_Input!$F:$F, 0))="Cross-Region"), "Full Support (Cross-Region)", "Full Support (In-Region)")))</f>
-        <v/>
-      </c>
-      <c r="D9" s="9">
-        <f>IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A9, Service_Input!$F:$F, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A9, Service_Input!$F:$F, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A9, Service_Input!$F:$F, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A9, Service_Input!$F:$F, 0))="Not Supported"), "Not Supported", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A9, Service_Input!$F:$F, 0))="Limited Availability", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A9, Service_Input!$F:$F, 0))="Limited Availability", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A9, Service_Input!$F:$F, 0))="Limited Availability", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A9, Service_Input!$F:$F, 0))="Limited Availability"), "Limited Availability", IF(OR(INDEX(Service_Input!$E:$E, MATCH($C$4&amp;"|ASR|"&amp;$A9, Service_Input!$F:$F, 0))="Cross-Region", INDEX(Service_Input!$E:$E, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A9, Service_Input!$F:$F, 0))="Cross-Region", INDEX(Service_Input!$E:$E, MATCH($C$4&amp;"|Redaction|"&amp;$A9, Service_Input!$F:$F, 0))="Cross-Region", INDEX(Service_Input!$E:$E, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A9, Service_Input!$F:$F, 0))="Cross-Region"), "Full Support (Cross-Region)", "Full Support (In-Region)")))</f>
-        <v/>
-      </c>
-      <c r="E9" s="9">
-        <f>IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A9, Service_Input!$F:$F, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A9, Service_Input!$F:$F, 0))="Not Supported"), "Not Supported", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A9, Service_Input!$F:$F, 0))="Limited Availability", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A9, Service_Input!$F:$F, 0))="Limited Availability"), "Limited Availability", IF(OR(INDEX(Service_Input!$E:$E, MATCH($C$4&amp;"|ASR|"&amp;$A9, Service_Input!$F:$F, 0))="Cross-Region", INDEX(Service_Input!$E:$E, MATCH($C$4&amp;"|Redaction|"&amp;$A9, Service_Input!$F:$F, 0))="Cross-Region"), "Full Support (Cross-Region)", "Full Support (In-Region)")))</f>
+      <c r="B9" s="6">
+        <f>IF(OR(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"SSA-LLM",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")=5), "Not Supported", IF(OR(AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A9, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A9, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"SSA-LLM",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A9, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")&lt;5)), "Full Support (Cross-Region)", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Availability"), "Limited Availability", "Full Support (In-Region)")))</f>
+        <v/>
+      </c>
+      <c r="C9" s="6">
+        <f>IF(OR(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Intent (UniFit)",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Entity (NER/Spacy)",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Gen AI Summary",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Pro-active Service",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")=5), "Not Supported", IF(OR(AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A9, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A9, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Intent (UniFit)",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A9, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Entity (NER/Spacy)",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A9, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Gen AI Summary",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A9, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A9, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A9, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A9, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Pro-active Service",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")&lt;5)), "Full Support (Cross-Region)", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Availability"), "Limited Availability", "Full Support (In-Region)")))</f>
+        <v/>
+      </c>
+      <c r="D9" s="6">
+        <f>IF(OR(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Conversation Facts",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")=5), "Not Supported", IF(OR(AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A9, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A9, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A9, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A9, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Conversation Facts",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")&lt;5)), "Full Support (Cross-Region)", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Availability"), "Limited Availability", "Full Support (In-Region)")))</f>
+        <v/>
+      </c>
+      <c r="E9" s="6">
+        <f>IF(OR(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")=5), "Not Supported", IF(OR(AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A9, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A9, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")&lt;5)), "Full Support (Cross-Region)", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Availability"), "Limited Availability", "Full Support (In-Region)")))</f>
         <v/>
       </c>
     </row>
@@ -14655,20 +11178,20 @@
           <t>Spanish</t>
         </is>
       </c>
-      <c r="B10" s="9">
-        <f>IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A10, Service_Input!$F:$F, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A10, Service_Input!$F:$F, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A10, Service_Input!$F:$F, 0))="Not Supported"), "Not Supported", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A10, Service_Input!$F:$F, 0))="Limited Availability", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A10, Service_Input!$F:$F, 0))="Limited Availability", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A10, Service_Input!$F:$F, 0))="Limited Availability"), "Limited Availability", IF(OR(INDEX(Service_Input!$E:$E, MATCH($C$4&amp;"|ASR|"&amp;$A10, Service_Input!$F:$F, 0))="Cross-Region", INDEX(Service_Input!$E:$E, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A10, Service_Input!$F:$F, 0))="Cross-Region", INDEX(Service_Input!$E:$E, MATCH($C$4&amp;"|KaaS|"&amp;$A10, Service_Input!$F:$F, 0))="Cross-Region"), "Full Support (Cross-Region)", "Full Support (In-Region)")))</f>
-        <v/>
-      </c>
-      <c r="C10" s="9">
-        <f>IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A10, Service_Input!$F:$F, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A10, Service_Input!$F:$F, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A10, Service_Input!$F:$F, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A10, Service_Input!$F:$F, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A10, Service_Input!$F:$F, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A10, Service_Input!$F:$F, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A10, Service_Input!$F:$F, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A10, Service_Input!$F:$F, 0))="Not Supported"), "Not Supported", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A10, Service_Input!$F:$F, 0))="Limited Availability", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A10, Service_Input!$F:$F, 0))="Limited Availability", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A10, Service_Input!$F:$F, 0))="Limited Availability", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A10, Service_Input!$F:$F, 0))="Limited Availability", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A10, Service_Input!$F:$F, 0))="Limited Availability", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A10, Service_Input!$F:$F, 0))="Limited Availability", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A10, Service_Input!$F:$F, 0))="Limited Availability", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A10, Service_Input!$F:$F, 0))="Limited Availability"), "Limited Availability", IF(OR(INDEX(Service_Input!$E:$E, MATCH($C$4&amp;"|ASR|"&amp;$A10, Service_Input!$F:$F, 0))="Cross-Region", INDEX(Service_Input!$E:$E, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A10, Service_Input!$F:$F, 0))="Cross-Region", INDEX(Service_Input!$E:$E, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A10, Service_Input!$F:$F, 0))="Cross-Region", INDEX(Service_Input!$E:$E, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A10, Service_Input!$F:$F, 0))="Cross-Region", INDEX(Service_Input!$E:$E, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A10, Service_Input!$F:$F, 0))="Cross-Region", INDEX(Service_Input!$E:$E, MATCH($C$4&amp;"|Redaction|"&amp;$A10, Service_Input!$F:$F, 0))="Cross-Region", INDEX(Service_Input!$E:$E, MATCH($C$4&amp;"|KaaS|"&amp;$A10, Service_Input!$F:$F, 0))="Cross-Region", INDEX(Service_Input!$E:$E, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A10, Service_Input!$F:$F, 0))="Cross-Region"), "Full Support (Cross-Region)", "Full Support (In-Region)")))</f>
-        <v/>
-      </c>
-      <c r="D10" s="9">
-        <f>IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A10, Service_Input!$F:$F, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A10, Service_Input!$F:$F, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A10, Service_Input!$F:$F, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A10, Service_Input!$F:$F, 0))="Not Supported"), "Not Supported", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A10, Service_Input!$F:$F, 0))="Limited Availability", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A10, Service_Input!$F:$F, 0))="Limited Availability", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A10, Service_Input!$F:$F, 0))="Limited Availability", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A10, Service_Input!$F:$F, 0))="Limited Availability"), "Limited Availability", IF(OR(INDEX(Service_Input!$E:$E, MATCH($C$4&amp;"|ASR|"&amp;$A10, Service_Input!$F:$F, 0))="Cross-Region", INDEX(Service_Input!$E:$E, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A10, Service_Input!$F:$F, 0))="Cross-Region", INDEX(Service_Input!$E:$E, MATCH($C$4&amp;"|Redaction|"&amp;$A10, Service_Input!$F:$F, 0))="Cross-Region", INDEX(Service_Input!$E:$E, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A10, Service_Input!$F:$F, 0))="Cross-Region"), "Full Support (Cross-Region)", "Full Support (In-Region)")))</f>
-        <v/>
-      </c>
-      <c r="E10" s="9">
-        <f>IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A10, Service_Input!$F:$F, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A10, Service_Input!$F:$F, 0))="Not Supported"), "Not Supported", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A10, Service_Input!$F:$F, 0))="Limited Availability", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A10, Service_Input!$F:$F, 0))="Limited Availability"), "Limited Availability", IF(OR(INDEX(Service_Input!$E:$E, MATCH($C$4&amp;"|ASR|"&amp;$A10, Service_Input!$F:$F, 0))="Cross-Region", INDEX(Service_Input!$E:$E, MATCH($C$4&amp;"|Redaction|"&amp;$A10, Service_Input!$F:$F, 0))="Cross-Region"), "Full Support (Cross-Region)", "Full Support (In-Region)")))</f>
+      <c r="B10" s="6">
+        <f>IF(OR(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"SSA-LLM",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")=5), "Not Supported", IF(OR(AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A10, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A10, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"SSA-LLM",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A10, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")&lt;5)), "Full Support (Cross-Region)", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Availability"), "Limited Availability", "Full Support (In-Region)")))</f>
+        <v/>
+      </c>
+      <c r="C10" s="6">
+        <f>IF(OR(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Intent (UniFit)",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Entity (NER/Spacy)",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Gen AI Summary",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Pro-active Service",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")=5), "Not Supported", IF(OR(AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A10, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A10, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Intent (UniFit)",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A10, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Entity (NER/Spacy)",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A10, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Gen AI Summary",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A10, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A10, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A10, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A10, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Pro-active Service",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")&lt;5)), "Full Support (Cross-Region)", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Availability"), "Limited Availability", "Full Support (In-Region)")))</f>
+        <v/>
+      </c>
+      <c r="D10" s="6">
+        <f>IF(OR(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Conversation Facts",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")=5), "Not Supported", IF(OR(AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A10, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A10, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A10, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A10, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Conversation Facts",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")&lt;5)), "Full Support (Cross-Region)", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Availability"), "Limited Availability", "Full Support (In-Region)")))</f>
+        <v/>
+      </c>
+      <c r="E10" s="6">
+        <f>IF(OR(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")=5), "Not Supported", IF(OR(AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A10, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A10, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")&lt;5)), "Full Support (Cross-Region)", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Availability"), "Limited Availability", "Full Support (In-Region)")))</f>
         <v/>
       </c>
     </row>
@@ -14678,20 +11201,20 @@
           <t>German</t>
         </is>
       </c>
-      <c r="B11" s="9">
-        <f>IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A11, Service_Input!$F:$F, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A11, Service_Input!$F:$F, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A11, Service_Input!$F:$F, 0))="Not Supported"), "Not Supported", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A11, Service_Input!$F:$F, 0))="Limited Availability", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A11, Service_Input!$F:$F, 0))="Limited Availability", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A11, Service_Input!$F:$F, 0))="Limited Availability"), "Limited Availability", IF(OR(INDEX(Service_Input!$E:$E, MATCH($C$4&amp;"|ASR|"&amp;$A11, Service_Input!$F:$F, 0))="Cross-Region", INDEX(Service_Input!$E:$E, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A11, Service_Input!$F:$F, 0))="Cross-Region", INDEX(Service_Input!$E:$E, MATCH($C$4&amp;"|KaaS|"&amp;$A11, Service_Input!$F:$F, 0))="Cross-Region"), "Full Support (Cross-Region)", "Full Support (In-Region)")))</f>
-        <v/>
-      </c>
-      <c r="C11" s="9">
-        <f>IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A11, Service_Input!$F:$F, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A11, Service_Input!$F:$F, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A11, Service_Input!$F:$F, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A11, Service_Input!$F:$F, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A11, Service_Input!$F:$F, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A11, Service_Input!$F:$F, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A11, Service_Input!$F:$F, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A11, Service_Input!$F:$F, 0))="Not Supported"), "Not Supported", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A11, Service_Input!$F:$F, 0))="Limited Availability", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A11, Service_Input!$F:$F, 0))="Limited Availability", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A11, Service_Input!$F:$F, 0))="Limited Availability", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A11, Service_Input!$F:$F, 0))="Limited Availability", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A11, Service_Input!$F:$F, 0))="Limited Availability", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A11, Service_Input!$F:$F, 0))="Limited Availability", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A11, Service_Input!$F:$F, 0))="Limited Availability", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A11, Service_Input!$F:$F, 0))="Limited Availability"), "Limited Availability", IF(OR(INDEX(Service_Input!$E:$E, MATCH($C$4&amp;"|ASR|"&amp;$A11, Service_Input!$F:$F, 0))="Cross-Region", INDEX(Service_Input!$E:$E, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A11, Service_Input!$F:$F, 0))="Cross-Region", INDEX(Service_Input!$E:$E, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A11, Service_Input!$F:$F, 0))="Cross-Region", INDEX(Service_Input!$E:$E, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A11, Service_Input!$F:$F, 0))="Cross-Region", INDEX(Service_Input!$E:$E, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A11, Service_Input!$F:$F, 0))="Cross-Region", INDEX(Service_Input!$E:$E, MATCH($C$4&amp;"|Redaction|"&amp;$A11, Service_Input!$F:$F, 0))="Cross-Region", INDEX(Service_Input!$E:$E, MATCH($C$4&amp;"|KaaS|"&amp;$A11, Service_Input!$F:$F, 0))="Cross-Region", INDEX(Service_Input!$E:$E, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A11, Service_Input!$F:$F, 0))="Cross-Region"), "Full Support (Cross-Region)", "Full Support (In-Region)")))</f>
-        <v/>
-      </c>
-      <c r="D11" s="9">
-        <f>IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A11, Service_Input!$F:$F, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A11, Service_Input!$F:$F, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A11, Service_Input!$F:$F, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A11, Service_Input!$F:$F, 0))="Not Supported"), "Not Supported", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A11, Service_Input!$F:$F, 0))="Limited Availability", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A11, Service_Input!$F:$F, 0))="Limited Availability", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A11, Service_Input!$F:$F, 0))="Limited Availability", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A11, Service_Input!$F:$F, 0))="Limited Availability"), "Limited Availability", IF(OR(INDEX(Service_Input!$E:$E, MATCH($C$4&amp;"|ASR|"&amp;$A11, Service_Input!$F:$F, 0))="Cross-Region", INDEX(Service_Input!$E:$E, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A11, Service_Input!$F:$F, 0))="Cross-Region", INDEX(Service_Input!$E:$E, MATCH($C$4&amp;"|Redaction|"&amp;$A11, Service_Input!$F:$F, 0))="Cross-Region", INDEX(Service_Input!$E:$E, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A11, Service_Input!$F:$F, 0))="Cross-Region"), "Full Support (Cross-Region)", "Full Support (In-Region)")))</f>
-        <v/>
-      </c>
-      <c r="E11" s="9">
-        <f>IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A11, Service_Input!$F:$F, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A11, Service_Input!$F:$F, 0))="Not Supported"), "Not Supported", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A11, Service_Input!$F:$F, 0))="Limited Availability", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A11, Service_Input!$F:$F, 0))="Limited Availability"), "Limited Availability", IF(OR(INDEX(Service_Input!$E:$E, MATCH($C$4&amp;"|ASR|"&amp;$A11, Service_Input!$F:$F, 0))="Cross-Region", INDEX(Service_Input!$E:$E, MATCH($C$4&amp;"|Redaction|"&amp;$A11, Service_Input!$F:$F, 0))="Cross-Region"), "Full Support (Cross-Region)", "Full Support (In-Region)")))</f>
+      <c r="B11" s="6">
+        <f>IF(OR(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"SSA-LLM",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")=5), "Not Supported", IF(OR(AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A11, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A11, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"SSA-LLM",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A11, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")&lt;5)), "Full Support (Cross-Region)", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Availability"), "Limited Availability", "Full Support (In-Region)")))</f>
+        <v/>
+      </c>
+      <c r="C11" s="6">
+        <f>IF(OR(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Intent (UniFit)",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Entity (NER/Spacy)",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Gen AI Summary",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Pro-active Service",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")=5), "Not Supported", IF(OR(AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A11, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A11, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Intent (UniFit)",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A11, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Entity (NER/Spacy)",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A11, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Gen AI Summary",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A11, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A11, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A11, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A11, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Pro-active Service",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")&lt;5)), "Full Support (Cross-Region)", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Availability"), "Limited Availability", "Full Support (In-Region)")))</f>
+        <v/>
+      </c>
+      <c r="D11" s="6">
+        <f>IF(OR(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Conversation Facts",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")=5), "Not Supported", IF(OR(AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A11, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A11, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A11, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A11, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Conversation Facts",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")&lt;5)), "Full Support (Cross-Region)", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Availability"), "Limited Availability", "Full Support (In-Region)")))</f>
+        <v/>
+      </c>
+      <c r="E11" s="6">
+        <f>IF(OR(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")=5), "Not Supported", IF(OR(AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A11, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A11, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")&lt;5)), "Full Support (Cross-Region)", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Availability"), "Limited Availability", "Full Support (In-Region)")))</f>
         <v/>
       </c>
     </row>
@@ -14701,20 +11224,20 @@
           <t>Arabic</t>
         </is>
       </c>
-      <c r="B12" s="9">
-        <f>IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A12, Service_Input!$F:$F, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A12, Service_Input!$F:$F, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A12, Service_Input!$F:$F, 0))="Not Supported"), "Not Supported", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A12, Service_Input!$F:$F, 0))="Limited Availability", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A12, Service_Input!$F:$F, 0))="Limited Availability", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A12, Service_Input!$F:$F, 0))="Limited Availability"), "Limited Availability", IF(OR(INDEX(Service_Input!$E:$E, MATCH($C$4&amp;"|ASR|"&amp;$A12, Service_Input!$F:$F, 0))="Cross-Region", INDEX(Service_Input!$E:$E, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A12, Service_Input!$F:$F, 0))="Cross-Region", INDEX(Service_Input!$E:$E, MATCH($C$4&amp;"|KaaS|"&amp;$A12, Service_Input!$F:$F, 0))="Cross-Region"), "Full Support (Cross-Region)", "Full Support (In-Region)")))</f>
-        <v/>
-      </c>
-      <c r="C12" s="9">
-        <f>IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A12, Service_Input!$F:$F, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A12, Service_Input!$F:$F, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A12, Service_Input!$F:$F, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A12, Service_Input!$F:$F, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A12, Service_Input!$F:$F, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A12, Service_Input!$F:$F, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A12, Service_Input!$F:$F, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A12, Service_Input!$F:$F, 0))="Not Supported"), "Not Supported", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A12, Service_Input!$F:$F, 0))="Limited Availability", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A12, Service_Input!$F:$F, 0))="Limited Availability", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A12, Service_Input!$F:$F, 0))="Limited Availability", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A12, Service_Input!$F:$F, 0))="Limited Availability", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A12, Service_Input!$F:$F, 0))="Limited Availability", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A12, Service_Input!$F:$F, 0))="Limited Availability", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A12, Service_Input!$F:$F, 0))="Limited Availability", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A12, Service_Input!$F:$F, 0))="Limited Availability"), "Limited Availability", IF(OR(INDEX(Service_Input!$E:$E, MATCH($C$4&amp;"|ASR|"&amp;$A12, Service_Input!$F:$F, 0))="Cross-Region", INDEX(Service_Input!$E:$E, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A12, Service_Input!$F:$F, 0))="Cross-Region", INDEX(Service_Input!$E:$E, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A12, Service_Input!$F:$F, 0))="Cross-Region", INDEX(Service_Input!$E:$E, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A12, Service_Input!$F:$F, 0))="Cross-Region", INDEX(Service_Input!$E:$E, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A12, Service_Input!$F:$F, 0))="Cross-Region", INDEX(Service_Input!$E:$E, MATCH($C$4&amp;"|Redaction|"&amp;$A12, Service_Input!$F:$F, 0))="Cross-Region", INDEX(Service_Input!$E:$E, MATCH($C$4&amp;"|KaaS|"&amp;$A12, Service_Input!$F:$F, 0))="Cross-Region", INDEX(Service_Input!$E:$E, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A12, Service_Input!$F:$F, 0))="Cross-Region"), "Full Support (Cross-Region)", "Full Support (In-Region)")))</f>
-        <v/>
-      </c>
-      <c r="D12" s="9">
-        <f>IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A12, Service_Input!$F:$F, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A12, Service_Input!$F:$F, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A12, Service_Input!$F:$F, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A12, Service_Input!$F:$F, 0))="Not Supported"), "Not Supported", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A12, Service_Input!$F:$F, 0))="Limited Availability", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A12, Service_Input!$F:$F, 0))="Limited Availability", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A12, Service_Input!$F:$F, 0))="Limited Availability", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A12, Service_Input!$F:$F, 0))="Limited Availability"), "Limited Availability", IF(OR(INDEX(Service_Input!$E:$E, MATCH($C$4&amp;"|ASR|"&amp;$A12, Service_Input!$F:$F, 0))="Cross-Region", INDEX(Service_Input!$E:$E, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A12, Service_Input!$F:$F, 0))="Cross-Region", INDEX(Service_Input!$E:$E, MATCH($C$4&amp;"|Redaction|"&amp;$A12, Service_Input!$F:$F, 0))="Cross-Region", INDEX(Service_Input!$E:$E, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A12, Service_Input!$F:$F, 0))="Cross-Region"), "Full Support (Cross-Region)", "Full Support (In-Region)")))</f>
-        <v/>
-      </c>
-      <c r="E12" s="9">
-        <f>IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A12, Service_Input!$F:$F, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A12, Service_Input!$F:$F, 0))="Not Supported"), "Not Supported", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A12, Service_Input!$F:$F, 0))="Limited Availability", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A12, Service_Input!$F:$F, 0))="Limited Availability"), "Limited Availability", IF(OR(INDEX(Service_Input!$E:$E, MATCH($C$4&amp;"|ASR|"&amp;$A12, Service_Input!$F:$F, 0))="Cross-Region", INDEX(Service_Input!$E:$E, MATCH($C$4&amp;"|Redaction|"&amp;$A12, Service_Input!$F:$F, 0))="Cross-Region"), "Full Support (Cross-Region)", "Full Support (In-Region)")))</f>
+      <c r="B12" s="6">
+        <f>IF(OR(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"SSA-LLM",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")=5), "Not Supported", IF(OR(AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A12, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A12, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"SSA-LLM",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A12, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")&lt;5)), "Full Support (Cross-Region)", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Availability"), "Limited Availability", "Full Support (In-Region)")))</f>
+        <v/>
+      </c>
+      <c r="C12" s="6">
+        <f>IF(OR(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Intent (UniFit)",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Entity (NER/Spacy)",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Gen AI Summary",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Pro-active Service",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")=5), "Not Supported", IF(OR(AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A12, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A12, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Intent (UniFit)",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A12, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Entity (NER/Spacy)",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A12, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Gen AI Summary",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A12, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A12, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A12, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A12, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Pro-active Service",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")&lt;5)), "Full Support (Cross-Region)", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Availability"), "Limited Availability", "Full Support (In-Region)")))</f>
+        <v/>
+      </c>
+      <c r="D12" s="6">
+        <f>IF(OR(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Conversation Facts",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")=5), "Not Supported", IF(OR(AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A12, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A12, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A12, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A12, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Conversation Facts",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")&lt;5)), "Full Support (Cross-Region)", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Availability"), "Limited Availability", "Full Support (In-Region)")))</f>
+        <v/>
+      </c>
+      <c r="E12" s="6">
+        <f>IF(OR(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")=5), "Not Supported", IF(OR(AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A12, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A12, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")&lt;5)), "Full Support (Cross-Region)", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Availability"), "Limited Availability", "Full Support (In-Region)")))</f>
         <v/>
       </c>
     </row>
@@ -14724,20 +11247,20 @@
           <t>French</t>
         </is>
       </c>
-      <c r="B13" s="9">
-        <f>IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A13, Service_Input!$F:$F, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A13, Service_Input!$F:$F, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A13, Service_Input!$F:$F, 0))="Not Supported"), "Not Supported", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A13, Service_Input!$F:$F, 0))="Limited Availability", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A13, Service_Input!$F:$F, 0))="Limited Availability", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A13, Service_Input!$F:$F, 0))="Limited Availability"), "Limited Availability", IF(OR(INDEX(Service_Input!$E:$E, MATCH($C$4&amp;"|ASR|"&amp;$A13, Service_Input!$F:$F, 0))="Cross-Region", INDEX(Service_Input!$E:$E, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A13, Service_Input!$F:$F, 0))="Cross-Region", INDEX(Service_Input!$E:$E, MATCH($C$4&amp;"|KaaS|"&amp;$A13, Service_Input!$F:$F, 0))="Cross-Region"), "Full Support (Cross-Region)", "Full Support (In-Region)")))</f>
-        <v/>
-      </c>
-      <c r="C13" s="9">
-        <f>IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A13, Service_Input!$F:$F, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A13, Service_Input!$F:$F, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A13, Service_Input!$F:$F, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A13, Service_Input!$F:$F, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A13, Service_Input!$F:$F, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A13, Service_Input!$F:$F, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A13, Service_Input!$F:$F, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A13, Service_Input!$F:$F, 0))="Not Supported"), "Not Supported", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A13, Service_Input!$F:$F, 0))="Limited Availability", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A13, Service_Input!$F:$F, 0))="Limited Availability", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A13, Service_Input!$F:$F, 0))="Limited Availability", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A13, Service_Input!$F:$F, 0))="Limited Availability", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A13, Service_Input!$F:$F, 0))="Limited Availability", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A13, Service_Input!$F:$F, 0))="Limited Availability", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A13, Service_Input!$F:$F, 0))="Limited Availability", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A13, Service_Input!$F:$F, 0))="Limited Availability"), "Limited Availability", IF(OR(INDEX(Service_Input!$E:$E, MATCH($C$4&amp;"|ASR|"&amp;$A13, Service_Input!$F:$F, 0))="Cross-Region", INDEX(Service_Input!$E:$E, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A13, Service_Input!$F:$F, 0))="Cross-Region", INDEX(Service_Input!$E:$E, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A13, Service_Input!$F:$F, 0))="Cross-Region", INDEX(Service_Input!$E:$E, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A13, Service_Input!$F:$F, 0))="Cross-Region", INDEX(Service_Input!$E:$E, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A13, Service_Input!$F:$F, 0))="Cross-Region", INDEX(Service_Input!$E:$E, MATCH($C$4&amp;"|Redaction|"&amp;$A13, Service_Input!$F:$F, 0))="Cross-Region", INDEX(Service_Input!$E:$E, MATCH($C$4&amp;"|KaaS|"&amp;$A13, Service_Input!$F:$F, 0))="Cross-Region", INDEX(Service_Input!$E:$E, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A13, Service_Input!$F:$F, 0))="Cross-Region"), "Full Support (Cross-Region)", "Full Support (In-Region)")))</f>
-        <v/>
-      </c>
-      <c r="D13" s="9">
-        <f>IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A13, Service_Input!$F:$F, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A13, Service_Input!$F:$F, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A13, Service_Input!$F:$F, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A13, Service_Input!$F:$F, 0))="Not Supported"), "Not Supported", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A13, Service_Input!$F:$F, 0))="Limited Availability", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A13, Service_Input!$F:$F, 0))="Limited Availability", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A13, Service_Input!$F:$F, 0))="Limited Availability", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A13, Service_Input!$F:$F, 0))="Limited Availability"), "Limited Availability", IF(OR(INDEX(Service_Input!$E:$E, MATCH($C$4&amp;"|ASR|"&amp;$A13, Service_Input!$F:$F, 0))="Cross-Region", INDEX(Service_Input!$E:$E, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A13, Service_Input!$F:$F, 0))="Cross-Region", INDEX(Service_Input!$E:$E, MATCH($C$4&amp;"|Redaction|"&amp;$A13, Service_Input!$F:$F, 0))="Cross-Region", INDEX(Service_Input!$E:$E, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A13, Service_Input!$F:$F, 0))="Cross-Region"), "Full Support (Cross-Region)", "Full Support (In-Region)")))</f>
-        <v/>
-      </c>
-      <c r="E13" s="9">
-        <f>IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A13, Service_Input!$F:$F, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A13, Service_Input!$F:$F, 0))="Not Supported"), "Not Supported", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A13, Service_Input!$F:$F, 0))="Limited Availability", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A13, Service_Input!$F:$F, 0))="Limited Availability"), "Limited Availability", IF(OR(INDEX(Service_Input!$E:$E, MATCH($C$4&amp;"|ASR|"&amp;$A13, Service_Input!$F:$F, 0))="Cross-Region", INDEX(Service_Input!$E:$E, MATCH($C$4&amp;"|Redaction|"&amp;$A13, Service_Input!$F:$F, 0))="Cross-Region"), "Full Support (Cross-Region)", "Full Support (In-Region)")))</f>
+      <c r="B13" s="6">
+        <f>IF(OR(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"SSA-LLM",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")=5), "Not Supported", IF(OR(AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A13, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A13, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"SSA-LLM",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A13, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")&lt;5)), "Full Support (Cross-Region)", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Availability"), "Limited Availability", "Full Support (In-Region)")))</f>
+        <v/>
+      </c>
+      <c r="C13" s="6">
+        <f>IF(OR(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Intent (UniFit)",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Entity (NER/Spacy)",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Gen AI Summary",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Pro-active Service",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")=5), "Not Supported", IF(OR(AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A13, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A13, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Intent (UniFit)",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A13, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Entity (NER/Spacy)",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A13, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Gen AI Summary",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A13, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A13, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A13, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A13, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Pro-active Service",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")&lt;5)), "Full Support (Cross-Region)", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Availability"), "Limited Availability", "Full Support (In-Region)")))</f>
+        <v/>
+      </c>
+      <c r="D13" s="6">
+        <f>IF(OR(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Conversation Facts",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")=5), "Not Supported", IF(OR(AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A13, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A13, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A13, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A13, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Conversation Facts",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")&lt;5)), "Full Support (Cross-Region)", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Availability"), "Limited Availability", "Full Support (In-Region)")))</f>
+        <v/>
+      </c>
+      <c r="E13" s="6">
+        <f>IF(OR(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")=5), "Not Supported", IF(OR(AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A13, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A13, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")&lt;5)), "Full Support (Cross-Region)", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Availability"), "Limited Availability", "Full Support (In-Region)")))</f>
         <v/>
       </c>
     </row>
@@ -14747,20 +11270,20 @@
           <t>Italian</t>
         </is>
       </c>
-      <c r="B14" s="9">
-        <f>IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A14, Service_Input!$F:$F, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A14, Service_Input!$F:$F, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A14, Service_Input!$F:$F, 0))="Not Supported"), "Not Supported", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A14, Service_Input!$F:$F, 0))="Limited Availability", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A14, Service_Input!$F:$F, 0))="Limited Availability", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A14, Service_Input!$F:$F, 0))="Limited Availability"), "Limited Availability", IF(OR(INDEX(Service_Input!$E:$E, MATCH($C$4&amp;"|ASR|"&amp;$A14, Service_Input!$F:$F, 0))="Cross-Region", INDEX(Service_Input!$E:$E, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A14, Service_Input!$F:$F, 0))="Cross-Region", INDEX(Service_Input!$E:$E, MATCH($C$4&amp;"|KaaS|"&amp;$A14, Service_Input!$F:$F, 0))="Cross-Region"), "Full Support (Cross-Region)", "Full Support (In-Region)")))</f>
-        <v/>
-      </c>
-      <c r="C14" s="9">
-        <f>IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A14, Service_Input!$F:$F, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A14, Service_Input!$F:$F, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A14, Service_Input!$F:$F, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A14, Service_Input!$F:$F, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A14, Service_Input!$F:$F, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A14, Service_Input!$F:$F, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A14, Service_Input!$F:$F, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A14, Service_Input!$F:$F, 0))="Not Supported"), "Not Supported", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A14, Service_Input!$F:$F, 0))="Limited Availability", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A14, Service_Input!$F:$F, 0))="Limited Availability", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A14, Service_Input!$F:$F, 0))="Limited Availability", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A14, Service_Input!$F:$F, 0))="Limited Availability", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A14, Service_Input!$F:$F, 0))="Limited Availability", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A14, Service_Input!$F:$F, 0))="Limited Availability", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A14, Service_Input!$F:$F, 0))="Limited Availability", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A14, Service_Input!$F:$F, 0))="Limited Availability"), "Limited Availability", IF(OR(INDEX(Service_Input!$E:$E, MATCH($C$4&amp;"|ASR|"&amp;$A14, Service_Input!$F:$F, 0))="Cross-Region", INDEX(Service_Input!$E:$E, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A14, Service_Input!$F:$F, 0))="Cross-Region", INDEX(Service_Input!$E:$E, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A14, Service_Input!$F:$F, 0))="Cross-Region", INDEX(Service_Input!$E:$E, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A14, Service_Input!$F:$F, 0))="Cross-Region", INDEX(Service_Input!$E:$E, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A14, Service_Input!$F:$F, 0))="Cross-Region", INDEX(Service_Input!$E:$E, MATCH($C$4&amp;"|Redaction|"&amp;$A14, Service_Input!$F:$F, 0))="Cross-Region", INDEX(Service_Input!$E:$E, MATCH($C$4&amp;"|KaaS|"&amp;$A14, Service_Input!$F:$F, 0))="Cross-Region", INDEX(Service_Input!$E:$E, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A14, Service_Input!$F:$F, 0))="Cross-Region"), "Full Support (Cross-Region)", "Full Support (In-Region)")))</f>
-        <v/>
-      </c>
-      <c r="D14" s="9">
-        <f>IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A14, Service_Input!$F:$F, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A14, Service_Input!$F:$F, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A14, Service_Input!$F:$F, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A14, Service_Input!$F:$F, 0))="Not Supported"), "Not Supported", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A14, Service_Input!$F:$F, 0))="Limited Availability", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A14, Service_Input!$F:$F, 0))="Limited Availability", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A14, Service_Input!$F:$F, 0))="Limited Availability", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A14, Service_Input!$F:$F, 0))="Limited Availability"), "Limited Availability", IF(OR(INDEX(Service_Input!$E:$E, MATCH($C$4&amp;"|ASR|"&amp;$A14, Service_Input!$F:$F, 0))="Cross-Region", INDEX(Service_Input!$E:$E, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A14, Service_Input!$F:$F, 0))="Cross-Region", INDEX(Service_Input!$E:$E, MATCH($C$4&amp;"|Redaction|"&amp;$A14, Service_Input!$F:$F, 0))="Cross-Region", INDEX(Service_Input!$E:$E, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A14, Service_Input!$F:$F, 0))="Cross-Region"), "Full Support (Cross-Region)", "Full Support (In-Region)")))</f>
-        <v/>
-      </c>
-      <c r="E14" s="9">
-        <f>IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A14, Service_Input!$F:$F, 0))="Not Supported", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A14, Service_Input!$F:$F, 0))="Not Supported"), "Not Supported", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A14, Service_Input!$F:$F, 0))="Limited Availability", INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A14, Service_Input!$F:$F, 0))="Limited Availability"), "Limited Availability", IF(OR(INDEX(Service_Input!$E:$E, MATCH($C$4&amp;"|ASR|"&amp;$A14, Service_Input!$F:$F, 0))="Cross-Region", INDEX(Service_Input!$E:$E, MATCH($C$4&amp;"|Redaction|"&amp;$A14, Service_Input!$F:$F, 0))="Cross-Region"), "Full Support (Cross-Region)", "Full Support (In-Region)")))</f>
+      <c r="B14" s="6">
+        <f>IF(OR(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"SSA-LLM",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")=5), "Not Supported", IF(OR(AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A14, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A14, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"SSA-LLM",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A14, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")&lt;5)), "Full Support (Cross-Region)", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Availability"), "Limited Availability", "Full Support (In-Region)")))</f>
+        <v/>
+      </c>
+      <c r="C14" s="6">
+        <f>IF(OR(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Intent (UniFit)",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Entity (NER/Spacy)",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Gen AI Summary",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Pro-active Service",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")=5), "Not Supported", IF(OR(AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A14, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A14, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Intent (UniFit)",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A14, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Entity (NER/Spacy)",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A14, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Gen AI Summary",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A14, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A14, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A14, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A14, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Pro-active Service",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")&lt;5)), "Full Support (Cross-Region)", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Availability"), "Limited Availability", "Full Support (In-Region)")))</f>
+        <v/>
+      </c>
+      <c r="D14" s="6">
+        <f>IF(OR(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Conversation Facts",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")=5), "Not Supported", IF(OR(AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A14, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A14, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A14, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A14, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Conversation Facts",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")&lt;5)), "Full Support (Cross-Region)", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Availability"), "Limited Availability", "Full Support (In-Region)")))</f>
+        <v/>
+      </c>
+      <c r="E14" s="6">
+        <f>IF(OR(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")=5), "Not Supported", IF(OR(AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A14, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A14, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")&lt;5)), "Full Support (Cross-Region)", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Availability"), "Limited Availability", "Full Support (In-Region)")))</f>
         <v/>
       </c>
     </row>

--- a/Product Language Matrix/Smart_Availability_Matrix.xlsx
+++ b/Product Language Matrix/Smart_Availability_Matrix.xlsx
@@ -596,7 +596,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E3">
@@ -622,7 +622,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E4">
@@ -648,7 +648,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E5">
@@ -674,7 +674,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E6">
@@ -700,7 +700,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E7">
@@ -726,7 +726,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E8">
@@ -778,7 +778,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E10">
@@ -804,7 +804,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E11">
@@ -830,7 +830,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E12">
@@ -856,7 +856,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E13">
@@ -882,7 +882,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E14">
@@ -986,7 +986,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E18">
@@ -1064,7 +1064,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E21">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E24">
@@ -1168,7 +1168,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E25">
@@ -1194,7 +1194,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E26">
@@ -1220,7 +1220,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E27">
@@ -1246,7 +1246,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E28">
@@ -1272,7 +1272,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E29">
@@ -1298,7 +1298,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E30">
@@ -1324,7 +1324,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E31">
@@ -1350,7 +1350,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E32">
@@ -1402,7 +1402,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E34">
@@ -1428,7 +1428,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E35">
@@ -1454,7 +1454,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E36">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E37">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E38">
@@ -1532,7 +1532,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E39">
@@ -1636,7 +1636,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E43">
@@ -1662,7 +1662,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E44">
@@ -1714,7 +1714,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E46">
@@ -1740,7 +1740,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E47">
@@ -1792,7 +1792,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E49">
@@ -1818,7 +1818,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E50">
@@ -1870,7 +1870,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E52">
@@ -1922,7 +1922,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E54">
@@ -1974,7 +1974,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E56">
@@ -2000,7 +2000,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E57">
@@ -2026,7 +2026,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E58">
@@ -2052,7 +2052,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E59">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E61">
@@ -2182,7 +2182,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E64">
@@ -2208,7 +2208,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E65">
@@ -2234,7 +2234,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E66">
@@ -2312,7 +2312,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E69">
@@ -2338,7 +2338,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E70">
@@ -2364,7 +2364,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E71">
@@ -2416,7 +2416,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E73">
@@ -2494,7 +2494,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E76">
@@ -2520,7 +2520,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E77">
@@ -2572,7 +2572,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E79">
@@ -2598,7 +2598,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E80">
@@ -2650,7 +2650,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E82">
@@ -2676,7 +2676,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E83">
@@ -2702,7 +2702,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E84">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E85">
@@ -2754,7 +2754,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E86">
@@ -2780,7 +2780,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E87">
@@ -2858,7 +2858,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E90">
@@ -2884,7 +2884,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E91">
@@ -2910,7 +2910,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E92">
@@ -2962,7 +2962,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E94">
@@ -2988,7 +2988,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E95">
@@ -3014,7 +3014,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E96">
@@ -3040,7 +3040,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E97">
@@ -3144,7 +3144,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E101">
@@ -3248,7 +3248,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E105">
@@ -3326,7 +3326,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E108">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E109">
@@ -3378,7 +3378,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E110">
@@ -3404,7 +3404,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E111">
@@ -3456,7 +3456,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E113">
@@ -3534,7 +3534,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E116">
@@ -3586,7 +3586,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E118">
@@ -3638,7 +3638,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E120">
@@ -3664,7 +3664,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E121">
@@ -3716,7 +3716,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E123">
@@ -3742,7 +3742,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E124">
@@ -3768,7 +3768,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E125">
@@ -3794,7 +3794,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E126">
@@ -3820,7 +3820,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E127">
@@ -3872,7 +3872,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E129">
@@ -3898,7 +3898,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E130">
@@ -3924,7 +3924,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E131">
@@ -3950,7 +3950,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E132">
@@ -4002,7 +4002,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E134">
@@ -4054,7 +4054,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E136">
@@ -4106,7 +4106,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E138">
@@ -4158,7 +4158,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E140">
@@ -4184,7 +4184,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E141">
@@ -4236,7 +4236,7 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E143">
@@ -4262,7 +4262,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E144">
@@ -4340,7 +4340,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E147">
@@ -4418,7 +4418,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E150">
@@ -4470,7 +4470,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E152">
@@ -4522,7 +4522,7 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E154">
@@ -4548,7 +4548,7 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E155">
@@ -4626,7 +4626,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E158">
@@ -4652,7 +4652,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E159">
@@ -4678,7 +4678,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E160">
@@ -4730,7 +4730,7 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E162">
@@ -4834,7 +4834,7 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E166">
@@ -4860,7 +4860,7 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E167">
@@ -4886,7 +4886,7 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E168">
@@ -4964,7 +4964,7 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E171">
@@ -4990,7 +4990,7 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E172">
@@ -5016,7 +5016,7 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E173">
@@ -5042,7 +5042,7 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E174">
@@ -5068,7 +5068,7 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E175">
@@ -5094,7 +5094,7 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E176">
@@ -5120,7 +5120,7 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E177">
@@ -5250,7 +5250,7 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E182">
@@ -5276,7 +5276,7 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E183">
@@ -5302,7 +5302,7 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E184">
@@ -5328,7 +5328,7 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E185">
@@ -5380,7 +5380,7 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E187">
@@ -5406,7 +5406,7 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E188">
@@ -5458,7 +5458,7 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E190">
@@ -5484,7 +5484,7 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E191">
@@ -5562,7 +5562,7 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E194">
@@ -5588,7 +5588,7 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E195">
@@ -5614,7 +5614,7 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E196">
@@ -5666,7 +5666,7 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E198">
@@ -5718,7 +5718,7 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E200">
@@ -5744,7 +5744,7 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E201">
@@ -5770,7 +5770,7 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E202">
@@ -5822,7 +5822,7 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E204">
@@ -5926,7 +5926,7 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E208">
@@ -5952,7 +5952,7 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E209">
@@ -5978,7 +5978,7 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E210">
@@ -6004,7 +6004,7 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E211">
@@ -6030,7 +6030,7 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E212">
@@ -6056,7 +6056,7 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E213">
@@ -6108,7 +6108,7 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E215">
@@ -6134,7 +6134,7 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E216">
@@ -6212,7 +6212,7 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E219">
@@ -6264,7 +6264,7 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E221">
@@ -6316,7 +6316,7 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E223">
@@ -6342,7 +6342,7 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E224">
@@ -6394,7 +6394,7 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E226">
@@ -6420,7 +6420,7 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E227">
@@ -6446,7 +6446,7 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E228">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E229">
@@ -6524,7 +6524,7 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E231">
@@ -6550,7 +6550,7 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E232">
@@ -6576,7 +6576,7 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E233">
@@ -6602,7 +6602,7 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E234">
@@ -6654,7 +6654,7 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E236">
@@ -6680,7 +6680,7 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E237">
@@ -6706,7 +6706,7 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E238">
@@ -6732,7 +6732,7 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E239">
@@ -6784,7 +6784,7 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E241">
@@ -6810,7 +6810,7 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E242">
@@ -6836,7 +6836,7 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E243">
@@ -6888,7 +6888,7 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E245">
@@ -6914,7 +6914,7 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E246">
@@ -6966,7 +6966,7 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E248">
@@ -6992,7 +6992,7 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E249">
@@ -7018,7 +7018,7 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E250">
@@ -7096,7 +7096,7 @@
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E253">
@@ -7122,7 +7122,7 @@
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E254">
@@ -7148,7 +7148,7 @@
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E255">
@@ -7200,7 +7200,7 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E257">
@@ -7226,7 +7226,7 @@
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E258">
@@ -7252,7 +7252,7 @@
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E259">
@@ -7330,7 +7330,7 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E262">
@@ -7382,7 +7382,7 @@
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E264">
@@ -7434,7 +7434,7 @@
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E266">
@@ -7460,7 +7460,7 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E267">
@@ -7512,7 +7512,7 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E269">
@@ -7590,7 +7590,7 @@
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E272">
@@ -7642,7 +7642,7 @@
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E274">
@@ -7668,7 +7668,7 @@
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E275">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E277">
@@ -7772,7 +7772,7 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E279">
@@ -7798,7 +7798,7 @@
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E280">
@@ -7824,7 +7824,7 @@
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E281">
@@ -7850,7 +7850,7 @@
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E282">
@@ -7876,7 +7876,7 @@
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E283">
@@ -7902,7 +7902,7 @@
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E284">
@@ -7954,7 +7954,7 @@
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E286">
@@ -7980,7 +7980,7 @@
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E287">
@@ -8006,7 +8006,7 @@
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E288">
@@ -8032,7 +8032,7 @@
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E289">
@@ -8058,7 +8058,7 @@
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E290">
@@ -8084,7 +8084,7 @@
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E291">
@@ -8110,7 +8110,7 @@
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E292">
@@ -8136,7 +8136,7 @@
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E293">
@@ -8188,7 +8188,7 @@
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E295">
@@ -8214,7 +8214,7 @@
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E296">
@@ -8240,7 +8240,7 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E297">
@@ -8344,7 +8344,7 @@
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E301">
@@ -8370,7 +8370,7 @@
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E302">
@@ -8396,7 +8396,7 @@
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E303">
@@ -8474,7 +8474,7 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E306">
@@ -8552,7 +8552,7 @@
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E309">
@@ -8604,7 +8604,7 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E311">
@@ -8656,7 +8656,7 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E313">
@@ -8682,7 +8682,7 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E314">
@@ -8708,7 +8708,7 @@
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E315">
@@ -8734,7 +8734,7 @@
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E316">
@@ -8786,7 +8786,7 @@
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E318">
@@ -8812,7 +8812,7 @@
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E319">
@@ -8864,7 +8864,7 @@
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E321">
@@ -8890,7 +8890,7 @@
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E322">
@@ -8916,7 +8916,7 @@
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E323">
@@ -8942,7 +8942,7 @@
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E324">
@@ -8994,7 +8994,7 @@
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E326">
@@ -9046,7 +9046,7 @@
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E328">
@@ -9072,7 +9072,7 @@
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E329">
@@ -9098,7 +9098,7 @@
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E330">
@@ -9150,7 +9150,7 @@
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E332">
@@ -9176,7 +9176,7 @@
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E333">
@@ -9202,7 +9202,7 @@
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E334">
@@ -9228,7 +9228,7 @@
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E335">
@@ -9254,7 +9254,7 @@
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E336">
@@ -9280,7 +9280,7 @@
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E337">
@@ -9306,7 +9306,7 @@
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E338">
@@ -9358,7 +9358,7 @@
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E340">
@@ -9384,7 +9384,7 @@
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E341">
@@ -9410,7 +9410,7 @@
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E342">
@@ -9436,7 +9436,7 @@
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E343">
@@ -9462,7 +9462,7 @@
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E344">
@@ -9488,7 +9488,7 @@
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E345">
@@ -9566,7 +9566,7 @@
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E348">
@@ -9592,7 +9592,7 @@
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E349">
@@ -9618,7 +9618,7 @@
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E350">
@@ -9670,7 +9670,7 @@
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E352">
@@ -9722,7 +9722,7 @@
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E354">
@@ -9800,7 +9800,7 @@
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E357">
@@ -9878,7 +9878,7 @@
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E360">
@@ -9930,7 +9930,7 @@
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E362">
@@ -9956,7 +9956,7 @@
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E363">
@@ -10034,7 +10034,7 @@
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E366">
@@ -10060,7 +10060,7 @@
       </c>
       <c r="D367" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E367">
@@ -10086,7 +10086,7 @@
       </c>
       <c r="D368" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E368">
@@ -10112,7 +10112,7 @@
       </c>
       <c r="D369" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E369">
@@ -10138,7 +10138,7 @@
       </c>
       <c r="D370" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E370">
@@ -10164,7 +10164,7 @@
       </c>
       <c r="D371" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E371">
@@ -10190,7 +10190,7 @@
       </c>
       <c r="D372" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E372">
@@ -10268,7 +10268,7 @@
       </c>
       <c r="D375" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E375">
@@ -10320,7 +10320,7 @@
       </c>
       <c r="D377" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E377">
@@ -10372,7 +10372,7 @@
       </c>
       <c r="D379" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E379">
@@ -10450,7 +10450,7 @@
       </c>
       <c r="D382" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E382">
@@ -10502,7 +10502,7 @@
       </c>
       <c r="D384" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E384">
@@ -10528,7 +10528,7 @@
       </c>
       <c r="D385" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E385">
@@ -11133,19 +11133,19 @@
         </is>
       </c>
       <c r="B8" s="6">
-        <f>IF(OR(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"SSA-LLM",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")=5), "Not Supported", IF(OR(AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A8, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A8, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"SSA-LLM",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A8, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")&lt;5)), "Full Support (Cross-Region)", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Availability"), "Limited Availability", "Full Support (In-Region)")))</f>
+        <f>IF((IF(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"SSA-LLM",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")=5,1,0))&gt;1.5, "Not Supported", IF(OR(AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A8, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A8, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"SSA-LLM",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A8, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")&lt;5)), "Full Support (Cross-Region)", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"SSA-LLM",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")=5), "Limited Availability", "Full Support (In-Region)")))</f>
         <v/>
       </c>
       <c r="C8" s="6">
-        <f>IF(OR(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Intent (UniFit)",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Entity (NER/Spacy)",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Gen AI Summary",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Pro-active Service",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")=5), "Not Supported", IF(OR(AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A8, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A8, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Intent (UniFit)",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A8, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Entity (NER/Spacy)",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A8, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Gen AI Summary",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A8, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A8, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A8, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A8, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Pro-active Service",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")&lt;5)), "Full Support (Cross-Region)", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Availability"), "Limited Availability", "Full Support (In-Region)")))</f>
+        <f>IF((IF(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Intent (UniFit)",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Entity (NER/Spacy)",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Gen AI Summary",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Pro-active Service",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")=5,1,0))&gt;4.0, "Not Supported", IF(OR(AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A8, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A8, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Intent (UniFit)",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A8, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Entity (NER/Spacy)",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A8, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Gen AI Summary",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A8, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A8, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A8, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A8, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Pro-active Service",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")&lt;5)), "Full Support (Cross-Region)", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Intent (UniFit)",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Entity (NER/Spacy)",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Gen AI Summary",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Pro-active Service",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")=5), "Limited Availability", "Full Support (In-Region)")))</f>
         <v/>
       </c>
       <c r="D8" s="6">
-        <f>IF(OR(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Conversation Facts",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")=5), "Not Supported", IF(OR(AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A8, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A8, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A8, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A8, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Conversation Facts",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")&lt;5)), "Full Support (Cross-Region)", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Availability"), "Limited Availability", "Full Support (In-Region)")))</f>
+        <f>IF((IF(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Conversation Facts",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")=5,1,0))&gt;2.0, "Not Supported", IF(OR(AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A8, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A8, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A8, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A8, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Conversation Facts",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")&lt;5)), "Full Support (Cross-Region)", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Conversation Facts",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")=5), "Limited Availability", "Full Support (In-Region)")))</f>
         <v/>
       </c>
       <c r="E8" s="6">
-        <f>IF(OR(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")=5), "Not Supported", IF(OR(AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A8, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A8, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")&lt;5)), "Full Support (Cross-Region)", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Availability"), "Limited Availability", "Full Support (In-Region)")))</f>
+        <f>IF((IF(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")=5,1,0))&gt;1.0, "Not Supported", IF(OR(AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A8, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A8, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")&lt;5)), "Full Support (Cross-Region)", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")=5), "Limited Availability", "Full Support (In-Region)")))</f>
         <v/>
       </c>
     </row>
@@ -11156,19 +11156,19 @@
         </is>
       </c>
       <c r="B9" s="6">
-        <f>IF(OR(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"SSA-LLM",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")=5), "Not Supported", IF(OR(AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A9, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A9, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"SSA-LLM",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A9, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")&lt;5)), "Full Support (Cross-Region)", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Availability"), "Limited Availability", "Full Support (In-Region)")))</f>
+        <f>IF((IF(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"SSA-LLM",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")=5,1,0))&gt;1.5, "Not Supported", IF(OR(AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A9, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A9, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"SSA-LLM",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A9, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")&lt;5)), "Full Support (Cross-Region)", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"SSA-LLM",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")=5), "Limited Availability", "Full Support (In-Region)")))</f>
         <v/>
       </c>
       <c r="C9" s="6">
-        <f>IF(OR(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Intent (UniFit)",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Entity (NER/Spacy)",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Gen AI Summary",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Pro-active Service",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")=5), "Not Supported", IF(OR(AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A9, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A9, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Intent (UniFit)",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A9, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Entity (NER/Spacy)",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A9, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Gen AI Summary",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A9, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A9, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A9, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A9, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Pro-active Service",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")&lt;5)), "Full Support (Cross-Region)", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Availability"), "Limited Availability", "Full Support (In-Region)")))</f>
+        <f>IF((IF(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Intent (UniFit)",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Entity (NER/Spacy)",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Gen AI Summary",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Pro-active Service",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")=5,1,0))&gt;4.0, "Not Supported", IF(OR(AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A9, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A9, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Intent (UniFit)",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A9, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Entity (NER/Spacy)",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A9, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Gen AI Summary",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A9, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A9, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A9, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A9, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Pro-active Service",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")&lt;5)), "Full Support (Cross-Region)", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Intent (UniFit)",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Entity (NER/Spacy)",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Gen AI Summary",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Pro-active Service",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")=5), "Limited Availability", "Full Support (In-Region)")))</f>
         <v/>
       </c>
       <c r="D9" s="6">
-        <f>IF(OR(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Conversation Facts",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")=5), "Not Supported", IF(OR(AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A9, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A9, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A9, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A9, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Conversation Facts",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")&lt;5)), "Full Support (Cross-Region)", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Availability"), "Limited Availability", "Full Support (In-Region)")))</f>
+        <f>IF((IF(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Conversation Facts",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")=5,1,0))&gt;2.0, "Not Supported", IF(OR(AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A9, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A9, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A9, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A9, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Conversation Facts",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")&lt;5)), "Full Support (Cross-Region)", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Conversation Facts",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")=5), "Limited Availability", "Full Support (In-Region)")))</f>
         <v/>
       </c>
       <c r="E9" s="6">
-        <f>IF(OR(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")=5), "Not Supported", IF(OR(AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A9, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A9, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")&lt;5)), "Full Support (Cross-Region)", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Availability"), "Limited Availability", "Full Support (In-Region)")))</f>
+        <f>IF((IF(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")=5,1,0))&gt;1.0, "Not Supported", IF(OR(AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A9, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A9, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")&lt;5)), "Full Support (Cross-Region)", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")=5), "Limited Availability", "Full Support (In-Region)")))</f>
         <v/>
       </c>
     </row>
@@ -11179,19 +11179,19 @@
         </is>
       </c>
       <c r="B10" s="6">
-        <f>IF(OR(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"SSA-LLM",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")=5), "Not Supported", IF(OR(AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A10, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A10, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"SSA-LLM",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A10, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")&lt;5)), "Full Support (Cross-Region)", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Availability"), "Limited Availability", "Full Support (In-Region)")))</f>
+        <f>IF((IF(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"SSA-LLM",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")=5,1,0))&gt;1.5, "Not Supported", IF(OR(AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A10, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A10, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"SSA-LLM",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A10, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")&lt;5)), "Full Support (Cross-Region)", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"SSA-LLM",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")=5), "Limited Availability", "Full Support (In-Region)")))</f>
         <v/>
       </c>
       <c r="C10" s="6">
-        <f>IF(OR(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Intent (UniFit)",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Entity (NER/Spacy)",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Gen AI Summary",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Pro-active Service",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")=5), "Not Supported", IF(OR(AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A10, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A10, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Intent (UniFit)",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A10, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Entity (NER/Spacy)",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A10, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Gen AI Summary",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A10, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A10, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A10, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A10, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Pro-active Service",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")&lt;5)), "Full Support (Cross-Region)", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Availability"), "Limited Availability", "Full Support (In-Region)")))</f>
+        <f>IF((IF(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Intent (UniFit)",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Entity (NER/Spacy)",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Gen AI Summary",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Pro-active Service",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")=5,1,0))&gt;4.0, "Not Supported", IF(OR(AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A10, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A10, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Intent (UniFit)",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A10, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Entity (NER/Spacy)",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A10, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Gen AI Summary",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A10, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A10, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A10, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A10, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Pro-active Service",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")&lt;5)), "Full Support (Cross-Region)", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Intent (UniFit)",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Entity (NER/Spacy)",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Gen AI Summary",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Pro-active Service",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")=5), "Limited Availability", "Full Support (In-Region)")))</f>
         <v/>
       </c>
       <c r="D10" s="6">
-        <f>IF(OR(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Conversation Facts",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")=5), "Not Supported", IF(OR(AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A10, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A10, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A10, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A10, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Conversation Facts",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")&lt;5)), "Full Support (Cross-Region)", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Availability"), "Limited Availability", "Full Support (In-Region)")))</f>
+        <f>IF((IF(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Conversation Facts",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")=5,1,0))&gt;2.0, "Not Supported", IF(OR(AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A10, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A10, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A10, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A10, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Conversation Facts",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")&lt;5)), "Full Support (Cross-Region)", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Conversation Facts",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")=5), "Limited Availability", "Full Support (In-Region)")))</f>
         <v/>
       </c>
       <c r="E10" s="6">
-        <f>IF(OR(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")=5), "Not Supported", IF(OR(AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A10, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A10, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")&lt;5)), "Full Support (Cross-Region)", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Availability"), "Limited Availability", "Full Support (In-Region)")))</f>
+        <f>IF((IF(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")=5,1,0))&gt;1.0, "Not Supported", IF(OR(AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A10, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A10, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")&lt;5)), "Full Support (Cross-Region)", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")=5), "Limited Availability", "Full Support (In-Region)")))</f>
         <v/>
       </c>
     </row>
@@ -11202,19 +11202,19 @@
         </is>
       </c>
       <c r="B11" s="6">
-        <f>IF(OR(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"SSA-LLM",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")=5), "Not Supported", IF(OR(AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A11, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A11, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"SSA-LLM",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A11, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")&lt;5)), "Full Support (Cross-Region)", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Availability"), "Limited Availability", "Full Support (In-Region)")))</f>
+        <f>IF((IF(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"SSA-LLM",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")=5,1,0))&gt;1.5, "Not Supported", IF(OR(AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A11, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A11, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"SSA-LLM",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A11, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")&lt;5)), "Full Support (Cross-Region)", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"SSA-LLM",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")=5), "Limited Availability", "Full Support (In-Region)")))</f>
         <v/>
       </c>
       <c r="C11" s="6">
-        <f>IF(OR(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Intent (UniFit)",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Entity (NER/Spacy)",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Gen AI Summary",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Pro-active Service",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")=5), "Not Supported", IF(OR(AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A11, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A11, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Intent (UniFit)",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A11, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Entity (NER/Spacy)",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A11, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Gen AI Summary",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A11, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A11, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A11, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A11, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Pro-active Service",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")&lt;5)), "Full Support (Cross-Region)", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Availability"), "Limited Availability", "Full Support (In-Region)")))</f>
+        <f>IF((IF(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Intent (UniFit)",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Entity (NER/Spacy)",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Gen AI Summary",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Pro-active Service",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")=5,1,0))&gt;4.0, "Not Supported", IF(OR(AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A11, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A11, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Intent (UniFit)",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A11, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Entity (NER/Spacy)",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A11, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Gen AI Summary",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A11, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A11, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A11, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A11, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Pro-active Service",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")&lt;5)), "Full Support (Cross-Region)", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Intent (UniFit)",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Entity (NER/Spacy)",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Gen AI Summary",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Pro-active Service",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")=5), "Limited Availability", "Full Support (In-Region)")))</f>
         <v/>
       </c>
       <c r="D11" s="6">
-        <f>IF(OR(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Conversation Facts",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")=5), "Not Supported", IF(OR(AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A11, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A11, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A11, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A11, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Conversation Facts",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")&lt;5)), "Full Support (Cross-Region)", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Availability"), "Limited Availability", "Full Support (In-Region)")))</f>
+        <f>IF((IF(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Conversation Facts",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")=5,1,0))&gt;2.0, "Not Supported", IF(OR(AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A11, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A11, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A11, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A11, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Conversation Facts",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")&lt;5)), "Full Support (Cross-Region)", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Conversation Facts",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")=5), "Limited Availability", "Full Support (In-Region)")))</f>
         <v/>
       </c>
       <c r="E11" s="6">
-        <f>IF(OR(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")=5), "Not Supported", IF(OR(AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A11, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A11, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")&lt;5)), "Full Support (Cross-Region)", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Availability"), "Limited Availability", "Full Support (In-Region)")))</f>
+        <f>IF((IF(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")=5,1,0))&gt;1.0, "Not Supported", IF(OR(AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A11, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A11, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")&lt;5)), "Full Support (Cross-Region)", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")=5), "Limited Availability", "Full Support (In-Region)")))</f>
         <v/>
       </c>
     </row>
@@ -11225,19 +11225,19 @@
         </is>
       </c>
       <c r="B12" s="6">
-        <f>IF(OR(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"SSA-LLM",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")=5), "Not Supported", IF(OR(AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A12, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A12, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"SSA-LLM",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A12, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")&lt;5)), "Full Support (Cross-Region)", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Availability"), "Limited Availability", "Full Support (In-Region)")))</f>
+        <f>IF((IF(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"SSA-LLM",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")=5,1,0))&gt;1.5, "Not Supported", IF(OR(AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A12, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A12, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"SSA-LLM",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A12, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")&lt;5)), "Full Support (Cross-Region)", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"SSA-LLM",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")=5), "Limited Availability", "Full Support (In-Region)")))</f>
         <v/>
       </c>
       <c r="C12" s="6">
-        <f>IF(OR(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Intent (UniFit)",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Entity (NER/Spacy)",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Gen AI Summary",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Pro-active Service",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")=5), "Not Supported", IF(OR(AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A12, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A12, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Intent (UniFit)",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A12, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Entity (NER/Spacy)",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A12, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Gen AI Summary",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A12, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A12, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A12, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A12, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Pro-active Service",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")&lt;5)), "Full Support (Cross-Region)", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Availability"), "Limited Availability", "Full Support (In-Region)")))</f>
+        <f>IF((IF(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Intent (UniFit)",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Entity (NER/Spacy)",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Gen AI Summary",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Pro-active Service",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")=5,1,0))&gt;4.0, "Not Supported", IF(OR(AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A12, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A12, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Intent (UniFit)",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A12, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Entity (NER/Spacy)",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A12, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Gen AI Summary",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A12, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A12, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A12, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A12, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Pro-active Service",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")&lt;5)), "Full Support (Cross-Region)", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Intent (UniFit)",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Entity (NER/Spacy)",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Gen AI Summary",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Pro-active Service",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")=5), "Limited Availability", "Full Support (In-Region)")))</f>
         <v/>
       </c>
       <c r="D12" s="6">
-        <f>IF(OR(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Conversation Facts",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")=5), "Not Supported", IF(OR(AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A12, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A12, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A12, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A12, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Conversation Facts",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")&lt;5)), "Full Support (Cross-Region)", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Availability"), "Limited Availability", "Full Support (In-Region)")))</f>
+        <f>IF((IF(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Conversation Facts",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")=5,1,0))&gt;2.0, "Not Supported", IF(OR(AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A12, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A12, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A12, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A12, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Conversation Facts",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")&lt;5)), "Full Support (Cross-Region)", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Conversation Facts",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")=5), "Limited Availability", "Full Support (In-Region)")))</f>
         <v/>
       </c>
       <c r="E12" s="6">
-        <f>IF(OR(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")=5), "Not Supported", IF(OR(AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A12, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A12, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")&lt;5)), "Full Support (Cross-Region)", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Availability"), "Limited Availability", "Full Support (In-Region)")))</f>
+        <f>IF((IF(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")=5,1,0))&gt;1.0, "Not Supported", IF(OR(AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A12, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A12, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")&lt;5)), "Full Support (Cross-Region)", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")=5), "Limited Availability", "Full Support (In-Region)")))</f>
         <v/>
       </c>
     </row>
@@ -11248,19 +11248,19 @@
         </is>
       </c>
       <c r="B13" s="6">
-        <f>IF(OR(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"SSA-LLM",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")=5), "Not Supported", IF(OR(AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A13, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A13, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"SSA-LLM",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A13, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")&lt;5)), "Full Support (Cross-Region)", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Availability"), "Limited Availability", "Full Support (In-Region)")))</f>
+        <f>IF((IF(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"SSA-LLM",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")=5,1,0))&gt;1.5, "Not Supported", IF(OR(AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A13, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A13, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"SSA-LLM",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A13, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")&lt;5)), "Full Support (Cross-Region)", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"SSA-LLM",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")=5), "Limited Availability", "Full Support (In-Region)")))</f>
         <v/>
       </c>
       <c r="C13" s="6">
-        <f>IF(OR(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Intent (UniFit)",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Entity (NER/Spacy)",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Gen AI Summary",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Pro-active Service",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")=5), "Not Supported", IF(OR(AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A13, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A13, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Intent (UniFit)",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A13, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Entity (NER/Spacy)",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A13, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Gen AI Summary",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A13, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A13, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A13, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A13, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Pro-active Service",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")&lt;5)), "Full Support (Cross-Region)", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Availability"), "Limited Availability", "Full Support (In-Region)")))</f>
+        <f>IF((IF(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Intent (UniFit)",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Entity (NER/Spacy)",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Gen AI Summary",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Pro-active Service",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")=5,1,0))&gt;4.0, "Not Supported", IF(OR(AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A13, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A13, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Intent (UniFit)",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A13, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Entity (NER/Spacy)",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A13, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Gen AI Summary",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A13, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A13, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A13, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A13, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Pro-active Service",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")&lt;5)), "Full Support (Cross-Region)", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Intent (UniFit)",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Entity (NER/Spacy)",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Gen AI Summary",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Pro-active Service",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")=5), "Limited Availability", "Full Support (In-Region)")))</f>
         <v/>
       </c>
       <c r="D13" s="6">
-        <f>IF(OR(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Conversation Facts",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")=5), "Not Supported", IF(OR(AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A13, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A13, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A13, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A13, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Conversation Facts",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")&lt;5)), "Full Support (Cross-Region)", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Availability"), "Limited Availability", "Full Support (In-Region)")))</f>
+        <f>IF((IF(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Conversation Facts",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")=5,1,0))&gt;2.0, "Not Supported", IF(OR(AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A13, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A13, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A13, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A13, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Conversation Facts",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")&lt;5)), "Full Support (Cross-Region)", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Conversation Facts",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")=5), "Limited Availability", "Full Support (In-Region)")))</f>
         <v/>
       </c>
       <c r="E13" s="6">
-        <f>IF(OR(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")=5), "Not Supported", IF(OR(AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A13, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A13, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")&lt;5)), "Full Support (Cross-Region)", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Availability"), "Limited Availability", "Full Support (In-Region)")))</f>
+        <f>IF((IF(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")=5,1,0))&gt;1.0, "Not Supported", IF(OR(AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A13, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A13, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")&lt;5)), "Full Support (Cross-Region)", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")=5), "Limited Availability", "Full Support (In-Region)")))</f>
         <v/>
       </c>
     </row>
@@ -11271,19 +11271,19 @@
         </is>
       </c>
       <c r="B14" s="6">
-        <f>IF(OR(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"SSA-LLM",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")=5), "Not Supported", IF(OR(AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A14, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A14, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"SSA-LLM",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A14, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")&lt;5)), "Full Support (Cross-Region)", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Availability"), "Limited Availability", "Full Support (In-Region)")))</f>
+        <f>IF((IF(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"SSA-LLM",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")=5,1,0))&gt;1.5, "Not Supported", IF(OR(AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A14, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A14, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"SSA-LLM",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A14, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")&lt;5)), "Full Support (Cross-Region)", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"SSA-LLM",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")=5), "Limited Availability", "Full Support (In-Region)")))</f>
         <v/>
       </c>
       <c r="C14" s="6">
-        <f>IF(OR(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Intent (UniFit)",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Entity (NER/Spacy)",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Gen AI Summary",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Pro-active Service",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")=5), "Not Supported", IF(OR(AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A14, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A14, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Intent (UniFit)",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A14, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Entity (NER/Spacy)",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A14, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Gen AI Summary",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A14, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A14, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A14, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A14, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Pro-active Service",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")&lt;5)), "Full Support (Cross-Region)", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Availability"), "Limited Availability", "Full Support (In-Region)")))</f>
+        <f>IF((IF(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Intent (UniFit)",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Entity (NER/Spacy)",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Gen AI Summary",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Pro-active Service",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")=5,1,0))&gt;4.0, "Not Supported", IF(OR(AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A14, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A14, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Intent (UniFit)",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A14, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Entity (NER/Spacy)",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A14, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Gen AI Summary",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A14, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A14, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A14, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A14, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Pro-active Service",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")&lt;5)), "Full Support (Cross-Region)", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Intent (UniFit)",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Entity (NER/Spacy)",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Gen AI Summary",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Pro-active Service",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")=5), "Limited Availability", "Full Support (In-Region)")))</f>
         <v/>
       </c>
       <c r="D14" s="6">
-        <f>IF(OR(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Conversation Facts",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")=5), "Not Supported", IF(OR(AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A14, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A14, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A14, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A14, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Conversation Facts",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")&lt;5)), "Full Support (Cross-Region)", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Availability"), "Limited Availability", "Full Support (In-Region)")))</f>
+        <f>IF((IF(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Conversation Facts",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")=5,1,0))&gt;2.0, "Not Supported", IF(OR(AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A14, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A14, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A14, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A14, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Conversation Facts",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")&lt;5)), "Full Support (Cross-Region)", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Conversation Facts",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")=5), "Limited Availability", "Full Support (In-Region)")))</f>
         <v/>
       </c>
       <c r="E14" s="6">
-        <f>IF(OR(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")=5), "Not Supported", IF(OR(AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A14, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A14, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")&lt;5)), "Full Support (Cross-Region)", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Availability"), "Limited Availability", "Full Support (In-Region)")))</f>
+        <f>IF((IF(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")=5,1,0))&gt;1.0, "Not Supported", IF(OR(AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A14, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A14, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")&lt;5)), "Full Support (Cross-Region)", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")=5), "Limited Availability", "Full Support (In-Region)")))</f>
         <v/>
       </c>
     </row>

--- a/Product Language Matrix/Smart_Availability_Matrix.xlsx
+++ b/Product Language Matrix/Smart_Availability_Matrix.xlsx
@@ -596,7 +596,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E3">
@@ -622,7 +622,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E4">
@@ -648,7 +648,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E5">
@@ -674,7 +674,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E6">
@@ -700,7 +700,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E7">
@@ -726,7 +726,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E8">
@@ -752,7 +752,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E9">
@@ -804,7 +804,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E11">
@@ -882,7 +882,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E14">
@@ -960,7 +960,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E17">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E22">
@@ -1116,7 +1116,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E23">
@@ -1168,7 +1168,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E25">
@@ -1194,7 +1194,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E26">
@@ -1220,7 +1220,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E27">
@@ -1246,7 +1246,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E28">
@@ -1272,7 +1272,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E29">
@@ -1298,7 +1298,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E30">
@@ -1324,7 +1324,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E31">
@@ -1376,7 +1376,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E33">
@@ -1402,7 +1402,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E34">
@@ -1454,7 +1454,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E36">
@@ -1532,7 +1532,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E39">
@@ -1584,7 +1584,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E41">
@@ -1636,7 +1636,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E43">
@@ -1662,7 +1662,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E44">
@@ -1740,7 +1740,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E47">
@@ -1792,7 +1792,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E49">
@@ -1818,7 +1818,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E50">
@@ -1870,7 +1870,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E52">
@@ -1896,7 +1896,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E53">
@@ -1922,7 +1922,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E54">
@@ -1948,7 +1948,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E55">
@@ -2000,7 +2000,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E57">
@@ -2078,7 +2078,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E60">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E61">
@@ -2156,7 +2156,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E63">
@@ -2182,7 +2182,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E64">
@@ -2234,7 +2234,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E66">
@@ -2338,7 +2338,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E70">
@@ -2364,7 +2364,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E71">
@@ -2390,7 +2390,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E72">
@@ -2520,7 +2520,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E77">
@@ -2676,7 +2676,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E83">
@@ -2754,7 +2754,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E86">
@@ -2780,7 +2780,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E87">
@@ -2832,7 +2832,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E89">
@@ -2858,7 +2858,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E90">
@@ -2884,7 +2884,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E91">
@@ -2910,7 +2910,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E92">
@@ -2962,7 +2962,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E94">
@@ -2988,7 +2988,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E95">
@@ -3040,7 +3040,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E97">
@@ -3066,7 +3066,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E98">
@@ -3092,7 +3092,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E99">
@@ -3118,7 +3118,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E100">
@@ -3196,7 +3196,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E103">
@@ -3248,7 +3248,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E105">
@@ -3274,7 +3274,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E106">
@@ -3300,7 +3300,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E107">
@@ -3326,7 +3326,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E108">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E109">
@@ -3378,7 +3378,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E110">
@@ -3404,7 +3404,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E111">
@@ -3430,7 +3430,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E112">
@@ -3456,7 +3456,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E113">
@@ -3482,7 +3482,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E114">
@@ -3508,7 +3508,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E115">
@@ -3534,7 +3534,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E116">
@@ -3586,7 +3586,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E118">
@@ -3638,7 +3638,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E120">
@@ -3690,7 +3690,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E122">
@@ -3716,7 +3716,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E123">
@@ -3768,7 +3768,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E125">
@@ -3794,7 +3794,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E126">
@@ -3820,7 +3820,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E127">
@@ -3846,7 +3846,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E128">
@@ -3872,7 +3872,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E129">
@@ -3898,7 +3898,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E130">
@@ -3924,7 +3924,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E131">
@@ -3950,7 +3950,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E132">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E133">
@@ -4002,7 +4002,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E134">
@@ -4028,7 +4028,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E135">
@@ -4054,7 +4054,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E136">
@@ -4080,7 +4080,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E137">
@@ -4106,7 +4106,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E138">
@@ -4132,7 +4132,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E139">
@@ -4184,7 +4184,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E141">
@@ -4210,7 +4210,7 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E142">
@@ -4262,7 +4262,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E144">
@@ -4288,7 +4288,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E145">
@@ -4314,7 +4314,7 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E146">
@@ -4340,7 +4340,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E147">
@@ -4366,7 +4366,7 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E148">
@@ -4418,7 +4418,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E150">
@@ -4496,7 +4496,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E153">
@@ -4548,7 +4548,7 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E155">
@@ -4574,7 +4574,7 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E156">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E157">
@@ -4626,7 +4626,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E158">
@@ -4652,7 +4652,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E159">
@@ -4678,7 +4678,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E160">
@@ -4704,7 +4704,7 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E161">
@@ -4730,7 +4730,7 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E162">
@@ -4782,7 +4782,7 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E164">
@@ -4834,7 +4834,7 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E166">
@@ -4860,7 +4860,7 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E167">
@@ -4886,7 +4886,7 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E168">
@@ -4912,7 +4912,7 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E169">
@@ -4964,7 +4964,7 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E171">
@@ -4990,7 +4990,7 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E172">
@@ -5016,7 +5016,7 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E173">
@@ -5042,7 +5042,7 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E174">
@@ -5068,7 +5068,7 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E175">
@@ -5146,7 +5146,7 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E178">
@@ -5172,7 +5172,7 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E179">
@@ -5198,7 +5198,7 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E180">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E181">
@@ -5250,7 +5250,7 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E182">
@@ -5276,7 +5276,7 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E183">
@@ -5302,7 +5302,7 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E184">
@@ -5328,7 +5328,7 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E185">
@@ -5484,7 +5484,7 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E191">
@@ -5536,7 +5536,7 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E193">
@@ -5562,7 +5562,7 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E194">
@@ -5666,7 +5666,7 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E198">
@@ -5718,7 +5718,7 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E200">
@@ -5796,7 +5796,7 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E203">
@@ -5822,7 +5822,7 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E204">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E205">
@@ -5874,7 +5874,7 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E206">
@@ -5900,7 +5900,7 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E207">
@@ -5926,7 +5926,7 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E208">
@@ -6004,7 +6004,7 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E211">
@@ -6030,7 +6030,7 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E212">
@@ -6082,7 +6082,7 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E214">
@@ -6108,7 +6108,7 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E215">
@@ -6134,7 +6134,7 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E216">
@@ -6160,7 +6160,7 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E217">
@@ -6212,7 +6212,7 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E219">
@@ -6238,7 +6238,7 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E220">
@@ -6290,7 +6290,7 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E222">
@@ -6316,7 +6316,7 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E223">
@@ -6342,7 +6342,7 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E224">
@@ -6394,7 +6394,7 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E226">
@@ -6420,7 +6420,7 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E227">
@@ -6446,7 +6446,7 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E228">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E229">
@@ -6498,7 +6498,7 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E230">
@@ -6550,7 +6550,7 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E232">
@@ -6576,7 +6576,7 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E233">
@@ -6628,7 +6628,7 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E235">
@@ -6654,7 +6654,7 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E236">
@@ -6680,7 +6680,7 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E237">
@@ -6706,7 +6706,7 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E238">
@@ -6784,7 +6784,7 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E241">
@@ -6810,7 +6810,7 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E242">
@@ -6940,7 +6940,7 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E247">
@@ -7018,7 +7018,7 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E250">
@@ -7096,7 +7096,7 @@
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E253">
@@ -7122,7 +7122,7 @@
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E254">
@@ -7148,7 +7148,7 @@
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E255">
@@ -7200,7 +7200,7 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E257">
@@ -7226,7 +7226,7 @@
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E258">
@@ -7304,7 +7304,7 @@
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E261">
@@ -7356,7 +7356,7 @@
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E263">
@@ -7382,7 +7382,7 @@
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E264">
@@ -7434,7 +7434,7 @@
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E266">
@@ -7460,7 +7460,7 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E267">
@@ -7486,7 +7486,7 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E268">
@@ -7538,7 +7538,7 @@
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E270">
@@ -7616,7 +7616,7 @@
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E273">
@@ -7642,7 +7642,7 @@
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E274">
@@ -7668,7 +7668,7 @@
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E275">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E277">
@@ -7772,7 +7772,7 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E279">
@@ -7798,7 +7798,7 @@
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E280">
@@ -7824,7 +7824,7 @@
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E281">
@@ -7850,7 +7850,7 @@
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E282">
@@ -7902,7 +7902,7 @@
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E284">
@@ -7980,7 +7980,7 @@
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E287">
@@ -8006,7 +8006,7 @@
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E288">
@@ -8162,7 +8162,7 @@
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E294">
@@ -8188,7 +8188,7 @@
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E295">
@@ -8240,7 +8240,7 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E297">
@@ -8266,7 +8266,7 @@
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E298">
@@ -8292,7 +8292,7 @@
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E299">
@@ -8318,7 +8318,7 @@
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E300">
@@ -8422,7 +8422,7 @@
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E304">
@@ -8448,7 +8448,7 @@
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E305">
@@ -8474,7 +8474,7 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E306">
@@ -8552,7 +8552,7 @@
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E309">
@@ -8578,7 +8578,7 @@
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E310">
@@ -8604,7 +8604,7 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E311">
@@ -8630,7 +8630,7 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E312">
@@ -8656,7 +8656,7 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E313">
@@ -8812,7 +8812,7 @@
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E319">
@@ -8890,7 +8890,7 @@
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E322">
@@ -8916,7 +8916,7 @@
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E323">
@@ -8942,7 +8942,7 @@
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E324">
@@ -9020,7 +9020,7 @@
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E327">
@@ -9046,7 +9046,7 @@
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E328">
@@ -9098,7 +9098,7 @@
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E330">
@@ -9124,7 +9124,7 @@
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E331">
@@ -9176,7 +9176,7 @@
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E333">
@@ -9228,7 +9228,7 @@
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E335">
@@ -9332,7 +9332,7 @@
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E339">
@@ -9358,7 +9358,7 @@
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E340">
@@ -9384,7 +9384,7 @@
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E341">
@@ -9410,7 +9410,7 @@
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E342">
@@ -9436,7 +9436,7 @@
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E343">
@@ -9488,7 +9488,7 @@
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E345">
@@ -9540,7 +9540,7 @@
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E347">
@@ -9566,7 +9566,7 @@
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E348">
@@ -9592,7 +9592,7 @@
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E349">
@@ -9644,7 +9644,7 @@
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E351">
@@ -9748,7 +9748,7 @@
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E355">
@@ -9774,7 +9774,7 @@
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E356">
@@ -9826,7 +9826,7 @@
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E358">
@@ -9852,7 +9852,7 @@
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E359">
@@ -9878,7 +9878,7 @@
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E360">
@@ -9904,7 +9904,7 @@
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E361">
@@ -9930,7 +9930,7 @@
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E362">
@@ -9982,7 +9982,7 @@
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E364">
@@ -10008,7 +10008,7 @@
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E365">
@@ -10060,7 +10060,7 @@
       </c>
       <c r="D367" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E367">
@@ -10138,7 +10138,7 @@
       </c>
       <c r="D370" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E370">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="D373" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E373">
@@ -10268,7 +10268,7 @@
       </c>
       <c r="D375" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E375">
@@ -10294,7 +10294,7 @@
       </c>
       <c r="D376" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E376">
@@ -10320,7 +10320,7 @@
       </c>
       <c r="D377" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E377">
@@ -10346,7 +10346,7 @@
       </c>
       <c r="D378" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E378">
@@ -10398,7 +10398,7 @@
       </c>
       <c r="D380" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E380">
@@ -10450,7 +10450,7 @@
       </c>
       <c r="D382" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E382">
@@ -10502,7 +10502,7 @@
       </c>
       <c r="D384" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E384">
@@ -10528,7 +10528,7 @@
       </c>
       <c r="D385" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E385">
@@ -11133,19 +11133,19 @@
         </is>
       </c>
       <c r="B8" s="6">
-        <f>IF((IF(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"SSA-LLM",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")=5,1,0))&gt;1.5, "Not Supported", IF(OR(AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A8, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A8, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"SSA-LLM",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A8, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")&lt;5)), "Full Support (Cross-Region)", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"SSA-LLM",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")=5), "Limited Availability", "Full Support (In-Region)")))</f>
+        <f>IF((IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A8, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A8, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A8, Service_Input!$E:$E, 0))="General Availability",1,0))=3, "Full Support (In-Region)", IF((IF(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"SSA-LLM",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"General Availability")&gt;=1,1,0))=3, "Full Support (Cross-Region)", IF(((IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A8, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A8, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"SSA-LLM",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A8, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"General Availability")&gt;=1),1,0))/3)&gt;=0.7, "Limited Availability", "Not Supported")))</f>
         <v/>
       </c>
       <c r="C8" s="6">
-        <f>IF((IF(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Intent (UniFit)",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Entity (NER/Spacy)",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Gen AI Summary",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Pro-active Service",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")=5,1,0))&gt;4.0, "Not Supported", IF(OR(AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A8, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A8, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Intent (UniFit)",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A8, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Entity (NER/Spacy)",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A8, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Gen AI Summary",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A8, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A8, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A8, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A8, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Pro-active Service",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")&lt;5)), "Full Support (Cross-Region)", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Intent (UniFit)",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Entity (NER/Spacy)",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Gen AI Summary",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Pro-active Service",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")=5), "Limited Availability", "Full Support (In-Region)")))</f>
+        <f>IF((IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A8, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A8, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A8, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A8, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A8, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A8, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A8, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A8, Service_Input!$E:$E, 0))="General Availability",1,0))=8, "Full Support (In-Region)", IF((IF(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Intent (UniFit)",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Entity (NER/Spacy)",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Gen AI Summary",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Pro-active Service",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"General Availability")&gt;=1,1,0))=8, "Full Support (Cross-Region)", IF(((IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A8, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A8, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Intent (UniFit)",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A8, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Entity (NER/Spacy)",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A8, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Gen AI Summary",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A8, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A8, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A8, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A8, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Pro-active Service",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"General Availability")&gt;=1),1,0))/8)&gt;=0.7, "Limited Availability", "Not Supported")))</f>
         <v/>
       </c>
       <c r="D8" s="6">
-        <f>IF((IF(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Conversation Facts",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")=5,1,0))&gt;2.0, "Not Supported", IF(OR(AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A8, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A8, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A8, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A8, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Conversation Facts",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")&lt;5)), "Full Support (Cross-Region)", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Conversation Facts",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")=5), "Limited Availability", "Full Support (In-Region)")))</f>
+        <f>IF((IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A8, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A8, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A8, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A8, Service_Input!$E:$E, 0))="General Availability",1,0))=4, "Full Support (In-Region)", IF((IF(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Conversation Facts",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"General Availability")&gt;=1,1,0))=4, "Full Support (Cross-Region)", IF(((IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A8, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A8, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A8, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A8, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Conversation Facts",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"General Availability")&gt;=1),1,0))/4)&gt;=0.7, "Limited Availability", "Not Supported")))</f>
         <v/>
       </c>
       <c r="E8" s="6">
-        <f>IF((IF(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")=5,1,0))&gt;1.0, "Not Supported", IF(OR(AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A8, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A8, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")&lt;5)), "Full Support (Cross-Region)", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"Not Supported")=5), "Limited Availability", "Full Support (In-Region)")))</f>
+        <f>IF((IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A8, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A8, Service_Input!$E:$E, 0))="General Availability",1,0))=2, "Full Support (In-Region)", IF((IF(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"General Availability")&gt;=1,1,0))=2, "Full Support (Cross-Region)", IF(((IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A8, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A8, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"General Availability")&gt;=1),1,0))/2)&gt;=0.7, "Limited Availability", "Not Supported")))</f>
         <v/>
       </c>
     </row>
@@ -11156,19 +11156,19 @@
         </is>
       </c>
       <c r="B9" s="6">
-        <f>IF((IF(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"SSA-LLM",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")=5,1,0))&gt;1.5, "Not Supported", IF(OR(AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A9, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A9, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"SSA-LLM",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A9, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")&lt;5)), "Full Support (Cross-Region)", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"SSA-LLM",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")=5), "Limited Availability", "Full Support (In-Region)")))</f>
+        <f>IF((IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A9, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A9, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A9, Service_Input!$E:$E, 0))="General Availability",1,0))=3, "Full Support (In-Region)", IF((IF(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"SSA-LLM",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"General Availability")&gt;=1,1,0))=3, "Full Support (Cross-Region)", IF(((IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A9, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A9, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"SSA-LLM",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A9, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"General Availability")&gt;=1),1,0))/3)&gt;=0.7, "Limited Availability", "Not Supported")))</f>
         <v/>
       </c>
       <c r="C9" s="6">
-        <f>IF((IF(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Intent (UniFit)",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Entity (NER/Spacy)",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Gen AI Summary",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Pro-active Service",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")=5,1,0))&gt;4.0, "Not Supported", IF(OR(AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A9, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A9, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Intent (UniFit)",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A9, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Entity (NER/Spacy)",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A9, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Gen AI Summary",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A9, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A9, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A9, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A9, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Pro-active Service",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")&lt;5)), "Full Support (Cross-Region)", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Intent (UniFit)",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Entity (NER/Spacy)",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Gen AI Summary",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Pro-active Service",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")=5), "Limited Availability", "Full Support (In-Region)")))</f>
+        <f>IF((IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A9, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A9, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A9, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A9, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A9, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A9, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A9, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A9, Service_Input!$E:$E, 0))="General Availability",1,0))=8, "Full Support (In-Region)", IF((IF(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Intent (UniFit)",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Entity (NER/Spacy)",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Gen AI Summary",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Pro-active Service",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"General Availability")&gt;=1,1,0))=8, "Full Support (Cross-Region)", IF(((IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A9, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A9, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Intent (UniFit)",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A9, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Entity (NER/Spacy)",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A9, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Gen AI Summary",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A9, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A9, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A9, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A9, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Pro-active Service",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"General Availability")&gt;=1),1,0))/8)&gt;=0.7, "Limited Availability", "Not Supported")))</f>
         <v/>
       </c>
       <c r="D9" s="6">
-        <f>IF((IF(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Conversation Facts",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")=5,1,0))&gt;2.0, "Not Supported", IF(OR(AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A9, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A9, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A9, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A9, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Conversation Facts",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")&lt;5)), "Full Support (Cross-Region)", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Conversation Facts",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")=5), "Limited Availability", "Full Support (In-Region)")))</f>
+        <f>IF((IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A9, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A9, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A9, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A9, Service_Input!$E:$E, 0))="General Availability",1,0))=4, "Full Support (In-Region)", IF((IF(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Conversation Facts",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"General Availability")&gt;=1,1,0))=4, "Full Support (Cross-Region)", IF(((IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A9, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A9, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A9, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A9, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Conversation Facts",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"General Availability")&gt;=1),1,0))/4)&gt;=0.7, "Limited Availability", "Not Supported")))</f>
         <v/>
       </c>
       <c r="E9" s="6">
-        <f>IF((IF(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")=5,1,0))&gt;1.0, "Not Supported", IF(OR(AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A9, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A9, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")&lt;5)), "Full Support (Cross-Region)", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"Not Supported")=5), "Limited Availability", "Full Support (In-Region)")))</f>
+        <f>IF((IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A9, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A9, Service_Input!$E:$E, 0))="General Availability",1,0))=2, "Full Support (In-Region)", IF((IF(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"General Availability")&gt;=1,1,0))=2, "Full Support (Cross-Region)", IF(((IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A9, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A9, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"General Availability")&gt;=1),1,0))/2)&gt;=0.7, "Limited Availability", "Not Supported")))</f>
         <v/>
       </c>
     </row>
@@ -11179,19 +11179,19 @@
         </is>
       </c>
       <c r="B10" s="6">
-        <f>IF((IF(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"SSA-LLM",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")=5,1,0))&gt;1.5, "Not Supported", IF(OR(AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A10, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A10, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"SSA-LLM",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A10, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")&lt;5)), "Full Support (Cross-Region)", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"SSA-LLM",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")=5), "Limited Availability", "Full Support (In-Region)")))</f>
+        <f>IF((IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A10, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A10, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A10, Service_Input!$E:$E, 0))="General Availability",1,0))=3, "Full Support (In-Region)", IF((IF(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"SSA-LLM",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"General Availability")&gt;=1,1,0))=3, "Full Support (Cross-Region)", IF(((IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A10, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A10, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"SSA-LLM",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A10, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"General Availability")&gt;=1),1,0))/3)&gt;=0.7, "Limited Availability", "Not Supported")))</f>
         <v/>
       </c>
       <c r="C10" s="6">
-        <f>IF((IF(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Intent (UniFit)",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Entity (NER/Spacy)",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Gen AI Summary",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Pro-active Service",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")=5,1,0))&gt;4.0, "Not Supported", IF(OR(AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A10, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A10, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Intent (UniFit)",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A10, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Entity (NER/Spacy)",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A10, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Gen AI Summary",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A10, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A10, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A10, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A10, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Pro-active Service",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")&lt;5)), "Full Support (Cross-Region)", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Intent (UniFit)",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Entity (NER/Spacy)",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Gen AI Summary",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Pro-active Service",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")=5), "Limited Availability", "Full Support (In-Region)")))</f>
+        <f>IF((IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A10, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A10, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A10, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A10, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A10, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A10, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A10, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A10, Service_Input!$E:$E, 0))="General Availability",1,0))=8, "Full Support (In-Region)", IF((IF(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Intent (UniFit)",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Entity (NER/Spacy)",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Gen AI Summary",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Pro-active Service",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"General Availability")&gt;=1,1,0))=8, "Full Support (Cross-Region)", IF(((IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A10, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A10, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Intent (UniFit)",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A10, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Entity (NER/Spacy)",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A10, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Gen AI Summary",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A10, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A10, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A10, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A10, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Pro-active Service",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"General Availability")&gt;=1),1,0))/8)&gt;=0.7, "Limited Availability", "Not Supported")))</f>
         <v/>
       </c>
       <c r="D10" s="6">
-        <f>IF((IF(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Conversation Facts",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")=5,1,0))&gt;2.0, "Not Supported", IF(OR(AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A10, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A10, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A10, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A10, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Conversation Facts",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")&lt;5)), "Full Support (Cross-Region)", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Conversation Facts",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")=5), "Limited Availability", "Full Support (In-Region)")))</f>
+        <f>IF((IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A10, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A10, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A10, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A10, Service_Input!$E:$E, 0))="General Availability",1,0))=4, "Full Support (In-Region)", IF((IF(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Conversation Facts",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"General Availability")&gt;=1,1,0))=4, "Full Support (Cross-Region)", IF(((IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A10, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A10, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A10, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A10, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Conversation Facts",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"General Availability")&gt;=1),1,0))/4)&gt;=0.7, "Limited Availability", "Not Supported")))</f>
         <v/>
       </c>
       <c r="E10" s="6">
-        <f>IF((IF(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")=5,1,0))&gt;1.0, "Not Supported", IF(OR(AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A10, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A10, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")&lt;5)), "Full Support (Cross-Region)", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"Not Supported")=5), "Limited Availability", "Full Support (In-Region)")))</f>
+        <f>IF((IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A10, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A10, Service_Input!$E:$E, 0))="General Availability",1,0))=2, "Full Support (In-Region)", IF((IF(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"General Availability")&gt;=1,1,0))=2, "Full Support (Cross-Region)", IF(((IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A10, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A10, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"General Availability")&gt;=1),1,0))/2)&gt;=0.7, "Limited Availability", "Not Supported")))</f>
         <v/>
       </c>
     </row>
@@ -11202,19 +11202,19 @@
         </is>
       </c>
       <c r="B11" s="6">
-        <f>IF((IF(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"SSA-LLM",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")=5,1,0))&gt;1.5, "Not Supported", IF(OR(AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A11, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A11, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"SSA-LLM",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A11, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")&lt;5)), "Full Support (Cross-Region)", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"SSA-LLM",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")=5), "Limited Availability", "Full Support (In-Region)")))</f>
+        <f>IF((IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A11, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A11, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A11, Service_Input!$E:$E, 0))="General Availability",1,0))=3, "Full Support (In-Region)", IF((IF(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"SSA-LLM",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"General Availability")&gt;=1,1,0))=3, "Full Support (Cross-Region)", IF(((IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A11, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A11, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"SSA-LLM",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A11, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"General Availability")&gt;=1),1,0))/3)&gt;=0.7, "Limited Availability", "Not Supported")))</f>
         <v/>
       </c>
       <c r="C11" s="6">
-        <f>IF((IF(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Intent (UniFit)",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Entity (NER/Spacy)",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Gen AI Summary",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Pro-active Service",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")=5,1,0))&gt;4.0, "Not Supported", IF(OR(AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A11, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A11, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Intent (UniFit)",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A11, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Entity (NER/Spacy)",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A11, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Gen AI Summary",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A11, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A11, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A11, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A11, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Pro-active Service",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")&lt;5)), "Full Support (Cross-Region)", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Intent (UniFit)",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Entity (NER/Spacy)",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Gen AI Summary",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Pro-active Service",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")=5), "Limited Availability", "Full Support (In-Region)")))</f>
+        <f>IF((IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A11, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A11, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A11, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A11, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A11, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A11, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A11, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A11, Service_Input!$E:$E, 0))="General Availability",1,0))=8, "Full Support (In-Region)", IF((IF(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Intent (UniFit)",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Entity (NER/Spacy)",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Gen AI Summary",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Pro-active Service",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"General Availability")&gt;=1,1,0))=8, "Full Support (Cross-Region)", IF(((IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A11, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A11, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Intent (UniFit)",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A11, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Entity (NER/Spacy)",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A11, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Gen AI Summary",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A11, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A11, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A11, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A11, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Pro-active Service",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"General Availability")&gt;=1),1,0))/8)&gt;=0.7, "Limited Availability", "Not Supported")))</f>
         <v/>
       </c>
       <c r="D11" s="6">
-        <f>IF((IF(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Conversation Facts",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")=5,1,0))&gt;2.0, "Not Supported", IF(OR(AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A11, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A11, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A11, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A11, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Conversation Facts",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")&lt;5)), "Full Support (Cross-Region)", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Conversation Facts",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")=5), "Limited Availability", "Full Support (In-Region)")))</f>
+        <f>IF((IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A11, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A11, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A11, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A11, Service_Input!$E:$E, 0))="General Availability",1,0))=4, "Full Support (In-Region)", IF((IF(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Conversation Facts",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"General Availability")&gt;=1,1,0))=4, "Full Support (Cross-Region)", IF(((IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A11, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A11, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A11, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A11, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Conversation Facts",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"General Availability")&gt;=1),1,0))/4)&gt;=0.7, "Limited Availability", "Not Supported")))</f>
         <v/>
       </c>
       <c r="E11" s="6">
-        <f>IF((IF(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")=5,1,0))&gt;1.0, "Not Supported", IF(OR(AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A11, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A11, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")&lt;5)), "Full Support (Cross-Region)", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"Not Supported")=5), "Limited Availability", "Full Support (In-Region)")))</f>
+        <f>IF((IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A11, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A11, Service_Input!$E:$E, 0))="General Availability",1,0))=2, "Full Support (In-Region)", IF((IF(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"General Availability")&gt;=1,1,0))=2, "Full Support (Cross-Region)", IF(((IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A11, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A11, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"General Availability")&gt;=1),1,0))/2)&gt;=0.7, "Limited Availability", "Not Supported")))</f>
         <v/>
       </c>
     </row>
@@ -11225,19 +11225,19 @@
         </is>
       </c>
       <c r="B12" s="6">
-        <f>IF((IF(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"SSA-LLM",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")=5,1,0))&gt;1.5, "Not Supported", IF(OR(AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A12, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A12, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"SSA-LLM",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A12, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")&lt;5)), "Full Support (Cross-Region)", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"SSA-LLM",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")=5), "Limited Availability", "Full Support (In-Region)")))</f>
+        <f>IF((IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A12, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A12, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A12, Service_Input!$E:$E, 0))="General Availability",1,0))=3, "Full Support (In-Region)", IF((IF(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"SSA-LLM",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"General Availability")&gt;=1,1,0))=3, "Full Support (Cross-Region)", IF(((IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A12, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A12, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"SSA-LLM",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A12, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"General Availability")&gt;=1),1,0))/3)&gt;=0.7, "Limited Availability", "Not Supported")))</f>
         <v/>
       </c>
       <c r="C12" s="6">
-        <f>IF((IF(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Intent (UniFit)",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Entity (NER/Spacy)",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Gen AI Summary",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Pro-active Service",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")=5,1,0))&gt;4.0, "Not Supported", IF(OR(AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A12, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A12, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Intent (UniFit)",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A12, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Entity (NER/Spacy)",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A12, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Gen AI Summary",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A12, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A12, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A12, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A12, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Pro-active Service",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")&lt;5)), "Full Support (Cross-Region)", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Intent (UniFit)",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Entity (NER/Spacy)",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Gen AI Summary",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Pro-active Service",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")=5), "Limited Availability", "Full Support (In-Region)")))</f>
+        <f>IF((IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A12, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A12, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A12, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A12, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A12, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A12, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A12, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A12, Service_Input!$E:$E, 0))="General Availability",1,0))=8, "Full Support (In-Region)", IF((IF(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Intent (UniFit)",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Entity (NER/Spacy)",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Gen AI Summary",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Pro-active Service",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"General Availability")&gt;=1,1,0))=8, "Full Support (Cross-Region)", IF(((IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A12, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A12, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Intent (UniFit)",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A12, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Entity (NER/Spacy)",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A12, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Gen AI Summary",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A12, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A12, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A12, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A12, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Pro-active Service",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"General Availability")&gt;=1),1,0))/8)&gt;=0.7, "Limited Availability", "Not Supported")))</f>
         <v/>
       </c>
       <c r="D12" s="6">
-        <f>IF((IF(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Conversation Facts",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")=5,1,0))&gt;2.0, "Not Supported", IF(OR(AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A12, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A12, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A12, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A12, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Conversation Facts",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")&lt;5)), "Full Support (Cross-Region)", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Conversation Facts",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")=5), "Limited Availability", "Full Support (In-Region)")))</f>
+        <f>IF((IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A12, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A12, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A12, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A12, Service_Input!$E:$E, 0))="General Availability",1,0))=4, "Full Support (In-Region)", IF((IF(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Conversation Facts",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"General Availability")&gt;=1,1,0))=4, "Full Support (Cross-Region)", IF(((IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A12, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A12, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A12, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A12, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Conversation Facts",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"General Availability")&gt;=1),1,0))/4)&gt;=0.7, "Limited Availability", "Not Supported")))</f>
         <v/>
       </c>
       <c r="E12" s="6">
-        <f>IF((IF(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")=5,1,0))&gt;1.0, "Not Supported", IF(OR(AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A12, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A12, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")&lt;5)), "Full Support (Cross-Region)", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"Not Supported")=5), "Limited Availability", "Full Support (In-Region)")))</f>
+        <f>IF((IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A12, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A12, Service_Input!$E:$E, 0))="General Availability",1,0))=2, "Full Support (In-Region)", IF((IF(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"General Availability")&gt;=1,1,0))=2, "Full Support (Cross-Region)", IF(((IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A12, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A12, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"General Availability")&gt;=1),1,0))/2)&gt;=0.7, "Limited Availability", "Not Supported")))</f>
         <v/>
       </c>
     </row>
@@ -11248,19 +11248,19 @@
         </is>
       </c>
       <c r="B13" s="6">
-        <f>IF((IF(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"SSA-LLM",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")=5,1,0))&gt;1.5, "Not Supported", IF(OR(AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A13, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A13, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"SSA-LLM",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A13, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")&lt;5)), "Full Support (Cross-Region)", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"SSA-LLM",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")=5), "Limited Availability", "Full Support (In-Region)")))</f>
+        <f>IF((IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A13, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A13, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A13, Service_Input!$E:$E, 0))="General Availability",1,0))=3, "Full Support (In-Region)", IF((IF(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"SSA-LLM",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"General Availability")&gt;=1,1,0))=3, "Full Support (Cross-Region)", IF(((IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A13, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A13, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"SSA-LLM",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A13, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"General Availability")&gt;=1),1,0))/3)&gt;=0.7, "Limited Availability", "Not Supported")))</f>
         <v/>
       </c>
       <c r="C13" s="6">
-        <f>IF((IF(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Intent (UniFit)",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Entity (NER/Spacy)",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Gen AI Summary",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Pro-active Service",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")=5,1,0))&gt;4.0, "Not Supported", IF(OR(AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A13, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A13, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Intent (UniFit)",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A13, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Entity (NER/Spacy)",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A13, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Gen AI Summary",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A13, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A13, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A13, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A13, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Pro-active Service",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")&lt;5)), "Full Support (Cross-Region)", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Intent (UniFit)",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Entity (NER/Spacy)",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Gen AI Summary",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Pro-active Service",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")=5), "Limited Availability", "Full Support (In-Region)")))</f>
+        <f>IF((IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A13, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A13, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A13, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A13, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A13, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A13, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A13, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A13, Service_Input!$E:$E, 0))="General Availability",1,0))=8, "Full Support (In-Region)", IF((IF(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Intent (UniFit)",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Entity (NER/Spacy)",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Gen AI Summary",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Pro-active Service",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"General Availability")&gt;=1,1,0))=8, "Full Support (Cross-Region)", IF(((IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A13, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A13, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Intent (UniFit)",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A13, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Entity (NER/Spacy)",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A13, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Gen AI Summary",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A13, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A13, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A13, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A13, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Pro-active Service",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"General Availability")&gt;=1),1,0))/8)&gt;=0.7, "Limited Availability", "Not Supported")))</f>
         <v/>
       </c>
       <c r="D13" s="6">
-        <f>IF((IF(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Conversation Facts",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")=5,1,0))&gt;2.0, "Not Supported", IF(OR(AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A13, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A13, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A13, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A13, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Conversation Facts",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")&lt;5)), "Full Support (Cross-Region)", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Conversation Facts",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")=5), "Limited Availability", "Full Support (In-Region)")))</f>
+        <f>IF((IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A13, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A13, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A13, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A13, Service_Input!$E:$E, 0))="General Availability",1,0))=4, "Full Support (In-Region)", IF((IF(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Conversation Facts",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"General Availability")&gt;=1,1,0))=4, "Full Support (Cross-Region)", IF(((IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A13, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A13, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A13, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A13, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Conversation Facts",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"General Availability")&gt;=1),1,0))/4)&gt;=0.7, "Limited Availability", "Not Supported")))</f>
         <v/>
       </c>
       <c r="E13" s="6">
-        <f>IF((IF(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")=5,1,0))&gt;1.0, "Not Supported", IF(OR(AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A13, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A13, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")&lt;5)), "Full Support (Cross-Region)", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"Not Supported")=5), "Limited Availability", "Full Support (In-Region)")))</f>
+        <f>IF((IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A13, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A13, Service_Input!$E:$E, 0))="General Availability",1,0))=2, "Full Support (In-Region)", IF((IF(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"General Availability")&gt;=1,1,0))=2, "Full Support (Cross-Region)", IF(((IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A13, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A13, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"General Availability")&gt;=1),1,0))/2)&gt;=0.7, "Limited Availability", "Not Supported")))</f>
         <v/>
       </c>
     </row>
@@ -11271,19 +11271,19 @@
         </is>
       </c>
       <c r="B14" s="6">
-        <f>IF((IF(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"SSA-LLM",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")=5,1,0))&gt;1.5, "Not Supported", IF(OR(AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A14, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A14, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"SSA-LLM",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A14, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")&lt;5)), "Full Support (Cross-Region)", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"SSA-LLM",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")=5), "Limited Availability", "Full Support (In-Region)")))</f>
+        <f>IF((IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A14, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A14, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A14, Service_Input!$E:$E, 0))="General Availability",1,0))=3, "Full Support (In-Region)", IF((IF(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"SSA-LLM",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"General Availability")&gt;=1,1,0))=3, "Full Support (Cross-Region)", IF(((IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A14, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A14, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"SSA-LLM",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A14, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"General Availability")&gt;=1),1,0))/3)&gt;=0.7, "Limited Availability", "Not Supported")))</f>
         <v/>
       </c>
       <c r="C14" s="6">
-        <f>IF((IF(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Intent (UniFit)",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Entity (NER/Spacy)",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Gen AI Summary",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Pro-active Service",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")=5,1,0))&gt;4.0, "Not Supported", IF(OR(AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A14, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A14, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Intent (UniFit)",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A14, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Entity (NER/Spacy)",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A14, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Gen AI Summary",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A14, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A14, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A14, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A14, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Pro-active Service",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")&lt;5)), "Full Support (Cross-Region)", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Intent (UniFit)",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Entity (NER/Spacy)",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Gen AI Summary",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Pro-active Service",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")=5), "Limited Availability", "Full Support (In-Region)")))</f>
+        <f>IF((IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A14, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A14, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A14, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A14, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A14, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A14, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A14, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A14, Service_Input!$E:$E, 0))="General Availability",1,0))=8, "Full Support (In-Region)", IF((IF(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Intent (UniFit)",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Entity (NER/Spacy)",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Gen AI Summary",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Pro-active Service",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"General Availability")&gt;=1,1,0))=8, "Full Support (Cross-Region)", IF(((IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A14, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A14, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Intent (UniFit)",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A14, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Entity (NER/Spacy)",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A14, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Gen AI Summary",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A14, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A14, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A14, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A14, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Pro-active Service",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"General Availability")&gt;=1),1,0))/8)&gt;=0.7, "Limited Availability", "Not Supported")))</f>
         <v/>
       </c>
       <c r="D14" s="6">
-        <f>IF((IF(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Conversation Facts",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")=5,1,0))&gt;2.0, "Not Supported", IF(OR(AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A14, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A14, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A14, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A14, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Conversation Facts",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")&lt;5)), "Full Support (Cross-Region)", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Conversation Facts",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")=5), "Limited Availability", "Full Support (In-Region)")))</f>
+        <f>IF((IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A14, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A14, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A14, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A14, Service_Input!$E:$E, 0))="General Availability",1,0))=4, "Full Support (In-Region)", IF((IF(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Conversation Facts",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"General Availability")&gt;=1,1,0))=4, "Full Support (Cross-Region)", IF(((IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A14, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A14, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A14, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A14, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Conversation Facts",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"General Availability")&gt;=1),1,0))/4)&gt;=0.7, "Limited Availability", "Not Supported")))</f>
         <v/>
       </c>
       <c r="E14" s="6">
-        <f>IF((IF(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")=5,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")=5,1,0))&gt;1.0, "Not Supported", IF(OR(AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A14, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")&lt;5),AND(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A14, Service_Input!$E:$E, 0))="Not Supported", COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")&lt;5)), "Full Support (Cross-Region)", IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")=5,COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"Not Supported")=5), "Limited Availability", "Full Support (In-Region)")))</f>
+        <f>IF((IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A14, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A14, Service_Input!$E:$E, 0))="General Availability",1,0))=2, "Full Support (In-Region)", IF((IF(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"General Availability")&gt;=1,1,0))=2, "Full Support (Cross-Region)", IF(((IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A14, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A14, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"General Availability")&gt;=1),1,0))/2)&gt;=0.7, "Limited Availability", "Not Supported")))</f>
         <v/>
       </c>
     </row>

--- a/Product Language Matrix/Smart_Availability_Matrix.xlsx
+++ b/Product Language Matrix/Smart_Availability_Matrix.xlsx
@@ -570,7 +570,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E2">
@@ -622,7 +622,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E4">
@@ -648,7 +648,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E5">
@@ -726,7 +726,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E8">
@@ -830,7 +830,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E12">
@@ -856,7 +856,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E13">
@@ -908,7 +908,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E15">
@@ -960,7 +960,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E17">
@@ -986,7 +986,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E18">
@@ -1038,7 +1038,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E20">
@@ -1064,7 +1064,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E21">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E22">
@@ -1116,7 +1116,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E23">
@@ -1194,7 +1194,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E26">
@@ -1220,7 +1220,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E27">
@@ -1298,7 +1298,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E30">
@@ -1324,7 +1324,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E31">
@@ -1376,7 +1376,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E33">
@@ -1402,7 +1402,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E34">
@@ -1428,7 +1428,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E35">
@@ -1454,7 +1454,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E36">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E37">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E38">
@@ -1532,7 +1532,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E39">
@@ -1558,7 +1558,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E40">
@@ -1584,7 +1584,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E41">
@@ -1662,7 +1662,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E44">
@@ -1688,7 +1688,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E45">
@@ -1740,7 +1740,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E47">
@@ -1766,7 +1766,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E48">
@@ -1792,7 +1792,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E49">
@@ -1818,7 +1818,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E50">
@@ -1844,7 +1844,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E51">
@@ -1870,7 +1870,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E52">
@@ -1896,7 +1896,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E53">
@@ -1922,7 +1922,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E54">
@@ -1948,7 +1948,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E55">
@@ -2000,7 +2000,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E57">
@@ -2026,7 +2026,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E58">
@@ -2052,7 +2052,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E59">
@@ -2078,7 +2078,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E60">
@@ -2130,7 +2130,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E62">
@@ -2156,7 +2156,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E63">
@@ -2182,7 +2182,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E64">
@@ -2234,7 +2234,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E66">
@@ -2286,7 +2286,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E68">
@@ -2312,7 +2312,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E69">
@@ -2338,7 +2338,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E70">
@@ -2416,7 +2416,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E73">
@@ -2442,7 +2442,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E74">
@@ -2468,7 +2468,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E75">
@@ -2520,7 +2520,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E77">
@@ -2546,7 +2546,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E78">
@@ -2598,7 +2598,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E80">
@@ -2650,7 +2650,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E82">
@@ -2676,7 +2676,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E83">
@@ -2702,7 +2702,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E84">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E85">
@@ -2754,7 +2754,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E86">
@@ -2780,7 +2780,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E87">
@@ -2910,7 +2910,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E92">
@@ -2936,7 +2936,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E93">
@@ -2988,7 +2988,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E95">
@@ -3040,7 +3040,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E97">
@@ -3066,7 +3066,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E98">
@@ -3118,7 +3118,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E100">
@@ -3144,7 +3144,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E101">
@@ -3170,7 +3170,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E102">
@@ -3196,7 +3196,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E103">
@@ -3222,7 +3222,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E104">
@@ -3274,7 +3274,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E106">
@@ -3300,7 +3300,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E107">
@@ -3326,7 +3326,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E108">
@@ -3404,7 +3404,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E111">
@@ -3430,7 +3430,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E112">
@@ -3482,7 +3482,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E114">
@@ -3508,7 +3508,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E115">
@@ -3534,7 +3534,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E116">
@@ -3560,7 +3560,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E117">
@@ -3586,7 +3586,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E118">
@@ -3690,7 +3690,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E122">
@@ -3716,7 +3716,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E123">
@@ -3768,7 +3768,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E125">
@@ -3794,7 +3794,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E126">
@@ -3820,7 +3820,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E127">
@@ -3846,7 +3846,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E128">
@@ -3924,7 +3924,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E131">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E133">
@@ -4106,7 +4106,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E138">
@@ -4132,7 +4132,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E139">
@@ -4158,7 +4158,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E140">
@@ -4184,7 +4184,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E141">
@@ -4314,7 +4314,7 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E146">
@@ -4340,7 +4340,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E147">
@@ -4392,7 +4392,7 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E149">
@@ -4418,7 +4418,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E150">
@@ -4444,7 +4444,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E151">
@@ -4470,7 +4470,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E152">
@@ -4496,7 +4496,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E153">
@@ -4522,7 +4522,7 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E154">
@@ -4548,7 +4548,7 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E155">
@@ -4574,7 +4574,7 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E156">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E157">
@@ -4626,7 +4626,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E158">
@@ -4678,7 +4678,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E160">
@@ -4704,7 +4704,7 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E161">
@@ -4730,7 +4730,7 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E162">
@@ -4756,7 +4756,7 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E163">
@@ -4782,7 +4782,7 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E164">
@@ -4834,7 +4834,7 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E166">
@@ -4912,7 +4912,7 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E169">
@@ -4964,7 +4964,7 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E171">
@@ -4990,7 +4990,7 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E172">
@@ -5016,7 +5016,7 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E173">
@@ -5042,7 +5042,7 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E174">
@@ -5094,7 +5094,7 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E176">
@@ -5146,7 +5146,7 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E178">
@@ -5198,7 +5198,7 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E180">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E181">
@@ -5276,7 +5276,7 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E183">
@@ -5302,7 +5302,7 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E184">
@@ -5328,7 +5328,7 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E185">
@@ -5354,7 +5354,7 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E186">
@@ -5380,7 +5380,7 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E187">
@@ -5406,7 +5406,7 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E188">
@@ -5484,7 +5484,7 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E191">
@@ -5510,7 +5510,7 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E192">
@@ -5614,7 +5614,7 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E196">
@@ -5692,7 +5692,7 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E199">
@@ -5718,7 +5718,7 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E200">
@@ -5744,7 +5744,7 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E201">
@@ -5770,7 +5770,7 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E202">
@@ -5796,7 +5796,7 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E203">
@@ -5822,7 +5822,7 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E204">
@@ -5874,7 +5874,7 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E206">
@@ -5900,7 +5900,7 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E207">
@@ -5952,7 +5952,7 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E209">
@@ -5978,7 +5978,7 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E210">
@@ -6056,7 +6056,7 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E213">
@@ -6082,7 +6082,7 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E214">
@@ -6108,7 +6108,7 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E215">
@@ -6212,7 +6212,7 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E219">
@@ -6264,7 +6264,7 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E221">
@@ -6290,7 +6290,7 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E222">
@@ -6316,7 +6316,7 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E223">
@@ -6342,7 +6342,7 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E224">
@@ -6368,7 +6368,7 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E225">
@@ -6446,7 +6446,7 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E228">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E229">
@@ -6550,7 +6550,7 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E232">
@@ -6576,7 +6576,7 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E233">
@@ -6602,7 +6602,7 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E234">
@@ -6628,7 +6628,7 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E235">
@@ -6706,7 +6706,7 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E238">
@@ -6758,7 +6758,7 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E240">
@@ -6810,7 +6810,7 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E242">
@@ -6914,7 +6914,7 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E246">
@@ -6940,7 +6940,7 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E247">
@@ -6966,7 +6966,7 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E248">
@@ -7018,7 +7018,7 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E250">
@@ -7044,7 +7044,7 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E251">
@@ -7122,7 +7122,7 @@
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E254">
@@ -7226,7 +7226,7 @@
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E258">
@@ -7304,7 +7304,7 @@
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E261">
@@ -7434,7 +7434,7 @@
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E266">
@@ -7460,7 +7460,7 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E267">
@@ -7512,7 +7512,7 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E269">
@@ -7538,7 +7538,7 @@
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E270">
@@ -7564,7 +7564,7 @@
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E271">
@@ -7642,7 +7642,7 @@
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E274">
@@ -7668,7 +7668,7 @@
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E275">
@@ -7694,7 +7694,7 @@
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E276">
@@ -7746,7 +7746,7 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E278">
@@ -7798,7 +7798,7 @@
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E280">
@@ -7824,7 +7824,7 @@
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E281">
@@ -7876,7 +7876,7 @@
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E283">
@@ -7902,7 +7902,7 @@
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E284">
@@ -7928,7 +7928,7 @@
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E285">
@@ -7954,7 +7954,7 @@
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E286">
@@ -8006,7 +8006,7 @@
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E288">
@@ -8058,7 +8058,7 @@
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E290">
@@ -8110,7 +8110,7 @@
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E292">
@@ -8162,7 +8162,7 @@
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E294">
@@ -8188,7 +8188,7 @@
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E295">
@@ -8214,7 +8214,7 @@
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E296">
@@ -8240,7 +8240,7 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E297">
@@ -8292,7 +8292,7 @@
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E299">
@@ -8370,7 +8370,7 @@
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E302">
@@ -8396,7 +8396,7 @@
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E303">
@@ -8422,7 +8422,7 @@
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E304">
@@ -8448,7 +8448,7 @@
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E305">
@@ -8474,7 +8474,7 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E306">
@@ -8578,7 +8578,7 @@
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E310">
@@ -8604,7 +8604,7 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E311">
@@ -8630,7 +8630,7 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E312">
@@ -8734,7 +8734,7 @@
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E316">
@@ -8760,7 +8760,7 @@
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E317">
@@ -8786,7 +8786,7 @@
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E318">
@@ -8812,7 +8812,7 @@
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E319">
@@ -8838,7 +8838,7 @@
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E320">
@@ -8916,7 +8916,7 @@
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E323">
@@ -8942,7 +8942,7 @@
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E324">
@@ -8994,7 +8994,7 @@
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E326">
@@ -9020,7 +9020,7 @@
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E327">
@@ -9072,7 +9072,7 @@
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E329">
@@ -9098,7 +9098,7 @@
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E330">
@@ -9124,7 +9124,7 @@
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E331">
@@ -9150,7 +9150,7 @@
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E332">
@@ -9176,7 +9176,7 @@
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E333">
@@ -9202,7 +9202,7 @@
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E334">
@@ -9254,7 +9254,7 @@
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E336">
@@ -9306,7 +9306,7 @@
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E338">
@@ -9332,7 +9332,7 @@
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E339">
@@ -9384,7 +9384,7 @@
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E341">
@@ -9436,7 +9436,7 @@
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E343">
@@ -9592,7 +9592,7 @@
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E349">
@@ -9670,7 +9670,7 @@
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E352">
@@ -9696,7 +9696,7 @@
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E353">
@@ -9722,7 +9722,7 @@
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E354">
@@ -9748,7 +9748,7 @@
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E355">
@@ -9774,7 +9774,7 @@
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E356">
@@ -9826,7 +9826,7 @@
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E358">
@@ -9852,7 +9852,7 @@
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E359">
@@ -9878,7 +9878,7 @@
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E360">
@@ -9956,7 +9956,7 @@
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E363">
@@ -9982,7 +9982,7 @@
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E364">
@@ -10008,7 +10008,7 @@
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E365">
@@ -10034,7 +10034,7 @@
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E366">
@@ -10060,7 +10060,7 @@
       </c>
       <c r="D367" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E367">
@@ -10086,7 +10086,7 @@
       </c>
       <c r="D368" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E368">
@@ -10112,7 +10112,7 @@
       </c>
       <c r="D369" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E369">
@@ -10138,7 +10138,7 @@
       </c>
       <c r="D370" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E370">
@@ -10190,7 +10190,7 @@
       </c>
       <c r="D372" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E372">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="D373" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E373">
@@ -10242,7 +10242,7 @@
       </c>
       <c r="D374" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E374">
@@ -10268,7 +10268,7 @@
       </c>
       <c r="D375" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E375">
@@ -10294,7 +10294,7 @@
       </c>
       <c r="D376" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E376">
@@ -10320,7 +10320,7 @@
       </c>
       <c r="D377" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E377">
@@ -10346,7 +10346,7 @@
       </c>
       <c r="D378" t="inlineStr">
         <is>
-          <t>Not Supported</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E378">
@@ -10372,7 +10372,7 @@
       </c>
       <c r="D379" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>Not Supported</t>
         </is>
       </c>
       <c r="E379">
@@ -10476,7 +10476,7 @@
       </c>
       <c r="D383" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E383">
@@ -10528,7 +10528,7 @@
       </c>
       <c r="D385" t="inlineStr">
         <is>
-          <t>Limited Availability</t>
+          <t>General Availability</t>
         </is>
       </c>
       <c r="E385">
@@ -10554,7 +10554,7 @@
       </c>
       <c r="D386" t="inlineStr">
         <is>
-          <t>General Availability</t>
+          <t>Limited Availability</t>
         </is>
       </c>
       <c r="E386">
@@ -11133,19 +11133,19 @@
         </is>
       </c>
       <c r="B8" s="6">
-        <f>IF((IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A8, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A8, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A8, Service_Input!$E:$E, 0))="General Availability",1,0))=3, "Full Support (In-Region)", IF((IF(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"SSA-LLM",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"General Availability")&gt;=1,1,0))=3, "Full Support (Cross-Region)", IF(((IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A8, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A8, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"SSA-LLM",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A8, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"General Availability")&gt;=1),1,0))/3)&gt;=0.7, "Limited Availability", "Not Supported")))</f>
+        <f>IF((IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A8, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A8, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A8, Service_Input!$E:$E, 0))="General Availability",1,0))=3, "Full Support (In-Region)", IF((IF(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"SSA-LLM",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"General Availability")&gt;=1,1,0))=3, "Full Support (Cross-Region)", IF(((IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A8, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A8, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"SSA-LLM",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A8, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"General Availability")&gt;=1),1,0))/3)&gt;=0.5, "Limited Availability", "Not Supported")))</f>
         <v/>
       </c>
       <c r="C8" s="6">
-        <f>IF((IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A8, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A8, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A8, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A8, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A8, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A8, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A8, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A8, Service_Input!$E:$E, 0))="General Availability",1,0))=8, "Full Support (In-Region)", IF((IF(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Intent (UniFit)",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Entity (NER/Spacy)",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Gen AI Summary",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Pro-active Service",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"General Availability")&gt;=1,1,0))=8, "Full Support (Cross-Region)", IF(((IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A8, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A8, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Intent (UniFit)",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A8, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Entity (NER/Spacy)",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A8, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Gen AI Summary",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A8, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A8, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A8, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A8, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Pro-active Service",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"General Availability")&gt;=1),1,0))/8)&gt;=0.7, "Limited Availability", "Not Supported")))</f>
+        <f>IF((IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A8, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A8, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A8, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A8, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A8, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A8, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A8, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A8, Service_Input!$E:$E, 0))="General Availability",1,0))=8, "Full Support (In-Region)", IF((IF(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Intent (UniFit)",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Entity (NER/Spacy)",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Gen AI Summary",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Pro-active Service",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"General Availability")&gt;=1,1,0))=8, "Full Support (Cross-Region)", IF(((IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A8, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A8, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Intent (UniFit)",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A8, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Entity (NER/Spacy)",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A8, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Gen AI Summary",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A8, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A8, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A8, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A8, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Pro-active Service",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"General Availability")&gt;=1),1,0))/8)&gt;=0.5, "Limited Availability", "Not Supported")))</f>
         <v/>
       </c>
       <c r="D8" s="6">
-        <f>IF((IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A8, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A8, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A8, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A8, Service_Input!$E:$E, 0))="General Availability",1,0))=4, "Full Support (In-Region)", IF((IF(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Conversation Facts",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"General Availability")&gt;=1,1,0))=4, "Full Support (Cross-Region)", IF(((IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A8, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A8, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A8, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A8, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Conversation Facts",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"General Availability")&gt;=1),1,0))/4)&gt;=0.7, "Limited Availability", "Not Supported")))</f>
+        <f>IF((IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A8, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A8, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A8, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A8, Service_Input!$E:$E, 0))="General Availability",1,0))=4, "Full Support (In-Region)", IF((IF(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Conversation Facts",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"General Availability")&gt;=1,1,0))=4, "Full Support (Cross-Region)", IF(((IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A8, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A8, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A8, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A8, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Conversation Facts",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"General Availability")&gt;=1),1,0))/4)&gt;=0.5, "Limited Availability", "Not Supported")))</f>
         <v/>
       </c>
       <c r="E8" s="6">
-        <f>IF((IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A8, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A8, Service_Input!$E:$E, 0))="General Availability",1,0))=2, "Full Support (In-Region)", IF((IF(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"General Availability")&gt;=1,1,0))=2, "Full Support (Cross-Region)", IF(((IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A8, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A8, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"General Availability")&gt;=1),1,0))/2)&gt;=0.7, "Limited Availability", "Not Supported")))</f>
+        <f>IF((IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A8, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A8, Service_Input!$E:$E, 0))="General Availability",1,0))=2, "Full Support (In-Region)", IF((IF(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"General Availability")&gt;=1,1,0))=2, "Full Support (Cross-Region)", IF(((IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A8, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A8, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A8, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A8,Service_Input!$D:$D,"General Availability")&gt;=1),1,0))/2)&gt;=0.5, "Limited Availability", "Not Supported")))</f>
         <v/>
       </c>
     </row>
@@ -11156,19 +11156,19 @@
         </is>
       </c>
       <c r="B9" s="6">
-        <f>IF((IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A9, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A9, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A9, Service_Input!$E:$E, 0))="General Availability",1,0))=3, "Full Support (In-Region)", IF((IF(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"SSA-LLM",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"General Availability")&gt;=1,1,0))=3, "Full Support (Cross-Region)", IF(((IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A9, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A9, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"SSA-LLM",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A9, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"General Availability")&gt;=1),1,0))/3)&gt;=0.7, "Limited Availability", "Not Supported")))</f>
+        <f>IF((IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A9, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A9, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A9, Service_Input!$E:$E, 0))="General Availability",1,0))=3, "Full Support (In-Region)", IF((IF(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"SSA-LLM",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"General Availability")&gt;=1,1,0))=3, "Full Support (Cross-Region)", IF(((IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A9, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A9, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"SSA-LLM",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A9, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"General Availability")&gt;=1),1,0))/3)&gt;=0.5, "Limited Availability", "Not Supported")))</f>
         <v/>
       </c>
       <c r="C9" s="6">
-        <f>IF((IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A9, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A9, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A9, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A9, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A9, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A9, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A9, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A9, Service_Input!$E:$E, 0))="General Availability",1,0))=8, "Full Support (In-Region)", IF((IF(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Intent (UniFit)",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Entity (NER/Spacy)",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Gen AI Summary",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Pro-active Service",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"General Availability")&gt;=1,1,0))=8, "Full Support (Cross-Region)", IF(((IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A9, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A9, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Intent (UniFit)",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A9, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Entity (NER/Spacy)",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A9, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Gen AI Summary",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A9, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A9, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A9, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A9, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Pro-active Service",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"General Availability")&gt;=1),1,0))/8)&gt;=0.7, "Limited Availability", "Not Supported")))</f>
+        <f>IF((IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A9, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A9, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A9, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A9, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A9, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A9, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A9, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A9, Service_Input!$E:$E, 0))="General Availability",1,0))=8, "Full Support (In-Region)", IF((IF(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Intent (UniFit)",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Entity (NER/Spacy)",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Gen AI Summary",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Pro-active Service",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"General Availability")&gt;=1,1,0))=8, "Full Support (Cross-Region)", IF(((IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A9, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A9, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Intent (UniFit)",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A9, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Entity (NER/Spacy)",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A9, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Gen AI Summary",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A9, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A9, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A9, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A9, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Pro-active Service",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"General Availability")&gt;=1),1,0))/8)&gt;=0.5, "Limited Availability", "Not Supported")))</f>
         <v/>
       </c>
       <c r="D9" s="6">
-        <f>IF((IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A9, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A9, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A9, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A9, Service_Input!$E:$E, 0))="General Availability",1,0))=4, "Full Support (In-Region)", IF((IF(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Conversation Facts",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"General Availability")&gt;=1,1,0))=4, "Full Support (Cross-Region)", IF(((IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A9, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A9, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A9, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A9, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Conversation Facts",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"General Availability")&gt;=1),1,0))/4)&gt;=0.7, "Limited Availability", "Not Supported")))</f>
+        <f>IF((IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A9, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A9, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A9, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A9, Service_Input!$E:$E, 0))="General Availability",1,0))=4, "Full Support (In-Region)", IF((IF(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Conversation Facts",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"General Availability")&gt;=1,1,0))=4, "Full Support (Cross-Region)", IF(((IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A9, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A9, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A9, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A9, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Conversation Facts",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"General Availability")&gt;=1),1,0))/4)&gt;=0.5, "Limited Availability", "Not Supported")))</f>
         <v/>
       </c>
       <c r="E9" s="6">
-        <f>IF((IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A9, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A9, Service_Input!$E:$E, 0))="General Availability",1,0))=2, "Full Support (In-Region)", IF((IF(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"General Availability")&gt;=1,1,0))=2, "Full Support (Cross-Region)", IF(((IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A9, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A9, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"General Availability")&gt;=1),1,0))/2)&gt;=0.7, "Limited Availability", "Not Supported")))</f>
+        <f>IF((IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A9, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A9, Service_Input!$E:$E, 0))="General Availability",1,0))=2, "Full Support (In-Region)", IF((IF(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"General Availability")&gt;=1,1,0))=2, "Full Support (Cross-Region)", IF(((IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A9, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A9, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A9, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A9,Service_Input!$D:$D,"General Availability")&gt;=1),1,0))/2)&gt;=0.5, "Limited Availability", "Not Supported")))</f>
         <v/>
       </c>
     </row>
@@ -11179,19 +11179,19 @@
         </is>
       </c>
       <c r="B10" s="6">
-        <f>IF((IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A10, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A10, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A10, Service_Input!$E:$E, 0))="General Availability",1,0))=3, "Full Support (In-Region)", IF((IF(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"SSA-LLM",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"General Availability")&gt;=1,1,0))=3, "Full Support (Cross-Region)", IF(((IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A10, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A10, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"SSA-LLM",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A10, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"General Availability")&gt;=1),1,0))/3)&gt;=0.7, "Limited Availability", "Not Supported")))</f>
+        <f>IF((IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A10, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A10, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A10, Service_Input!$E:$E, 0))="General Availability",1,0))=3, "Full Support (In-Region)", IF((IF(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"SSA-LLM",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"General Availability")&gt;=1,1,0))=3, "Full Support (Cross-Region)", IF(((IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A10, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A10, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"SSA-LLM",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A10, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"General Availability")&gt;=1),1,0))/3)&gt;=0.5, "Limited Availability", "Not Supported")))</f>
         <v/>
       </c>
       <c r="C10" s="6">
-        <f>IF((IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A10, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A10, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A10, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A10, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A10, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A10, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A10, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A10, Service_Input!$E:$E, 0))="General Availability",1,0))=8, "Full Support (In-Region)", IF((IF(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Intent (UniFit)",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Entity (NER/Spacy)",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Gen AI Summary",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Pro-active Service",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"General Availability")&gt;=1,1,0))=8, "Full Support (Cross-Region)", IF(((IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A10, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A10, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Intent (UniFit)",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A10, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Entity (NER/Spacy)",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A10, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Gen AI Summary",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A10, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A10, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A10, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A10, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Pro-active Service",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"General Availability")&gt;=1),1,0))/8)&gt;=0.7, "Limited Availability", "Not Supported")))</f>
+        <f>IF((IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A10, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A10, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A10, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A10, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A10, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A10, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A10, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A10, Service_Input!$E:$E, 0))="General Availability",1,0))=8, "Full Support (In-Region)", IF((IF(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Intent (UniFit)",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Entity (NER/Spacy)",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Gen AI Summary",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Pro-active Service",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"General Availability")&gt;=1,1,0))=8, "Full Support (Cross-Region)", IF(((IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A10, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A10, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Intent (UniFit)",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A10, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Entity (NER/Spacy)",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A10, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Gen AI Summary",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A10, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A10, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A10, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A10, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Pro-active Service",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"General Availability")&gt;=1),1,0))/8)&gt;=0.5, "Limited Availability", "Not Supported")))</f>
         <v/>
       </c>
       <c r="D10" s="6">
-        <f>IF((IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A10, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A10, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A10, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A10, Service_Input!$E:$E, 0))="General Availability",1,0))=4, "Full Support (In-Region)", IF((IF(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Conversation Facts",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"General Availability")&gt;=1,1,0))=4, "Full Support (Cross-Region)", IF(((IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A10, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A10, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A10, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A10, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Conversation Facts",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"General Availability")&gt;=1),1,0))/4)&gt;=0.7, "Limited Availability", "Not Supported")))</f>
+        <f>IF((IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A10, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A10, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A10, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A10, Service_Input!$E:$E, 0))="General Availability",1,0))=4, "Full Support (In-Region)", IF((IF(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Conversation Facts",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"General Availability")&gt;=1,1,0))=4, "Full Support (Cross-Region)", IF(((IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A10, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A10, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A10, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A10, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Conversation Facts",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"General Availability")&gt;=1),1,0))/4)&gt;=0.5, "Limited Availability", "Not Supported")))</f>
         <v/>
       </c>
       <c r="E10" s="6">
-        <f>IF((IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A10, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A10, Service_Input!$E:$E, 0))="General Availability",1,0))=2, "Full Support (In-Region)", IF((IF(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"General Availability")&gt;=1,1,0))=2, "Full Support (Cross-Region)", IF(((IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A10, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A10, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"General Availability")&gt;=1),1,0))/2)&gt;=0.7, "Limited Availability", "Not Supported")))</f>
+        <f>IF((IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A10, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A10, Service_Input!$E:$E, 0))="General Availability",1,0))=2, "Full Support (In-Region)", IF((IF(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"General Availability")&gt;=1,1,0))=2, "Full Support (Cross-Region)", IF(((IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A10, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A10, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A10, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A10,Service_Input!$D:$D,"General Availability")&gt;=1),1,0))/2)&gt;=0.5, "Limited Availability", "Not Supported")))</f>
         <v/>
       </c>
     </row>
@@ -11202,19 +11202,19 @@
         </is>
       </c>
       <c r="B11" s="6">
-        <f>IF((IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A11, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A11, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A11, Service_Input!$E:$E, 0))="General Availability",1,0))=3, "Full Support (In-Region)", IF((IF(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"SSA-LLM",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"General Availability")&gt;=1,1,0))=3, "Full Support (Cross-Region)", IF(((IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A11, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A11, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"SSA-LLM",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A11, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"General Availability")&gt;=1),1,0))/3)&gt;=0.7, "Limited Availability", "Not Supported")))</f>
+        <f>IF((IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A11, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A11, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A11, Service_Input!$E:$E, 0))="General Availability",1,0))=3, "Full Support (In-Region)", IF((IF(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"SSA-LLM",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"General Availability")&gt;=1,1,0))=3, "Full Support (Cross-Region)", IF(((IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A11, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A11, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"SSA-LLM",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A11, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"General Availability")&gt;=1),1,0))/3)&gt;=0.5, "Limited Availability", "Not Supported")))</f>
         <v/>
       </c>
       <c r="C11" s="6">
-        <f>IF((IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A11, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A11, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A11, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A11, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A11, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A11, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A11, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A11, Service_Input!$E:$E, 0))="General Availability",1,0))=8, "Full Support (In-Region)", IF((IF(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Intent (UniFit)",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Entity (NER/Spacy)",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Gen AI Summary",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Pro-active Service",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"General Availability")&gt;=1,1,0))=8, "Full Support (Cross-Region)", IF(((IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A11, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A11, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Intent (UniFit)",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A11, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Entity (NER/Spacy)",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A11, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Gen AI Summary",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A11, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A11, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A11, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A11, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Pro-active Service",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"General Availability")&gt;=1),1,0))/8)&gt;=0.7, "Limited Availability", "Not Supported")))</f>
+        <f>IF((IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A11, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A11, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A11, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A11, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A11, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A11, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A11, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A11, Service_Input!$E:$E, 0))="General Availability",1,0))=8, "Full Support (In-Region)", IF((IF(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Intent (UniFit)",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Entity (NER/Spacy)",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Gen AI Summary",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Pro-active Service",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"General Availability")&gt;=1,1,0))=8, "Full Support (Cross-Region)", IF(((IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A11, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A11, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Intent (UniFit)",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A11, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Entity (NER/Spacy)",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A11, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Gen AI Summary",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A11, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A11, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A11, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A11, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Pro-active Service",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"General Availability")&gt;=1),1,0))/8)&gt;=0.5, "Limited Availability", "Not Supported")))</f>
         <v/>
       </c>
       <c r="D11" s="6">
-        <f>IF((IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A11, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A11, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A11, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A11, Service_Input!$E:$E, 0))="General Availability",1,0))=4, "Full Support (In-Region)", IF((IF(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Conversation Facts",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"General Availability")&gt;=1,1,0))=4, "Full Support (Cross-Region)", IF(((IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A11, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A11, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A11, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A11, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Conversation Facts",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"General Availability")&gt;=1),1,0))/4)&gt;=0.7, "Limited Availability", "Not Supported")))</f>
+        <f>IF((IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A11, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A11, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A11, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A11, Service_Input!$E:$E, 0))="General Availability",1,0))=4, "Full Support (In-Region)", IF((IF(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Conversation Facts",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"General Availability")&gt;=1,1,0))=4, "Full Support (Cross-Region)", IF(((IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A11, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A11, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A11, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A11, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Conversation Facts",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"General Availability")&gt;=1),1,0))/4)&gt;=0.5, "Limited Availability", "Not Supported")))</f>
         <v/>
       </c>
       <c r="E11" s="6">
-        <f>IF((IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A11, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A11, Service_Input!$E:$E, 0))="General Availability",1,0))=2, "Full Support (In-Region)", IF((IF(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"General Availability")&gt;=1,1,0))=2, "Full Support (Cross-Region)", IF(((IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A11, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A11, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"General Availability")&gt;=1),1,0))/2)&gt;=0.7, "Limited Availability", "Not Supported")))</f>
+        <f>IF((IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A11, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A11, Service_Input!$E:$E, 0))="General Availability",1,0))=2, "Full Support (In-Region)", IF((IF(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"General Availability")&gt;=1,1,0))=2, "Full Support (Cross-Region)", IF(((IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A11, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A11, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A11, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A11,Service_Input!$D:$D,"General Availability")&gt;=1),1,0))/2)&gt;=0.5, "Limited Availability", "Not Supported")))</f>
         <v/>
       </c>
     </row>
@@ -11225,19 +11225,19 @@
         </is>
       </c>
       <c r="B12" s="6">
-        <f>IF((IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A12, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A12, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A12, Service_Input!$E:$E, 0))="General Availability",1,0))=3, "Full Support (In-Region)", IF((IF(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"SSA-LLM",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"General Availability")&gt;=1,1,0))=3, "Full Support (Cross-Region)", IF(((IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A12, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A12, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"SSA-LLM",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A12, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"General Availability")&gt;=1),1,0))/3)&gt;=0.7, "Limited Availability", "Not Supported")))</f>
+        <f>IF((IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A12, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A12, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A12, Service_Input!$E:$E, 0))="General Availability",1,0))=3, "Full Support (In-Region)", IF((IF(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"SSA-LLM",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"General Availability")&gt;=1,1,0))=3, "Full Support (Cross-Region)", IF(((IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A12, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A12, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"SSA-LLM",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A12, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"General Availability")&gt;=1),1,0))/3)&gt;=0.5, "Limited Availability", "Not Supported")))</f>
         <v/>
       </c>
       <c r="C12" s="6">
-        <f>IF((IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A12, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A12, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A12, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A12, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A12, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A12, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A12, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A12, Service_Input!$E:$E, 0))="General Availability",1,0))=8, "Full Support (In-Region)", IF((IF(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Intent (UniFit)",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Entity (NER/Spacy)",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Gen AI Summary",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Pro-active Service",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"General Availability")&gt;=1,1,0))=8, "Full Support (Cross-Region)", IF(((IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A12, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A12, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Intent (UniFit)",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A12, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Entity (NER/Spacy)",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A12, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Gen AI Summary",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A12, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A12, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A12, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A12, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Pro-active Service",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"General Availability")&gt;=1),1,0))/8)&gt;=0.7, "Limited Availability", "Not Supported")))</f>
+        <f>IF((IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A12, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A12, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A12, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A12, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A12, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A12, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A12, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A12, Service_Input!$E:$E, 0))="General Availability",1,0))=8, "Full Support (In-Region)", IF((IF(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Intent (UniFit)",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Entity (NER/Spacy)",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Gen AI Summary",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Pro-active Service",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"General Availability")&gt;=1,1,0))=8, "Full Support (Cross-Region)", IF(((IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A12, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A12, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Intent (UniFit)",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A12, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Entity (NER/Spacy)",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A12, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Gen AI Summary",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A12, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A12, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A12, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A12, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Pro-active Service",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"General Availability")&gt;=1),1,0))/8)&gt;=0.5, "Limited Availability", "Not Supported")))</f>
         <v/>
       </c>
       <c r="D12" s="6">
-        <f>IF((IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A12, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A12, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A12, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A12, Service_Input!$E:$E, 0))="General Availability",1,0))=4, "Full Support (In-Region)", IF((IF(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Conversation Facts",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"General Availability")&gt;=1,1,0))=4, "Full Support (Cross-Region)", IF(((IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A12, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A12, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A12, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A12, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Conversation Facts",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"General Availability")&gt;=1),1,0))/4)&gt;=0.7, "Limited Availability", "Not Supported")))</f>
+        <f>IF((IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A12, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A12, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A12, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A12, Service_Input!$E:$E, 0))="General Availability",1,0))=4, "Full Support (In-Region)", IF((IF(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Conversation Facts",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"General Availability")&gt;=1,1,0))=4, "Full Support (Cross-Region)", IF(((IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A12, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A12, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A12, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A12, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Conversation Facts",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"General Availability")&gt;=1),1,0))/4)&gt;=0.5, "Limited Availability", "Not Supported")))</f>
         <v/>
       </c>
       <c r="E12" s="6">
-        <f>IF((IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A12, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A12, Service_Input!$E:$E, 0))="General Availability",1,0))=2, "Full Support (In-Region)", IF((IF(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"General Availability")&gt;=1,1,0))=2, "Full Support (Cross-Region)", IF(((IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A12, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A12, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"General Availability")&gt;=1),1,0))/2)&gt;=0.7, "Limited Availability", "Not Supported")))</f>
+        <f>IF((IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A12, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A12, Service_Input!$E:$E, 0))="General Availability",1,0))=2, "Full Support (In-Region)", IF((IF(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"General Availability")&gt;=1,1,0))=2, "Full Support (Cross-Region)", IF(((IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A12, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A12, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A12, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A12,Service_Input!$D:$D,"General Availability")&gt;=1),1,0))/2)&gt;=0.5, "Limited Availability", "Not Supported")))</f>
         <v/>
       </c>
     </row>
@@ -11248,19 +11248,19 @@
         </is>
       </c>
       <c r="B13" s="6">
-        <f>IF((IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A13, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A13, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A13, Service_Input!$E:$E, 0))="General Availability",1,0))=3, "Full Support (In-Region)", IF((IF(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"SSA-LLM",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"General Availability")&gt;=1,1,0))=3, "Full Support (Cross-Region)", IF(((IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A13, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A13, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"SSA-LLM",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A13, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"General Availability")&gt;=1),1,0))/3)&gt;=0.7, "Limited Availability", "Not Supported")))</f>
+        <f>IF((IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A13, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A13, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A13, Service_Input!$E:$E, 0))="General Availability",1,0))=3, "Full Support (In-Region)", IF((IF(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"SSA-LLM",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"General Availability")&gt;=1,1,0))=3, "Full Support (Cross-Region)", IF(((IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A13, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A13, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"SSA-LLM",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A13, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"General Availability")&gt;=1),1,0))/3)&gt;=0.5, "Limited Availability", "Not Supported")))</f>
         <v/>
       </c>
       <c r="C13" s="6">
-        <f>IF((IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A13, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A13, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A13, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A13, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A13, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A13, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A13, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A13, Service_Input!$E:$E, 0))="General Availability",1,0))=8, "Full Support (In-Region)", IF((IF(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Intent (UniFit)",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Entity (NER/Spacy)",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Gen AI Summary",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Pro-active Service",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"General Availability")&gt;=1,1,0))=8, "Full Support (Cross-Region)", IF(((IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A13, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A13, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Intent (UniFit)",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A13, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Entity (NER/Spacy)",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A13, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Gen AI Summary",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A13, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A13, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A13, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A13, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Pro-active Service",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"General Availability")&gt;=1),1,0))/8)&gt;=0.7, "Limited Availability", "Not Supported")))</f>
+        <f>IF((IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A13, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A13, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A13, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A13, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A13, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A13, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A13, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A13, Service_Input!$E:$E, 0))="General Availability",1,0))=8, "Full Support (In-Region)", IF((IF(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Intent (UniFit)",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Entity (NER/Spacy)",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Gen AI Summary",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Pro-active Service",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"General Availability")&gt;=1,1,0))=8, "Full Support (Cross-Region)", IF(((IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A13, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A13, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Intent (UniFit)",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A13, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Entity (NER/Spacy)",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A13, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Gen AI Summary",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A13, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A13, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A13, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A13, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Pro-active Service",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"General Availability")&gt;=1),1,0))/8)&gt;=0.5, "Limited Availability", "Not Supported")))</f>
         <v/>
       </c>
       <c r="D13" s="6">
-        <f>IF((IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A13, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A13, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A13, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A13, Service_Input!$E:$E, 0))="General Availability",1,0))=4, "Full Support (In-Region)", IF((IF(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Conversation Facts",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"General Availability")&gt;=1,1,0))=4, "Full Support (Cross-Region)", IF(((IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A13, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A13, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A13, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A13, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Conversation Facts",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"General Availability")&gt;=1),1,0))/4)&gt;=0.7, "Limited Availability", "Not Supported")))</f>
+        <f>IF((IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A13, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A13, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A13, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A13, Service_Input!$E:$E, 0))="General Availability",1,0))=4, "Full Support (In-Region)", IF((IF(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Conversation Facts",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"General Availability")&gt;=1,1,0))=4, "Full Support (Cross-Region)", IF(((IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A13, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A13, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A13, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A13, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Conversation Facts",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"General Availability")&gt;=1),1,0))/4)&gt;=0.5, "Limited Availability", "Not Supported")))</f>
         <v/>
       </c>
       <c r="E13" s="6">
-        <f>IF((IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A13, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A13, Service_Input!$E:$E, 0))="General Availability",1,0))=2, "Full Support (In-Region)", IF((IF(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"General Availability")&gt;=1,1,0))=2, "Full Support (Cross-Region)", IF(((IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A13, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A13, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"General Availability")&gt;=1),1,0))/2)&gt;=0.7, "Limited Availability", "Not Supported")))</f>
+        <f>IF((IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A13, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A13, Service_Input!$E:$E, 0))="General Availability",1,0))=2, "Full Support (In-Region)", IF((IF(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"General Availability")&gt;=1,1,0))=2, "Full Support (Cross-Region)", IF(((IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A13, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A13, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A13, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A13,Service_Input!$D:$D,"General Availability")&gt;=1),1,0))/2)&gt;=0.5, "Limited Availability", "Not Supported")))</f>
         <v/>
       </c>
     </row>
@@ -11271,19 +11271,19 @@
         </is>
       </c>
       <c r="B14" s="6">
-        <f>IF((IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A14, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A14, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A14, Service_Input!$E:$E, 0))="General Availability",1,0))=3, "Full Support (In-Region)", IF((IF(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"SSA-LLM",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"General Availability")&gt;=1,1,0))=3, "Full Support (Cross-Region)", IF(((IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A14, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A14, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"SSA-LLM",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A14, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"General Availability")&gt;=1),1,0))/3)&gt;=0.7, "Limited Availability", "Not Supported")))</f>
+        <f>IF((IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A14, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A14, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A14, Service_Input!$E:$E, 0))="General Availability",1,0))=3, "Full Support (In-Region)", IF((IF(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"SSA-LLM",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"General Availability")&gt;=1,1,0))=3, "Full Support (Cross-Region)", IF(((IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A14, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A14, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|SSA-LLM|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"SSA-LLM",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A14, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"General Availability")&gt;=1),1,0))/3)&gt;=0.5, "Limited Availability", "Not Supported")))</f>
         <v/>
       </c>
       <c r="C14" s="6">
-        <f>IF((IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A14, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A14, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A14, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A14, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A14, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A14, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A14, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A14, Service_Input!$E:$E, 0))="General Availability",1,0))=8, "Full Support (In-Region)", IF((IF(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Intent (UniFit)",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Entity (NER/Spacy)",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Gen AI Summary",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Pro-active Service",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"General Availability")&gt;=1,1,0))=8, "Full Support (Cross-Region)", IF(((IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A14, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A14, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Intent (UniFit)",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A14, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Entity (NER/Spacy)",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A14, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Gen AI Summary",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A14, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A14, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A14, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A14, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Pro-active Service",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"General Availability")&gt;=1),1,0))/8)&gt;=0.7, "Limited Availability", "Not Supported")))</f>
+        <f>IF((IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A14, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A14, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A14, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A14, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A14, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A14, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A14, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A14, Service_Input!$E:$E, 0))="General Availability",1,0))=8, "Full Support (In-Region)", IF((IF(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Intent (UniFit)",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Entity (NER/Spacy)",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Gen AI Summary",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Pro-active Service",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"General Availability")&gt;=1,1,0))=8, "Full Support (Cross-Region)", IF(((IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A14, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A14, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Intent (UniFit)|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Intent (UniFit)",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A14, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Entity (NER/Spacy)|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Entity (NER/Spacy)",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A14, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Summary|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Gen AI Summary",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A14, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A14, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A14, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|KaaS|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"KaaS",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A14, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Pro-active Service|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Pro-active Service",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"General Availability")&gt;=1),1,0))/8)&gt;=0.5, "Limited Availability", "Not Supported")))</f>
         <v/>
       </c>
       <c r="D14" s="6">
-        <f>IF((IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A14, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A14, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A14, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A14, Service_Input!$E:$E, 0))="General Availability",1,0))=4, "Full Support (In-Region)", IF((IF(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Conversation Facts",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"General Availability")&gt;=1,1,0))=4, "Full Support (Cross-Region)", IF(((IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A14, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A14, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A14, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A14, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Conversation Facts",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"General Availability")&gt;=1),1,0))/4)&gt;=0.7, "Limited Availability", "Not Supported")))</f>
+        <f>IF((IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A14, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A14, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A14, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A14, Service_Input!$E:$E, 0))="General Availability",1,0))=4, "Full Support (In-Region)", IF((IF(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Conversation Facts",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"General Availability")&gt;=1,1,0))=4, "Full Support (Cross-Region)", IF(((IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A14, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A14, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Gen AI Disposition|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Gen AI Disposition",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A14, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A14, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Conversation Facts|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Conversation Facts",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"General Availability")&gt;=1),1,0))/4)&gt;=0.5, "Limited Availability", "Not Supported")))</f>
         <v/>
       </c>
       <c r="E14" s="6">
-        <f>IF((IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A14, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A14, Service_Input!$E:$E, 0))="General Availability",1,0))=2, "Full Support (In-Region)", IF((IF(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"General Availability")&gt;=1,1,0))=2, "Full Support (Cross-Region)", IF(((IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A14, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A14, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"General Availability")&gt;=1),1,0))/2)&gt;=0.7, "Limited Availability", "Not Supported")))</f>
+        <f>IF((IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A14, Service_Input!$E:$E, 0))="General Availability",1,0)+IF(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A14, Service_Input!$E:$E, 0))="General Availability",1,0))=2, "Full Support (In-Region)", IF((IF(COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"General Availability")&gt;=1,1,0)+IF(COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"General Availability")&gt;=1,1,0))=2, "Full Support (Cross-Region)", IF(((IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A14, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|ASR|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"ASR",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"General Availability")&gt;=1),1,0)+IF(OR(INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A14, Service_Input!$E:$E, 0))="General Availability",INDEX(Service_Input!$D:$D, MATCH($C$4&amp;"|Redaction|"&amp;$A14, Service_Input!$E:$E, 0))="Limited Availability",COUNTIFS(Service_Input!$B:$B,"Redaction",Service_Input!$C:$C,$A14,Service_Input!$D:$D,"General Availability")&gt;=1),1,0))/2)&gt;=0.5, "Limited Availability", "Not Supported")))</f>
         <v/>
       </c>
     </row>
